--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3469CB-5C62-694F-B8FD-866D4E84185F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9023269-DCFF-B242-836E-ABB5DD8EAC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="16580" activeTab="8" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,15 @@
     <sheet name="README" sheetId="4" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Active!$B$74,Active!$B$79,Active!$B$81,Active!$B$82</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Active!$B$80,Active!$B$85,Active!$B$87,Active!$B$88</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'Figure 3'!$B$74,'Figure 3'!$B$79,'Figure 3'!$B$81,'Figure 3'!$B$82</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Active!$B$85</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Active!$B$91</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Figure 3'!$B$85</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Active!$F$52</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Active!$F$58</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Figure 3'!$F$52</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Active!$F$53</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Active!$F$59</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Figure 3'!$F$53</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
@@ -40,7 +40,7 @@
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Active!$F$51</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Active!$F$57</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'Figure 3'!$F$51</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="76">
   <si>
     <t>Sample Name</t>
   </si>
@@ -253,6 +253,63 @@
   </si>
   <si>
     <t>at/g</t>
+  </si>
+  <si>
+    <t>Nuclide</t>
+  </si>
+  <si>
+    <t>Atmospheric conversion</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Plate</t>
+  </si>
+  <si>
+    <t>Nuclide-Mineral</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>3He in qtz</t>
+  </si>
+  <si>
+    <t>3He in pyx</t>
+  </si>
+  <si>
+    <t>3He in ol</t>
+  </si>
+  <si>
+    <t>21Ne in qtz</t>
+  </si>
+  <si>
+    <t>ERA40</t>
+  </si>
+  <si>
+    <t>Standard atmosphere</t>
+  </si>
+  <si>
+    <t>time in Ma</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>EU</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>ANT</t>
   </si>
 </sst>
 </file>
@@ -351,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,6 +450,7 @@
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -708,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39602BD4-AF2D-864A-8905-789D980EB8BD}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -727,9 +785,10 @@
     <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -760,348 +819,791 @@
       <c r="K1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2">
-        <v>75</v>
-      </c>
-      <c r="C2">
-        <v>40</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3">
-        <v>75</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5">
-        <v>75</v>
-      </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6">
-        <v>75</v>
-      </c>
-      <c r="C6">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7">
-        <v>75</v>
-      </c>
-      <c r="C7">
-        <v>40</v>
-      </c>
-      <c r="D7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8">
-        <v>75</v>
-      </c>
-      <c r="C8">
-        <v>40</v>
-      </c>
-      <c r="D8">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9">
-        <v>75</v>
-      </c>
-      <c r="C9">
-        <v>40</v>
-      </c>
-      <c r="D9">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10">
-        <v>75</v>
-      </c>
-      <c r="C10">
-        <v>40</v>
-      </c>
-      <c r="D10">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11">
-        <v>75</v>
-      </c>
-      <c r="C11">
-        <v>40</v>
-      </c>
-      <c r="D11">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>78</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>78</v>
-      </c>
-      <c r="D13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>78</v>
-      </c>
-      <c r="D14">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>78</v>
-      </c>
-      <c r="D15">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>78</v>
-      </c>
-      <c r="D16">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>78</v>
-      </c>
-      <c r="D17">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>78</v>
-      </c>
-      <c r="D18">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>78</v>
-      </c>
-      <c r="D19">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>78</v>
-      </c>
-      <c r="D20">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>78</v>
-      </c>
-      <c r="D21">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="E22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="E23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="E24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="9"/>
-      <c r="E25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="9"/>
-      <c r="E26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="9"/>
-      <c r="E27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="9"/>
+      <c r="M1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9">
+        <v>-19.578942000000001</v>
+      </c>
+      <c r="C2" s="9">
+        <v>-69.872967000000003</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1172</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
+        <f>65.91*10^7</f>
+        <v>659100000</v>
+      </c>
+      <c r="K2" s="1">
+        <f>1.2*10^7</f>
+        <v>12000000</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>25</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="10">
+        <v>-19.340944</v>
+      </c>
+      <c r="C3" s="10">
+        <v>-69.727999999999994</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1607</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2">
+        <f>74.48*10^7</f>
+        <v>744800000</v>
+      </c>
+      <c r="K3" s="2">
+        <f>2.33*10^7</f>
+        <v>23300000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="10">
+        <v>-19.340944</v>
+      </c>
+      <c r="C4" s="10">
+        <v>-69.727999999999994</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1607</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2">
+        <f>91.1*10^7</f>
+        <v>911000000</v>
+      </c>
+      <c r="K4" s="2">
+        <f>1.3*10^7</f>
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="10">
+        <v>-19.340944</v>
+      </c>
+      <c r="C5" s="10">
+        <v>-69.727999999999994</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1607</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2">
+        <f>167.12*10^7</f>
+        <v>1671200000</v>
+      </c>
+      <c r="K5" s="2">
+        <f>3.65*10^7</f>
+        <v>36500000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10">
+        <v>-19.336722000000002</v>
+      </c>
+      <c r="C6" s="10">
+        <v>-69.729611000000006</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1604</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="2">
+        <f>104.68*10^7</f>
+        <v>1046800000.0000001</v>
+      </c>
+      <c r="K6" s="2">
+        <f>2.24*10^7</f>
+        <v>22400000.000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="9">
+        <v>-18.886583000000002</v>
+      </c>
+      <c r="C7" s="9">
+        <v>-69.699055999999999</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2282</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="2">
+        <f>269.89*10^7</f>
+        <v>2698900000</v>
+      </c>
+      <c r="K7" s="7">
+        <f>4.73*10^7</f>
+        <v>47300000.000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="9">
+        <v>-18.886583000000002</v>
+      </c>
+      <c r="C8" s="9">
+        <v>-69.699055999999999</v>
+      </c>
+      <c r="D8" s="9">
+        <v>2282</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2">
+        <f>246.53*10^7</f>
+        <v>2465300000</v>
+      </c>
+      <c r="K8" s="7">
+        <f>4.29*10^7</f>
+        <v>42900000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="9">
+        <v>-18.905639000000001</v>
+      </c>
+      <c r="C9" s="9">
+        <v>-69.954583</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1443</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2">
+        <f>141.41*10^7</f>
+        <v>1414100000</v>
+      </c>
+      <c r="K9" s="7">
+        <f>2.52*10^7</f>
+        <v>25200000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9">
+        <v>-18.905639000000001</v>
+      </c>
+      <c r="C10" s="9">
+        <v>-69.954583</v>
+      </c>
+      <c r="D10" s="9">
+        <v>1443</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="2">
+        <f>164.8*10^7</f>
+        <v>1648000000</v>
+      </c>
+      <c r="K10" s="7">
+        <f>2.84*10^7</f>
+        <v>28400000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="9">
+        <v>-18.852694</v>
+      </c>
+      <c r="C11" s="9">
+        <v>-69.657167000000001</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2550</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2">
+        <f>235*10^7</f>
+        <v>2350000000</v>
+      </c>
+      <c r="K11" s="7">
+        <f>4.04*10^7</f>
+        <v>40400000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9">
+        <v>-20.704083000000001</v>
+      </c>
+      <c r="C12" s="9">
+        <v>-69.420833000000002</v>
+      </c>
+      <c r="D12" s="9">
+        <v>1084</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="2">
+        <f>90.19*10^7</f>
+        <v>901900000</v>
+      </c>
+      <c r="K12" s="7">
+        <f>1.97*10^7</f>
+        <v>19700000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="11">
+        <v>-19.786306</v>
+      </c>
+      <c r="C13" s="11">
+        <v>-69.682000000000002</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1289</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2">
+        <f>107.8*10^7</f>
+        <v>1078000000</v>
+      </c>
+      <c r="K13" s="2">
+        <f>2.77*10^7</f>
+        <v>27700000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="10">
+        <v>-19.786306</v>
+      </c>
+      <c r="C14" s="10">
+        <v>-69.682000000000002</v>
+      </c>
+      <c r="D14" s="10">
+        <v>1289</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2">
+        <f>102.49*10^7</f>
+        <v>1024900000</v>
+      </c>
+      <c r="K14" s="2">
+        <f>2.48*10^7</f>
+        <v>24800000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="10">
+        <v>-19.786306</v>
+      </c>
+      <c r="C15" s="10">
+        <v>-69.682000000000002</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1289</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="8">
+        <f>298.96*10^7</f>
+        <v>2989600000</v>
+      </c>
+      <c r="K15" s="2">
+        <f>3.2*10^7</f>
+        <v>32000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="10">
+        <v>-19.397832999999999</v>
+      </c>
+      <c r="C16" s="10">
+        <v>-69.880306000000004</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1256</v>
+      </c>
+      <c r="E16" s="1">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="2">
+        <f>194.23*10^7</f>
+        <v>1942300000</v>
+      </c>
+      <c r="K16" s="2">
+        <f>4.67*10^7</f>
+        <v>46700000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="10">
+        <v>-19.397832999999999</v>
+      </c>
+      <c r="C17" s="10">
+        <v>-69.880306000000004</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1256</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.74</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="2">
+        <f>310.26*10^7</f>
+        <v>3102600000</v>
+      </c>
+      <c r="K17" s="2">
+        <f>8.23*10^7</f>
+        <v>82300000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="10">
+        <v>-19.397832999999999</v>
+      </c>
+      <c r="C18" s="10">
+        <v>-69.880306000000004</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1256</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="2">
+        <f>269.16*10^7</f>
+        <v>2691600000.0000005</v>
+      </c>
+      <c r="K18" s="2">
+        <f>6.18*10^7</f>
+        <v>61800000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="9">
+        <v>-19.522110999999999</v>
+      </c>
+      <c r="C19" s="9">
+        <v>-69.808333000000005</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1312</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="2">
+        <f>277.15*10^7</f>
+        <v>2771500000</v>
+      </c>
+      <c r="K19" s="7">
+        <f>5.2*10^7</f>
+        <v>52000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="9">
+        <v>-19.522110999999999</v>
+      </c>
+      <c r="C20" s="9">
+        <v>-69.808333000000005</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1312</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="2">
+        <f>65.4*10^7</f>
+        <v>654000000</v>
+      </c>
+      <c r="K20" s="7">
+        <f>1.5*10^7</f>
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="12">
+        <v>-18.503527999999999</v>
+      </c>
+      <c r="C21" s="12">
+        <v>-70.143305999999995</v>
+      </c>
+      <c r="D21" s="12">
+        <v>771</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="2">
+        <f>41.29*10^7</f>
+        <v>412900000</v>
+      </c>
+      <c r="K21" s="7">
+        <f>0.72*10^7</f>
+        <v>7200000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2145,10 +2647,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923D42B9-7A86-1345-AADD-F9A6DEC8D2BA}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2210,7 +2712,7 @@
         <v>40</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2224,7 +2726,7 @@
         <v>40</v>
       </c>
       <c r="D4">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2238,7 +2740,7 @@
         <v>40</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2252,7 +2754,7 @@
         <v>40</v>
       </c>
       <c r="D6">
-        <v>1500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2266,7 +2768,7 @@
         <v>40</v>
       </c>
       <c r="D7">
-        <v>2000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2280,7 +2782,7 @@
         <v>40</v>
       </c>
       <c r="D8">
-        <v>2500</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -2294,7 +2796,7 @@
         <v>40</v>
       </c>
       <c r="D9">
-        <v>3000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2322,108 +2824,108 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>5000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C12">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C13">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C14">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>500</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C15">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C16">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C17">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D17">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C18">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -2434,10 +2936,10 @@
         <v>78</v>
       </c>
       <c r="D19">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2448,10 +2950,10 @@
         <v>78</v>
       </c>
       <c r="D20">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -2462,8 +2964,228 @@
         <v>78</v>
       </c>
       <c r="D21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>78</v>
+      </c>
+      <c r="D22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>78</v>
+      </c>
+      <c r="D23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>78</v>
+      </c>
+      <c r="D24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>78</v>
+      </c>
+      <c r="D25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>78</v>
+      </c>
+      <c r="D26">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>78</v>
+      </c>
+      <c r="D27">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>78</v>
+      </c>
+      <c r="D28">
+        <v>4500</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>78</v>
+      </c>
+      <c r="D29">
         <v>5000</v>
       </c>
+      <c r="E29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>78</v>
+      </c>
+      <c r="D30">
+        <v>5500</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>78</v>
+      </c>
+      <c r="D31">
+        <v>6000</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>78</v>
+      </c>
+      <c r="D32">
+        <v>6500</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>78</v>
+      </c>
+      <c r="D33">
+        <v>7000</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>78</v>
+      </c>
+      <c r="D34">
+        <v>7500</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>78</v>
+      </c>
+      <c r="D35">
+        <v>8000</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3625,10 +4347,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A252A25-C5BD-9644-90A1-8F508F9F4733}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3642,9 +4364,11 @@
     <col min="8" max="8" width="32.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3675,8 +4399,23 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -3707,8 +4446,23 @@
       <c r="J2" s="14" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L2" s="15">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3721,8 +4475,17 @@
       <c r="H3" s="13"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3733,8 +4496,14 @@
       <c r="H4" s="13"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3745,8 +4514,14 @@
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3757,8 +4532,11 @@
       <c r="H6" s="13"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3769,8 +4547,11 @@
       <c r="H7" s="13"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3781,8 +4562,11 @@
       <c r="H8" s="13"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3793,8 +4577,11 @@
       <c r="H9" s="13"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3806,7 +4593,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3818,7 +4605,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3829,8 +4616,23 @@
       <c r="H12" s="13"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3841,8 +4643,23 @@
       <c r="H13" s="13"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L13" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3853,8 +4670,17 @@
       <c r="H14" s="13"/>
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3865,8 +4691,14 @@
       <c r="H15" s="13"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3877,8 +4709,14 @@
       <c r="H16" s="13"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3889,8 +4727,11 @@
       <c r="H17" s="13"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="P17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3901,6 +4742,19 @@
       <c r="H18" s="13"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
+      <c r="P18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P20" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9023269-DCFF-B242-836E-ABB5DD8EAC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06A3DAC-BF05-404B-AA35-2993B625B4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="78">
   <si>
     <t>Sample Name</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>ANT</t>
+  </si>
+  <si>
+    <t>Depth below paleosurface</t>
+  </si>
+  <si>
+    <t>in cm</t>
   </si>
 </sst>
 </file>
@@ -769,7 +775,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -782,7 +788,7 @@
     <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.83203125" bestFit="1" customWidth="1"/>
@@ -813,6 +819,9 @@
       <c r="H1" t="s">
         <v>29</v>
       </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
       <c r="J1" t="s">
         <v>7</v>
       </c>
@@ -836,719 +845,447 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="9">
-        <v>-19.578942000000001</v>
-      </c>
-      <c r="C2" s="9">
-        <v>-69.872967000000003</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1172</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1">
-        <f>65.91*10^7</f>
-        <v>659100000</v>
-      </c>
-      <c r="K2" s="1">
-        <f>1.2*10^7</f>
-        <v>12000000</v>
-      </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>25</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B3" s="10">
-        <v>-19.340944</v>
+        <v>38</v>
       </c>
       <c r="C3" s="10">
-        <v>-69.727999999999994</v>
+        <v>-106</v>
       </c>
       <c r="D3" s="10">
-        <v>1607</v>
+        <v>2500</v>
       </c>
       <c r="E3" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1">
-        <v>2.89</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="1">
+        <v>15</v>
+      </c>
       <c r="J3" s="2">
-        <f>74.48*10^7</f>
-        <v>744800000</v>
+        <v>2380000</v>
       </c>
       <c r="K3" s="2">
-        <f>2.33*10^7</f>
-        <v>23300000</v>
+        <v>56000</v>
+      </c>
+      <c r="L3">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="B4" s="10">
-        <v>-19.340944</v>
+        <v>38</v>
       </c>
       <c r="C4" s="10">
-        <v>-69.727999999999994</v>
+        <v>-106</v>
       </c>
       <c r="D4" s="10">
-        <v>1607</v>
+        <v>2500</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1">
-        <v>2.89</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="1">
+        <v>15</v>
+      </c>
       <c r="J4" s="2">
-        <f>91.1*10^7</f>
-        <v>911000000</v>
-      </c>
-      <c r="K4" s="2">
-        <f>1.3*10^7</f>
-        <v>13000000</v>
+        <v>2630000</v>
+      </c>
+      <c r="K4" s="7">
+        <v>59000</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
+      <c r="A5" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B5" s="10">
-        <v>-19.340944</v>
+        <v>38</v>
       </c>
       <c r="C5" s="10">
-        <v>-69.727999999999994</v>
+        <v>-106</v>
       </c>
       <c r="D5" s="10">
-        <v>1607</v>
+        <v>2500</v>
       </c>
       <c r="E5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1">
-        <v>2.89</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="1">
+        <v>15</v>
+      </c>
       <c r="J5" s="2">
-        <f>167.12*10^7</f>
-        <v>1671200000</v>
-      </c>
-      <c r="K5" s="2">
-        <f>3.65*10^7</f>
-        <v>36500000</v>
+        <v>2750000</v>
+      </c>
+      <c r="K5" s="7">
+        <v>57000</v>
+      </c>
+      <c r="L5">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
+      <c r="A6" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B6" s="10">
-        <v>-19.336722000000002</v>
+        <v>38</v>
       </c>
       <c r="C6" s="10">
-        <v>-69.729611000000006</v>
+        <v>-106</v>
       </c>
       <c r="D6" s="10">
-        <v>1604</v>
+        <v>2500</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1">
-        <v>2.89</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="1">
+        <v>35</v>
+      </c>
       <c r="J6" s="2">
-        <f>104.68*10^7</f>
-        <v>1046800000.0000001</v>
-      </c>
-      <c r="K6" s="2">
-        <f>2.24*10^7</f>
-        <v>22400000.000000004</v>
+        <v>330000</v>
+      </c>
+      <c r="K6" s="7">
+        <v>550000</v>
+      </c>
+      <c r="L6">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9">
-        <v>-18.886583000000002</v>
-      </c>
-      <c r="C7" s="9">
-        <v>-69.699055999999999</v>
-      </c>
-      <c r="D7" s="9">
-        <v>2282</v>
+        <v>42</v>
+      </c>
+      <c r="B7" s="10">
+        <v>38</v>
+      </c>
+      <c r="C7" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2500</v>
       </c>
       <c r="E7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1">
-        <v>2.89</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="1">
+        <v>45</v>
+      </c>
       <c r="J7" s="2">
-        <f>269.89*10^7</f>
-        <v>2698900000</v>
+        <v>730000</v>
       </c>
       <c r="K7" s="7">
-        <f>4.73*10^7</f>
-        <v>47300000.000000007</v>
+        <v>540000</v>
+      </c>
+      <c r="L7">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="9">
-        <v>-18.886583000000002</v>
-      </c>
-      <c r="C8" s="9">
-        <v>-69.699055999999999</v>
-      </c>
-      <c r="D8" s="9">
-        <v>2282</v>
+        <v>43</v>
+      </c>
+      <c r="B8" s="10">
+        <v>38</v>
+      </c>
+      <c r="C8" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2500</v>
       </c>
       <c r="E8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1">
-        <v>2.89</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="1">
+        <v>35</v>
+      </c>
       <c r="J8" s="2">
-        <f>246.53*10^7</f>
-        <v>2465300000</v>
+        <v>340000</v>
       </c>
       <c r="K8" s="7">
-        <f>4.29*10^7</f>
-        <v>42900000</v>
+        <v>600000</v>
+      </c>
+      <c r="L8">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="9">
-        <v>-18.905639000000001</v>
-      </c>
-      <c r="C9" s="9">
-        <v>-69.954583</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1443</v>
+        <v>40</v>
+      </c>
+      <c r="B9" s="10">
+        <v>38</v>
+      </c>
+      <c r="C9" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2500</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1">
-        <v>2.89</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="1">
+        <v>55</v>
+      </c>
       <c r="J9" s="2">
-        <f>141.41*10^7</f>
-        <v>1414100000</v>
+        <v>590000</v>
       </c>
       <c r="K9" s="7">
-        <f>2.52*10^7</f>
-        <v>25200000</v>
+        <v>560000</v>
+      </c>
+      <c r="L9">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="9">
-        <v>-18.905639000000001</v>
-      </c>
-      <c r="C10" s="9">
-        <v>-69.954583</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1443</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="13"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="2">
-        <f>164.8*10^7</f>
-        <v>1648000000</v>
-      </c>
-      <c r="K10" s="7">
-        <f>2.84*10^7</f>
-        <v>28400000</v>
-      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="9">
-        <v>-18.852694</v>
-      </c>
-      <c r="C11" s="9">
-        <v>-69.657167000000001</v>
-      </c>
-      <c r="D11" s="9">
-        <v>2550</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="2">
-        <f>235*10^7</f>
-        <v>2350000000</v>
-      </c>
-      <c r="K11" s="7">
-        <f>4.04*10^7</f>
-        <v>40400000</v>
-      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="9">
-        <v>-20.704083000000001</v>
-      </c>
-      <c r="C12" s="9">
-        <v>-69.420833000000002</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1084</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="2">
-        <f>90.19*10^7</f>
-        <v>901900000</v>
-      </c>
-      <c r="K12" s="7">
-        <f>1.97*10^7</f>
-        <v>19700000</v>
-      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="11">
-        <v>-19.786306</v>
-      </c>
-      <c r="C13" s="11">
-        <v>-69.682000000000002</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1289</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="2">
-        <f>107.8*10^7</f>
-        <v>1078000000</v>
-      </c>
-      <c r="K13" s="2">
-        <f>2.77*10^7</f>
-        <v>27700000</v>
-      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="10">
-        <v>-19.786306</v>
-      </c>
-      <c r="C14" s="10">
-        <v>-69.682000000000002</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1289</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="2">
-        <f>102.49*10^7</f>
-        <v>1024900000</v>
-      </c>
-      <c r="K14" s="2">
-        <f>2.48*10^7</f>
-        <v>24800000</v>
-      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="10">
-        <v>-19.786306</v>
-      </c>
-      <c r="C15" s="10">
-        <v>-69.682000000000002</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1289</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="8">
-        <f>298.96*10^7</f>
-        <v>2989600000</v>
-      </c>
-      <c r="K15" s="2">
-        <f>3.2*10^7</f>
-        <v>32000000</v>
-      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="10">
-        <v>-19.397832999999999</v>
-      </c>
-      <c r="C16" s="10">
-        <v>-69.880306000000004</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1256</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="2">
-        <f>194.23*10^7</f>
-        <v>1942300000</v>
-      </c>
-      <c r="K16" s="2">
-        <f>4.67*10^7</f>
-        <v>46700000</v>
-      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="10">
-        <v>-19.397832999999999</v>
-      </c>
-      <c r="C17" s="10">
-        <v>-69.880306000000004</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1256</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2.74</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13">
-        <v>0</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="2">
-        <f>310.26*10^7</f>
-        <v>3102600000</v>
-      </c>
-      <c r="K17" s="2">
-        <f>8.23*10^7</f>
-        <v>82300000</v>
-      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="10">
-        <v>-19.397832999999999</v>
-      </c>
-      <c r="C18" s="10">
-        <v>-69.880306000000004</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1256</v>
-      </c>
-      <c r="E18" s="1">
-        <v>5</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="2">
-        <f>269.16*10^7</f>
-        <v>2691600000.0000005</v>
-      </c>
-      <c r="K18" s="2">
-        <f>6.18*10^7</f>
-        <v>61800000</v>
-      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="9">
-        <v>-19.522110999999999</v>
-      </c>
-      <c r="C19" s="9">
-        <v>-69.808333000000005</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1312</v>
-      </c>
-      <c r="E19" s="1">
-        <v>5</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
+      <c r="A19" s="3"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="2">
-        <f>277.15*10^7</f>
-        <v>2771500000</v>
-      </c>
-      <c r="K19" s="7">
-        <f>5.2*10^7</f>
-        <v>52000000</v>
-      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="9">
-        <v>-19.522110999999999</v>
-      </c>
-      <c r="C20" s="9">
-        <v>-69.808333000000005</v>
-      </c>
-      <c r="D20" s="9">
-        <v>1312</v>
-      </c>
-      <c r="E20" s="1">
-        <v>5</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13">
-        <v>0</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="2">
-        <f>65.4*10^7</f>
-        <v>654000000</v>
-      </c>
-      <c r="K20" s="7">
-        <f>1.5*10^7</f>
-        <v>15000000</v>
-      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="12">
-        <v>-18.503527999999999</v>
-      </c>
-      <c r="C21" s="12">
-        <v>-70.143305999999995</v>
-      </c>
-      <c r="D21" s="12">
-        <v>771</v>
-      </c>
-      <c r="E21" s="1">
-        <v>5</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="13">
-        <v>0</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="2">
-        <f>41.29*10^7</f>
-        <v>412900000</v>
-      </c>
-      <c r="K21" s="7">
-        <f>0.72*10^7</f>
-        <v>7200000</v>
-      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E28" s="1"/>
@@ -3303,10 +3040,13 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="22.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -3333,6 +3073,9 @@
       <c r="H1" t="s">
         <v>29</v>
       </c>
+      <c r="I1" t="s">
+        <v>76</v>
+      </c>
       <c r="J1" t="s">
         <v>7</v>
       </c>
@@ -3363,7 +3106,9 @@
         <v>1</v>
       </c>
       <c r="H2" s="13"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1">
+        <v>15</v>
+      </c>
       <c r="J2" s="2">
         <v>2380000</v>
       </c>
@@ -3397,7 +3142,9 @@
         <v>1</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1">
+        <v>15</v>
+      </c>
       <c r="J3" s="2">
         <v>2630000</v>
       </c>
@@ -3431,7 +3178,9 @@
         <v>1</v>
       </c>
       <c r="H4" s="13"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1">
+        <v>15</v>
+      </c>
       <c r="J4" s="2">
         <v>2750000</v>
       </c>
@@ -3465,7 +3214,9 @@
         <v>1</v>
       </c>
       <c r="H5" s="13"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1">
+        <v>35</v>
+      </c>
       <c r="J5" s="2">
         <v>330000</v>
       </c>
@@ -3499,7 +3250,9 @@
         <v>1</v>
       </c>
       <c r="H6" s="13"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1">
+        <v>45</v>
+      </c>
       <c r="J6" s="2">
         <v>730000</v>
       </c>
@@ -3533,7 +3286,9 @@
         <v>1</v>
       </c>
       <c r="H7" s="13"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1">
+        <v>35</v>
+      </c>
       <c r="J7" s="2">
         <v>340000</v>
       </c>
@@ -3567,7 +3322,9 @@
         <v>1</v>
       </c>
       <c r="H8" s="13"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1">
+        <v>55</v>
+      </c>
       <c r="J8" s="2">
         <v>590000</v>
       </c>
@@ -3582,12 +3339,8 @@
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
-        <v>27.5</v>
-      </c>
-      <c r="C11" s="1">
-        <v>28.5</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3596,10 +3349,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1377A66-7F29-A649-8A24-0084E41BD032}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD21"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3608,7 +3361,7 @@
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3639,8 +3392,23 @@
       <c r="K1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3674,8 +3442,23 @@
         <f>1.2*10^7</f>
         <v>12000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>25</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3710,7 +3493,7 @@
         <v>23300000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -3745,7 +3528,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3780,7 +3563,7 @@
         <v>36500000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -3815,7 +3598,7 @@
         <v>22400000.000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -3850,7 +3633,7 @@
         <v>47300000.000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -3885,7 +3668,7 @@
         <v>42900000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -3920,7 +3703,7 @@
         <v>25200000</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -3955,7 +3738,7 @@
         <v>28400000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -3990,7 +3773,7 @@
         <v>40400000</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
@@ -4025,7 +3808,7 @@
         <v>19700000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -4060,7 +3843,7 @@
         <v>27700000</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -4095,7 +3878,7 @@
         <v>24800000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
@@ -4130,7 +3913,7 @@
         <v>32000000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -4347,10 +4130,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A252A25-C5BD-9644-90A1-8F508F9F4733}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4368,7 +4151,7 @@
     <col min="13" max="13" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4394,28 +4177,31 @@
         <v>29</v>
       </c>
       <c r="I1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>62</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>58</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>59</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -4440,29 +4226,32 @@
       <c r="H2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>56</v>
+      <c r="I2" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="15">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>63</v>
+      <c r="K2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="15">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
       </c>
       <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4473,19 +4262,19 @@
         <v>37</v>
       </c>
       <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
       <c r="J3" s="14"/>
-      <c r="L3">
+      <c r="K3" s="14"/>
+      <c r="M3">
         <v>2</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="P3">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4494,16 +4283,16 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
       <c r="J4" s="14"/>
-      <c r="L4">
+      <c r="K4" s="14"/>
+      <c r="M4">
         <v>3</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4512,16 +4301,16 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
       <c r="J5" s="14"/>
-      <c r="L5">
+      <c r="K5" s="14"/>
+      <c r="M5">
         <v>4</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4530,13 +4319,13 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
       <c r="J6" s="14"/>
-      <c r="P6">
+      <c r="K6" s="14"/>
+      <c r="Q6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4545,13 +4334,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
       <c r="J7" s="14"/>
-      <c r="P7">
+      <c r="K7" s="14"/>
+      <c r="Q7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4560,13 +4349,13 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="P8">
+      <c r="K8" s="14"/>
+      <c r="Q8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4575,13 +4364,13 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="P9">
+      <c r="K9" s="14"/>
+      <c r="Q9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4593,7 +4382,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4605,7 +4394,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4632,7 +4421,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4659,7 +4448,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4680,7 +4469,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4698,7 +4487,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>

--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06A3DAC-BF05-404B-AA35-2993B625B4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2437C8A7-EC69-9C44-825A-4DB35AB7464E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="78">
   <si>
     <t>Sample Name</t>
   </si>
@@ -775,7 +775,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -845,317 +845,315 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" t="s">
-        <v>8</v>
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9">
+        <v>90</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
+        <f>65.91*10^7</f>
+        <v>659100000</v>
+      </c>
+      <c r="K2" s="1">
+        <f>1.2*10^7</f>
+        <v>12000000</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.25</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="B3" s="10">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C3" s="10">
-        <v>-106</v>
+        <v>0</v>
       </c>
       <c r="D3" s="10">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
-        <v>2.3199999999999998</v>
+        <v>2.89</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="1">
-        <v>15</v>
-      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1"/>
       <c r="J3" s="2">
-        <v>2380000</v>
+        <f>74.48*10^7</f>
+        <v>744800000</v>
       </c>
       <c r="K3" s="2">
-        <v>56000</v>
-      </c>
-      <c r="L3">
-        <v>15</v>
+        <f>2.33*10^7</f>
+        <v>23300000</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B4" s="10">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C4" s="10">
-        <v>-106</v>
+        <v>0</v>
       </c>
       <c r="D4" s="10">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1">
-        <v>2.3199999999999998</v>
+        <v>2.89</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="1">
-        <v>15</v>
-      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1"/>
       <c r="J4" s="2">
-        <v>2630000</v>
-      </c>
-      <c r="K4" s="7">
-        <v>59000</v>
-      </c>
-      <c r="L4">
-        <v>15</v>
+        <f>91.1*10^7</f>
+        <v>911000000</v>
+      </c>
+      <c r="K4" s="2">
+        <f>1.3*10^7</f>
+        <v>13000000</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>41</v>
+      <c r="A5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="10">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C5" s="10">
-        <v>-106</v>
+        <v>0</v>
       </c>
       <c r="D5" s="10">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
-        <v>2.3199999999999998</v>
+        <v>2.89</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="1">
-        <v>15</v>
-      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1"/>
       <c r="J5" s="2">
-        <v>2750000</v>
-      </c>
-      <c r="K5" s="7">
-        <v>57000</v>
-      </c>
-      <c r="L5">
-        <v>15</v>
+        <f>167.12*10^7</f>
+        <v>1671200000</v>
+      </c>
+      <c r="K5" s="2">
+        <f>3.65*10^7</f>
+        <v>36500000</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="10">
-        <v>38</v>
-      </c>
-      <c r="C6" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2500</v>
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="9">
+        <v>90</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2000</v>
       </c>
       <c r="E6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1">
-        <v>2.3199999999999998</v>
+        <v>2.89</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="1">
-        <v>35</v>
-      </c>
-      <c r="J6" s="2">
-        <v>330000</v>
-      </c>
-      <c r="K6" s="7">
-        <v>550000</v>
-      </c>
-      <c r="L6">
-        <v>35</v>
+      <c r="H6" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>42</v>
+      <c r="A7" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B7" s="10">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C7" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D7" s="10">
-        <v>2500</v>
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2000</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>2.3199999999999998</v>
+        <v>2.89</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="1">
-        <v>45</v>
-      </c>
-      <c r="J7" s="2">
-        <v>730000</v>
-      </c>
-      <c r="K7" s="7">
-        <v>540000</v>
-      </c>
-      <c r="L7">
-        <v>45</v>
+      <c r="H7" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>43</v>
+      <c r="A8" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B8" s="10">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C8" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D8" s="10">
-        <v>2500</v>
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4000</v>
       </c>
       <c r="E8" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1">
-        <v>2.3199999999999998</v>
+        <v>2.89</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="1">
-        <v>35</v>
-      </c>
-      <c r="J8" s="2">
-        <v>340000</v>
-      </c>
-      <c r="K8" s="7">
-        <v>600000</v>
-      </c>
-      <c r="L8">
-        <v>35</v>
+      <c r="H8" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>40</v>
+      <c r="A9" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B9" s="10">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C9" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D9" s="10">
-        <v>2500</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4000</v>
       </c>
       <c r="E9" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1">
-        <v>2.3199999999999998</v>
+        <v>2.89</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="1">
-        <v>55</v>
-      </c>
-      <c r="J9" s="2">
-        <v>590000</v>
-      </c>
-      <c r="K9" s="7">
-        <v>560000</v>
-      </c>
-      <c r="L9">
-        <v>55</v>
+      <c r="H9" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="7"/>
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="9">
+        <v>90</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="7"/>
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
@@ -2387,7 +2385,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3037,10 +3035,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24694F2A-853A-E44C-A507-6368D3EEDD55}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD8"/>
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3337,10 +3335,6 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680F55D4-2D89-0441-9815-DEA579B90B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E484E72B-81BC-3D44-A6D9-33A536892543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
+    <workbookView xWindow="34940" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,23 @@
     <sheet name="Figure 2" sheetId="10" r:id="rId4"/>
     <sheet name="Figure 3" sheetId="7" r:id="rId5"/>
     <sheet name="Figure 5" sheetId="12" r:id="rId6"/>
-    <sheet name="Figure 6" sheetId="5" r:id="rId7"/>
-    <sheet name="Libarkin" sheetId="11" r:id="rId8"/>
-    <sheet name="Evenstar" sheetId="2" r:id="rId9"/>
-    <sheet name="README" sheetId="4" r:id="rId10"/>
+    <sheet name="Figure 7" sheetId="5" r:id="rId7"/>
+    <sheet name="Evenstar_neon" sheetId="16" r:id="rId8"/>
+    <sheet name="Libarkin" sheetId="11" r:id="rId9"/>
+    <sheet name="Evenstar" sheetId="14" r:id="rId10"/>
+    <sheet name="Dunai" sheetId="15" r:id="rId11"/>
+    <sheet name="README" sheetId="4" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Active!$B$80,Active!$B$85,Active!$B$87,Active!$B$88</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Active!$B$79,Active!$B$84,Active!$B$86,Active!$B$87</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">'Figure 3'!$B$74,'Figure 3'!$B$79,'Figure 3'!$B$81,'Figure 3'!$B$82</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Active!$B$91</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Active!$B$90</definedName>
     <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Figure 3'!$B$85</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Active!$F$58</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Active!$F$57</definedName>
     <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Figure 3'!$F$52</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Active!$F$59</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Active!$F$58</definedName>
     <definedName name="solver_lhs3" localSheetId="4" hidden="1">'Figure 3'!$F$53</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="4" hidden="1">2</definedName>
@@ -41,7 +43,7 @@
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Active!$F$57</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Active!$F$56</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">'Figure 3'!$F$51</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="4" hidden="1">2</definedName>
@@ -83,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="120">
   <si>
     <t>Sample Name</t>
   </si>
@@ -124,54 +126,6 @@
     <t>21-10</t>
   </si>
   <si>
-    <t>Day-4-12</t>
-  </si>
-  <si>
-    <t>10_21</t>
-  </si>
-  <si>
-    <t>08_21</t>
-  </si>
-  <si>
-    <t>23_21</t>
-  </si>
-  <si>
-    <t>24_21</t>
-  </si>
-  <si>
-    <t>02_21</t>
-  </si>
-  <si>
-    <t>10_10</t>
-  </si>
-  <si>
-    <t>Day-03-10</t>
-  </si>
-  <si>
-    <t>Day-3-11</t>
-  </si>
-  <si>
-    <t>01_02</t>
-  </si>
-  <si>
-    <t>Day-05-01</t>
-  </si>
-  <si>
-    <t>Day-05-02</t>
-  </si>
-  <si>
-    <t>Day-5-03</t>
-  </si>
-  <si>
-    <t>01_12</t>
-  </si>
-  <si>
-    <t>02_12</t>
-  </si>
-  <si>
-    <t>07_18</t>
-  </si>
-  <si>
     <t>Erosion</t>
   </si>
   <si>
@@ -317,13 +271,187 @@
   </si>
   <si>
     <t>in cm</t>
+  </si>
+  <si>
+    <t>Day 01-05</t>
+  </si>
+  <si>
+    <t>Day 02-02</t>
+  </si>
+  <si>
+    <t>21/10</t>
+  </si>
+  <si>
+    <t>20/10</t>
+  </si>
+  <si>
+    <t>Day 02-11</t>
+  </si>
+  <si>
+    <t>Day 4-02</t>
+  </si>
+  <si>
+    <t>Day 4-12</t>
+  </si>
+  <si>
+    <t>Day 05-01</t>
+  </si>
+  <si>
+    <t>Day 05-02</t>
+  </si>
+  <si>
+    <t>Day 04-03</t>
+  </si>
+  <si>
+    <t>Day 4-04</t>
+  </si>
+  <si>
+    <t>Day 04-10</t>
+  </si>
+  <si>
+    <t>Day 04-11</t>
+  </si>
+  <si>
+    <t>10/21</t>
+  </si>
+  <si>
+    <t>08/21</t>
+  </si>
+  <si>
+    <t>23/21</t>
+  </si>
+  <si>
+    <t>24/21</t>
+  </si>
+  <si>
+    <t>02/21</t>
+  </si>
+  <si>
+    <t>10/10</t>
+  </si>
+  <si>
+    <t>Day 03-10</t>
+  </si>
+  <si>
+    <t>Day 3 -11</t>
+  </si>
+  <si>
+    <t>01/02</t>
+  </si>
+  <si>
+    <t>Day 5 -03</t>
+  </si>
+  <si>
+    <t>01/12</t>
+  </si>
+  <si>
+    <t>02/12</t>
+  </si>
+  <si>
+    <t>07/18</t>
+  </si>
+  <si>
+    <t>06/16</t>
+  </si>
+  <si>
+    <t>09/16</t>
+  </si>
+  <si>
+    <t>p103/1</t>
+  </si>
+  <si>
+    <t>P103/A</t>
+  </si>
+  <si>
+    <t>P103/B</t>
+  </si>
+  <si>
+    <t>P103/C</t>
+  </si>
+  <si>
+    <t>P103/D</t>
+  </si>
+  <si>
+    <t>PI-06A</t>
+  </si>
+  <si>
+    <t>PI-06B</t>
+  </si>
+  <si>
+    <t>PI-06C</t>
+  </si>
+  <si>
+    <t>PI-06D</t>
+  </si>
+  <si>
+    <t>PI-07A</t>
+  </si>
+  <si>
+    <t>PI-07B</t>
+  </si>
+  <si>
+    <t>PI-07C</t>
+  </si>
+  <si>
+    <t>PI-07D</t>
+  </si>
+  <si>
+    <t>PI-11</t>
+  </si>
+  <si>
+    <t>PI-12</t>
+  </si>
+  <si>
+    <t>PI-01</t>
+  </si>
+  <si>
+    <t>Sample 1</t>
+  </si>
+  <si>
+    <t>Sample 3</t>
+  </si>
+  <si>
+    <t>Sample 7</t>
+  </si>
+  <si>
+    <t>Sample 8</t>
+  </si>
+  <si>
+    <t>Sample 9</t>
+  </si>
+  <si>
+    <t>Sample 10</t>
+  </si>
+  <si>
+    <t>Sample 12</t>
+  </si>
+  <si>
+    <t>Sample 13</t>
+  </si>
+  <si>
+    <t>Day 02-01</t>
+  </si>
+  <si>
+    <t>Day 02-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day 02-10 </t>
+  </si>
+  <si>
+    <t>Day 02-12</t>
+  </si>
+  <si>
+    <t>Day 3-03</t>
+  </si>
+  <si>
+    <t>Day 3-12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -370,8 +498,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,6 +531,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -415,7 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,12 +639,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -461,6 +647,121 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -776,18 +1077,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39602BD4-AF2D-864A-8905-789D980EB8BD}">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="9" max="9" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -810,10 +1113,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -822,24 +1122,27 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="N1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="O1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="10">
         <v>38</v>
@@ -859,12 +1162,15 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="H2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2380000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>56000</v>
+      </c>
       <c r="M2">
         <v>4</v>
       </c>
@@ -880,10 +1186,13 @@
       <c r="Q2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="R2" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B3" s="10">
         <v>38</v>
@@ -903,16 +1212,22 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
-        <v>2</v>
+      <c r="H3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2630000</v>
+      </c>
+      <c r="K3" s="7">
+        <v>59000</v>
+      </c>
+      <c r="R3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B4" s="10">
         <v>38</v>
@@ -932,16 +1247,22 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="1">
-        <v>4</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="H4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2750000</v>
+      </c>
+      <c r="K4" s="7">
+        <v>57000</v>
+      </c>
+      <c r="R4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="10">
         <v>38</v>
@@ -961,16 +1282,22 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="1">
-        <v>6</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="H5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="2">
+        <v>330000</v>
+      </c>
+      <c r="K5" s="7">
+        <v>550000</v>
+      </c>
+      <c r="R5" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B6" s="10">
         <v>38</v>
@@ -990,16 +1317,22 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="1">
-        <v>8</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
-        <v>5</v>
+      <c r="H6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="2">
+        <v>730000</v>
+      </c>
+      <c r="K6" s="7">
+        <v>540000</v>
+      </c>
+      <c r="R6" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B7" s="10">
         <v>38</v>
@@ -1019,16 +1352,22 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="H7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="2">
+        <v>340000</v>
+      </c>
+      <c r="K7" s="7">
+        <v>600000</v>
+      </c>
+      <c r="R7" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B8" s="10">
         <v>38</v>
@@ -1048,1156 +1387,270 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="1">
-        <v>12</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10">
-        <v>38</v>
-      </c>
-      <c r="C9" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D9" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10">
-        <v>38</v>
-      </c>
-      <c r="C10" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D10" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10">
-        <v>38</v>
-      </c>
-      <c r="C11" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D11" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10">
-        <v>38</v>
-      </c>
-      <c r="C12" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D12" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E12" s="1">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
-        <v>11</v>
-      </c>
-      <c r="B13" s="10">
-        <v>38</v>
-      </c>
-      <c r="C13" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D13" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10">
-        <v>38</v>
-      </c>
-      <c r="C14" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D14" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10">
-        <v>38</v>
-      </c>
-      <c r="C15" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D15" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
-        <v>14</v>
-      </c>
-      <c r="B16" s="10">
-        <v>38</v>
-      </c>
-      <c r="C16" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D16" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="10">
-        <v>38</v>
-      </c>
-      <c r="C17" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D17" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E17" s="1">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="10">
-        <v>38</v>
-      </c>
-      <c r="C18" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D18" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E18" s="1">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
-        <v>17</v>
-      </c>
-      <c r="B19" s="10">
-        <v>38</v>
-      </c>
-      <c r="C19" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D19" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E19" s="1">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="I19" s="1">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10">
-        <v>38</v>
-      </c>
-      <c r="C20" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D20" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E20" s="1">
-        <v>4</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="10">
-        <v>38</v>
-      </c>
-      <c r="C21" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D21" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E21" s="1">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="16">
-        <v>20</v>
-      </c>
-      <c r="B22" s="10">
-        <v>38</v>
-      </c>
-      <c r="C22" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D22" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E22" s="1">
-        <v>4</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="10">
-        <v>38</v>
-      </c>
-      <c r="C23" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D23" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E23" s="1">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="10">
-        <v>38</v>
-      </c>
-      <c r="C24" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D24" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E24" s="1">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="16">
-        <v>23</v>
-      </c>
-      <c r="B25" s="10">
-        <v>38</v>
-      </c>
-      <c r="C25" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D25" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E25" s="1">
-        <v>4</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="10">
-        <v>38</v>
-      </c>
-      <c r="C26" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D26" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E26" s="1">
-        <v>4</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="10">
-        <v>38</v>
-      </c>
-      <c r="C27" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D27" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E27" s="1">
-        <v>4</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
-        <v>26</v>
-      </c>
-      <c r="B28" s="10">
-        <v>38</v>
-      </c>
-      <c r="C28" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D28" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E28" s="1">
-        <v>4</v>
-      </c>
-      <c r="F28" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="10">
-        <v>38</v>
-      </c>
-      <c r="C29" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D29" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E29" s="1">
-        <v>4</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="10">
-        <v>38</v>
-      </c>
-      <c r="C30" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D30" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E30" s="1">
-        <v>4</v>
-      </c>
-      <c r="F30" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="I30" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="16">
-        <v>29</v>
-      </c>
-      <c r="B31" s="10">
-        <v>38</v>
-      </c>
-      <c r="C31" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D31" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E31" s="1">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="I31" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="10">
-        <v>38</v>
-      </c>
-      <c r="C32" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D32" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E32" s="1">
-        <v>4</v>
-      </c>
-      <c r="F32" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="10">
-        <v>38</v>
-      </c>
-      <c r="C33" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D33" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E33" s="1">
-        <v>4</v>
-      </c>
-      <c r="F33" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="I33" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="16">
-        <v>32</v>
-      </c>
-      <c r="B34" s="10">
-        <v>38</v>
-      </c>
-      <c r="C34" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D34" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E34" s="1">
-        <v>4</v>
-      </c>
-      <c r="F34" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-      <c r="I34" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="10">
-        <v>38</v>
-      </c>
-      <c r="C35" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D35" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E35" s="1">
-        <v>4</v>
-      </c>
-      <c r="F35" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-      <c r="I35" s="1">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="10">
-        <v>38</v>
-      </c>
-      <c r="C36" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D36" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E36" s="1">
-        <v>4</v>
-      </c>
-      <c r="F36" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
-      <c r="I36" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="16">
-        <v>35</v>
-      </c>
-      <c r="B37" s="10">
-        <v>38</v>
-      </c>
-      <c r="C37" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D37" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E37" s="1">
-        <v>4</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-      <c r="I37" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="10">
-        <v>38</v>
-      </c>
-      <c r="C38" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D38" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E38" s="1">
-        <v>4</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-      <c r="I38" s="1">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="10">
-        <v>38</v>
-      </c>
-      <c r="C39" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D39" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E39" s="1">
-        <v>4</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-      <c r="I39" s="1">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="16">
-        <v>38</v>
-      </c>
-      <c r="B40" s="10">
-        <v>38</v>
-      </c>
-      <c r="C40" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D40" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E40" s="1">
-        <v>4</v>
-      </c>
-      <c r="F40" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-      <c r="I40" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="10">
-        <v>38</v>
-      </c>
-      <c r="C41" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D41" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E41" s="1">
-        <v>4</v>
-      </c>
-      <c r="F41" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1</v>
-      </c>
-      <c r="I41" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="10">
-        <v>38</v>
-      </c>
-      <c r="C42" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D42" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E42" s="1">
-        <v>4</v>
-      </c>
-      <c r="F42" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-      <c r="I42" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="16">
-        <v>41</v>
-      </c>
-      <c r="B43" s="10">
-        <v>38</v>
-      </c>
-      <c r="C43" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D43" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E43" s="1">
-        <v>4</v>
-      </c>
-      <c r="F43" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-      <c r="I43" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="10">
-        <v>38</v>
-      </c>
-      <c r="C44" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D44" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E44" s="1">
-        <v>4</v>
-      </c>
-      <c r="F44" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1</v>
-      </c>
-      <c r="I44" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="10">
-        <v>38</v>
-      </c>
-      <c r="C45" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D45" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E45" s="1">
-        <v>4</v>
-      </c>
-      <c r="F45" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1</v>
-      </c>
-      <c r="I45" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="16">
-        <v>44</v>
-      </c>
-      <c r="B46" s="10">
-        <v>38</v>
-      </c>
-      <c r="C46" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D46" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E46" s="1">
-        <v>4</v>
-      </c>
-      <c r="F46" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-      <c r="I46" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" s="10">
-        <v>38</v>
-      </c>
-      <c r="C47" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D47" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E47" s="1">
-        <v>4</v>
-      </c>
-      <c r="F47" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1</v>
-      </c>
-      <c r="I47" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" s="10">
-        <v>38</v>
-      </c>
-      <c r="C48" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D48" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E48" s="1">
-        <v>4</v>
-      </c>
-      <c r="F48" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1</v>
-      </c>
-      <c r="I48" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="16">
-        <v>47</v>
-      </c>
-      <c r="B49" s="10">
-        <v>38</v>
-      </c>
-      <c r="C49" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D49" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E49" s="1">
-        <v>4</v>
-      </c>
-      <c r="F49" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1</v>
-      </c>
-      <c r="I49" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" s="10">
-        <v>38</v>
-      </c>
-      <c r="C50" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D50" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E50" s="1">
-        <v>4</v>
-      </c>
-      <c r="F50" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-      <c r="I50" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" s="10">
-        <v>38</v>
-      </c>
-      <c r="C51" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D51" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E51" s="1">
-        <v>4</v>
-      </c>
-      <c r="F51" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1</v>
-      </c>
-      <c r="I51" s="1">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="16">
-        <v>50</v>
-      </c>
-      <c r="B52" s="10">
-        <v>38</v>
-      </c>
-      <c r="C52" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D52" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E52" s="1">
-        <v>4</v>
-      </c>
-      <c r="F52" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1</v>
-      </c>
-      <c r="I52" s="1">
-        <v>100</v>
-      </c>
+      <c r="H8" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="2">
+        <v>590000</v>
+      </c>
+      <c r="K8" s="7">
+        <v>560000</v>
+      </c>
+      <c r="R8" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="18"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="18"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="18"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="18"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="18"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="19"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="20"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="27"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="18"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="18"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="21"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="22"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="23"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2206,14 +1659,1620 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC98A15-AE39-4743-9E74-0C5D457F6E10}">
+  <dimension ref="A1:Q52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="17">
+        <v>-20.101167</v>
+      </c>
+      <c r="C2" s="17">
+        <v>-69.491221999999993</v>
+      </c>
+      <c r="D2" s="17">
+        <v>1380</v>
+      </c>
+      <c r="E2" s="17">
+        <v>5</v>
+      </c>
+      <c r="F2" s="28">
+        <v>3.2</v>
+      </c>
+      <c r="G2" s="15">
+        <v>1</v>
+      </c>
+      <c r="H2" s="15">
+        <v>0</v>
+      </c>
+      <c r="J2" s="29">
+        <f>3.23*10^7</f>
+        <v>32300000</v>
+      </c>
+      <c r="K2" s="29">
+        <v>4900000</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>20</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="16">
+        <v>-20.101167</v>
+      </c>
+      <c r="C3" s="16">
+        <v>-69.491221999999993</v>
+      </c>
+      <c r="D3" s="16">
+        <v>1380</v>
+      </c>
+      <c r="E3" s="16">
+        <v>5</v>
+      </c>
+      <c r="F3" s="24">
+        <v>3.2</v>
+      </c>
+      <c r="G3" s="15">
+        <v>1</v>
+      </c>
+      <c r="H3" s="15">
+        <v>0</v>
+      </c>
+      <c r="J3" s="27">
+        <f>25.9*10^7</f>
+        <v>259000000</v>
+      </c>
+      <c r="K3" s="27">
+        <v>8800000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="15">
+        <v>-19.578942000000001</v>
+      </c>
+      <c r="C4" s="15">
+        <v>-69.872967000000003</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1172</v>
+      </c>
+      <c r="E4" s="15">
+        <v>5</v>
+      </c>
+      <c r="F4" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G4" s="15">
+        <v>1</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0</v>
+      </c>
+      <c r="J4" s="25">
+        <f>65.91*10^7</f>
+        <v>659100000</v>
+      </c>
+      <c r="K4" s="25">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="15">
+        <v>-19.578942000000001</v>
+      </c>
+      <c r="C5" s="15">
+        <v>-69.872967000000003</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1172</v>
+      </c>
+      <c r="E5" s="17">
+        <v>5</v>
+      </c>
+      <c r="F5" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="25">
+        <f>32.2*10^7</f>
+        <v>322000000</v>
+      </c>
+      <c r="K5" s="25">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="16">
+        <v>-19.987110999999999</v>
+      </c>
+      <c r="C6" s="16">
+        <v>-69.433610999999999</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1943</v>
+      </c>
+      <c r="E6" s="16">
+        <v>5</v>
+      </c>
+      <c r="F6" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G6" s="15">
+        <v>1</v>
+      </c>
+      <c r="H6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
+        <f>63.88*10^7</f>
+        <v>638800000</v>
+      </c>
+      <c r="K6" s="27">
+        <v>25700000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="16">
+        <v>-19.340944</v>
+      </c>
+      <c r="C7" s="16">
+        <v>-69.727999999999994</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1607</v>
+      </c>
+      <c r="E7" s="15">
+        <v>5</v>
+      </c>
+      <c r="F7" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
+        <f>74.48*10^7</f>
+        <v>744800000</v>
+      </c>
+      <c r="K7" s="27">
+        <v>23300000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="16">
+        <v>-19.340944</v>
+      </c>
+      <c r="C8" s="16">
+        <v>-69.727999999999994</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1607</v>
+      </c>
+      <c r="E8" s="17">
+        <v>5</v>
+      </c>
+      <c r="F8" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G8" s="15">
+        <v>1</v>
+      </c>
+      <c r="H8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="27">
+        <f>91.1*10^7</f>
+        <v>911000000</v>
+      </c>
+      <c r="K8" s="27">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="16">
+        <v>-19.340944</v>
+      </c>
+      <c r="C9" s="16">
+        <v>-69.727999999999994</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1607</v>
+      </c>
+      <c r="E9" s="16">
+        <v>5</v>
+      </c>
+      <c r="F9" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G9" s="15">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="27">
+        <f>167.12*10^7</f>
+        <v>1671200000</v>
+      </c>
+      <c r="K9" s="27">
+        <v>36500000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="16">
+        <v>-19.336722000000002</v>
+      </c>
+      <c r="C10" s="16">
+        <v>-69.729611000000006</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1604</v>
+      </c>
+      <c r="E10" s="15">
+        <v>5</v>
+      </c>
+      <c r="F10" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1</v>
+      </c>
+      <c r="H10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="27">
+        <f>24.27*10^7</f>
+        <v>242700000</v>
+      </c>
+      <c r="K10" s="27">
+        <v>10500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="16">
+        <v>-19.336722000000002</v>
+      </c>
+      <c r="C11" s="16">
+        <v>-69.729611000000006</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1604</v>
+      </c>
+      <c r="E11" s="17">
+        <v>5</v>
+      </c>
+      <c r="F11" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G11" s="15">
+        <v>1</v>
+      </c>
+      <c r="H11" s="15">
+        <v>0</v>
+      </c>
+      <c r="J11" s="27">
+        <f>31.18*10^7</f>
+        <v>311800000</v>
+      </c>
+      <c r="K11" s="27">
+        <v>11900000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="16">
+        <v>-19.336722000000002</v>
+      </c>
+      <c r="C12" s="16">
+        <v>-69.729611000000006</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1604</v>
+      </c>
+      <c r="E12" s="16">
+        <v>5</v>
+      </c>
+      <c r="F12" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="27">
+        <f>104.68*10^7</f>
+        <v>1046800000.0000001</v>
+      </c>
+      <c r="K12" s="27">
+        <v>22400000.000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="18">
+        <v>-18.886583000000002</v>
+      </c>
+      <c r="C13" s="18">
+        <v>-69.699055999999999</v>
+      </c>
+      <c r="D13" s="18">
+        <v>2282</v>
+      </c>
+      <c r="E13" s="15">
+        <v>5</v>
+      </c>
+      <c r="F13" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G13" s="15">
+        <v>1</v>
+      </c>
+      <c r="H13" s="15">
+        <v>0</v>
+      </c>
+      <c r="J13" s="30">
+        <f>269.89*10^7</f>
+        <v>2698900000</v>
+      </c>
+      <c r="K13" s="30">
+        <v>47300000.000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="18">
+        <v>-18.886583000000002</v>
+      </c>
+      <c r="C14" s="18">
+        <v>-69.699055999999999</v>
+      </c>
+      <c r="D14" s="18">
+        <v>2282</v>
+      </c>
+      <c r="E14" s="17">
+        <v>5</v>
+      </c>
+      <c r="F14" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15">
+        <v>0</v>
+      </c>
+      <c r="J14" s="30">
+        <f>246.53*10^7</f>
+        <v>2465300000</v>
+      </c>
+      <c r="K14" s="30">
+        <v>42900000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="18">
+        <v>-18.905639000000001</v>
+      </c>
+      <c r="C15" s="18">
+        <v>-69.954583</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1443</v>
+      </c>
+      <c r="E15" s="16">
+        <v>5</v>
+      </c>
+      <c r="F15" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G15" s="15">
+        <v>1</v>
+      </c>
+      <c r="H15" s="15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="30">
+        <v>1414100000</v>
+      </c>
+      <c r="K15" s="30">
+        <v>25200000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="18">
+        <v>-18.905639000000001</v>
+      </c>
+      <c r="C16" s="18">
+        <v>-69.954583</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1443</v>
+      </c>
+      <c r="E16" s="15">
+        <v>5</v>
+      </c>
+      <c r="F16" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G16" s="15">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="30">
+        <v>1648000000</v>
+      </c>
+      <c r="K16" s="30">
+        <v>28400000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="18">
+        <v>-18.852694</v>
+      </c>
+      <c r="C17" s="18">
+        <v>-69.657167000000001</v>
+      </c>
+      <c r="D17" s="18">
+        <v>2550</v>
+      </c>
+      <c r="E17" s="17">
+        <v>5</v>
+      </c>
+      <c r="F17" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G17" s="15">
+        <v>1</v>
+      </c>
+      <c r="H17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="30">
+        <v>2350000000</v>
+      </c>
+      <c r="K17" s="30">
+        <v>40400000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="18">
+        <v>-20.704083000000001</v>
+      </c>
+      <c r="C18" s="18">
+        <v>-69.420833000000002</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1084</v>
+      </c>
+      <c r="E18" s="16">
+        <v>5</v>
+      </c>
+      <c r="F18" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1</v>
+      </c>
+      <c r="H18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="30">
+        <v>901900000</v>
+      </c>
+      <c r="K18" s="30">
+        <v>19700000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="19">
+        <v>-19.786306</v>
+      </c>
+      <c r="C19" s="19">
+        <v>-69.682000000000002</v>
+      </c>
+      <c r="D19" s="19">
+        <v>1289</v>
+      </c>
+      <c r="E19" s="15">
+        <v>5</v>
+      </c>
+      <c r="F19" s="28">
+        <v>2.89</v>
+      </c>
+      <c r="G19" s="15">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="31">
+        <v>1078000000</v>
+      </c>
+      <c r="K19" s="31">
+        <v>27700000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="16">
+        <v>-19.786306</v>
+      </c>
+      <c r="C20" s="16">
+        <v>-69.682000000000002</v>
+      </c>
+      <c r="D20" s="16">
+        <v>1289</v>
+      </c>
+      <c r="E20" s="17">
+        <v>5</v>
+      </c>
+      <c r="F20" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G20" s="15">
+        <v>1</v>
+      </c>
+      <c r="H20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="27">
+        <v>1024900000</v>
+      </c>
+      <c r="K20" s="27">
+        <v>24800000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="16">
+        <v>-19.786306</v>
+      </c>
+      <c r="C21" s="16">
+        <v>-69.682000000000002</v>
+      </c>
+      <c r="D21" s="16">
+        <v>1289</v>
+      </c>
+      <c r="E21" s="16">
+        <v>5</v>
+      </c>
+      <c r="F21" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G21" s="15">
+        <v>1</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="J21" s="32">
+        <v>2989600000</v>
+      </c>
+      <c r="K21" s="27">
+        <v>32000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="16">
+        <v>-19.397832999999999</v>
+      </c>
+      <c r="C22" s="16">
+        <v>-69.880306000000004</v>
+      </c>
+      <c r="D22" s="16">
+        <v>1256</v>
+      </c>
+      <c r="E22" s="15">
+        <v>5</v>
+      </c>
+      <c r="F22" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G22" s="15">
+        <v>1</v>
+      </c>
+      <c r="H22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="27">
+        <v>1942300000</v>
+      </c>
+      <c r="K22" s="27">
+        <v>46700000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="16">
+        <v>-19.397832999999999</v>
+      </c>
+      <c r="C23" s="16">
+        <v>-69.880306000000004</v>
+      </c>
+      <c r="D23" s="16">
+        <v>1256</v>
+      </c>
+      <c r="E23" s="17">
+        <v>5</v>
+      </c>
+      <c r="F23" s="24">
+        <v>2.74</v>
+      </c>
+      <c r="G23" s="15">
+        <v>1</v>
+      </c>
+      <c r="H23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="27">
+        <v>3102600000</v>
+      </c>
+      <c r="K23" s="27">
+        <v>82300000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="16">
+        <v>-19.397832999999999</v>
+      </c>
+      <c r="C24" s="16">
+        <v>-69.880306000000004</v>
+      </c>
+      <c r="D24" s="16">
+        <v>1256</v>
+      </c>
+      <c r="E24" s="16">
+        <v>5</v>
+      </c>
+      <c r="F24" s="26">
+        <v>2.89</v>
+      </c>
+      <c r="G24" s="15">
+        <v>1</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0</v>
+      </c>
+      <c r="J24" s="27">
+        <v>2691600000.0000005</v>
+      </c>
+      <c r="K24" s="27">
+        <v>61800000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="18">
+        <v>-19.522110999999999</v>
+      </c>
+      <c r="C25" s="18">
+        <v>-69.808333000000005</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1312</v>
+      </c>
+      <c r="E25" s="15">
+        <v>5</v>
+      </c>
+      <c r="F25" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G25" s="15">
+        <v>1</v>
+      </c>
+      <c r="H25" s="15">
+        <v>0</v>
+      </c>
+      <c r="J25" s="30">
+        <v>2771500000</v>
+      </c>
+      <c r="K25" s="30">
+        <v>52000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="18">
+        <v>-19.522110999999999</v>
+      </c>
+      <c r="C26" s="18">
+        <v>-69.808333000000005</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1312</v>
+      </c>
+      <c r="E26" s="17">
+        <v>5</v>
+      </c>
+      <c r="F26" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G26" s="15">
+        <v>1</v>
+      </c>
+      <c r="H26" s="15">
+        <v>0</v>
+      </c>
+      <c r="J26" s="30">
+        <v>654000000</v>
+      </c>
+      <c r="K26" s="30">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="23">
+        <v>-18.503527999999999</v>
+      </c>
+      <c r="C27" s="23">
+        <v>-70.143305999999995</v>
+      </c>
+      <c r="D27" s="23">
+        <v>771</v>
+      </c>
+      <c r="E27" s="16">
+        <v>5</v>
+      </c>
+      <c r="F27" s="33">
+        <v>2.89</v>
+      </c>
+      <c r="G27" s="15">
+        <v>1</v>
+      </c>
+      <c r="H27" s="15">
+        <v>0</v>
+      </c>
+      <c r="J27" s="34">
+        <v>412900000</v>
+      </c>
+      <c r="K27" s="34">
+        <v>7200000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="22">
+        <v>-18.389944</v>
+      </c>
+      <c r="C28" s="22">
+        <v>-70.071805999999995</v>
+      </c>
+      <c r="D28" s="22">
+        <v>1025</v>
+      </c>
+      <c r="E28" s="15">
+        <v>5</v>
+      </c>
+      <c r="F28" s="28">
+        <v>2.89</v>
+      </c>
+      <c r="G28" s="15">
+        <v>1</v>
+      </c>
+      <c r="H28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="35">
+        <v>388000000</v>
+      </c>
+      <c r="K28" s="35">
+        <v>7700000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="23">
+        <v>-18.389944</v>
+      </c>
+      <c r="C29" s="23">
+        <v>-70.071805999999995</v>
+      </c>
+      <c r="D29" s="23">
+        <v>1025</v>
+      </c>
+      <c r="E29" s="17">
+        <v>5</v>
+      </c>
+      <c r="F29" s="33">
+        <v>2.89</v>
+      </c>
+      <c r="G29" s="15">
+        <v>1</v>
+      </c>
+      <c r="H29" s="15">
+        <v>0</v>
+      </c>
+      <c r="J29" s="34">
+        <v>425000000</v>
+      </c>
+      <c r="K29" s="34">
+        <v>9500000</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
+    <row r="35" customFormat="1"/>
+    <row r="36" customFormat="1"/>
+    <row r="37" customFormat="1"/>
+    <row r="38" customFormat="1"/>
+    <row r="39" customFormat="1"/>
+    <row r="40" customFormat="1"/>
+    <row r="41" customFormat="1"/>
+    <row r="42" customFormat="1"/>
+    <row r="43" customFormat="1"/>
+    <row r="44" customFormat="1"/>
+    <row r="45" customFormat="1"/>
+    <row r="46" customFormat="1"/>
+    <row r="47" customFormat="1"/>
+    <row r="48" customFormat="1"/>
+    <row r="49" customFormat="1"/>
+    <row r="50" customFormat="1"/>
+    <row r="51" customFormat="1"/>
+    <row r="52" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865D9E7-27A7-A946-ABE2-D02CEEDD4D16}">
+  <dimension ref="A1:R17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="36">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="C2" s="36">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="D2" s="36">
+        <v>957</v>
+      </c>
+      <c r="E2" s="37">
+        <v>3</v>
+      </c>
+      <c r="F2" s="36">
+        <v>2.65</v>
+      </c>
+      <c r="G2" s="37">
+        <v>1</v>
+      </c>
+      <c r="H2" s="37">
+        <v>0</v>
+      </c>
+      <c r="J2" s="36">
+        <v>458399999.99999994</v>
+      </c>
+      <c r="K2" s="40">
+        <v>2200000</v>
+      </c>
+      <c r="M2" s="39">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>20</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="37">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="C3" s="37">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="D3" s="37">
+        <v>957</v>
+      </c>
+      <c r="E3" s="37">
+        <v>3</v>
+      </c>
+      <c r="F3" s="37">
+        <v>2.65</v>
+      </c>
+      <c r="G3" s="37">
+        <v>1</v>
+      </c>
+      <c r="H3" s="37">
+        <v>0</v>
+      </c>
+      <c r="J3" s="37">
+        <v>495000000</v>
+      </c>
+      <c r="K3" s="41">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="37">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="C4" s="37">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="D4" s="37">
+        <v>957</v>
+      </c>
+      <c r="E4" s="37">
+        <v>3</v>
+      </c>
+      <c r="F4" s="37">
+        <v>2.65</v>
+      </c>
+      <c r="G4" s="37">
+        <v>1</v>
+      </c>
+      <c r="H4" s="37">
+        <v>0</v>
+      </c>
+      <c r="J4" s="37">
+        <v>381800000</v>
+      </c>
+      <c r="K4" s="41">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="37">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="C5" s="37">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="D5" s="37">
+        <v>957</v>
+      </c>
+      <c r="E5" s="37">
+        <v>3</v>
+      </c>
+      <c r="F5" s="37">
+        <v>2.65</v>
+      </c>
+      <c r="G5" s="37">
+        <v>1</v>
+      </c>
+      <c r="H5" s="37">
+        <v>0</v>
+      </c>
+      <c r="J5" s="37">
+        <v>725300000</v>
+      </c>
+      <c r="K5" s="41">
+        <v>4400000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="37">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="C6" s="37">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="D6" s="37">
+        <v>957</v>
+      </c>
+      <c r="E6" s="37">
+        <v>3</v>
+      </c>
+      <c r="F6" s="37">
+        <v>2.65</v>
+      </c>
+      <c r="G6" s="37">
+        <v>1</v>
+      </c>
+      <c r="H6" s="37">
+        <v>0</v>
+      </c>
+      <c r="J6" s="37">
+        <v>463100000</v>
+      </c>
+      <c r="K6" s="41">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="37">
+        <v>-70.117283</v>
+      </c>
+      <c r="C7" s="37">
+        <v>-19.564599999999999</v>
+      </c>
+      <c r="D7" s="37">
+        <v>925</v>
+      </c>
+      <c r="E7" s="37">
+        <v>3</v>
+      </c>
+      <c r="F7" s="37">
+        <v>2.65</v>
+      </c>
+      <c r="G7" s="37">
+        <v>1</v>
+      </c>
+      <c r="H7" s="37">
+        <v>0</v>
+      </c>
+      <c r="J7" s="37">
+        <v>501800000</v>
+      </c>
+      <c r="K7" s="41">
+        <v>3400000.0000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="37">
+        <v>-70.117283</v>
+      </c>
+      <c r="C8" s="37">
+        <v>-19.564599999999999</v>
+      </c>
+      <c r="D8" s="37">
+        <v>925</v>
+      </c>
+      <c r="E8" s="37">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37">
+        <v>2.65</v>
+      </c>
+      <c r="G8" s="37">
+        <v>1</v>
+      </c>
+      <c r="H8" s="37">
+        <v>0</v>
+      </c>
+      <c r="J8" s="37">
+        <v>315000000</v>
+      </c>
+      <c r="K8" s="41">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="37">
+        <v>-70.117283</v>
+      </c>
+      <c r="C9" s="37">
+        <v>-19.564599999999999</v>
+      </c>
+      <c r="D9" s="37">
+        <v>925</v>
+      </c>
+      <c r="E9" s="37">
+        <v>3</v>
+      </c>
+      <c r="F9" s="37">
+        <v>2.65</v>
+      </c>
+      <c r="G9" s="37">
+        <v>1</v>
+      </c>
+      <c r="H9" s="37">
+        <v>0</v>
+      </c>
+      <c r="J9" s="37">
+        <v>209900000.00000003</v>
+      </c>
+      <c r="K9" s="41">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="37">
+        <v>-70.117283</v>
+      </c>
+      <c r="C10" s="37">
+        <v>-19.564599999999999</v>
+      </c>
+      <c r="D10" s="37">
+        <v>925</v>
+      </c>
+      <c r="E10" s="37">
+        <v>3</v>
+      </c>
+      <c r="F10" s="37">
+        <v>2.65</v>
+      </c>
+      <c r="G10" s="37">
+        <v>1</v>
+      </c>
+      <c r="H10" s="37">
+        <v>0</v>
+      </c>
+      <c r="J10" s="37">
+        <v>498800000</v>
+      </c>
+      <c r="K10" s="41">
+        <v>3100000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="37">
+        <v>-70.110219999999998</v>
+      </c>
+      <c r="C11" s="37">
+        <v>-19.565581999999999</v>
+      </c>
+      <c r="D11" s="37">
+        <v>931</v>
+      </c>
+      <c r="E11" s="37">
+        <v>3</v>
+      </c>
+      <c r="F11" s="37">
+        <v>2.65</v>
+      </c>
+      <c r="G11" s="37">
+        <v>1</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0</v>
+      </c>
+      <c r="J11" s="37">
+        <v>313400000</v>
+      </c>
+      <c r="K11" s="41">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="37">
+        <v>-70.110219999999998</v>
+      </c>
+      <c r="C12" s="37">
+        <v>-19.565581999999999</v>
+      </c>
+      <c r="D12" s="37">
+        <v>931</v>
+      </c>
+      <c r="E12" s="37">
+        <v>3</v>
+      </c>
+      <c r="F12" s="37">
+        <v>2.65</v>
+      </c>
+      <c r="G12" s="37">
+        <v>1</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0</v>
+      </c>
+      <c r="J12" s="37">
+        <v>415200000.00000006</v>
+      </c>
+      <c r="K12" s="41">
+        <v>2800000.0000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="37">
+        <v>-70.110219999999998</v>
+      </c>
+      <c r="C13" s="37">
+        <v>-19.565581999999999</v>
+      </c>
+      <c r="D13" s="37">
+        <v>931</v>
+      </c>
+      <c r="E13" s="37">
+        <v>3</v>
+      </c>
+      <c r="F13" s="37">
+        <v>2.65</v>
+      </c>
+      <c r="G13" s="37">
+        <v>1</v>
+      </c>
+      <c r="H13" s="37">
+        <v>0</v>
+      </c>
+      <c r="J13" s="37">
+        <v>534600000</v>
+      </c>
+      <c r="K13" s="41">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="37">
+        <v>-70.110219999999998</v>
+      </c>
+      <c r="C14" s="37">
+        <v>-19.565581999999999</v>
+      </c>
+      <c r="D14" s="37">
+        <v>931</v>
+      </c>
+      <c r="E14" s="37">
+        <v>3</v>
+      </c>
+      <c r="F14" s="37">
+        <v>2.65</v>
+      </c>
+      <c r="G14" s="37">
+        <v>1</v>
+      </c>
+      <c r="H14" s="37">
+        <v>0</v>
+      </c>
+      <c r="J14" s="37">
+        <v>396300000</v>
+      </c>
+      <c r="K14" s="41">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="37">
+        <v>-70.076702999999995</v>
+      </c>
+      <c r="C15" s="37">
+        <v>-19.551714</v>
+      </c>
+      <c r="D15" s="37">
+        <v>1023</v>
+      </c>
+      <c r="E15" s="37">
+        <v>3</v>
+      </c>
+      <c r="F15" s="37">
+        <v>2.65</v>
+      </c>
+      <c r="G15" s="37">
+        <v>1</v>
+      </c>
+      <c r="H15" s="37">
+        <v>0</v>
+      </c>
+      <c r="J15" s="37">
+        <v>1799999.9999999998</v>
+      </c>
+      <c r="K15" s="41">
+        <v>700000.00000000012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="37">
+        <v>-70.076702999999995</v>
+      </c>
+      <c r="C16" s="37">
+        <v>-19.551714</v>
+      </c>
+      <c r="D16" s="37">
+        <v>1023</v>
+      </c>
+      <c r="E16" s="37">
+        <v>3</v>
+      </c>
+      <c r="F16" s="37">
+        <v>2.65</v>
+      </c>
+      <c r="G16" s="37">
+        <v>1</v>
+      </c>
+      <c r="H16" s="37">
+        <v>0</v>
+      </c>
+      <c r="J16" s="37">
+        <v>3400000.0000000005</v>
+      </c>
+      <c r="K16" s="41">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="38">
+        <v>-70.076702999999995</v>
+      </c>
+      <c r="C17" s="38">
+        <v>-19.551714</v>
+      </c>
+      <c r="D17" s="38">
+        <v>1023</v>
+      </c>
+      <c r="E17" s="37">
+        <v>3</v>
+      </c>
+      <c r="F17" s="38">
+        <v>2.65</v>
+      </c>
+      <c r="G17" s="37">
+        <v>1</v>
+      </c>
+      <c r="H17" s="37">
+        <v>0</v>
+      </c>
+      <c r="J17" s="38">
+        <v>2300000</v>
+      </c>
+      <c r="K17" s="42">
+        <v>400000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A252A25-C5BD-9644-90A1-8F508F9F4733}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
@@ -2228,7 +3287,7 @@
     <col min="13" max="13" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2251,10 +3310,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -2263,72 +3322,72 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="N1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="O1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="P1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="M2" s="15">
+      <c r="J2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="13">
         <v>1</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="P2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="Q2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="1"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2336,11 +3395,11 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+        <v>21</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
       <c r="M3">
         <v>2</v>
       </c>
@@ -2351,7 +3410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="1"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2359,9 +3418,9 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="13"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="H4" s="11"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
       <c r="M4">
         <v>3</v>
       </c>
@@ -2369,7 +3428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2377,9 +3436,9 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="H5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
       <c r="M5">
         <v>4</v>
       </c>
@@ -2387,7 +3446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2395,14 +3454,14 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="H6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
       <c r="Q6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2410,14 +3469,14 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="13"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="H7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
       <c r="Q7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2425,14 +3484,14 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="H8" s="11"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
       <c r="Q8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2440,14 +3499,14 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="H9" s="11"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
       <c r="Q9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2455,11 +3514,11 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2467,11 +3526,11 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H11" s="11"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2479,26 +3538,26 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="M12" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="N12" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2506,26 +3565,26 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="L13" s="15" t="s">
-        <v>64</v>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="L13" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="N13" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="O13" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2533,20 +3592,20 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="M14" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2554,17 +3613,17 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
       <c r="L15" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="P15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2572,17 +3631,17 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
       <c r="L16" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="P16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2590,14 +3649,14 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
       <c r="P17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2605,21 +3664,21 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
       <c r="P18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="P19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="P20" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2635,12 +3694,12 @@
       <selection activeCell="O17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="9" max="9" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2663,10 +3722,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -2675,22 +3734,22 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="N1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="O1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="P1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="Q1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2712,7 +3771,7 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="1">
         <v>0</v>
       </c>
@@ -2734,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2756,15 +3815,15 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1">
         <v>2</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="7"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+    <row r="4" spans="1:17">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
       <c r="B4" s="10">
@@ -2785,14 +3844,14 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1">
         <v>4</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="7"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2814,14 +3873,14 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="1">
         <v>6</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2843,15 +3902,15 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="1">
         <v>8</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
+    <row r="7" spans="1:17">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
       <c r="B7" s="10">
@@ -2872,14 +3931,14 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="1">
         <v>10</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2901,14 +3960,14 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="1">
         <v>12</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2934,8 +3993,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+    <row r="10" spans="1:17">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
       <c r="B10" s="10">
@@ -2960,7 +4019,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2986,7 +4045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3012,8 +4071,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+    <row r="13" spans="1:17">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
       <c r="B13" s="10">
@@ -3038,7 +4097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3064,7 +4123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3090,8 +4149,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+    <row r="16" spans="1:17">
+      <c r="A16" s="14">
         <v>14</v>
       </c>
       <c r="B16" s="10">
@@ -3116,7 +4175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3142,7 +4201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3168,8 +4227,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
+    <row r="19" spans="1:9">
+      <c r="A19" s="14">
         <v>17</v>
       </c>
       <c r="B19" s="10">
@@ -3194,7 +4253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3220,7 +4279,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3246,8 +4305,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="16">
+    <row r="22" spans="1:9">
+      <c r="A22" s="14">
         <v>20</v>
       </c>
       <c r="B22" s="10">
@@ -3272,7 +4331,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3298,7 +4357,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3324,8 +4383,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="16">
+    <row r="25" spans="1:9">
+      <c r="A25" s="14">
         <v>23</v>
       </c>
       <c r="B25" s="10">
@@ -3350,7 +4409,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3376,7 +4435,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3402,8 +4461,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+    <row r="28" spans="1:9">
+      <c r="A28" s="14">
         <v>26</v>
       </c>
       <c r="B28" s="10">
@@ -3428,7 +4487,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3454,7 +4513,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3480,8 +4539,8 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="16">
+    <row r="31" spans="1:9">
+      <c r="A31" s="14">
         <v>29</v>
       </c>
       <c r="B31" s="10">
@@ -3506,7 +4565,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -3532,7 +4591,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -3558,8 +4617,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="16">
+    <row r="34" spans="1:9">
+      <c r="A34" s="14">
         <v>32</v>
       </c>
       <c r="B34" s="10">
@@ -3584,7 +4643,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -3610,7 +4669,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -3636,8 +4695,8 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="16">
+    <row r="37" spans="1:9">
+      <c r="A37" s="14">
         <v>35</v>
       </c>
       <c r="B37" s="10">
@@ -3662,7 +4721,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -3688,7 +4747,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3714,8 +4773,8 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="16">
+    <row r="40" spans="1:9">
+      <c r="A40" s="14">
         <v>38</v>
       </c>
       <c r="B40" s="10">
@@ -3740,7 +4799,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3766,7 +4825,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3792,8 +4851,8 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="16">
+    <row r="43" spans="1:9">
+      <c r="A43" s="14">
         <v>41</v>
       </c>
       <c r="B43" s="10">
@@ -3818,7 +4877,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3844,7 +4903,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3870,8 +4929,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="16">
+    <row r="46" spans="1:9">
+      <c r="A46" s="14">
         <v>44</v>
       </c>
       <c r="B46" s="10">
@@ -3896,7 +4955,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3922,7 +4981,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3948,8 +5007,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="16">
+    <row r="49" spans="1:9">
+      <c r="A49" s="14">
         <v>47</v>
       </c>
       <c r="B49" s="10">
@@ -3974,7 +5033,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4000,7 +5059,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4026,8 +5085,8 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="16">
+    <row r="52" spans="1:9">
+      <c r="A52" s="14">
         <v>50</v>
       </c>
       <c r="B52" s="10">
@@ -4065,9 +5124,9 @@
       <selection activeCell="A2" sqref="A2:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4090,7 +5149,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -4099,7 +5158,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -4121,7 +5180,7 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="11">
         <v>0</v>
       </c>
       <c r="I2" s="1"/>
@@ -4134,7 +5193,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4156,7 +5215,7 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="11">
         <v>0</v>
       </c>
       <c r="I3" s="1"/>
@@ -4169,7 +5228,7 @@
         <v>23300000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -4191,7 +5250,7 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="11">
         <v>0</v>
       </c>
       <c r="I4" s="1"/>
@@ -4204,7 +5263,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -4226,7 +5285,7 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="11">
         <v>0</v>
       </c>
       <c r="I5" s="1"/>
@@ -4239,9 +5298,9 @@
         <v>36500000</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="B6" s="9">
         <v>90</v>
@@ -4261,13 +5320,13 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B7" s="10">
         <v>0</v>
@@ -4287,13 +5346,13 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B8" s="10">
         <v>90</v>
@@ -4313,13 +5372,13 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B9" s="10">
         <v>0</v>
@@ -4339,13 +5398,13 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B10" s="9">
         <v>90</v>
@@ -4365,11 +5424,11 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -4391,15 +5450,15 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
     </row>
@@ -4417,9 +5476,9 @@
       <selection sqref="A1:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4442,10 +5501,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -4454,22 +5513,22 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="N1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="O1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="P1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="Q1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="B2">
         <v>0</v>
       </c>
@@ -4495,7 +5554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="B3">
         <v>2</v>
       </c>
@@ -4506,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="B4">
         <v>4</v>
       </c>
@@ -4517,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="B5">
         <v>6</v>
       </c>
@@ -4528,7 +5587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="B6">
         <v>8</v>
       </c>
@@ -4539,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="B7">
         <v>10</v>
       </c>
@@ -4550,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="B8">
         <v>12</v>
       </c>
@@ -4561,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="B9">
         <v>14</v>
       </c>
@@ -4572,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="B10">
         <v>16</v>
       </c>
@@ -4583,7 +5642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="B11">
         <v>18</v>
       </c>
@@ -4594,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="B12">
         <v>20</v>
       </c>
@@ -4605,7 +5664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="B13">
         <v>22</v>
       </c>
@@ -4616,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="B14">
         <v>24</v>
       </c>
@@ -4627,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="B15">
         <v>26</v>
       </c>
@@ -4638,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="B16">
         <v>28</v>
       </c>
@@ -4649,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="B17">
         <v>30</v>
       </c>
@@ -4660,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="B18">
         <v>32</v>
       </c>
@@ -4671,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="B19">
         <v>34</v>
       </c>
@@ -4682,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="B20">
         <v>36</v>
       </c>
@@ -4693,7 +5752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="6"/>
       <c r="B21">
         <v>38</v>
@@ -4707,12 +5766,12 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="13"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="B22">
         <v>40</v>
       </c>
@@ -4723,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="B23">
         <v>42</v>
       </c>
@@ -4734,7 +5793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="B24">
         <v>44</v>
       </c>
@@ -4745,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="B25">
         <v>46</v>
       </c>
@@ -4756,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="B26">
         <v>48</v>
       </c>
@@ -4767,7 +5826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="B27">
         <v>50</v>
       </c>
@@ -4778,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="B28">
         <v>52</v>
       </c>
@@ -4792,7 +5851,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="B29">
         <v>54</v>
       </c>
@@ -4806,7 +5865,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="B30">
         <v>56</v>
       </c>
@@ -4820,7 +5879,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="B31">
         <v>58</v>
       </c>
@@ -4834,7 +5893,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="B32">
         <v>60</v>
       </c>
@@ -4848,7 +5907,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9">
       <c r="B33">
         <v>62</v>
       </c>
@@ -4862,7 +5921,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9">
       <c r="B34">
         <v>64</v>
       </c>
@@ -4876,7 +5935,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9">
       <c r="B35">
         <v>66</v>
       </c>
@@ -4890,7 +5949,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9">
       <c r="B36">
         <v>68</v>
       </c>
@@ -4904,7 +5963,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9">
       <c r="B37">
         <v>70</v>
       </c>
@@ -4918,7 +5977,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9">
       <c r="B38">
         <v>72</v>
       </c>
@@ -4932,7 +5991,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9">
       <c r="B39">
         <v>74</v>
       </c>
@@ -4943,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9">
       <c r="B40">
         <v>76</v>
       </c>
@@ -4954,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9">
       <c r="B41">
         <v>78</v>
       </c>
@@ -4965,7 +6024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9">
       <c r="B42">
         <v>80</v>
       </c>
@@ -4976,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9">
       <c r="B43">
         <v>82</v>
       </c>
@@ -4987,7 +6046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9">
       <c r="B44">
         <v>84</v>
       </c>
@@ -4998,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9">
       <c r="B45">
         <v>86</v>
       </c>
@@ -5009,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9">
       <c r="B46">
         <v>88</v>
       </c>
@@ -5020,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9">
       <c r="B47">
         <v>90</v>
       </c>
@@ -5044,7 +6103,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
@@ -5059,7 +6118,7 @@
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5082,7 +6141,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -5091,7 +6150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -5113,7 +6172,7 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="11">
         <v>0</v>
       </c>
       <c r="I2" s="1"/>
@@ -5126,9 +6185,9 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B3" s="9">
         <v>-19</v>
@@ -5142,14 +6201,14 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="1"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B4" s="9">
         <v>75</v>
@@ -5163,14 +6222,14 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="1"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
@@ -5184,12 +6243,12 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="1"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -5197,12 +6256,12 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="13"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="1"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="4"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -5210,12 +6269,12 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="1"/>
       <c r="J7" s="2"/>
       <c r="K7" s="7"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="4"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -5223,12 +6282,12 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="11"/>
       <c r="I8" s="1"/>
       <c r="J8" s="2"/>
       <c r="K8" s="7"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="3"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -5236,12 +6295,12 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="1"/>
       <c r="J9" s="2"/>
       <c r="K9" s="7"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="3"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -5249,12 +6308,12 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="1"/>
       <c r="J10" s="2"/>
       <c r="K10" s="7"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="4"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -5262,12 +6321,12 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="1"/>
       <c r="J11" s="2"/>
       <c r="K11" s="7"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="4"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -5275,12 +6334,12 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="13"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="1"/>
       <c r="J12" s="2"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="1"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -5288,12 +6347,12 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="1"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5301,12 +6360,12 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="13"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="1"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="5"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -5314,12 +6373,12 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="1"/>
       <c r="J15" s="8"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="1"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -5327,12 +6386,12 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="11"/>
       <c r="I16" s="1"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -5340,12 +6399,12 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="1"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="1"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -5353,12 +6412,12 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="13"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="1"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="3"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -5366,12 +6425,12 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="13"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="1"/>
       <c r="J19" s="2"/>
       <c r="K19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="3"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -5379,12 +6438,12 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="1"/>
       <c r="J20" s="2"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="6"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -5392,67 +6451,67 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="13"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="1"/>
       <c r="J21" s="2"/>
       <c r="K21" s="7"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="B22" s="10"/>
       <c r="E22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="B23" s="10"/>
       <c r="E23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="B24" s="10"/>
       <c r="E24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="B25" s="9"/>
       <c r="E25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="B26" s="9"/>
       <c r="E26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="E27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="E28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="E29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="E30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="E31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="E32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -5470,9 +6529,9 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5495,7 +6554,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -5504,9 +6563,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B2">
         <v>75</v>
@@ -5518,9 +6577,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B3">
         <v>75</v>
@@ -5532,9 +6591,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>75</v>
@@ -5546,9 +6605,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>75</v>
@@ -5560,9 +6619,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>75</v>
@@ -5574,9 +6633,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>75</v>
@@ -5588,9 +6647,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>75</v>
@@ -5602,9 +6661,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>75</v>
@@ -5616,9 +6675,9 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>75</v>
@@ -5630,9 +6689,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B11">
         <v>75</v>
@@ -5644,9 +6703,9 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>75</v>
@@ -5658,9 +6717,9 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>75</v>
@@ -5672,9 +6731,9 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>75</v>
@@ -5686,9 +6745,9 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>75</v>
@@ -5700,9 +6759,9 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>75</v>
@@ -5714,9 +6773,9 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>75</v>
@@ -5728,9 +6787,9 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>75</v>
@@ -5742,9 +6801,9 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -5756,9 +6815,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5770,9 +6829,9 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -5784,9 +6843,9 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -5798,9 +6857,9 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -5812,9 +6871,9 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5826,9 +6885,9 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5840,9 +6899,9 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5854,9 +6913,9 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -5868,9 +6927,9 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -5885,9 +6944,9 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -5902,9 +6961,9 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5919,9 +6978,9 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -5936,9 +6995,9 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -5953,9 +7012,9 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -5970,9 +7029,9 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -5987,9 +7046,9 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -6011,15 +7070,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9FD288-F7FF-CC43-984C-6BC5F64D5A7D}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6042,7 +7101,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -6051,9 +7110,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B2" s="9">
         <v>20</v>
@@ -6064,48 +7123,66 @@
       <c r="D2" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>70</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -6116,19 +7193,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24694F2A-853A-E44C-A507-6368D3EEDD55}">
-  <dimension ref="A1:Q10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A016230-6B57-C74A-92E2-8B80546C58EB}">
+  <dimension ref="A1:BT16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="A1:XFD1048576"/>
+      <selection activeCell="J2" sqref="J2:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="9" max="9" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:72">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6151,10 +7228,7 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -6163,269 +7237,692 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="N1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="O1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="10">
-        <v>38</v>
-      </c>
-      <c r="C2" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D2" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="1">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2380000</v>
-      </c>
-      <c r="K2" s="2">
-        <v>56000</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>27.5</v>
-      </c>
-      <c r="P2">
-        <v>28.5</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="10">
-        <v>38</v>
-      </c>
-      <c r="C3" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D3" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="1">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2630000</v>
-      </c>
-      <c r="K3" s="7">
-        <v>59000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="10">
-        <v>38</v>
-      </c>
-      <c r="C4" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="1">
-        <v>15</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2750000</v>
-      </c>
-      <c r="K4" s="7">
-        <v>57000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="10">
-        <v>38</v>
-      </c>
-      <c r="C5" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="1">
-        <v>35</v>
-      </c>
-      <c r="J5" s="2">
-        <v>330000</v>
-      </c>
-      <c r="K5" s="7">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="10">
-        <v>38</v>
-      </c>
-      <c r="C6" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="1">
-        <v>45</v>
-      </c>
-      <c r="J6" s="2">
-        <v>730000</v>
-      </c>
-      <c r="K6" s="7">
-        <v>540000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="10">
-        <v>38</v>
-      </c>
-      <c r="C7" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D7" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="1">
-        <v>35</v>
-      </c>
-      <c r="J7" s="2">
-        <v>340000</v>
-      </c>
-      <c r="K7" s="7">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="10">
-        <v>38</v>
-      </c>
-      <c r="C8" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D8" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="1">
-        <v>55</v>
-      </c>
-      <c r="J8" s="2">
-        <v>590000</v>
-      </c>
-      <c r="K8" s="7">
-        <v>560000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
+    </row>
+    <row r="2" spans="1:72" s="47" customFormat="1" ht="17" customHeight="1">
+      <c r="A2" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="43">
+        <v>-21.724806000000001</v>
+      </c>
+      <c r="C2" s="43">
+        <v>-69.237971999999999</v>
+      </c>
+      <c r="D2" s="43">
+        <v>1676</v>
+      </c>
+      <c r="E2" s="43">
+        <v>5</v>
+      </c>
+      <c r="F2" s="45">
+        <v>2.74</v>
+      </c>
+      <c r="G2" s="47">
+        <v>1</v>
+      </c>
+      <c r="H2" s="47">
+        <v>0</v>
+      </c>
+      <c r="J2" s="46">
+        <f>3.87*10000000</f>
+        <v>38700000</v>
+      </c>
+      <c r="K2" s="46">
+        <v>3700000</v>
+      </c>
+      <c r="L2" s="43"/>
+      <c r="M2" s="47">
+        <v>4</v>
+      </c>
+      <c r="N2" s="47">
+        <v>1</v>
+      </c>
+      <c r="O2" s="47">
+        <v>0</v>
+      </c>
+      <c r="P2" s="47">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="47">
+        <v>2</v>
+      </c>
+      <c r="R2" s="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:72" s="47" customFormat="1" ht="17" customHeight="1">
+      <c r="A3" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="43">
+        <v>-21.724806000000001</v>
+      </c>
+      <c r="C3" s="43">
+        <v>-69.237971999999999</v>
+      </c>
+      <c r="D3" s="43">
+        <v>1676</v>
+      </c>
+      <c r="E3" s="43">
+        <v>5</v>
+      </c>
+      <c r="F3" s="45">
+        <v>2.74</v>
+      </c>
+      <c r="G3" s="47">
+        <v>1</v>
+      </c>
+      <c r="H3" s="47">
+        <v>0</v>
+      </c>
+      <c r="J3" s="46">
+        <f>3.79*10000000</f>
+        <v>37900000</v>
+      </c>
+      <c r="K3" s="46">
+        <v>2500000</v>
+      </c>
+      <c r="L3" s="43"/>
+    </row>
+    <row r="4" spans="1:72" s="47" customFormat="1" ht="17" customHeight="1">
+      <c r="A4" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="43">
+        <v>-21.704056000000001</v>
+      </c>
+      <c r="C4" s="43">
+        <v>-69.209444000000005</v>
+      </c>
+      <c r="D4" s="43">
+        <v>1438</v>
+      </c>
+      <c r="E4" s="43">
+        <v>5</v>
+      </c>
+      <c r="F4" s="45">
+        <v>2.74</v>
+      </c>
+      <c r="G4" s="47">
+        <v>1</v>
+      </c>
+      <c r="H4" s="47">
+        <v>0</v>
+      </c>
+      <c r="J4" s="46">
+        <f>0.95*10000000</f>
+        <v>9500000</v>
+      </c>
+      <c r="K4" s="46">
+        <v>1500000</v>
+      </c>
+      <c r="L4" s="43"/>
+      <c r="N4" s="43"/>
+    </row>
+    <row r="5" spans="1:72" s="47" customFormat="1" ht="17" customHeight="1">
+      <c r="A5" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="43">
+        <v>-21.704056000000001</v>
+      </c>
+      <c r="C5" s="43">
+        <v>-69.209444000000005</v>
+      </c>
+      <c r="D5" s="43">
+        <v>1438</v>
+      </c>
+      <c r="E5" s="43">
+        <v>5</v>
+      </c>
+      <c r="F5" s="45">
+        <v>2.74</v>
+      </c>
+      <c r="G5" s="47">
+        <v>1</v>
+      </c>
+      <c r="H5" s="47">
+        <v>0</v>
+      </c>
+      <c r="J5" s="46">
+        <f>0.42*10000000</f>
+        <v>4200000</v>
+      </c>
+      <c r="K5" s="46">
+        <v>1300000</v>
+      </c>
+      <c r="L5" s="43"/>
+    </row>
+    <row r="6" spans="1:72" s="47" customFormat="1" ht="17" customHeight="1">
+      <c r="A6" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="43">
+        <v>-21.704056000000001</v>
+      </c>
+      <c r="C6" s="43">
+        <v>-69.209444000000005</v>
+      </c>
+      <c r="D6" s="43">
+        <v>1438</v>
+      </c>
+      <c r="E6" s="43">
+        <v>5</v>
+      </c>
+      <c r="F6" s="45">
+        <v>2.74</v>
+      </c>
+      <c r="G6" s="47">
+        <v>1</v>
+      </c>
+      <c r="H6" s="47">
+        <v>0</v>
+      </c>
+      <c r="J6" s="46">
+        <f>1.11*10000000</f>
+        <v>11100000.000000002</v>
+      </c>
+      <c r="K6" s="46">
+        <v>2000000</v>
+      </c>
+      <c r="L6" s="43"/>
+    </row>
+    <row r="7" spans="1:72" s="47" customFormat="1" ht="17" customHeight="1">
+      <c r="A7" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="43">
+        <v>-21.101222</v>
+      </c>
+      <c r="C7" s="43">
+        <v>-69.257499999999993</v>
+      </c>
+      <c r="D7" s="43">
+        <v>1065</v>
+      </c>
+      <c r="E7" s="43">
+        <v>5</v>
+      </c>
+      <c r="F7" s="45">
+        <v>2.74</v>
+      </c>
+      <c r="G7" s="47">
+        <v>1</v>
+      </c>
+      <c r="H7" s="47">
+        <v>0</v>
+      </c>
+      <c r="J7" s="46">
+        <v>5800000</v>
+      </c>
+      <c r="K7" s="46">
+        <v>800000</v>
+      </c>
+      <c r="L7" s="43"/>
+    </row>
+    <row r="8" spans="1:72" s="48" customFormat="1" ht="17" customHeight="1">
+      <c r="A8" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="43">
+        <v>-21.101222</v>
+      </c>
+      <c r="C8" s="43">
+        <v>-69.257499999999993</v>
+      </c>
+      <c r="D8" s="43">
+        <v>1065</v>
+      </c>
+      <c r="E8" s="43">
+        <v>5</v>
+      </c>
+      <c r="F8" s="45">
+        <v>2.74</v>
+      </c>
+      <c r="G8" s="47">
+        <v>1</v>
+      </c>
+      <c r="H8" s="47">
+        <v>0</v>
+      </c>
+      <c r="J8" s="46">
+        <v>6850000.0000000009</v>
+      </c>
+      <c r="K8" s="46">
+        <v>800000</v>
+      </c>
+      <c r="L8" s="43"/>
+    </row>
+    <row r="9" spans="1:72" s="49" customFormat="1" ht="17" customHeight="1">
+      <c r="A9" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="43">
+        <v>-21.078944</v>
+      </c>
+      <c r="C9" s="43">
+        <v>-69.364833000000004</v>
+      </c>
+      <c r="D9" s="43">
+        <v>1573</v>
+      </c>
+      <c r="E9" s="43">
+        <v>5</v>
+      </c>
+      <c r="F9" s="45">
+        <v>2.74</v>
+      </c>
+      <c r="G9" s="47">
+        <v>1</v>
+      </c>
+      <c r="H9" s="47">
+        <v>0</v>
+      </c>
+      <c r="J9" s="46">
+        <v>1400000.0000000002</v>
+      </c>
+      <c r="K9" s="46">
+        <v>200000</v>
+      </c>
+      <c r="L9" s="43"/>
+    </row>
+    <row r="10" spans="1:72" ht="17" customHeight="1">
+      <c r="A10" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="43">
+        <v>-20.101167</v>
+      </c>
+      <c r="C10" s="43">
+        <v>-69.491221999999993</v>
+      </c>
+      <c r="D10" s="43">
+        <v>1380</v>
+      </c>
+      <c r="E10" s="43">
+        <v>5</v>
+      </c>
+      <c r="F10" s="37">
+        <v>2.74</v>
+      </c>
+      <c r="G10" s="47">
+        <v>1</v>
+      </c>
+      <c r="H10" s="47">
+        <v>0</v>
+      </c>
+      <c r="J10" s="41">
+        <v>75000000</v>
+      </c>
+      <c r="K10" s="41">
+        <v>4400000</v>
+      </c>
+      <c r="L10" s="43"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
+      <c r="X10" s="47"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="47"/>
+      <c r="AE10" s="47"/>
+      <c r="AF10" s="47"/>
+      <c r="AG10" s="47"/>
+      <c r="AH10" s="47"/>
+      <c r="AI10" s="47"/>
+      <c r="AJ10" s="47"/>
+      <c r="AK10" s="47"/>
+      <c r="AL10" s="47"/>
+      <c r="AM10" s="47"/>
+      <c r="AN10" s="47"/>
+      <c r="AO10" s="47"/>
+      <c r="AP10" s="47"/>
+      <c r="AQ10" s="47"/>
+      <c r="AR10" s="47"/>
+      <c r="AS10" s="47"/>
+      <c r="AT10" s="47"/>
+      <c r="AU10" s="47"/>
+      <c r="AV10" s="47"/>
+      <c r="AW10" s="47"/>
+      <c r="AX10" s="47"/>
+      <c r="AY10" s="47"/>
+      <c r="AZ10" s="47"/>
+      <c r="BA10" s="47"/>
+      <c r="BB10" s="47"/>
+      <c r="BC10" s="47"/>
+      <c r="BD10" s="47"/>
+      <c r="BE10" s="47"/>
+      <c r="BF10" s="47"/>
+      <c r="BG10" s="47"/>
+      <c r="BH10" s="47"/>
+      <c r="BI10" s="47"/>
+      <c r="BJ10" s="47"/>
+      <c r="BK10" s="47"/>
+      <c r="BL10" s="47"/>
+      <c r="BM10" s="47"/>
+      <c r="BN10" s="47"/>
+      <c r="BO10" s="47"/>
+      <c r="BP10" s="47"/>
+      <c r="BQ10" s="47"/>
+      <c r="BR10" s="47"/>
+      <c r="BS10" s="47"/>
+      <c r="BT10" s="47"/>
+    </row>
+    <row r="11" spans="1:72" s="50" customFormat="1" ht="17" customHeight="1">
+      <c r="A11" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="43">
+        <v>-20.101167</v>
+      </c>
+      <c r="C11" s="43">
+        <v>-69.491221999999993</v>
+      </c>
+      <c r="D11" s="43">
+        <v>1380</v>
+      </c>
+      <c r="E11" s="43">
+        <v>5</v>
+      </c>
+      <c r="F11" s="37">
+        <v>2.74</v>
+      </c>
+      <c r="G11" s="47">
+        <v>1</v>
+      </c>
+      <c r="H11" s="47">
+        <v>0</v>
+      </c>
+      <c r="J11" s="41">
+        <v>78700000</v>
+      </c>
+      <c r="K11" s="41">
+        <v>6400000</v>
+      </c>
+      <c r="L11" s="43"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
+      <c r="X11" s="47"/>
+      <c r="Y11" s="47"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
+      <c r="AB11" s="47"/>
+      <c r="AC11" s="47"/>
+      <c r="AD11" s="47"/>
+      <c r="AE11" s="47"/>
+      <c r="AF11" s="47"/>
+      <c r="AG11" s="47"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="47"/>
+      <c r="AJ11" s="47"/>
+      <c r="AK11" s="47"/>
+      <c r="AL11" s="47"/>
+      <c r="AM11" s="47"/>
+      <c r="AN11" s="47"/>
+      <c r="AO11" s="47"/>
+      <c r="AP11" s="47"/>
+      <c r="AQ11" s="47"/>
+      <c r="AR11" s="47"/>
+      <c r="AS11" s="47"/>
+      <c r="AT11" s="47"/>
+      <c r="AU11" s="47"/>
+      <c r="AV11" s="47"/>
+      <c r="AW11" s="47"/>
+      <c r="AX11" s="47"/>
+      <c r="AY11" s="47"/>
+      <c r="AZ11" s="47"/>
+      <c r="BA11" s="47"/>
+      <c r="BB11" s="47"/>
+      <c r="BC11" s="47"/>
+      <c r="BD11" s="47"/>
+      <c r="BE11" s="47"/>
+      <c r="BF11" s="47"/>
+      <c r="BG11" s="47"/>
+      <c r="BH11" s="47"/>
+      <c r="BI11" s="47"/>
+      <c r="BJ11" s="47"/>
+      <c r="BK11" s="47"/>
+      <c r="BL11" s="47"/>
+      <c r="BM11" s="47"/>
+      <c r="BN11" s="47"/>
+      <c r="BO11" s="47"/>
+      <c r="BP11" s="47"/>
+      <c r="BQ11" s="47"/>
+      <c r="BR11" s="47"/>
+      <c r="BS11" s="47"/>
+      <c r="BT11" s="47"/>
+    </row>
+    <row r="12" spans="1:72" s="53" customFormat="1" ht="17" customHeight="1">
+      <c r="A12" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="51">
+        <v>-19.987110999999999</v>
+      </c>
+      <c r="C12" s="51">
+        <v>-69.433610999999999</v>
+      </c>
+      <c r="D12" s="51">
+        <v>1943</v>
+      </c>
+      <c r="E12" s="43">
+        <v>5</v>
+      </c>
+      <c r="F12" s="36">
+        <v>2.74</v>
+      </c>
+      <c r="G12" s="47">
+        <v>1</v>
+      </c>
+      <c r="H12" s="47">
+        <v>0</v>
+      </c>
+      <c r="J12" s="40">
+        <v>167400000</v>
+      </c>
+      <c r="K12" s="40">
+        <v>9900000</v>
+      </c>
+      <c r="L12" s="43"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
+      <c r="S12" s="47"/>
+      <c r="T12" s="47"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
+      <c r="X12" s="47"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="52"/>
+      <c r="AJ12" s="52"/>
+      <c r="AK12" s="52"/>
+      <c r="AL12" s="52"/>
+      <c r="AM12" s="52"/>
+      <c r="AN12" s="52"/>
+      <c r="AO12" s="52"/>
+      <c r="AP12" s="52"/>
+      <c r="AQ12" s="52"/>
+      <c r="AR12" s="52"/>
+      <c r="AS12" s="52"/>
+      <c r="AT12" s="52"/>
+      <c r="AU12" s="52"/>
+      <c r="AV12" s="52"/>
+      <c r="AW12" s="52"/>
+      <c r="AX12" s="52"/>
+      <c r="AY12" s="52"/>
+      <c r="AZ12" s="52"/>
+      <c r="BA12" s="52"/>
+      <c r="BB12" s="52"/>
+      <c r="BC12" s="52"/>
+      <c r="BD12" s="52"/>
+      <c r="BE12" s="52"/>
+      <c r="BF12" s="52"/>
+      <c r="BG12" s="52"/>
+      <c r="BH12" s="52"/>
+      <c r="BI12" s="52"/>
+      <c r="BJ12" s="52"/>
+      <c r="BK12" s="52"/>
+      <c r="BL12" s="52"/>
+      <c r="BM12" s="52"/>
+      <c r="BN12" s="52"/>
+      <c r="BO12" s="52"/>
+      <c r="BP12" s="52"/>
+      <c r="BQ12" s="52"/>
+      <c r="BR12" s="52"/>
+      <c r="BS12" s="52"/>
+      <c r="BT12" s="52"/>
+    </row>
+    <row r="13" spans="1:72" s="47" customFormat="1" ht="17" customHeight="1">
+      <c r="A13" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="43">
+        <v>-19.987110999999999</v>
+      </c>
+      <c r="C13" s="43">
+        <v>-69.433610999999999</v>
+      </c>
+      <c r="D13" s="43">
+        <v>1943</v>
+      </c>
+      <c r="E13" s="43">
+        <v>5</v>
+      </c>
+      <c r="F13" s="45">
+        <v>2.74</v>
+      </c>
+      <c r="G13" s="47">
+        <v>1</v>
+      </c>
+      <c r="H13" s="47">
+        <v>0</v>
+      </c>
+      <c r="J13" s="54">
+        <v>331000000</v>
+      </c>
+      <c r="K13" s="54">
+        <v>13400000</v>
+      </c>
+      <c r="L13" s="43"/>
+    </row>
+    <row r="14" spans="1:72" s="57" customFormat="1" ht="17" customHeight="1">
+      <c r="A14" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="55">
+        <v>-20.108222000000001</v>
+      </c>
+      <c r="C14" s="55">
+        <v>-69.311722000000003</v>
+      </c>
+      <c r="D14" s="55">
+        <v>2233</v>
+      </c>
+      <c r="E14" s="43">
+        <v>5</v>
+      </c>
+      <c r="F14" s="45">
+        <v>2.74</v>
+      </c>
+      <c r="G14" s="47">
+        <v>1</v>
+      </c>
+      <c r="H14" s="47">
+        <v>0</v>
+      </c>
+      <c r="J14" s="56">
+        <v>199100000</v>
+      </c>
+      <c r="K14" s="56">
+        <v>7600000</v>
+      </c>
+      <c r="L14" s="43"/>
+    </row>
+    <row r="15" spans="1:72" s="47" customFormat="1" ht="17" customHeight="1">
+      <c r="A15" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="43">
+        <v>-19.786306</v>
+      </c>
+      <c r="C15" s="43">
+        <v>-69.682000000000002</v>
+      </c>
+      <c r="D15" s="43">
+        <v>1289</v>
+      </c>
+      <c r="E15" s="43">
+        <v>5</v>
+      </c>
+      <c r="F15" s="45">
+        <v>2.74</v>
+      </c>
+      <c r="G15" s="47">
+        <v>1</v>
+      </c>
+      <c r="H15" s="47">
+        <v>0</v>
+      </c>
+      <c r="J15" s="46">
+        <v>72400000</v>
+      </c>
+      <c r="K15" s="46">
+        <v>6200000</v>
+      </c>
+      <c r="L15" s="43"/>
+    </row>
+    <row r="16" spans="1:72">
+      <c r="G16" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6433,20 +7930,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1377A66-7F29-A649-8A24-0084E41BD032}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24694F2A-853A-E44C-A507-6368D3EEDD55}">
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="A2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6469,7 +7965,10 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>60</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -6478,735 +7977,269 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="N1" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="O1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="P1" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="Q1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="9">
-        <v>-19.578942000000001</v>
-      </c>
-      <c r="C2" s="9">
-        <v>-69.872967000000003</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1172</v>
+        <v>22</v>
+      </c>
+      <c r="B2" s="10">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2500</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1">
-        <v>2.89</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1">
-        <f>65.91*10^7</f>
-        <v>659100000</v>
-      </c>
-      <c r="K2" s="1">
-        <f>1.2*10^7</f>
-        <v>12000000</v>
+      <c r="H2" s="11"/>
+      <c r="I2" s="1">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2380000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>56000</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="P2">
+        <v>28.5</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="10">
+        <v>38</v>
+      </c>
+      <c r="C3" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="1">
+        <v>15</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2630000</v>
+      </c>
+      <c r="K3" s="7">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="10">
-        <v>-19.340944</v>
-      </c>
-      <c r="C3" s="10">
-        <v>-69.727999999999994</v>
-      </c>
-      <c r="D3" s="10">
-        <v>1607</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2">
-        <f>74.48*10^7</f>
-        <v>744800000</v>
-      </c>
-      <c r="K3" s="2">
-        <f>2.33*10^7</f>
-        <v>23300000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B4" s="10">
-        <v>-19.340944</v>
+        <v>38</v>
       </c>
       <c r="C4" s="10">
-        <v>-69.727999999999994</v>
+        <v>-106</v>
       </c>
       <c r="D4" s="10">
-        <v>1607</v>
+        <v>2500</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1">
-        <v>2.89</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="1">
+        <v>15</v>
+      </c>
       <c r="J4" s="2">
-        <f>91.1*10^7</f>
-        <v>911000000</v>
-      </c>
-      <c r="K4" s="2">
-        <f>1.3*10^7</f>
-        <v>13000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>2750000</v>
+      </c>
+      <c r="K4" s="7">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B5" s="10">
-        <v>-19.340944</v>
+        <v>38</v>
       </c>
       <c r="C5" s="10">
-        <v>-69.727999999999994</v>
+        <v>-106</v>
       </c>
       <c r="D5" s="10">
-        <v>1607</v>
+        <v>2500</v>
       </c>
       <c r="E5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1">
-        <v>2.89</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="1">
+        <v>35</v>
+      </c>
       <c r="J5" s="2">
-        <f>167.12*10^7</f>
-        <v>1671200000</v>
-      </c>
-      <c r="K5" s="2">
-        <f>3.65*10^7</f>
-        <v>36500000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>330000</v>
+      </c>
+      <c r="K5" s="7">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B6" s="10">
-        <v>-19.336722000000002</v>
+        <v>38</v>
       </c>
       <c r="C6" s="10">
-        <v>-69.729611000000006</v>
+        <v>-106</v>
       </c>
       <c r="D6" s="10">
-        <v>1604</v>
+        <v>2500</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1">
-        <v>2.89</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="1">
+        <v>45</v>
+      </c>
       <c r="J6" s="2">
-        <f>104.68*10^7</f>
-        <v>1046800000.0000001</v>
-      </c>
-      <c r="K6" s="2">
-        <f>2.24*10^7</f>
-        <v>22400000.000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>730000</v>
+      </c>
+      <c r="K6" s="7">
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9">
-        <v>-18.886583000000002</v>
-      </c>
-      <c r="C7" s="9">
-        <v>-69.699055999999999</v>
-      </c>
-      <c r="D7" s="9">
-        <v>2282</v>
+        <v>27</v>
+      </c>
+      <c r="B7" s="10">
+        <v>38</v>
+      </c>
+      <c r="C7" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2500</v>
       </c>
       <c r="E7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1">
-        <v>2.89</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="1">
+        <v>35</v>
+      </c>
       <c r="J7" s="2">
-        <f>269.89*10^7</f>
-        <v>2698900000</v>
+        <v>340000</v>
       </c>
       <c r="K7" s="7">
-        <f>4.73*10^7</f>
-        <v>47300000.000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="9">
-        <v>-18.886583000000002</v>
-      </c>
-      <c r="C8" s="9">
-        <v>-69.699055999999999</v>
-      </c>
-      <c r="D8" s="9">
-        <v>2282</v>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="10">
+        <v>38</v>
+      </c>
+      <c r="C8" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2500</v>
       </c>
       <c r="E8" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1">
-        <v>2.89</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="1">
+        <v>55</v>
+      </c>
       <c r="J8" s="2">
-        <f>246.53*10^7</f>
-        <v>2465300000</v>
+        <v>590000</v>
       </c>
       <c r="K8" s="7">
-        <f>4.29*10^7</f>
-        <v>42900000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="9">
-        <v>-18.905639000000001</v>
-      </c>
-      <c r="C9" s="9">
-        <v>-69.954583</v>
-      </c>
-      <c r="D9" s="9">
-        <v>1443</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2">
-        <f>141.41*10^7</f>
-        <v>1414100000</v>
-      </c>
-      <c r="K9" s="7">
-        <f>2.52*10^7</f>
-        <v>25200000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="9">
-        <v>-18.905639000000001</v>
-      </c>
-      <c r="C10" s="9">
-        <v>-69.954583</v>
-      </c>
-      <c r="D10" s="9">
-        <v>1443</v>
-      </c>
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2">
-        <f>164.8*10^7</f>
-        <v>1648000000</v>
-      </c>
-      <c r="K10" s="7">
-        <f>2.84*10^7</f>
-        <v>28400000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="9">
-        <v>-18.852694</v>
-      </c>
-      <c r="C11" s="9">
-        <v>-69.657167000000001</v>
-      </c>
-      <c r="D11" s="9">
-        <v>2550</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2">
-        <f>235*10^7</f>
-        <v>2350000000</v>
-      </c>
-      <c r="K11" s="7">
-        <f>4.04*10^7</f>
-        <v>40400000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="9">
-        <v>-20.704083000000001</v>
-      </c>
-      <c r="C12" s="9">
-        <v>-69.420833000000002</v>
-      </c>
-      <c r="D12" s="9">
-        <v>1084</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2">
-        <f>90.19*10^7</f>
-        <v>901900000</v>
-      </c>
-      <c r="K12" s="7">
-        <f>1.97*10^7</f>
-        <v>19700000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="11">
-        <v>-19.786306</v>
-      </c>
-      <c r="C13" s="11">
-        <v>-69.682000000000002</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1289</v>
-      </c>
-      <c r="E13" s="1">
-        <v>5</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="2">
-        <f>107.8*10^7</f>
-        <v>1078000000</v>
-      </c>
-      <c r="K13" s="2">
-        <f>2.77*10^7</f>
-        <v>27700000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="10">
-        <v>-19.786306</v>
-      </c>
-      <c r="C14" s="10">
-        <v>-69.682000000000002</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1289</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2">
-        <f>102.49*10^7</f>
-        <v>1024900000</v>
-      </c>
-      <c r="K14" s="2">
-        <f>2.48*10^7</f>
-        <v>24800000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="10">
-        <v>-19.786306</v>
-      </c>
-      <c r="C15" s="10">
-        <v>-69.682000000000002</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1289</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="8">
-        <f>298.96*10^7</f>
-        <v>2989600000</v>
-      </c>
-      <c r="K15" s="2">
-        <f>3.2*10^7</f>
-        <v>32000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="10">
-        <v>-19.397832999999999</v>
-      </c>
-      <c r="C16" s="10">
-        <v>-69.880306000000004</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1256</v>
-      </c>
-      <c r="E16" s="1">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="2">
-        <f>194.23*10^7</f>
-        <v>1942300000</v>
-      </c>
-      <c r="K16" s="2">
-        <f>4.67*10^7</f>
-        <v>46700000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="10">
-        <v>-19.397832999999999</v>
-      </c>
-      <c r="C17" s="10">
-        <v>-69.880306000000004</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1256</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2.74</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="2">
-        <f>310.26*10^7</f>
-        <v>3102600000</v>
-      </c>
-      <c r="K17" s="2">
-        <f>8.23*10^7</f>
-        <v>82300000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="10">
-        <v>-19.397832999999999</v>
-      </c>
-      <c r="C18" s="10">
-        <v>-69.880306000000004</v>
-      </c>
-      <c r="D18" s="10">
-        <v>1256</v>
-      </c>
-      <c r="E18" s="1">
-        <v>5</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="2">
-        <f>269.16*10^7</f>
-        <v>2691600000.0000005</v>
-      </c>
-      <c r="K18" s="2">
-        <f>6.18*10^7</f>
-        <v>61800000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="9">
-        <v>-19.522110999999999</v>
-      </c>
-      <c r="C19" s="9">
-        <v>-69.808333000000005</v>
-      </c>
-      <c r="D19" s="9">
-        <v>1312</v>
-      </c>
-      <c r="E19" s="1">
-        <v>5</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="2">
-        <f>277.15*10^7</f>
-        <v>2771500000</v>
-      </c>
-      <c r="K19" s="7">
-        <f>5.2*10^7</f>
-        <v>52000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="9">
-        <v>-19.522110999999999</v>
-      </c>
-      <c r="C20" s="9">
-        <v>-69.808333000000005</v>
-      </c>
-      <c r="D20" s="9">
-        <v>1312</v>
-      </c>
-      <c r="E20" s="1">
-        <v>5</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="2">
-        <f>65.4*10^7</f>
-        <v>654000000</v>
-      </c>
-      <c r="K20" s="7">
-        <f>1.5*10^7</f>
-        <v>15000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="12">
-        <v>-18.503527999999999</v>
-      </c>
-      <c r="C21" s="12">
-        <v>-70.143305999999995</v>
-      </c>
-      <c r="D21" s="12">
-        <v>771</v>
-      </c>
-      <c r="E21" s="1">
-        <v>5</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="13">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="2">
-        <f>41.29*10^7</f>
-        <v>412900000</v>
-      </c>
-      <c r="K21" s="7">
-        <f>0.72*10^7</f>
-        <v>7200000</v>
-      </c>
+        <v>560000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B410DEF6-CF22-BB46-BF43-29F33A132322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B58E022-79D4-5241-B3DF-90EE9284BF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="8" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="137">
   <si>
     <t>Sample Name</t>
   </si>
@@ -504,6 +504,9 @@
   </si>
   <si>
     <t>1 = Yes (see Mijjum et al. (2023) for discussion on this parameter)</t>
+  </si>
+  <si>
+    <t>Topographic shielding correction</t>
   </si>
 </sst>
 </file>
@@ -840,7 +843,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1003,9 +1006,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1027,17 +1027,47 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1051,69 +1081,8 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1430,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39602BD4-AF2D-864A-8905-789D980EB8BD}">
-  <dimension ref="A1:R35"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1457,685 +1426,1000 @@
     <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="67" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="67" t="s">
+    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="67" t="s">
+      <c r="F1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="67" t="s">
+      <c r="O1" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="67" t="s">
+      <c r="P1" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="67" t="s">
+      <c r="Q1" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="67" t="s">
+      <c r="R1" s="66" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="87">
+      <c r="B2" s="15">
         <v>-20.101167</v>
       </c>
-      <c r="C2" s="87">
+      <c r="C2" s="15">
         <v>-69.491221999999993</v>
       </c>
-      <c r="D2" s="87">
+      <c r="D2" s="15">
         <v>1380</v>
       </c>
-      <c r="E2" s="87">
-        <v>5</v>
-      </c>
-      <c r="F2" s="89">
+      <c r="E2" s="15">
+        <v>5</v>
+      </c>
+      <c r="F2" s="26">
         <v>3.2</v>
       </c>
-      <c r="G2" s="87">
-        <v>1</v>
-      </c>
-      <c r="H2" s="87">
-        <v>0</v>
-      </c>
-      <c r="I2" s="88">
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="27">
         <f>3.23*10^7</f>
         <v>32300000</v>
       </c>
-      <c r="J2" s="88">
+      <c r="J2" s="27">
         <v>4900000</v>
       </c>
-      <c r="L2" s="90">
+      <c r="L2">
         <v>2</v>
       </c>
-      <c r="M2" s="90">
-        <v>1</v>
-      </c>
-      <c r="N2" s="90">
-        <v>0</v>
-      </c>
-      <c r="O2" s="90">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>20</v>
       </c>
-      <c r="P2" s="90">
+      <c r="P2">
         <v>2</v>
       </c>
-      <c r="R2" s="90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="91" t="s">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="91">
+      <c r="B3" s="14">
         <v>-20.101167</v>
       </c>
-      <c r="C3" s="91">
+      <c r="C3" s="14">
         <v>-69.491221999999993</v>
       </c>
-      <c r="D3" s="91">
+      <c r="D3" s="14">
         <v>1380</v>
       </c>
-      <c r="E3" s="91">
-        <v>5</v>
-      </c>
-      <c r="F3" s="89">
+      <c r="E3" s="14">
+        <v>5</v>
+      </c>
+      <c r="F3" s="22">
         <v>3.2</v>
       </c>
-      <c r="G3" s="87">
-        <v>1</v>
-      </c>
-      <c r="H3" s="87">
-        <v>0</v>
-      </c>
-      <c r="I3" s="92">
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="25">
         <f>25.9*10^7</f>
         <v>259000000</v>
       </c>
-      <c r="J3" s="92">
+      <c r="J3" s="25">
         <v>8800000</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="87" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="87">
+      <c r="B4" s="13">
         <v>-19.578942000000001</v>
       </c>
-      <c r="C4" s="87">
+      <c r="C4" s="13">
         <v>-69.872967000000003</v>
       </c>
-      <c r="D4" s="87">
+      <c r="D4" s="13">
         <v>1172</v>
       </c>
-      <c r="E4" s="87">
-        <v>5</v>
-      </c>
-      <c r="F4" s="89">
+      <c r="E4" s="13">
+        <v>5</v>
+      </c>
+      <c r="F4" s="22">
         <v>2.89</v>
       </c>
-      <c r="G4" s="87">
-        <v>1</v>
-      </c>
-      <c r="H4" s="87">
-        <v>0</v>
-      </c>
-      <c r="I4" s="88">
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23">
         <f>65.91*10^7</f>
         <v>659100000</v>
       </c>
-      <c r="J4" s="88">
+      <c r="J4" s="23">
         <v>12000000</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="87" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="87">
+      <c r="B5" s="13">
         <v>-19.578942000000001</v>
       </c>
-      <c r="C5" s="87">
+      <c r="C5" s="13">
         <v>-69.872967000000003</v>
       </c>
-      <c r="D5" s="87">
+      <c r="D5" s="13">
         <v>1172</v>
       </c>
-      <c r="E5" s="87">
-        <v>5</v>
-      </c>
-      <c r="F5" s="89">
+      <c r="E5" s="15">
+        <v>5</v>
+      </c>
+      <c r="F5" s="22">
         <v>2.89</v>
       </c>
-      <c r="G5" s="87">
-        <v>1</v>
-      </c>
-      <c r="H5" s="87">
-        <v>0</v>
-      </c>
-      <c r="I5" s="88">
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="23">
         <f>32.2*10^7</f>
         <v>322000000</v>
       </c>
-      <c r="J5" s="88">
+      <c r="J5" s="23">
         <v>7000000</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="91">
+      <c r="B6" s="14">
         <v>-19.987110999999999</v>
       </c>
-      <c r="C6" s="91">
+      <c r="C6" s="14">
         <v>-69.433610999999999</v>
       </c>
-      <c r="D6" s="91">
+      <c r="D6" s="14">
         <v>1943</v>
       </c>
-      <c r="E6" s="91">
-        <v>5</v>
-      </c>
-      <c r="F6" s="89">
+      <c r="E6" s="14">
+        <v>5</v>
+      </c>
+      <c r="F6" s="22">
         <v>2.89</v>
       </c>
-      <c r="G6" s="87">
-        <v>1</v>
-      </c>
-      <c r="H6" s="87">
-        <v>0</v>
-      </c>
-      <c r="I6" s="92">
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
         <f>63.88*10^7</f>
         <v>638800000</v>
       </c>
-      <c r="J6" s="92">
+      <c r="J6" s="25">
         <v>25700000</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="91" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="14">
         <v>-19.340944</v>
       </c>
-      <c r="C7" s="91">
+      <c r="C7" s="14">
         <v>-69.727999999999994</v>
       </c>
-      <c r="D7" s="91">
+      <c r="D7" s="14">
         <v>1607</v>
       </c>
-      <c r="E7" s="87">
-        <v>5</v>
-      </c>
-      <c r="F7" s="89">
+      <c r="E7" s="13">
+        <v>5</v>
+      </c>
+      <c r="F7" s="22">
         <v>2.89</v>
       </c>
-      <c r="G7" s="87">
-        <v>1</v>
-      </c>
-      <c r="H7" s="87">
-        <v>0</v>
-      </c>
-      <c r="I7" s="92">
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="25">
         <f>74.48*10^7</f>
         <v>744800000</v>
       </c>
-      <c r="J7" s="92">
+      <c r="J7" s="25">
         <v>23300000</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="91" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="91">
+      <c r="B8" s="14">
         <v>-19.340944</v>
       </c>
-      <c r="C8" s="91">
+      <c r="C8" s="14">
         <v>-69.727999999999994</v>
       </c>
-      <c r="D8" s="91">
+      <c r="D8" s="14">
         <v>1607</v>
       </c>
-      <c r="E8" s="87">
-        <v>5</v>
-      </c>
-      <c r="F8" s="89">
+      <c r="E8" s="15">
+        <v>5</v>
+      </c>
+      <c r="F8" s="22">
         <v>2.89</v>
       </c>
-      <c r="G8" s="87">
-        <v>1</v>
-      </c>
-      <c r="H8" s="87">
-        <v>0</v>
-      </c>
-      <c r="I8" s="92">
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="25">
         <f>91.1*10^7</f>
         <v>911000000</v>
       </c>
-      <c r="J8" s="92">
+      <c r="J8" s="25">
         <v>13000000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="91" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="91">
+      <c r="B9" s="14">
         <v>-19.340944</v>
       </c>
-      <c r="C9" s="91">
+      <c r="C9" s="14">
         <v>-69.727999999999994</v>
       </c>
-      <c r="D9" s="91">
+      <c r="D9" s="14">
         <v>1607</v>
       </c>
-      <c r="E9" s="91">
-        <v>5</v>
-      </c>
-      <c r="F9" s="89">
+      <c r="E9" s="14">
+        <v>5</v>
+      </c>
+      <c r="F9" s="22">
         <v>2.89</v>
       </c>
-      <c r="G9" s="87">
-        <v>1</v>
-      </c>
-      <c r="H9" s="87">
-        <v>0</v>
-      </c>
-      <c r="I9" s="92">
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="25">
         <f>167.12*10^7</f>
         <v>1671200000</v>
       </c>
-      <c r="J9" s="92">
+      <c r="J9" s="25">
         <v>36500000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="91" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="91">
+      <c r="B10" s="14">
         <v>-19.336722000000002</v>
       </c>
-      <c r="C10" s="91">
+      <c r="C10" s="14">
         <v>-69.729611000000006</v>
       </c>
-      <c r="D10" s="91">
+      <c r="D10" s="14">
         <v>1604</v>
       </c>
-      <c r="E10" s="87">
-        <v>5</v>
-      </c>
-      <c r="F10" s="89">
+      <c r="E10" s="13">
+        <v>5</v>
+      </c>
+      <c r="F10" s="22">
         <v>2.89</v>
       </c>
-      <c r="G10" s="87">
-        <v>1</v>
-      </c>
-      <c r="H10" s="87">
-        <v>0</v>
-      </c>
-      <c r="I10" s="92">
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="25">
         <f>24.27*10^7</f>
         <v>242700000</v>
       </c>
-      <c r="J10" s="92">
+      <c r="J10" s="25">
         <v>10500000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="91" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="91">
+      <c r="B11" s="14">
         <v>-19.336722000000002</v>
       </c>
-      <c r="C11" s="91">
+      <c r="C11" s="14">
         <v>-69.729611000000006</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="14">
         <v>1604</v>
       </c>
-      <c r="E11" s="87">
-        <v>5</v>
-      </c>
-      <c r="F11" s="89">
+      <c r="E11" s="15">
+        <v>5</v>
+      </c>
+      <c r="F11" s="22">
         <v>2.89</v>
       </c>
-      <c r="G11" s="87">
-        <v>1</v>
-      </c>
-      <c r="H11" s="87">
-        <v>0</v>
-      </c>
-      <c r="I11" s="92">
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="25">
         <f>31.18*10^7</f>
         <v>311800000</v>
       </c>
-      <c r="J11" s="92">
+      <c r="J11" s="25">
         <v>11900000</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="91" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="91">
+      <c r="B12" s="14">
         <v>-19.336722000000002</v>
       </c>
-      <c r="C12" s="91">
+      <c r="C12" s="14">
         <v>-69.729611000000006</v>
       </c>
-      <c r="D12" s="91">
+      <c r="D12" s="14">
         <v>1604</v>
       </c>
-      <c r="E12" s="91">
-        <v>5</v>
-      </c>
-      <c r="F12" s="89">
+      <c r="E12" s="14">
+        <v>5</v>
+      </c>
+      <c r="F12" s="22">
         <v>2.89</v>
       </c>
-      <c r="G12" s="87">
-        <v>1</v>
-      </c>
-      <c r="H12" s="87">
-        <v>0</v>
-      </c>
-      <c r="I12" s="92">
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25">
         <f>104.68*10^7</f>
         <v>1046800000.0000001</v>
       </c>
-      <c r="J12" s="92">
+      <c r="J12" s="25">
         <v>22400000.000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="87" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="87">
+      <c r="B13" s="16">
         <v>-18.886583000000002</v>
       </c>
-      <c r="C13" s="87">
+      <c r="C13" s="16">
         <v>-69.699055999999999</v>
       </c>
-      <c r="D13" s="87">
+      <c r="D13" s="16">
         <v>2282</v>
       </c>
-      <c r="E13" s="87">
-        <v>5</v>
-      </c>
-      <c r="F13" s="89">
+      <c r="E13" s="13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="22">
         <v>2.89</v>
       </c>
-      <c r="G13" s="87">
-        <v>1</v>
-      </c>
-      <c r="H13" s="87">
-        <v>0</v>
-      </c>
-      <c r="I13" s="88">
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="28">
         <f>269.89*10^7</f>
         <v>2698900000</v>
       </c>
-      <c r="J13" s="88">
+      <c r="J13" s="28">
         <v>47300000.000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="87" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="87">
+      <c r="B14" s="16">
         <v>-18.886583000000002</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C14" s="16">
         <v>-69.699055999999999</v>
       </c>
-      <c r="D14" s="87">
+      <c r="D14" s="16">
         <v>2282</v>
       </c>
-      <c r="E14" s="87">
-        <v>5</v>
-      </c>
-      <c r="F14" s="89">
+      <c r="E14" s="15">
+        <v>5</v>
+      </c>
+      <c r="F14" s="22">
         <v>2.89</v>
       </c>
-      <c r="G14" s="87">
-        <v>1</v>
-      </c>
-      <c r="H14" s="87">
-        <v>0</v>
-      </c>
-      <c r="I14" s="88">
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="28">
         <f>246.53*10^7</f>
         <v>2465300000</v>
       </c>
-      <c r="J14" s="88">
+      <c r="J14" s="28">
         <v>42900000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="90" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="91"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="93"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="91"/>
-    </row>
-    <row r="16" spans="1:18" s="90" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="87"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-    </row>
-    <row r="18" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="87"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-    </row>
-    <row r="19" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="91"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-    </row>
-    <row r="20" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="91"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-    </row>
-    <row r="21" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="92"/>
-    </row>
-    <row r="22" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="91"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-    </row>
-    <row r="23" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="91"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="92"/>
-    </row>
-    <row r="24" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="91"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="92"/>
-    </row>
-    <row r="25" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="87"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="88"/>
-    </row>
-    <row r="26" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="87"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-    </row>
-    <row r="27" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="97"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="87"/>
-      <c r="H27" s="87"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-    </row>
-    <row r="28" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="87"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-    </row>
-    <row r="29" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="87"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-    </row>
-    <row r="30" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-    </row>
-    <row r="31" spans="1:11" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="16">
+        <v>-18.905639000000001</v>
+      </c>
+      <c r="C15" s="16">
+        <v>-69.954583</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1443</v>
+      </c>
+      <c r="E15" s="14">
+        <v>5</v>
+      </c>
+      <c r="F15" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28">
+        <v>1414100000</v>
+      </c>
+      <c r="J15" s="28">
+        <v>25200000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="16">
+        <v>-18.905639000000001</v>
+      </c>
+      <c r="C16" s="16">
+        <v>-69.954583</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1443</v>
+      </c>
+      <c r="E16" s="13">
+        <v>5</v>
+      </c>
+      <c r="F16" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="28">
+        <v>1648000000</v>
+      </c>
+      <c r="J16" s="28">
+        <v>28400000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="16">
+        <v>-18.852694</v>
+      </c>
+      <c r="C17" s="16">
+        <v>-69.657167000000001</v>
+      </c>
+      <c r="D17" s="16">
+        <v>2550</v>
+      </c>
+      <c r="E17" s="15">
+        <v>5</v>
+      </c>
+      <c r="F17" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="28">
+        <v>2350000000</v>
+      </c>
+      <c r="J17" s="28">
+        <v>40400000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="16">
+        <v>-20.704083000000001</v>
+      </c>
+      <c r="C18" s="16">
+        <v>-69.420833000000002</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1084</v>
+      </c>
+      <c r="E18" s="14">
+        <v>5</v>
+      </c>
+      <c r="F18" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="28">
+        <v>901900000</v>
+      </c>
+      <c r="J18" s="28">
+        <v>19700000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="17">
+        <v>-19.786306</v>
+      </c>
+      <c r="C19" s="17">
+        <v>-69.682000000000002</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1289</v>
+      </c>
+      <c r="E19" s="13">
+        <v>5</v>
+      </c>
+      <c r="F19" s="26">
+        <v>2.89</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="29">
+        <v>1078000000</v>
+      </c>
+      <c r="J19" s="29">
+        <v>27700000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="14">
+        <v>-19.786306</v>
+      </c>
+      <c r="C20" s="14">
+        <v>-69.682000000000002</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1289</v>
+      </c>
+      <c r="E20" s="15">
+        <v>5</v>
+      </c>
+      <c r="F20" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="25">
+        <v>1024900000</v>
+      </c>
+      <c r="J20" s="25">
+        <v>24800000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="14">
+        <v>-19.786306</v>
+      </c>
+      <c r="C21" s="14">
+        <v>-69.682000000000002</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1289</v>
+      </c>
+      <c r="E21" s="14">
+        <v>5</v>
+      </c>
+      <c r="F21" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="30">
+        <v>2989600000</v>
+      </c>
+      <c r="J21" s="25">
+        <v>32000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="14">
+        <v>-19.397832999999999</v>
+      </c>
+      <c r="C22" s="14">
+        <v>-69.880306000000004</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1256</v>
+      </c>
+      <c r="E22" s="13">
+        <v>5</v>
+      </c>
+      <c r="F22" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G22" s="13">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="25">
+        <v>1942300000</v>
+      </c>
+      <c r="J22" s="25">
+        <v>46700000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="14">
+        <v>-19.397832999999999</v>
+      </c>
+      <c r="C23" s="14">
+        <v>-69.880306000000004</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1256</v>
+      </c>
+      <c r="E23" s="15">
+        <v>5</v>
+      </c>
+      <c r="F23" s="22">
+        <v>2.74</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="25">
+        <v>3102600000</v>
+      </c>
+      <c r="J23" s="25">
+        <v>82300000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="14">
+        <v>-19.397832999999999</v>
+      </c>
+      <c r="C24" s="14">
+        <v>-69.880306000000004</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1256</v>
+      </c>
+      <c r="E24" s="14">
+        <v>5</v>
+      </c>
+      <c r="F24" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="25">
+        <v>2691600000.0000005</v>
+      </c>
+      <c r="J24" s="25">
+        <v>61800000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="16">
+        <v>-19.522110999999999</v>
+      </c>
+      <c r="C25" s="16">
+        <v>-69.808333000000005</v>
+      </c>
+      <c r="D25" s="16">
+        <v>1312</v>
+      </c>
+      <c r="E25" s="13">
+        <v>5</v>
+      </c>
+      <c r="F25" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="28">
+        <v>2771500000</v>
+      </c>
+      <c r="J25" s="28">
+        <v>52000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="16">
+        <v>-19.522110999999999</v>
+      </c>
+      <c r="C26" s="16">
+        <v>-69.808333000000005</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1312</v>
+      </c>
+      <c r="E26" s="15">
+        <v>5</v>
+      </c>
+      <c r="F26" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="28">
+        <v>654000000</v>
+      </c>
+      <c r="J26" s="28">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="21">
+        <v>-18.503527999999999</v>
+      </c>
+      <c r="C27" s="21">
+        <v>-70.143305999999995</v>
+      </c>
+      <c r="D27" s="21">
+        <v>771</v>
+      </c>
+      <c r="E27" s="14">
+        <v>5</v>
+      </c>
+      <c r="F27" s="31">
+        <v>2.89</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="32">
+        <v>412900000</v>
+      </c>
+      <c r="J27" s="32">
+        <v>7200000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="20">
+        <v>-18.389944</v>
+      </c>
+      <c r="C28" s="20">
+        <v>-70.071805999999995</v>
+      </c>
+      <c r="D28" s="20">
+        <v>1025</v>
+      </c>
+      <c r="E28" s="13">
+        <v>5</v>
+      </c>
+      <c r="F28" s="26">
+        <v>2.89</v>
+      </c>
+      <c r="G28" s="13">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="33">
+        <v>388000000</v>
+      </c>
+      <c r="J28" s="33">
+        <v>7700000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="21">
+        <v>-18.389944</v>
+      </c>
+      <c r="C29" s="21">
+        <v>-70.071805999999995</v>
+      </c>
+      <c r="D29" s="21">
+        <v>1025</v>
+      </c>
+      <c r="E29" s="15">
+        <v>5</v>
+      </c>
+      <c r="F29" s="31">
+        <v>2.89</v>
+      </c>
+      <c r="G29" s="13">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="32">
+        <v>425000000</v>
+      </c>
+      <c r="J29" s="32">
+        <v>9500000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2154,6 +2438,61 @@
       <c r="E35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="Q52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2165,8 +2504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC832A4-C899-574A-A718-CA2E3961F592}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2177,56 +2516,56 @@
     <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="67" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="67" t="s">
+    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="67" t="s">
+      <c r="F1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="67" t="s">
+      <c r="O1" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="67" t="s">
+      <c r="P1" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="67" t="s">
+      <c r="Q1" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="67" t="s">
+      <c r="R1" s="66" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4197,7 +4536,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A252A25-C5BD-9644-90A1-8F508F9F4733}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -4226,56 +4565,56 @@
     <col min="19" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="67" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="67" t="s">
+    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="67" t="s">
+      <c r="F1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="67" t="s">
+      <c r="H1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="67" t="s">
+      <c r="O1" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="67" t="s">
+      <c r="P1" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="67" t="s">
+      <c r="Q1" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="67" t="s">
+      <c r="R1" s="66" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4301,7 +4640,7 @@
       <c r="G2" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="60" t="s">
         <v>106</v>
       </c>
       <c r="I2" s="56" t="s">
@@ -4314,7 +4653,7 @@
       <c r="L2" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="61" t="s">
         <v>118</v>
       </c>
       <c r="N2" s="56" t="s">
@@ -4336,28 +4675,28 @@
     <row r="3" spans="1:18" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
-      <c r="H3" s="61"/>
+      <c r="H3" s="60"/>
       <c r="J3" s="58"/>
       <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:18" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
-      <c r="H4" s="61"/>
+      <c r="H4" s="60"/>
       <c r="J4" s="58"/>
       <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:18" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
-      <c r="H5" s="61"/>
+      <c r="H5" s="60"/>
       <c r="J5" s="58"/>
       <c r="K5" s="58"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="H6" s="64"/>
+      <c r="H6" s="63"/>
       <c r="J6" s="59"/>
       <c r="K6" s="59"/>
     </row>
@@ -4365,7 +4704,7 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="H7" s="64"/>
+      <c r="H7" s="63"/>
       <c r="J7" s="59"/>
       <c r="K7" s="59"/>
     </row>
@@ -4373,7 +4712,7 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="H8" s="64"/>
+      <c r="H8" s="63"/>
       <c r="J8" s="59"/>
       <c r="K8" s="59"/>
     </row>
@@ -4381,7 +4720,7 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="H9" s="64"/>
+      <c r="H9" s="63"/>
       <c r="J9" s="59"/>
       <c r="K9" s="59"/>
     </row>
@@ -4389,205 +4728,205 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="H10" s="64"/>
+      <c r="H10" s="63"/>
       <c r="I10" s="59"/>
       <c r="J10" s="59"/>
-      <c r="Q10" s="86"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="H11" s="64"/>
+      <c r="H11" s="63"/>
       <c r="I11" s="59"/>
       <c r="J11" s="59"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="H12" s="64"/>
+      <c r="H12" s="63"/>
       <c r="I12" s="59"/>
       <c r="J12" s="59"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="H13" s="64"/>
+      <c r="H13" s="63"/>
       <c r="I13" s="59"/>
       <c r="J13" s="59"/>
-      <c r="L13" s="65"/>
+      <c r="L13" s="64"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="H14" s="64"/>
+      <c r="H14" s="63"/>
       <c r="I14" s="59"/>
       <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="68" t="s">
+      <c r="E15" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="70" t="s">
+      <c r="F15" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="71" t="s">
+      <c r="G15" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="74" t="s">
+      <c r="H15" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="I15" s="75" t="s">
+      <c r="I15" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="J15" s="75" t="s">
+      <c r="J15" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="L15" s="71" t="s">
+      <c r="L15" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="78" t="s">
+      <c r="M15" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="N15" s="71" t="s">
+      <c r="N15" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="O15" s="78" t="s">
+      <c r="O15" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="P15" s="71" t="s">
+      <c r="P15" s="67" t="s">
         <v>131</v>
       </c>
-      <c r="Q15" s="85" t="s">
+      <c r="Q15" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R15" s="63" t="s">
+      <c r="R15" s="62" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="72" t="s">
+      <c r="A16" s="79"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="H16" s="74"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="L16" s="76" t="s">
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="L16" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="M16" s="79" t="s">
+      <c r="M16" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="N16" s="76" t="s">
+      <c r="N16" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="O16" s="82" t="s">
+      <c r="O16" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="P16" s="76" t="s">
+      <c r="P16" s="68" t="s">
         <v>132</v>
       </c>
-      <c r="R16" s="60" t="s">
+      <c r="R16" s="78" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="L17" s="76" t="s">
+      <c r="A17" s="79"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="L17" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="N17" s="80" t="s">
+      <c r="N17" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="O17" s="83" t="s">
+      <c r="O17" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="P17" s="76" t="s">
+      <c r="P17" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="R17" s="60"/>
+      <c r="R17" s="78"/>
     </row>
     <row r="18" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="L18" s="77" t="s">
+      <c r="A18" s="79"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="L18" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="N18" s="80"/>
-      <c r="O18" s="83"/>
-      <c r="P18" s="76" t="s">
+      <c r="N18" s="74"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="R18" s="60"/>
+      <c r="R18" s="78"/>
     </row>
     <row r="19" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="76" t="s">
+      <c r="G19" s="82"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="R19" s="60"/>
+      <c r="R19" s="78"/>
     </row>
     <row r="20" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="P20" s="76" t="s">
+      <c r="P20" s="68" t="s">
         <v>128</v>
       </c>
-      <c r="R20" s="60"/>
+      <c r="R20" s="78"/>
     </row>
     <row r="21" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="P21" s="76" t="s">
+      <c r="P21" s="68" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="P22" s="77" t="s">
+      <c r="P22" s="69" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="O28" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="D15:D18"/>
     <mergeCell ref="J15:J19"/>
     <mergeCell ref="N17:N19"/>
     <mergeCell ref="O17:O19"/>
@@ -4597,10 +4936,6 @@
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="H15:H19"/>
     <mergeCell ref="I15:I19"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="D15:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4611,61 +4946,61 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" s="67" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="67" t="s">
+    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="67" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="67" t="s">
+      <c r="F1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="67" t="s">
+      <c r="N1" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="67" t="s">
+      <c r="O1" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="67" t="s">
+      <c r="P1" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="67" t="s">
+      <c r="Q1" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="67" t="s">
+      <c r="R1" s="66" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4696,7 +5031,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -4705,10 +5040,16 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="P2">
         <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
@@ -4955,7 +5296,7 @@
   <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6008,41 +6349,62 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="F1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="66" t="s">
         <v>8</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -6061,20 +6423,23 @@
       <c r="E2" s="9">
         <v>5</v>
       </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
       <c r="M2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="P2">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="Q2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -6135,7 +6500,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6694,67 +7059,87 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC98A15-AE39-4743-9E74-0C5D457F6E10}">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD14"/>
+      <selection activeCell="A2" sqref="A2:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="F1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O1" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="P1" s="66" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q1" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>40</v>
       </c>
@@ -6779,30 +7164,36 @@
       <c r="H2" s="13">
         <v>0</v>
       </c>
-      <c r="J2" s="27">
+      <c r="I2" s="27">
         <f>3.23*10^7</f>
         <v>32300000</v>
       </c>
-      <c r="K2" s="27">
+      <c r="J2" s="27">
         <v>4900000</v>
       </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
       <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2">
         <v>2</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>20</v>
-      </c>
       <c r="Q2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>41</v>
       </c>
@@ -6827,15 +7218,15 @@
       <c r="H3" s="13">
         <v>0</v>
       </c>
-      <c r="J3" s="25">
+      <c r="I3" s="25">
         <f>25.9*10^7</f>
         <v>259000000</v>
       </c>
-      <c r="K3" s="25">
+      <c r="J3" s="25">
         <v>8800000</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>42</v>
       </c>
@@ -6860,15 +7251,15 @@
       <c r="H4" s="13">
         <v>0</v>
       </c>
-      <c r="J4" s="23">
+      <c r="I4" s="23">
         <f>65.91*10^7</f>
         <v>659100000</v>
       </c>
-      <c r="K4" s="23">
+      <c r="J4" s="23">
         <v>12000000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>43</v>
       </c>
@@ -6893,15 +7284,15 @@
       <c r="H5" s="13">
         <v>0</v>
       </c>
-      <c r="J5" s="23">
+      <c r="I5" s="23">
         <f>32.2*10^7</f>
         <v>322000000</v>
       </c>
-      <c r="K5" s="23">
+      <c r="J5" s="23">
         <v>7000000</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>44</v>
       </c>
@@ -6926,15 +7317,15 @@
       <c r="H6" s="13">
         <v>0</v>
       </c>
-      <c r="J6" s="25">
+      <c r="I6" s="25">
         <f>63.88*10^7</f>
         <v>638800000</v>
       </c>
-      <c r="K6" s="25">
+      <c r="J6" s="25">
         <v>25700000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>45</v>
       </c>
@@ -6959,15 +7350,15 @@
       <c r="H7" s="13">
         <v>0</v>
       </c>
-      <c r="J7" s="25">
+      <c r="I7" s="25">
         <f>74.48*10^7</f>
         <v>744800000</v>
       </c>
-      <c r="K7" s="25">
+      <c r="J7" s="25">
         <v>23300000</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>49</v>
       </c>
@@ -6992,15 +7383,15 @@
       <c r="H8" s="13">
         <v>0</v>
       </c>
-      <c r="J8" s="25">
+      <c r="I8" s="25">
         <f>91.1*10^7</f>
         <v>911000000</v>
       </c>
-      <c r="K8" s="25">
+      <c r="J8" s="25">
         <v>13000000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>50</v>
       </c>
@@ -7025,15 +7416,15 @@
       <c r="H9" s="13">
         <v>0</v>
       </c>
-      <c r="J9" s="25">
+      <c r="I9" s="25">
         <f>167.12*10^7</f>
         <v>1671200000</v>
       </c>
-      <c r="K9" s="25">
+      <c r="J9" s="25">
         <v>36500000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>51</v>
       </c>
@@ -7058,15 +7449,15 @@
       <c r="H10" s="13">
         <v>0</v>
       </c>
-      <c r="J10" s="25">
+      <c r="I10" s="25">
         <f>24.27*10^7</f>
         <v>242700000</v>
       </c>
-      <c r="K10" s="25">
+      <c r="J10" s="25">
         <v>10500000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>52</v>
       </c>
@@ -7091,15 +7482,15 @@
       <c r="H11" s="13">
         <v>0</v>
       </c>
-      <c r="J11" s="25">
+      <c r="I11" s="25">
         <f>31.18*10^7</f>
         <v>311800000</v>
       </c>
-      <c r="K11" s="25">
+      <c r="J11" s="25">
         <v>11900000</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
@@ -7124,15 +7515,15 @@
       <c r="H12" s="13">
         <v>0</v>
       </c>
-      <c r="J12" s="25">
+      <c r="I12" s="25">
         <f>104.68*10^7</f>
         <v>1046800000.0000001</v>
       </c>
-      <c r="K12" s="25">
+      <c r="J12" s="25">
         <v>22400000.000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>53</v>
       </c>
@@ -7157,15 +7548,15 @@
       <c r="H13" s="13">
         <v>0</v>
       </c>
-      <c r="J13" s="28">
+      <c r="I13" s="28">
         <f>269.89*10^7</f>
         <v>2698900000</v>
       </c>
-      <c r="K13" s="28">
+      <c r="J13" s="28">
         <v>47300000.000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>54</v>
       </c>
@@ -7190,15 +7581,15 @@
       <c r="H14" s="13">
         <v>0</v>
       </c>
-      <c r="J14" s="28">
+      <c r="I14" s="28">
         <f>246.53*10^7</f>
         <v>2465300000</v>
       </c>
-      <c r="K14" s="28">
+      <c r="J14" s="28">
         <v>42900000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>55</v>
       </c>
@@ -7223,14 +7614,14 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
+      <c r="I15" s="28">
+        <v>1414100000</v>
+      </c>
       <c r="J15" s="28">
-        <v>1414100000</v>
-      </c>
-      <c r="K15" s="28">
         <v>25200000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>56</v>
       </c>
@@ -7255,14 +7646,14 @@
       <c r="H16" s="13">
         <v>0</v>
       </c>
+      <c r="I16" s="28">
+        <v>1648000000</v>
+      </c>
       <c r="J16" s="28">
-        <v>1648000000</v>
-      </c>
-      <c r="K16" s="28">
         <v>28400000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>57</v>
       </c>
@@ -7287,14 +7678,14 @@
       <c r="H17" s="13">
         <v>0</v>
       </c>
+      <c r="I17" s="28">
+        <v>2350000000</v>
+      </c>
       <c r="J17" s="28">
-        <v>2350000000</v>
-      </c>
-      <c r="K17" s="28">
         <v>40400000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>58</v>
       </c>
@@ -7319,14 +7710,14 @@
       <c r="H18" s="13">
         <v>0</v>
       </c>
+      <c r="I18" s="28">
+        <v>901900000</v>
+      </c>
       <c r="J18" s="28">
-        <v>901900000</v>
-      </c>
-      <c r="K18" s="28">
         <v>19700000</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>59</v>
       </c>
@@ -7351,14 +7742,14 @@
       <c r="H19" s="13">
         <v>0</v>
       </c>
+      <c r="I19" s="29">
+        <v>1078000000</v>
+      </c>
       <c r="J19" s="29">
-        <v>1078000000</v>
-      </c>
-      <c r="K19" s="29">
         <v>27700000</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>60</v>
       </c>
@@ -7383,14 +7774,14 @@
       <c r="H20" s="13">
         <v>0</v>
       </c>
+      <c r="I20" s="25">
+        <v>1024900000</v>
+      </c>
       <c r="J20" s="25">
-        <v>1024900000</v>
-      </c>
-      <c r="K20" s="25">
         <v>24800000</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>61</v>
       </c>
@@ -7415,14 +7806,14 @@
       <c r="H21" s="13">
         <v>0</v>
       </c>
-      <c r="J21" s="30">
+      <c r="I21" s="30">
         <v>2989600000</v>
       </c>
-      <c r="K21" s="25">
+      <c r="J21" s="25">
         <v>32000000</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>47</v>
       </c>
@@ -7447,14 +7838,14 @@
       <c r="H22" s="13">
         <v>0</v>
       </c>
+      <c r="I22" s="25">
+        <v>1942300000</v>
+      </c>
       <c r="J22" s="25">
-        <v>1942300000</v>
-      </c>
-      <c r="K22" s="25">
         <v>46700000</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>48</v>
       </c>
@@ -7479,14 +7870,14 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
+      <c r="I23" s="25">
+        <v>3102600000</v>
+      </c>
       <c r="J23" s="25">
-        <v>3102600000</v>
-      </c>
-      <c r="K23" s="25">
         <v>82300000</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>62</v>
       </c>
@@ -7511,14 +7902,14 @@
       <c r="H24" s="13">
         <v>0</v>
       </c>
+      <c r="I24" s="25">
+        <v>2691600000.0000005</v>
+      </c>
       <c r="J24" s="25">
-        <v>2691600000.0000005</v>
-      </c>
-      <c r="K24" s="25">
         <v>61800000</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>63</v>
       </c>
@@ -7543,14 +7934,14 @@
       <c r="H25" s="13">
         <v>0</v>
       </c>
+      <c r="I25" s="28">
+        <v>2771500000</v>
+      </c>
       <c r="J25" s="28">
-        <v>2771500000</v>
-      </c>
-      <c r="K25" s="28">
         <v>52000000</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>64</v>
       </c>
@@ -7575,14 +7966,14 @@
       <c r="H26" s="13">
         <v>0</v>
       </c>
+      <c r="I26" s="28">
+        <v>654000000</v>
+      </c>
       <c r="J26" s="28">
-        <v>654000000</v>
-      </c>
-      <c r="K26" s="28">
         <v>15000000</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>65</v>
       </c>
@@ -7607,14 +7998,14 @@
       <c r="H27" s="13">
         <v>0</v>
       </c>
+      <c r="I27" s="32">
+        <v>412900000</v>
+      </c>
       <c r="J27" s="32">
-        <v>412900000</v>
-      </c>
-      <c r="K27" s="32">
         <v>7200000</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>66</v>
       </c>
@@ -7639,14 +8030,14 @@
       <c r="H28" s="13">
         <v>0</v>
       </c>
+      <c r="I28" s="33">
+        <v>388000000</v>
+      </c>
       <c r="J28" s="33">
-        <v>388000000</v>
-      </c>
-      <c r="K28" s="33">
         <v>7700000</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>67</v>
       </c>
@@ -7671,33 +8062,98 @@
       <c r="H29" s="13">
         <v>0</v>
       </c>
+      <c r="I29" s="32">
+        <v>425000000</v>
+      </c>
       <c r="J29" s="32">
-        <v>425000000</v>
-      </c>
-      <c r="K29" s="32">
         <v>9500000</v>
       </c>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7708,7 +8164,7 @@
   <dimension ref="A1:BT16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD16"/>
+      <selection activeCell="A2" sqref="A2:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7716,54 +8172,57 @@
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:72" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="F1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="N1" t="s">
+      <c r="M1" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="O1" t="s">
+      <c r="N1" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="P1" t="s">
+      <c r="O1" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="P1" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="R1" t="s">
+      <c r="Q1" s="66" t="s">
         <v>38</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:72" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7791,28 +8250,31 @@
       <c r="H2" s="45">
         <v>0</v>
       </c>
-      <c r="J2" s="44">
+      <c r="I2" s="44">
         <f>3.87*10000000</f>
         <v>38700000</v>
       </c>
-      <c r="K2" s="44">
+      <c r="J2" s="44">
         <v>3700000</v>
       </c>
-      <c r="L2" s="41"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="45">
+        <v>4</v>
+      </c>
       <c r="M2" s="45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N2" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="45">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P2" s="45">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R2" s="45">
         <v>0</v>
@@ -7843,13 +8305,14 @@
       <c r="H3" s="45">
         <v>0</v>
       </c>
-      <c r="J3" s="44">
+      <c r="I3" s="44">
         <f>3.79*10000000</f>
         <v>37900000</v>
       </c>
-      <c r="K3" s="44">
+      <c r="J3" s="44">
         <v>2500000</v>
       </c>
+      <c r="K3" s="44"/>
       <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:72" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7877,13 +8340,14 @@
       <c r="H4" s="45">
         <v>0</v>
       </c>
-      <c r="J4" s="44">
+      <c r="I4" s="44">
         <f>0.95*10000000</f>
         <v>9500000</v>
       </c>
-      <c r="K4" s="44">
+      <c r="J4" s="44">
         <v>1500000</v>
       </c>
+      <c r="K4" s="44"/>
       <c r="L4" s="41"/>
       <c r="N4" s="41"/>
     </row>
@@ -7912,13 +8376,14 @@
       <c r="H5" s="45">
         <v>0</v>
       </c>
-      <c r="J5" s="44">
+      <c r="I5" s="44">
         <f>0.42*10000000</f>
         <v>4200000</v>
       </c>
-      <c r="K5" s="44">
+      <c r="J5" s="44">
         <v>1300000</v>
       </c>
+      <c r="K5" s="44"/>
       <c r="L5" s="41"/>
     </row>
     <row r="6" spans="1:72" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7946,13 +8411,14 @@
       <c r="H6" s="45">
         <v>0</v>
       </c>
-      <c r="J6" s="44">
+      <c r="I6" s="44">
         <f>1.11*10000000</f>
         <v>11100000.000000002</v>
       </c>
-      <c r="K6" s="44">
+      <c r="J6" s="44">
         <v>2000000</v>
       </c>
+      <c r="K6" s="44"/>
       <c r="L6" s="41"/>
     </row>
     <row r="7" spans="1:72" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -7980,12 +8446,13 @@
       <c r="H7" s="45">
         <v>0</v>
       </c>
+      <c r="I7" s="44">
+        <v>5800000</v>
+      </c>
       <c r="J7" s="44">
-        <v>5800000</v>
-      </c>
-      <c r="K7" s="44">
         <v>800000</v>
       </c>
+      <c r="K7" s="44"/>
       <c r="L7" s="41"/>
     </row>
     <row r="8" spans="1:72" s="46" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -8013,12 +8480,13 @@
       <c r="H8" s="45">
         <v>0</v>
       </c>
+      <c r="I8" s="44">
+        <v>6850000.0000000009</v>
+      </c>
       <c r="J8" s="44">
-        <v>6850000.0000000009</v>
-      </c>
-      <c r="K8" s="44">
         <v>800000</v>
       </c>
+      <c r="K8" s="44"/>
       <c r="L8" s="41"/>
     </row>
     <row r="9" spans="1:72" s="47" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -8046,12 +8514,13 @@
       <c r="H9" s="45">
         <v>0</v>
       </c>
+      <c r="I9" s="44">
+        <v>1400000.0000000002</v>
+      </c>
       <c r="J9" s="44">
-        <v>1400000.0000000002</v>
-      </c>
-      <c r="K9" s="44">
         <v>200000</v>
       </c>
+      <c r="K9" s="44"/>
       <c r="L9" s="41"/>
     </row>
     <row r="10" spans="1:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -8079,12 +8548,13 @@
       <c r="H10" s="45">
         <v>0</v>
       </c>
+      <c r="I10" s="39">
+        <v>75000000</v>
+      </c>
       <c r="J10" s="39">
-        <v>75000000</v>
-      </c>
-      <c r="K10" s="39">
         <v>4400000</v>
       </c>
+      <c r="K10" s="39"/>
       <c r="L10" s="41"/>
       <c r="M10" s="45"/>
       <c r="N10" s="45"/>
@@ -8172,12 +8642,13 @@
       <c r="H11" s="45">
         <v>0</v>
       </c>
+      <c r="I11" s="39">
+        <v>78700000</v>
+      </c>
       <c r="J11" s="39">
-        <v>78700000</v>
-      </c>
-      <c r="K11" s="39">
         <v>6400000</v>
       </c>
+      <c r="K11" s="39"/>
       <c r="L11" s="41"/>
       <c r="M11" s="45"/>
       <c r="N11" s="45"/>
@@ -8265,12 +8736,13 @@
       <c r="H12" s="45">
         <v>0</v>
       </c>
+      <c r="I12" s="38">
+        <v>167400000</v>
+      </c>
       <c r="J12" s="38">
-        <v>167400000</v>
-      </c>
-      <c r="K12" s="38">
         <v>9900000</v>
       </c>
+      <c r="K12" s="38"/>
       <c r="L12" s="41"/>
       <c r="M12" s="45"/>
       <c r="N12" s="45"/>
@@ -8358,12 +8830,13 @@
       <c r="H13" s="45">
         <v>0</v>
       </c>
+      <c r="I13" s="52">
+        <v>331000000</v>
+      </c>
       <c r="J13" s="52">
-        <v>331000000</v>
-      </c>
-      <c r="K13" s="52">
         <v>13400000</v>
       </c>
+      <c r="K13" s="52"/>
       <c r="L13" s="41"/>
     </row>
     <row r="14" spans="1:72" s="55" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -8391,12 +8864,13 @@
       <c r="H14" s="45">
         <v>0</v>
       </c>
+      <c r="I14" s="54">
+        <v>199100000</v>
+      </c>
       <c r="J14" s="54">
-        <v>199100000</v>
-      </c>
-      <c r="K14" s="54">
         <v>7600000</v>
       </c>
+      <c r="K14" s="54"/>
       <c r="L14" s="41"/>
     </row>
     <row r="15" spans="1:72" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -8424,12 +8898,13 @@
       <c r="H15" s="45">
         <v>0</v>
       </c>
+      <c r="I15" s="44">
+        <v>72400000</v>
+      </c>
       <c r="J15" s="44">
-        <v>72400000</v>
-      </c>
-      <c r="K15" s="44">
         <v>6200000</v>
       </c>
+      <c r="K15" s="44"/>
       <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:72" x14ac:dyDescent="0.2">
@@ -8444,7 +8919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24694F2A-853A-E44C-A507-6368D3EEDD55}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>

--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F901445F-8D51-EB45-966D-0A4AA6E440A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AA59A9-A116-2742-85FA-FA8FC4BD6784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34640" yWindow="2120" windowWidth="23680" windowHeight="16520" firstSheet="1" activeTab="10" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
+    <workbookView xWindow="30180" yWindow="460" windowWidth="28800" windowHeight="16520" firstSheet="2" activeTab="13" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,14 @@
     <sheet name="Figure 3" sheetId="7" r:id="rId4"/>
     <sheet name="Figure 6,8" sheetId="5" r:id="rId5"/>
     <sheet name="Figure 7" sheetId="12" r:id="rId6"/>
-    <sheet name="Figure 9_pyx" sheetId="14" r:id="rId7"/>
-    <sheet name="Figure 9_neon" sheetId="16" r:id="rId8"/>
-    <sheet name="Figure 10" sheetId="11" r:id="rId9"/>
-    <sheet name="Figure 10_modeled curves" sheetId="13" r:id="rId10"/>
-    <sheet name="Dunai" sheetId="15" r:id="rId11"/>
-    <sheet name="README" sheetId="4" r:id="rId12"/>
+    <sheet name="Figure 9_pyx+1sigma" sheetId="17" r:id="rId7"/>
+    <sheet name="Figure 9_pyx-1sigma" sheetId="18" r:id="rId8"/>
+    <sheet name="Figure 9_pyx" sheetId="14" r:id="rId9"/>
+    <sheet name="Figure 9_neon" sheetId="16" r:id="rId10"/>
+    <sheet name="Figure 10" sheetId="11" r:id="rId11"/>
+    <sheet name="Figure 10_modeled curves" sheetId="13" r:id="rId12"/>
+    <sheet name="Dunai" sheetId="15" r:id="rId13"/>
+    <sheet name="README" sheetId="4" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Active!$B$79,Active!$B$84,Active!$B$86,Active!$B$87</definedName>
@@ -85,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="139">
   <si>
     <t>Sample Name</t>
   </si>
@@ -428,9 +430,6 @@
     <t>Topographic shielding Correction</t>
   </si>
   <si>
-    <t>in cm/yr</t>
-  </si>
-  <si>
     <t>in at/g</t>
   </si>
   <si>
@@ -507,13 +506,22 @@
   </si>
   <si>
     <t>IN</t>
+  </si>
+  <si>
+    <t>Exposure Age</t>
+  </si>
+  <si>
+    <t>if using exposure age calculator: in g/cm2/yr</t>
+  </si>
+  <si>
+    <t>IF using erosion rate calculator: in cm/yr (can test multiple erosion rates, length does not need to equal the #of samples</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -629,6 +637,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -843,7 +857,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1082,6 +1096,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1399,33 +1422,796 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39602BD4-AF2D-864A-8905-789D980EB8BD}">
-  <dimension ref="A1:BT52"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:19" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="10">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <f>3*10^-3</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2380000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>560000</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>27.5</v>
+      </c>
+      <c r="O2">
+        <v>28.5</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="10">
+        <v>38</v>
+      </c>
+      <c r="C3" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11">
+        <f>10*10^-3</f>
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2630000</v>
+      </c>
+      <c r="J3" s="7">
+        <v>590000</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="10">
+        <v>38</v>
+      </c>
+      <c r="C4" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11">
+        <f>20*10^-3</f>
+        <v>0.02</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2750000</v>
+      </c>
+      <c r="J4" s="7">
+        <v>570000</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10">
+        <v>38</v>
+      </c>
+      <c r="C5" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="2">
+        <v>330000</v>
+      </c>
+      <c r="J5" s="7">
+        <v>550000</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10">
+        <v>38</v>
+      </c>
+      <c r="C6" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="2">
+        <v>730000</v>
+      </c>
+      <c r="J6" s="7">
+        <v>540000</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10">
+        <v>38</v>
+      </c>
+      <c r="C7" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="2">
+        <v>340000</v>
+      </c>
+      <c r="J7" s="7">
+        <v>600000</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="10">
+        <v>38</v>
+      </c>
+      <c r="C8" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="2">
+        <v>590000</v>
+      </c>
+      <c r="J8" s="7">
+        <v>560000</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A016230-6B57-C74A-92E2-8B80546C58EB}">
+  <dimension ref="A1:BT16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:72" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>0</v>
@@ -1446,7 +2232,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H1" s="66" t="s">
         <v>13</v>
@@ -2162,148 +2948,604 @@
       <c r="L15" s="41"/>
     </row>
     <row r="16" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="39"/>
+      <c r="G16" s="45"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24694F2A-853A-E44C-A507-6368D3EEDD55}">
+  <dimension ref="A1:R52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="10">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <f>3*10^-3</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2380000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>56000</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>27.5</v>
+      </c>
+      <c r="O2">
+        <v>28.5</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="10">
+        <v>38</v>
+      </c>
+      <c r="C3" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11">
+        <f>10*10^-3</f>
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2630000</v>
+      </c>
+      <c r="J3" s="7">
+        <v>59000</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="10">
+        <v>38</v>
+      </c>
+      <c r="C4" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11">
+        <f>20*10^-3</f>
+        <v>0.02</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2750000</v>
+      </c>
+      <c r="J4" s="7">
+        <v>57000</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10">
+        <v>38</v>
+      </c>
+      <c r="C5" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="2">
+        <v>330000</v>
+      </c>
+      <c r="J5" s="7">
+        <v>550000</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10">
+        <v>38</v>
+      </c>
+      <c r="C6" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="2">
+        <v>730000</v>
+      </c>
+      <c r="J6" s="7">
+        <v>540000</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10">
+        <v>38</v>
+      </c>
+      <c r="C7" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="2">
+        <v>340000</v>
+      </c>
+      <c r="J7" s="7">
+        <v>600000</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="10">
+        <v>38</v>
+      </c>
+      <c r="C8" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="2">
+        <v>590000</v>
+      </c>
+      <c r="J8" s="7">
+        <v>560000</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="37"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="37"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="37"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="37"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="37"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="40"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="Q18" s="1"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="Q20" s="1"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="37"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="Q21" s="1"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="37"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="Q22" s="1"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="37"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="Q23" s="1"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="37"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="Q24" s="1"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="37"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="Q25" s="1"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="37"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="37"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="37"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="37"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="Q29" s="1"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="37"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
@@ -2536,17 +3778,16 @@
       <c r="Q52" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC832A4-C899-574A-A718-CA2E3961F592}">
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD52"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3980,12 +5221,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865D9E7-27A7-A946-ABE2-D02CEEDD4D16}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4575,12 +5816,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A252A25-C5BD-9644-90A1-8F508F9F4733}">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4592,7 +5833,7 @@
     <col min="5" max="5" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" style="5" customWidth="1"/>
     <col min="9" max="9" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.6640625" style="5" bestFit="1" customWidth="1"/>
@@ -4692,10 +5933,10 @@
       </c>
       <c r="K2" s="58"/>
       <c r="L2" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M2" s="61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N2" s="56" t="s">
         <v>104</v>
@@ -4704,13 +5945,13 @@
         <v>104</v>
       </c>
       <c r="P2" s="56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q2" s="56" t="s">
         <v>105</v>
       </c>
       <c r="R2" s="56" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -4826,34 +6067,34 @@
         <v>107</v>
       </c>
       <c r="H15" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="I15" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="84" t="s">
-        <v>111</v>
-      </c>
       <c r="J15" s="84" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L15" s="67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M15" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N15" s="67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O15" s="70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P15" s="67" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q15" s="73" t="s">
         <v>38</v>
       </c>
       <c r="R15" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
@@ -4870,22 +6111,22 @@
       <c r="I16" s="84"/>
       <c r="J16" s="84"/>
       <c r="L16" s="68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M16" s="71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="N16" s="68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O16" s="72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P16" s="68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R16" s="78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
@@ -4900,16 +6141,16 @@
       <c r="I17" s="84"/>
       <c r="J17" s="84"/>
       <c r="L17" s="68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N17" s="74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O17" s="76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P17" s="68" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R17" s="78"/>
     </row>
@@ -4925,12 +6166,12 @@
       <c r="I18" s="84"/>
       <c r="J18" s="84"/>
       <c r="L18" s="69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N18" s="74"/>
       <c r="O18" s="76"/>
       <c r="P18" s="68" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R18" s="78"/>
     </row>
@@ -4942,28 +6183,48 @@
       <c r="N19" s="75"/>
       <c r="O19" s="77"/>
       <c r="P19" s="68" t="s">
+        <v>125</v>
+      </c>
+      <c r="R19" s="78"/>
+    </row>
+    <row r="20" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="H20" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="R19" s="78"/>
-    </row>
-    <row r="20" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="P20" s="68" t="s">
+      <c r="R20" s="78"/>
+    </row>
+    <row r="21" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="H21" s="87"/>
+      <c r="P21" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="R20" s="78"/>
-    </row>
-    <row r="21" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="P21" s="68" t="s">
+    </row>
+    <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="H22" s="87"/>
+      <c r="P22" s="69" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="P22" s="69" t="s">
-        <v>129</v>
-      </c>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H23" s="87"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H24" s="87"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H25" s="87"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H26" s="87"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H27" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="A15:A18"/>
@@ -4977,6 +6238,7 @@
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="H15:H19"/>
     <mergeCell ref="I15:I19"/>
+    <mergeCell ref="H20:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4987,7 +6249,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A2" sqref="A2:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5012,7 +6274,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H1" s="66" t="s">
         <v>13</v>
@@ -5334,65 +6596,87 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345E843F-B5AF-7544-9892-CA1AD39C5E9D}">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD48"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="F1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>0</v>
       </c>
@@ -5402,23 +6686,23 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
       <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.25</v>
+      </c>
+      <c r="P2">
         <v>2</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0.25</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2</v>
       </c>
@@ -5429,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>4</v>
       </c>
@@ -5440,7 +6724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>6</v>
       </c>
@@ -5451,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>8</v>
       </c>
@@ -5462,7 +6746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>10</v>
       </c>
@@ -5473,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>12</v>
       </c>
@@ -5484,7 +6768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>14</v>
       </c>
@@ -5495,7 +6779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>16</v>
       </c>
@@ -5506,7 +6790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>18</v>
       </c>
@@ -5517,7 +6801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>20</v>
       </c>
@@ -5528,7 +6812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>22</v>
       </c>
@@ -5539,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>24</v>
       </c>
@@ -5550,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>26</v>
       </c>
@@ -5561,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>28</v>
       </c>
@@ -5953,6 +7237,46 @@
       <c r="D47">
         <v>0</v>
       </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="Q52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6418,7 +7742,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H1" s="66" t="s">
         <v>13</v>
@@ -6453,7 +7777,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B2" s="9">
         <v>23</v>
@@ -6535,47 +7859,87 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923D42B9-7A86-1345-AADD-F9A6DEC8D2BA}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD35"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="F1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="J1" s="66" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L1" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -6588,23 +7952,23 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
       <c r="M2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -6618,7 +7982,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -6632,7 +7996,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -6646,7 +8010,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -6660,7 +8024,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -6674,7 +8038,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -6688,7 +8052,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -6702,7 +8066,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -6716,7 +8080,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -6730,7 +8094,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -6744,7 +8108,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -6758,7 +8122,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -6772,7 +8136,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -6786,7 +8150,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -7089,6 +8453,61 @@
       <c r="E35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="Q52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7096,11 +8515,2132 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520D0FE-3D3A-5944-810E-4CC776E5E44F}">
+  <dimension ref="A1:R52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="15">
+        <v>-20.101167</v>
+      </c>
+      <c r="C2" s="15">
+        <v>-69.491221999999993</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1380</v>
+      </c>
+      <c r="E2" s="15">
+        <v>5</v>
+      </c>
+      <c r="F2" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="37">
+        <v>37200000</v>
+      </c>
+      <c r="J2" s="27"/>
+      <c r="K2" s="37"/>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="14">
+        <v>-20.101167</v>
+      </c>
+      <c r="C3" s="14">
+        <v>-69.491221999999993</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1380</v>
+      </c>
+      <c r="E3" s="14">
+        <v>5</v>
+      </c>
+      <c r="F3" s="22">
+        <v>3.2</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>267800000</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="37"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="13">
+        <v>-19.578942000000001</v>
+      </c>
+      <c r="C4" s="13">
+        <v>-69.872967000000003</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1172</v>
+      </c>
+      <c r="E4" s="13">
+        <v>5</v>
+      </c>
+      <c r="F4" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>647100000</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="37"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="13">
+        <v>-19.578942000000001</v>
+      </c>
+      <c r="C5" s="13">
+        <v>-69.872967000000003</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1172</v>
+      </c>
+      <c r="E5" s="15">
+        <v>5</v>
+      </c>
+      <c r="F5" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>329000000</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="37"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="14">
+        <v>-19.987110999999999</v>
+      </c>
+      <c r="C6" s="14">
+        <v>-69.433610999999999</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1943</v>
+      </c>
+      <c r="E6" s="14">
+        <v>5</v>
+      </c>
+      <c r="F6" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>613100000</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="37"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="14">
+        <v>-19.340944</v>
+      </c>
+      <c r="C7" s="14">
+        <v>-69.727999999999994</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1607</v>
+      </c>
+      <c r="E7" s="13">
+        <v>5</v>
+      </c>
+      <c r="F7" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>768100000</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="37"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="14">
+        <v>-19.340944</v>
+      </c>
+      <c r="C8" s="14">
+        <v>-69.727999999999994</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1607</v>
+      </c>
+      <c r="E8" s="15">
+        <v>5</v>
+      </c>
+      <c r="F8" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>898000000</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="14">
+        <v>-19.340944</v>
+      </c>
+      <c r="C9" s="14">
+        <v>-69.727999999999994</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1607</v>
+      </c>
+      <c r="E9" s="14">
+        <v>5</v>
+      </c>
+      <c r="F9" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1707700000</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="37"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="14">
+        <v>-19.336722000000002</v>
+      </c>
+      <c r="C10" s="14">
+        <v>-69.729611000000006</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1604</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5</v>
+      </c>
+      <c r="F10" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>232200000</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="37"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="14">
+        <v>-19.336722000000002</v>
+      </c>
+      <c r="C11" s="14">
+        <v>-69.729611000000006</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1604</v>
+      </c>
+      <c r="E11" s="15">
+        <v>5</v>
+      </c>
+      <c r="F11" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>323700000</v>
+      </c>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="14">
+        <v>-19.336722000000002</v>
+      </c>
+      <c r="C12" s="14">
+        <v>-69.729611000000006</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1604</v>
+      </c>
+      <c r="E12" s="14">
+        <v>5</v>
+      </c>
+      <c r="F12" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1024400000.0000001</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="16">
+        <v>-18.886583000000002</v>
+      </c>
+      <c r="C13" s="16">
+        <v>-69.699055999999999</v>
+      </c>
+      <c r="D13" s="16">
+        <v>2282</v>
+      </c>
+      <c r="E13" s="13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2746200000</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="37"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="16">
+        <v>-18.886583000000002</v>
+      </c>
+      <c r="C14" s="16">
+        <v>-69.699055999999999</v>
+      </c>
+      <c r="D14" s="16">
+        <v>2282</v>
+      </c>
+      <c r="E14" s="15">
+        <v>5</v>
+      </c>
+      <c r="F14" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2422400000</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="37"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="16">
+        <v>-18.905639000000001</v>
+      </c>
+      <c r="C15" s="16">
+        <v>-69.954583</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1443</v>
+      </c>
+      <c r="E15" s="14">
+        <v>5</v>
+      </c>
+      <c r="F15" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1439300000</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="37"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="16">
+        <v>-18.905639000000001</v>
+      </c>
+      <c r="C16" s="16">
+        <v>-69.954583</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1443</v>
+      </c>
+      <c r="E16" s="13">
+        <v>5</v>
+      </c>
+      <c r="F16" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1619600000</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="37"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="16">
+        <v>-18.852694</v>
+      </c>
+      <c r="C17" s="16">
+        <v>-69.657167000000001</v>
+      </c>
+      <c r="D17" s="16">
+        <v>2550</v>
+      </c>
+      <c r="E17" s="15">
+        <v>5</v>
+      </c>
+      <c r="F17" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2390400000</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="37"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="16">
+        <v>-20.704083000000001</v>
+      </c>
+      <c r="C18" s="16">
+        <v>-69.420833000000002</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1084</v>
+      </c>
+      <c r="E18" s="14">
+        <v>5</v>
+      </c>
+      <c r="F18" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>882200000</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="17">
+        <v>-19.786306</v>
+      </c>
+      <c r="C19" s="17">
+        <v>-69.682000000000002</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1289</v>
+      </c>
+      <c r="E19" s="13">
+        <v>5</v>
+      </c>
+      <c r="F19" s="26">
+        <v>2.89</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1105700000</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="14">
+        <v>-19.786306</v>
+      </c>
+      <c r="C20" s="14">
+        <v>-69.682000000000002</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1289</v>
+      </c>
+      <c r="E20" s="15">
+        <v>5</v>
+      </c>
+      <c r="F20" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1000100000</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="14">
+        <v>-19.786306</v>
+      </c>
+      <c r="C21" s="14">
+        <v>-69.682000000000002</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1289</v>
+      </c>
+      <c r="E21" s="14">
+        <v>5</v>
+      </c>
+      <c r="F21" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>3021600000</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="37"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="14">
+        <v>-19.397832999999999</v>
+      </c>
+      <c r="C22" s="14">
+        <v>-69.880306000000004</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1256</v>
+      </c>
+      <c r="E22" s="13">
+        <v>5</v>
+      </c>
+      <c r="F22" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G22" s="13">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1895600000</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="37"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="14">
+        <v>-19.397832999999999</v>
+      </c>
+      <c r="C23" s="14">
+        <v>-69.880306000000004</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1256</v>
+      </c>
+      <c r="E23" s="15">
+        <v>5</v>
+      </c>
+      <c r="F23" s="22">
+        <v>2.74</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>3184900000</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="14">
+        <v>-19.397832999999999</v>
+      </c>
+      <c r="C24" s="14">
+        <v>-69.880306000000004</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1256</v>
+      </c>
+      <c r="E24" s="14">
+        <v>5</v>
+      </c>
+      <c r="F24" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>2629800000.0000005</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="37"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="16">
+        <v>-19.522110999999999</v>
+      </c>
+      <c r="C25" s="16">
+        <v>-69.808333000000005</v>
+      </c>
+      <c r="D25" s="16">
+        <v>1312</v>
+      </c>
+      <c r="E25" s="13">
+        <v>5</v>
+      </c>
+      <c r="F25" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>2823500000</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="37"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="16">
+        <v>-19.522110999999999</v>
+      </c>
+      <c r="C26" s="16">
+        <v>-69.808333000000005</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1312</v>
+      </c>
+      <c r="E26" s="15">
+        <v>5</v>
+      </c>
+      <c r="F26" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>639000000</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="37"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="21">
+        <v>-18.503527999999999</v>
+      </c>
+      <c r="C27" s="21">
+        <v>-70.143305999999995</v>
+      </c>
+      <c r="D27" s="21">
+        <v>771</v>
+      </c>
+      <c r="E27" s="14">
+        <v>5</v>
+      </c>
+      <c r="F27" s="31">
+        <v>2.89</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>420100000</v>
+      </c>
+      <c r="J27" s="32"/>
+      <c r="K27" s="37"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="20">
+        <v>-18.389944</v>
+      </c>
+      <c r="C28" s="20">
+        <v>-70.071805999999995</v>
+      </c>
+      <c r="D28" s="20">
+        <v>1025</v>
+      </c>
+      <c r="E28" s="13">
+        <v>5</v>
+      </c>
+      <c r="F28" s="26">
+        <v>2.89</v>
+      </c>
+      <c r="G28" s="13">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>380300000</v>
+      </c>
+      <c r="J28" s="33"/>
+      <c r="K28" s="37"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="21">
+        <v>-18.389944</v>
+      </c>
+      <c r="C29" s="21">
+        <v>-70.071805999999995</v>
+      </c>
+      <c r="D29" s="21">
+        <v>1025</v>
+      </c>
+      <c r="E29" s="15">
+        <v>5</v>
+      </c>
+      <c r="F29" s="31">
+        <v>2.89</v>
+      </c>
+      <c r="G29" s="13">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>434500000</v>
+      </c>
+      <c r="J29" s="32"/>
+      <c r="K29" s="37"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225F8288-2AD0-3149-BE3D-BA32CA0A6CF4}">
+  <dimension ref="A1:R52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="15">
+        <v>-20.101167</v>
+      </c>
+      <c r="C2" s="15">
+        <v>-69.491221999999993</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1380</v>
+      </c>
+      <c r="E2" s="15">
+        <v>5</v>
+      </c>
+      <c r="F2" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>27400000</v>
+      </c>
+      <c r="J2" s="27"/>
+      <c r="K2" s="37"/>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="14">
+        <v>-20.101167</v>
+      </c>
+      <c r="C3" s="14">
+        <v>-69.491221999999993</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1380</v>
+      </c>
+      <c r="E3" s="14">
+        <v>5</v>
+      </c>
+      <c r="F3" s="22">
+        <v>3.2</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>250200000</v>
+      </c>
+      <c r="J3" s="25"/>
+      <c r="K3" s="37"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="13">
+        <v>-19.578942000000001</v>
+      </c>
+      <c r="C4" s="13">
+        <v>-69.872967000000003</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1172</v>
+      </c>
+      <c r="E4" s="13">
+        <v>5</v>
+      </c>
+      <c r="F4" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>647100000</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="37"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="13">
+        <v>-19.578942000000001</v>
+      </c>
+      <c r="C5" s="13">
+        <v>-69.872967000000003</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1172</v>
+      </c>
+      <c r="E5" s="15">
+        <v>5</v>
+      </c>
+      <c r="F5" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>315000000</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="37"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="14">
+        <v>-19.987110999999999</v>
+      </c>
+      <c r="C6" s="14">
+        <v>-69.433610999999999</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1943</v>
+      </c>
+      <c r="E6" s="14">
+        <v>5</v>
+      </c>
+      <c r="F6" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>613100000</v>
+      </c>
+      <c r="J6" s="25"/>
+      <c r="K6" s="37"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="14">
+        <v>-19.340944</v>
+      </c>
+      <c r="C7" s="14">
+        <v>-69.727999999999994</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1607</v>
+      </c>
+      <c r="E7" s="13">
+        <v>5</v>
+      </c>
+      <c r="F7" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>721500000</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="37"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="14">
+        <v>-19.340944</v>
+      </c>
+      <c r="C8" s="14">
+        <v>-69.727999999999994</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1607</v>
+      </c>
+      <c r="E8" s="15">
+        <v>5</v>
+      </c>
+      <c r="F8" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>898000000</v>
+      </c>
+      <c r="J8" s="25"/>
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="14">
+        <v>-19.340944</v>
+      </c>
+      <c r="C9" s="14">
+        <v>-69.727999999999994</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1607</v>
+      </c>
+      <c r="E9" s="14">
+        <v>5</v>
+      </c>
+      <c r="F9" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1634700000</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="37"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="14">
+        <v>-19.336722000000002</v>
+      </c>
+      <c r="C10" s="14">
+        <v>-69.729611000000006</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1604</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5</v>
+      </c>
+      <c r="F10" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>232200000</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="37"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="14">
+        <v>-19.336722000000002</v>
+      </c>
+      <c r="C11" s="14">
+        <v>-69.729611000000006</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1604</v>
+      </c>
+      <c r="E11" s="15">
+        <v>5</v>
+      </c>
+      <c r="F11" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>299900000</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="14">
+        <v>-19.336722000000002</v>
+      </c>
+      <c r="C12" s="14">
+        <v>-69.729611000000006</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1604</v>
+      </c>
+      <c r="E12" s="14">
+        <v>5</v>
+      </c>
+      <c r="F12" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1024400000.0000001</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="16">
+        <v>-18.886583000000002</v>
+      </c>
+      <c r="C13" s="16">
+        <v>-69.699055999999999</v>
+      </c>
+      <c r="D13" s="16">
+        <v>2282</v>
+      </c>
+      <c r="E13" s="13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2651600000</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="37"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="16">
+        <v>-18.886583000000002</v>
+      </c>
+      <c r="C14" s="16">
+        <v>-69.699055999999999</v>
+      </c>
+      <c r="D14" s="16">
+        <v>2282</v>
+      </c>
+      <c r="E14" s="15">
+        <v>5</v>
+      </c>
+      <c r="F14" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2422400000</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="37"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="16">
+        <v>-18.905639000000001</v>
+      </c>
+      <c r="C15" s="16">
+        <v>-69.954583</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1443</v>
+      </c>
+      <c r="E15" s="14">
+        <v>5</v>
+      </c>
+      <c r="F15" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1388900000</v>
+      </c>
+      <c r="J15" s="28"/>
+      <c r="K15" s="37"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="16">
+        <v>-18.905639000000001</v>
+      </c>
+      <c r="C16" s="16">
+        <v>-69.954583</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1443</v>
+      </c>
+      <c r="E16" s="13">
+        <v>5</v>
+      </c>
+      <c r="F16" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1619600000</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="37"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="16">
+        <v>-18.852694</v>
+      </c>
+      <c r="C17" s="16">
+        <v>-69.657167000000001</v>
+      </c>
+      <c r="D17" s="16">
+        <v>2550</v>
+      </c>
+      <c r="E17" s="15">
+        <v>5</v>
+      </c>
+      <c r="F17" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2309600000</v>
+      </c>
+      <c r="J17" s="28"/>
+      <c r="K17" s="37"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="16">
+        <v>-20.704083000000001</v>
+      </c>
+      <c r="C18" s="16">
+        <v>-69.420833000000002</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1084</v>
+      </c>
+      <c r="E18" s="14">
+        <v>5</v>
+      </c>
+      <c r="F18" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>882200000</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="17">
+        <v>-19.786306</v>
+      </c>
+      <c r="C19" s="17">
+        <v>-69.682000000000002</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1289</v>
+      </c>
+      <c r="E19" s="13">
+        <v>5</v>
+      </c>
+      <c r="F19" s="26">
+        <v>2.89</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1050300000</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="14">
+        <v>-19.786306</v>
+      </c>
+      <c r="C20" s="14">
+        <v>-69.682000000000002</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1289</v>
+      </c>
+      <c r="E20" s="15">
+        <v>5</v>
+      </c>
+      <c r="F20" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1000100000</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="14">
+        <v>-19.786306</v>
+      </c>
+      <c r="C21" s="14">
+        <v>-69.682000000000002</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1289</v>
+      </c>
+      <c r="E21" s="14">
+        <v>5</v>
+      </c>
+      <c r="F21" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>2957600000</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="37"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="14">
+        <v>-19.397832999999999</v>
+      </c>
+      <c r="C22" s="14">
+        <v>-69.880306000000004</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1256</v>
+      </c>
+      <c r="E22" s="13">
+        <v>5</v>
+      </c>
+      <c r="F22" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G22" s="13">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1895600000</v>
+      </c>
+      <c r="J22" s="25"/>
+      <c r="K22" s="37"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="14">
+        <v>-19.397832999999999</v>
+      </c>
+      <c r="C23" s="14">
+        <v>-69.880306000000004</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1256</v>
+      </c>
+      <c r="E23" s="15">
+        <v>5</v>
+      </c>
+      <c r="F23" s="22">
+        <v>2.74</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>3020300000</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="14">
+        <v>-19.397832999999999</v>
+      </c>
+      <c r="C24" s="14">
+        <v>-69.880306000000004</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1256</v>
+      </c>
+      <c r="E24" s="14">
+        <v>5</v>
+      </c>
+      <c r="F24" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>2629800000.0000005</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="37"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="16">
+        <v>-19.522110999999999</v>
+      </c>
+      <c r="C25" s="16">
+        <v>-69.808333000000005</v>
+      </c>
+      <c r="D25" s="16">
+        <v>1312</v>
+      </c>
+      <c r="E25" s="13">
+        <v>5</v>
+      </c>
+      <c r="F25" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>2719500000</v>
+      </c>
+      <c r="J25" s="28"/>
+      <c r="K25" s="37"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="16">
+        <v>-19.522110999999999</v>
+      </c>
+      <c r="C26" s="16">
+        <v>-69.808333000000005</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1312</v>
+      </c>
+      <c r="E26" s="15">
+        <v>5</v>
+      </c>
+      <c r="F26" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>639000000</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="37"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="21">
+        <v>-18.503527999999999</v>
+      </c>
+      <c r="C27" s="21">
+        <v>-70.143305999999995</v>
+      </c>
+      <c r="D27" s="21">
+        <v>771</v>
+      </c>
+      <c r="E27" s="14">
+        <v>5</v>
+      </c>
+      <c r="F27" s="31">
+        <v>2.89</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>405700000</v>
+      </c>
+      <c r="J27" s="32"/>
+      <c r="K27" s="37"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="20">
+        <v>-18.389944</v>
+      </c>
+      <c r="C28" s="20">
+        <v>-70.071805999999995</v>
+      </c>
+      <c r="D28" s="20">
+        <v>1025</v>
+      </c>
+      <c r="E28" s="13">
+        <v>5</v>
+      </c>
+      <c r="F28" s="26">
+        <v>2.89</v>
+      </c>
+      <c r="G28" s="13">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>380300000</v>
+      </c>
+      <c r="J28" s="33"/>
+      <c r="K28" s="37"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="21">
+        <v>-18.389944</v>
+      </c>
+      <c r="C29" s="21">
+        <v>-70.071805999999995</v>
+      </c>
+      <c r="D29" s="21">
+        <v>1025</v>
+      </c>
+      <c r="E29" s="15">
+        <v>5</v>
+      </c>
+      <c r="F29" s="31">
+        <v>2.89</v>
+      </c>
+      <c r="G29" s="13">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>415500000</v>
+      </c>
+      <c r="J29" s="32"/>
+      <c r="K29" s="37"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC98A15-AE39-4743-9E74-0C5D457F6E10}">
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7144,7 +10684,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H1" s="66" t="s">
         <v>13</v>
@@ -7209,6 +10749,7 @@
       <c r="J2" s="27">
         <v>4900000</v>
       </c>
+      <c r="K2" s="37"/>
       <c r="L2">
         <v>2</v>
       </c>
@@ -8195,1077 +11736,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A016230-6B57-C74A-92E2-8B80546C58EB}">
-  <dimension ref="A1:BT16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:72" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="66" t="s">
-        <v>135</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:72" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="41">
-        <v>-21.724806000000001</v>
-      </c>
-      <c r="C2" s="41">
-        <v>-69.237971999999999</v>
-      </c>
-      <c r="D2" s="41">
-        <v>1676</v>
-      </c>
-      <c r="E2" s="41">
-        <v>5</v>
-      </c>
-      <c r="F2" s="43">
-        <v>2.74</v>
-      </c>
-      <c r="G2" s="45">
-        <v>1</v>
-      </c>
-      <c r="H2" s="45">
-        <v>0</v>
-      </c>
-      <c r="I2" s="44">
-        <f>3.87*10000000</f>
-        <v>38700000</v>
-      </c>
-      <c r="J2" s="44">
-        <v>3700000</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45">
-        <v>4</v>
-      </c>
-      <c r="M2" s="45">
-        <v>1</v>
-      </c>
-      <c r="N2" s="45">
-        <v>0</v>
-      </c>
-      <c r="O2" s="45">
-        <v>20</v>
-      </c>
-      <c r="P2" s="45">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="45">
-        <v>0</v>
-      </c>
-      <c r="R2" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:72" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="41">
-        <v>-21.724806000000001</v>
-      </c>
-      <c r="C3" s="41">
-        <v>-69.237971999999999</v>
-      </c>
-      <c r="D3" s="41">
-        <v>1676</v>
-      </c>
-      <c r="E3" s="41">
-        <v>5</v>
-      </c>
-      <c r="F3" s="43">
-        <v>2.74</v>
-      </c>
-      <c r="G3" s="45">
-        <v>1</v>
-      </c>
-      <c r="H3" s="45">
-        <v>0</v>
-      </c>
-      <c r="I3" s="44">
-        <f>3.79*10000000</f>
-        <v>37900000</v>
-      </c>
-      <c r="J3" s="44">
-        <v>2500000</v>
-      </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="41"/>
-    </row>
-    <row r="4" spans="1:72" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="41">
-        <v>-21.704056000000001</v>
-      </c>
-      <c r="C4" s="41">
-        <v>-69.209444000000005</v>
-      </c>
-      <c r="D4" s="41">
-        <v>1438</v>
-      </c>
-      <c r="E4" s="41">
-        <v>5</v>
-      </c>
-      <c r="F4" s="43">
-        <v>2.74</v>
-      </c>
-      <c r="G4" s="45">
-        <v>1</v>
-      </c>
-      <c r="H4" s="45">
-        <v>0</v>
-      </c>
-      <c r="I4" s="44">
-        <f>0.95*10000000</f>
-        <v>9500000</v>
-      </c>
-      <c r="J4" s="44">
-        <v>1500000</v>
-      </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="41"/>
-      <c r="N4" s="41"/>
-    </row>
-    <row r="5" spans="1:72" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="41">
-        <v>-21.704056000000001</v>
-      </c>
-      <c r="C5" s="41">
-        <v>-69.209444000000005</v>
-      </c>
-      <c r="D5" s="41">
-        <v>1438</v>
-      </c>
-      <c r="E5" s="41">
-        <v>5</v>
-      </c>
-      <c r="F5" s="43">
-        <v>2.74</v>
-      </c>
-      <c r="G5" s="45">
-        <v>1</v>
-      </c>
-      <c r="H5" s="45">
-        <v>0</v>
-      </c>
-      <c r="I5" s="44">
-        <f>0.42*10000000</f>
-        <v>4200000</v>
-      </c>
-      <c r="J5" s="44">
-        <v>1300000</v>
-      </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="41"/>
-    </row>
-    <row r="6" spans="1:72" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" s="41">
-        <v>-21.704056000000001</v>
-      </c>
-      <c r="C6" s="41">
-        <v>-69.209444000000005</v>
-      </c>
-      <c r="D6" s="41">
-        <v>1438</v>
-      </c>
-      <c r="E6" s="41">
-        <v>5</v>
-      </c>
-      <c r="F6" s="43">
-        <v>2.74</v>
-      </c>
-      <c r="G6" s="45">
-        <v>1</v>
-      </c>
-      <c r="H6" s="45">
-        <v>0</v>
-      </c>
-      <c r="I6" s="44">
-        <f>1.11*10000000</f>
-        <v>11100000.000000002</v>
-      </c>
-      <c r="J6" s="44">
-        <v>2000000</v>
-      </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="41"/>
-    </row>
-    <row r="7" spans="1:72" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="41">
-        <v>-21.101222</v>
-      </c>
-      <c r="C7" s="41">
-        <v>-69.257499999999993</v>
-      </c>
-      <c r="D7" s="41">
-        <v>1065</v>
-      </c>
-      <c r="E7" s="41">
-        <v>5</v>
-      </c>
-      <c r="F7" s="43">
-        <v>2.74</v>
-      </c>
-      <c r="G7" s="45">
-        <v>1</v>
-      </c>
-      <c r="H7" s="45">
-        <v>0</v>
-      </c>
-      <c r="I7" s="44">
-        <v>5800000</v>
-      </c>
-      <c r="J7" s="44">
-        <v>800000</v>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="41"/>
-    </row>
-    <row r="8" spans="1:72" s="46" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="41">
-        <v>-21.101222</v>
-      </c>
-      <c r="C8" s="41">
-        <v>-69.257499999999993</v>
-      </c>
-      <c r="D8" s="41">
-        <v>1065</v>
-      </c>
-      <c r="E8" s="41">
-        <v>5</v>
-      </c>
-      <c r="F8" s="43">
-        <v>2.74</v>
-      </c>
-      <c r="G8" s="45">
-        <v>1</v>
-      </c>
-      <c r="H8" s="45">
-        <v>0</v>
-      </c>
-      <c r="I8" s="44">
-        <v>6850000.0000000009</v>
-      </c>
-      <c r="J8" s="44">
-        <v>800000</v>
-      </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="41"/>
-    </row>
-    <row r="9" spans="1:72" s="47" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="41">
-        <v>-21.078944</v>
-      </c>
-      <c r="C9" s="41">
-        <v>-69.364833000000004</v>
-      </c>
-      <c r="D9" s="41">
-        <v>1573</v>
-      </c>
-      <c r="E9" s="41">
-        <v>5</v>
-      </c>
-      <c r="F9" s="43">
-        <v>2.74</v>
-      </c>
-      <c r="G9" s="45">
-        <v>1</v>
-      </c>
-      <c r="H9" s="45">
-        <v>0</v>
-      </c>
-      <c r="I9" s="44">
-        <v>1400000.0000000002</v>
-      </c>
-      <c r="J9" s="44">
-        <v>200000</v>
-      </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="41"/>
-    </row>
-    <row r="10" spans="1:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" s="41">
-        <v>-20.101167</v>
-      </c>
-      <c r="C10" s="41">
-        <v>-69.491221999999993</v>
-      </c>
-      <c r="D10" s="41">
-        <v>1380</v>
-      </c>
-      <c r="E10" s="41">
-        <v>5</v>
-      </c>
-      <c r="F10" s="35">
-        <v>2.74</v>
-      </c>
-      <c r="G10" s="45">
-        <v>1</v>
-      </c>
-      <c r="H10" s="45">
-        <v>0</v>
-      </c>
-      <c r="I10" s="39">
-        <v>75000000</v>
-      </c>
-      <c r="J10" s="39">
-        <v>4400000</v>
-      </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="45"/>
-      <c r="AF10" s="45"/>
-      <c r="AG10" s="45"/>
-      <c r="AH10" s="45"/>
-      <c r="AI10" s="45"/>
-      <c r="AJ10" s="45"/>
-      <c r="AK10" s="45"/>
-      <c r="AL10" s="45"/>
-      <c r="AM10" s="45"/>
-      <c r="AN10" s="45"/>
-      <c r="AO10" s="45"/>
-      <c r="AP10" s="45"/>
-      <c r="AQ10" s="45"/>
-      <c r="AR10" s="45"/>
-      <c r="AS10" s="45"/>
-      <c r="AT10" s="45"/>
-      <c r="AU10" s="45"/>
-      <c r="AV10" s="45"/>
-      <c r="AW10" s="45"/>
-      <c r="AX10" s="45"/>
-      <c r="AY10" s="45"/>
-      <c r="AZ10" s="45"/>
-      <c r="BA10" s="45"/>
-      <c r="BB10" s="45"/>
-      <c r="BC10" s="45"/>
-      <c r="BD10" s="45"/>
-      <c r="BE10" s="45"/>
-      <c r="BF10" s="45"/>
-      <c r="BG10" s="45"/>
-      <c r="BH10" s="45"/>
-      <c r="BI10" s="45"/>
-      <c r="BJ10" s="45"/>
-      <c r="BK10" s="45"/>
-      <c r="BL10" s="45"/>
-      <c r="BM10" s="45"/>
-      <c r="BN10" s="45"/>
-      <c r="BO10" s="45"/>
-      <c r="BP10" s="45"/>
-      <c r="BQ10" s="45"/>
-      <c r="BR10" s="45"/>
-      <c r="BS10" s="45"/>
-      <c r="BT10" s="45"/>
-    </row>
-    <row r="11" spans="1:72" s="48" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="41">
-        <v>-20.101167</v>
-      </c>
-      <c r="C11" s="41">
-        <v>-69.491221999999993</v>
-      </c>
-      <c r="D11" s="41">
-        <v>1380</v>
-      </c>
-      <c r="E11" s="41">
-        <v>5</v>
-      </c>
-      <c r="F11" s="35">
-        <v>2.74</v>
-      </c>
-      <c r="G11" s="45">
-        <v>1</v>
-      </c>
-      <c r="H11" s="45">
-        <v>0</v>
-      </c>
-      <c r="I11" s="39">
-        <v>78700000</v>
-      </c>
-      <c r="J11" s="39">
-        <v>6400000</v>
-      </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45"/>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="45"/>
-      <c r="AM11" s="45"/>
-      <c r="AN11" s="45"/>
-      <c r="AO11" s="45"/>
-      <c r="AP11" s="45"/>
-      <c r="AQ11" s="45"/>
-      <c r="AR11" s="45"/>
-      <c r="AS11" s="45"/>
-      <c r="AT11" s="45"/>
-      <c r="AU11" s="45"/>
-      <c r="AV11" s="45"/>
-      <c r="AW11" s="45"/>
-      <c r="AX11" s="45"/>
-      <c r="AY11" s="45"/>
-      <c r="AZ11" s="45"/>
-      <c r="BA11" s="45"/>
-      <c r="BB11" s="45"/>
-      <c r="BC11" s="45"/>
-      <c r="BD11" s="45"/>
-      <c r="BE11" s="45"/>
-      <c r="BF11" s="45"/>
-      <c r="BG11" s="45"/>
-      <c r="BH11" s="45"/>
-      <c r="BI11" s="45"/>
-      <c r="BJ11" s="45"/>
-      <c r="BK11" s="45"/>
-      <c r="BL11" s="45"/>
-      <c r="BM11" s="45"/>
-      <c r="BN11" s="45"/>
-      <c r="BO11" s="45"/>
-      <c r="BP11" s="45"/>
-      <c r="BQ11" s="45"/>
-      <c r="BR11" s="45"/>
-      <c r="BS11" s="45"/>
-      <c r="BT11" s="45"/>
-    </row>
-    <row r="12" spans="1:72" s="51" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="49">
-        <v>-19.987110999999999</v>
-      </c>
-      <c r="C12" s="49">
-        <v>-69.433610999999999</v>
-      </c>
-      <c r="D12" s="49">
-        <v>1943</v>
-      </c>
-      <c r="E12" s="41">
-        <v>5</v>
-      </c>
-      <c r="F12" s="34">
-        <v>2.74</v>
-      </c>
-      <c r="G12" s="45">
-        <v>1</v>
-      </c>
-      <c r="H12" s="45">
-        <v>0</v>
-      </c>
-      <c r="I12" s="38">
-        <v>167400000</v>
-      </c>
-      <c r="J12" s="38">
-        <v>9900000</v>
-      </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="50"/>
-      <c r="Z12" s="50"/>
-      <c r="AA12" s="50"/>
-      <c r="AB12" s="50"/>
-      <c r="AC12" s="50"/>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50"/>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50"/>
-      <c r="AH12" s="50"/>
-      <c r="AI12" s="50"/>
-      <c r="AJ12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
-      <c r="AP12" s="50"/>
-      <c r="AQ12" s="50"/>
-      <c r="AR12" s="50"/>
-      <c r="AS12" s="50"/>
-      <c r="AT12" s="50"/>
-      <c r="AU12" s="50"/>
-      <c r="AV12" s="50"/>
-      <c r="AW12" s="50"/>
-      <c r="AX12" s="50"/>
-      <c r="AY12" s="50"/>
-      <c r="AZ12" s="50"/>
-      <c r="BA12" s="50"/>
-      <c r="BB12" s="50"/>
-      <c r="BC12" s="50"/>
-      <c r="BD12" s="50"/>
-      <c r="BE12" s="50"/>
-      <c r="BF12" s="50"/>
-      <c r="BG12" s="50"/>
-      <c r="BH12" s="50"/>
-      <c r="BI12" s="50"/>
-      <c r="BJ12" s="50"/>
-      <c r="BK12" s="50"/>
-      <c r="BL12" s="50"/>
-      <c r="BM12" s="50"/>
-      <c r="BN12" s="50"/>
-      <c r="BO12" s="50"/>
-      <c r="BP12" s="50"/>
-      <c r="BQ12" s="50"/>
-      <c r="BR12" s="50"/>
-      <c r="BS12" s="50"/>
-      <c r="BT12" s="50"/>
-    </row>
-    <row r="13" spans="1:72" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="41">
-        <v>-19.987110999999999</v>
-      </c>
-      <c r="C13" s="41">
-        <v>-69.433610999999999</v>
-      </c>
-      <c r="D13" s="41">
-        <v>1943</v>
-      </c>
-      <c r="E13" s="41">
-        <v>5</v>
-      </c>
-      <c r="F13" s="43">
-        <v>2.74</v>
-      </c>
-      <c r="G13" s="45">
-        <v>1</v>
-      </c>
-      <c r="H13" s="45">
-        <v>0</v>
-      </c>
-      <c r="I13" s="52">
-        <v>331000000</v>
-      </c>
-      <c r="J13" s="52">
-        <v>13400000</v>
-      </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="41"/>
-    </row>
-    <row r="14" spans="1:72" s="55" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="53">
-        <v>-20.108222000000001</v>
-      </c>
-      <c r="C14" s="53">
-        <v>-69.311722000000003</v>
-      </c>
-      <c r="D14" s="53">
-        <v>2233</v>
-      </c>
-      <c r="E14" s="41">
-        <v>5</v>
-      </c>
-      <c r="F14" s="43">
-        <v>2.74</v>
-      </c>
-      <c r="G14" s="45">
-        <v>1</v>
-      </c>
-      <c r="H14" s="45">
-        <v>0</v>
-      </c>
-      <c r="I14" s="54">
-        <v>199100000</v>
-      </c>
-      <c r="J14" s="54">
-        <v>7600000</v>
-      </c>
-      <c r="K14" s="54"/>
-      <c r="L14" s="41"/>
-    </row>
-    <row r="15" spans="1:72" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="41">
-        <v>-19.786306</v>
-      </c>
-      <c r="C15" s="41">
-        <v>-69.682000000000002</v>
-      </c>
-      <c r="D15" s="41">
-        <v>1289</v>
-      </c>
-      <c r="E15" s="41">
-        <v>5</v>
-      </c>
-      <c r="F15" s="43">
-        <v>2.74</v>
-      </c>
-      <c r="G15" s="45">
-        <v>1</v>
-      </c>
-      <c r="H15" s="45">
-        <v>0</v>
-      </c>
-      <c r="I15" s="44">
-        <v>72400000</v>
-      </c>
-      <c r="J15" s="44">
-        <v>6200000</v>
-      </c>
-      <c r="K15" s="44"/>
-      <c r="L15" s="41"/>
-    </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="G16" s="45"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24694F2A-853A-E44C-A507-6368D3EEDD55}">
-  <dimension ref="A1:Q10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="9" max="9" width="22.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="10">
-        <v>38</v>
-      </c>
-      <c r="C2" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D2" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="1">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2380000</v>
-      </c>
-      <c r="K2" s="2">
-        <v>56000</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>27.5</v>
-      </c>
-      <c r="P2">
-        <v>28.5</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="10">
-        <v>38</v>
-      </c>
-      <c r="C3" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D3" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="1">
-        <v>15</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2630000</v>
-      </c>
-      <c r="K3" s="7">
-        <v>59000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="10">
-        <v>38</v>
-      </c>
-      <c r="C4" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="1">
-        <v>15</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2750000</v>
-      </c>
-      <c r="K4" s="7">
-        <v>57000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="10">
-        <v>38</v>
-      </c>
-      <c r="C5" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="1">
-        <v>35</v>
-      </c>
-      <c r="J5" s="2">
-        <v>330000</v>
-      </c>
-      <c r="K5" s="7">
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="10">
-        <v>38</v>
-      </c>
-      <c r="C6" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="1">
-        <v>45</v>
-      </c>
-      <c r="J6" s="2">
-        <v>730000</v>
-      </c>
-      <c r="K6" s="7">
-        <v>540000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="10">
-        <v>38</v>
-      </c>
-      <c r="C7" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D7" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="1">
-        <v>35</v>
-      </c>
-      <c r="J7" s="2">
-        <v>340000</v>
-      </c>
-      <c r="K7" s="7">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="10">
-        <v>38</v>
-      </c>
-      <c r="C8" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D8" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="1">
-        <v>55</v>
-      </c>
-      <c r="J8" s="2">
-        <v>590000</v>
-      </c>
-      <c r="K8" s="7">
-        <v>560000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,63 +8,64 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64AA59A9-A116-2742-85FA-FA8FC4BD6784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0064CDB-809E-AF44-8113-BE3380AD60CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30180" yWindow="460" windowWidth="28800" windowHeight="16520" firstSheet="2" activeTab="13" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1" sheetId="8" r:id="rId2"/>
-    <sheet name="Figure 2" sheetId="10" r:id="rId3"/>
-    <sheet name="Figure 3" sheetId="7" r:id="rId4"/>
-    <sheet name="Figure 6,8" sheetId="5" r:id="rId5"/>
-    <sheet name="Figure 7" sheetId="12" r:id="rId6"/>
-    <sheet name="Figure 9_pyx+1sigma" sheetId="17" r:id="rId7"/>
-    <sheet name="Figure 9_pyx-1sigma" sheetId="18" r:id="rId8"/>
-    <sheet name="Figure 9_pyx" sheetId="14" r:id="rId9"/>
-    <sheet name="Figure 9_neon" sheetId="16" r:id="rId10"/>
-    <sheet name="Figure 10" sheetId="11" r:id="rId11"/>
-    <sheet name="Figure 10_modeled curves" sheetId="13" r:id="rId12"/>
-    <sheet name="Dunai" sheetId="15" r:id="rId13"/>
-    <sheet name="README" sheetId="4" r:id="rId14"/>
+    <sheet name="erate" sheetId="20" r:id="rId2"/>
+    <sheet name="Figure 1" sheetId="8" r:id="rId3"/>
+    <sheet name="Figure 2" sheetId="10" r:id="rId4"/>
+    <sheet name="Figure 3" sheetId="7" r:id="rId5"/>
+    <sheet name="Figure 6,8" sheetId="5" r:id="rId6"/>
+    <sheet name="Figure 7" sheetId="12" r:id="rId7"/>
+    <sheet name="Figure 9_pyx+1sigma" sheetId="17" r:id="rId8"/>
+    <sheet name="Figure 9_pyx-1sigma" sheetId="18" r:id="rId9"/>
+    <sheet name="Figure 9_pyx" sheetId="14" r:id="rId10"/>
+    <sheet name="Figure 9_neon" sheetId="16" r:id="rId11"/>
+    <sheet name="Figure 10" sheetId="11" r:id="rId12"/>
+    <sheet name="Figure 10_modeled curves" sheetId="13" r:id="rId13"/>
+    <sheet name="Dunai" sheetId="15" r:id="rId14"/>
+    <sheet name="README" sheetId="4" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Active!$B$79,Active!$B$84,Active!$B$86,Active!$B$87</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">'Figure 3'!$B$74,'Figure 3'!$B$79,'Figure 3'!$B$81,'Figure 3'!$B$82</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'Figure 3'!$B$74,'Figure 3'!$B$79,'Figure 3'!$B$81,'Figure 3'!$B$82</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Active!$B$90</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Figure 3'!$B$85</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Figure 3'!$B$85</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Active!$F$57</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Figure 3'!$F$52</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Figure 3'!$F$52</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Active!$F$58</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Figure 3'!$F$53</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'Figure 3'!$F$53</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Active!$F$56</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'Figure 3'!$F$51</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'Figure 3'!$F$51</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0.4</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">0.4</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">0.4</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">1.4</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">1.4</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">1.4</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">98.2</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">98.2</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">98.2</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="139">
   <si>
     <t>Sample Name</t>
   </si>
@@ -1095,9 +1096,6 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1105,6 +1103,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1422,21 +1423,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39602BD4-AF2D-864A-8905-789D980EB8BD}">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
@@ -1492,478 +1494,458 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="10">
-        <v>38</v>
-      </c>
-      <c r="C2" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D2" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E2" s="1">
+    <row r="2" spans="1:21" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="41">
+        <v>-21.724806000000001</v>
+      </c>
+      <c r="C2" s="41">
+        <v>-69.237971999999999</v>
+      </c>
+      <c r="D2" s="41">
+        <v>1676</v>
+      </c>
+      <c r="E2" s="41">
+        <v>5</v>
+      </c>
+      <c r="F2" s="43">
+        <v>2.74</v>
+      </c>
+      <c r="G2" s="45">
+        <v>1</v>
+      </c>
+      <c r="H2" s="45">
+        <v>0</v>
+      </c>
+      <c r="I2" s="44">
+        <f>3.87*10000000</f>
+        <v>38700000</v>
+      </c>
+      <c r="J2" s="44">
+        <v>3700000</v>
+      </c>
+      <c r="K2" s="44"/>
+      <c r="L2" s="45">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="11">
-        <f>3*10^-3</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2380000</v>
-      </c>
-      <c r="J2" s="2">
-        <v>560000</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>27.5</v>
-      </c>
-      <c r="O2">
-        <v>28.5</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>15</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>510000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="10">
-        <v>38</v>
-      </c>
-      <c r="C3" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D3" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="11">
-        <f>10*10^-3</f>
-        <v>0.01</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2630000</v>
-      </c>
-      <c r="J3" s="7">
-        <v>590000</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="10">
-        <v>38</v>
-      </c>
-      <c r="C4" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="11">
-        <f>20*10^-3</f>
-        <v>0.02</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2750000</v>
-      </c>
-      <c r="J4" s="7">
-        <v>570000</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="10">
-        <v>38</v>
-      </c>
-      <c r="C5" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="2">
-        <v>330000</v>
-      </c>
-      <c r="J5" s="7">
-        <v>550000</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="M2" s="45">
+        <v>1</v>
+      </c>
+      <c r="N2" s="45">
+        <v>0</v>
+      </c>
+      <c r="O2" s="45">
         <v>20</v>
       </c>
-      <c r="B6" s="10">
-        <v>38</v>
-      </c>
-      <c r="C6" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="2">
-        <v>730000</v>
-      </c>
-      <c r="J6" s="7">
-        <v>540000</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="10">
-        <v>38</v>
-      </c>
-      <c r="C7" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D7" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="2">
-        <v>340000</v>
-      </c>
-      <c r="J7" s="7">
-        <v>600000</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="10">
-        <v>38</v>
-      </c>
-      <c r="C8" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D8" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="2">
-        <v>590000</v>
-      </c>
-      <c r="J8" s="7">
-        <v>560000</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P2" s="45">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="45">
+        <v>0</v>
+      </c>
+      <c r="R2" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="41">
+        <v>-21.724806000000001</v>
+      </c>
+      <c r="C3" s="41">
+        <v>-69.237971999999999</v>
+      </c>
+      <c r="D3" s="41">
+        <v>1676</v>
+      </c>
+      <c r="E3" s="41">
+        <v>5</v>
+      </c>
+      <c r="F3" s="43">
+        <v>2.74</v>
+      </c>
+      <c r="G3" s="45">
+        <v>1</v>
+      </c>
+      <c r="H3" s="45">
+        <v>0</v>
+      </c>
+      <c r="I3" s="44">
+        <f>3.79*10000000</f>
+        <v>37900000</v>
+      </c>
+      <c r="J3" s="44">
+        <v>2500000</v>
+      </c>
+      <c r="K3" s="44"/>
+      <c r="L3" s="41"/>
+    </row>
+    <row r="4" spans="1:21" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="41">
+        <v>-21.704056000000001</v>
+      </c>
+      <c r="C4" s="41">
+        <v>-69.209444000000005</v>
+      </c>
+      <c r="D4" s="41">
+        <v>1438</v>
+      </c>
+      <c r="E4" s="41">
+        <v>5</v>
+      </c>
+      <c r="F4" s="43">
+        <v>2.74</v>
+      </c>
+      <c r="G4" s="45">
+        <v>1</v>
+      </c>
+      <c r="H4" s="45">
+        <v>0</v>
+      </c>
+      <c r="I4" s="44">
+        <f>0.95*10000000</f>
+        <v>9500000</v>
+      </c>
+      <c r="J4" s="44">
+        <v>1500000</v>
+      </c>
+      <c r="K4" s="44"/>
+      <c r="L4" s="41"/>
+      <c r="N4" s="41"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="37"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="37"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="37"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="37"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="37"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="37"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="37"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="37"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="37"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="37"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="37"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="37"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="37"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="37"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="37"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="37"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="37"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="37"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="37"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="37"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="28"/>
+      <c r="U25" s="37"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="37"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="37"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="37"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="S29" s="32"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="37"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -1973,7 +1955,7 @@
       <c r="G30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -1983,7 +1965,7 @@
       <c r="G31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -2200,11 +2182,1114 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC98A15-AE39-4743-9E74-0C5D457F6E10}">
+  <dimension ref="A1:R52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="15">
+        <v>-20.101167</v>
+      </c>
+      <c r="C2" s="15">
+        <v>-69.491221999999993</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1380</v>
+      </c>
+      <c r="E2" s="15">
+        <v>5</v>
+      </c>
+      <c r="F2" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="27">
+        <f>3.23*10^7</f>
+        <v>32300000</v>
+      </c>
+      <c r="J2" s="27">
+        <v>4900000</v>
+      </c>
+      <c r="K2" s="37"/>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="14">
+        <v>-20.101167</v>
+      </c>
+      <c r="C3" s="14">
+        <v>-69.491221999999993</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1380</v>
+      </c>
+      <c r="E3" s="14">
+        <v>5</v>
+      </c>
+      <c r="F3" s="22">
+        <v>3.2</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="25">
+        <f>25.9*10^7</f>
+        <v>259000000</v>
+      </c>
+      <c r="J3" s="25">
+        <v>8800000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="13">
+        <v>-19.578942000000001</v>
+      </c>
+      <c r="C4" s="13">
+        <v>-69.872967000000003</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1172</v>
+      </c>
+      <c r="E4" s="13">
+        <v>5</v>
+      </c>
+      <c r="F4" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="23">
+        <f>65.91*10^7</f>
+        <v>659100000</v>
+      </c>
+      <c r="J4" s="23">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="13">
+        <v>-19.578942000000001</v>
+      </c>
+      <c r="C5" s="13">
+        <v>-69.872967000000003</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1172</v>
+      </c>
+      <c r="E5" s="15">
+        <v>5</v>
+      </c>
+      <c r="F5" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="23">
+        <f>32.2*10^7</f>
+        <v>322000000</v>
+      </c>
+      <c r="J5" s="23">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="14">
+        <v>-19.987110999999999</v>
+      </c>
+      <c r="C6" s="14">
+        <v>-69.433610999999999</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1943</v>
+      </c>
+      <c r="E6" s="14">
+        <v>5</v>
+      </c>
+      <c r="F6" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="25">
+        <f>63.88*10^7</f>
+        <v>638800000</v>
+      </c>
+      <c r="J6" s="25">
+        <v>25700000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="14">
+        <v>-19.340944</v>
+      </c>
+      <c r="C7" s="14">
+        <v>-69.727999999999994</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1607</v>
+      </c>
+      <c r="E7" s="13">
+        <v>5</v>
+      </c>
+      <c r="F7" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="25">
+        <f>74.48*10^7</f>
+        <v>744800000</v>
+      </c>
+      <c r="J7" s="25">
+        <v>23300000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="14">
+        <v>-19.340944</v>
+      </c>
+      <c r="C8" s="14">
+        <v>-69.727999999999994</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1607</v>
+      </c>
+      <c r="E8" s="15">
+        <v>5</v>
+      </c>
+      <c r="F8" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="25">
+        <f>91.1*10^7</f>
+        <v>911000000</v>
+      </c>
+      <c r="J8" s="25">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="14">
+        <v>-19.340944</v>
+      </c>
+      <c r="C9" s="14">
+        <v>-69.727999999999994</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1607</v>
+      </c>
+      <c r="E9" s="14">
+        <v>5</v>
+      </c>
+      <c r="F9" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="25">
+        <f>167.12*10^7</f>
+        <v>1671200000</v>
+      </c>
+      <c r="J9" s="25">
+        <v>36500000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="14">
+        <v>-19.336722000000002</v>
+      </c>
+      <c r="C10" s="14">
+        <v>-69.729611000000006</v>
+      </c>
+      <c r="D10" s="14">
+        <v>1604</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5</v>
+      </c>
+      <c r="F10" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="25">
+        <f>24.27*10^7</f>
+        <v>242700000</v>
+      </c>
+      <c r="J10" s="25">
+        <v>10500000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="14">
+        <v>-19.336722000000002</v>
+      </c>
+      <c r="C11" s="14">
+        <v>-69.729611000000006</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1604</v>
+      </c>
+      <c r="E11" s="15">
+        <v>5</v>
+      </c>
+      <c r="F11" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="25">
+        <f>31.18*10^7</f>
+        <v>311800000</v>
+      </c>
+      <c r="J11" s="25">
+        <v>11900000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="14">
+        <v>-19.336722000000002</v>
+      </c>
+      <c r="C12" s="14">
+        <v>-69.729611000000006</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1604</v>
+      </c>
+      <c r="E12" s="14">
+        <v>5</v>
+      </c>
+      <c r="F12" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25">
+        <f>104.68*10^7</f>
+        <v>1046800000.0000001</v>
+      </c>
+      <c r="J12" s="25">
+        <v>22400000.000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="16">
+        <v>-18.886583000000002</v>
+      </c>
+      <c r="C13" s="16">
+        <v>-69.699055999999999</v>
+      </c>
+      <c r="D13" s="16">
+        <v>2282</v>
+      </c>
+      <c r="E13" s="13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="28">
+        <f>269.89*10^7</f>
+        <v>2698900000</v>
+      </c>
+      <c r="J13" s="28">
+        <v>47300000.000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="16">
+        <v>-18.886583000000002</v>
+      </c>
+      <c r="C14" s="16">
+        <v>-69.699055999999999</v>
+      </c>
+      <c r="D14" s="16">
+        <v>2282</v>
+      </c>
+      <c r="E14" s="15">
+        <v>5</v>
+      </c>
+      <c r="F14" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="28">
+        <f>246.53*10^7</f>
+        <v>2465300000</v>
+      </c>
+      <c r="J14" s="28">
+        <v>42900000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="16">
+        <v>-18.905639000000001</v>
+      </c>
+      <c r="C15" s="16">
+        <v>-69.954583</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1443</v>
+      </c>
+      <c r="E15" s="14">
+        <v>5</v>
+      </c>
+      <c r="F15" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28">
+        <v>1414100000</v>
+      </c>
+      <c r="J15" s="28">
+        <v>25200000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="16">
+        <v>-18.905639000000001</v>
+      </c>
+      <c r="C16" s="16">
+        <v>-69.954583</v>
+      </c>
+      <c r="D16" s="16">
+        <v>1443</v>
+      </c>
+      <c r="E16" s="13">
+        <v>5</v>
+      </c>
+      <c r="F16" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="28">
+        <v>1648000000</v>
+      </c>
+      <c r="J16" s="28">
+        <v>28400000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="16">
+        <v>-18.852694</v>
+      </c>
+      <c r="C17" s="16">
+        <v>-69.657167000000001</v>
+      </c>
+      <c r="D17" s="16">
+        <v>2550</v>
+      </c>
+      <c r="E17" s="15">
+        <v>5</v>
+      </c>
+      <c r="F17" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="28">
+        <v>2350000000</v>
+      </c>
+      <c r="J17" s="28">
+        <v>40400000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="16">
+        <v>-20.704083000000001</v>
+      </c>
+      <c r="C18" s="16">
+        <v>-69.420833000000002</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1084</v>
+      </c>
+      <c r="E18" s="14">
+        <v>5</v>
+      </c>
+      <c r="F18" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="28">
+        <v>901900000</v>
+      </c>
+      <c r="J18" s="28">
+        <v>19700000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="17">
+        <v>-19.786306</v>
+      </c>
+      <c r="C19" s="17">
+        <v>-69.682000000000002</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1289</v>
+      </c>
+      <c r="E19" s="13">
+        <v>5</v>
+      </c>
+      <c r="F19" s="26">
+        <v>2.89</v>
+      </c>
+      <c r="G19" s="13">
+        <v>1</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="29">
+        <v>1078000000</v>
+      </c>
+      <c r="J19" s="29">
+        <v>27700000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="14">
+        <v>-19.786306</v>
+      </c>
+      <c r="C20" s="14">
+        <v>-69.682000000000002</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1289</v>
+      </c>
+      <c r="E20" s="15">
+        <v>5</v>
+      </c>
+      <c r="F20" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G20" s="13">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="25">
+        <v>1024900000</v>
+      </c>
+      <c r="J20" s="25">
+        <v>24800000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="14">
+        <v>-19.786306</v>
+      </c>
+      <c r="C21" s="14">
+        <v>-69.682000000000002</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1289</v>
+      </c>
+      <c r="E21" s="14">
+        <v>5</v>
+      </c>
+      <c r="F21" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G21" s="13">
+        <v>1</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="30">
+        <v>2989600000</v>
+      </c>
+      <c r="J21" s="25">
+        <v>32000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="14">
+        <v>-19.397832999999999</v>
+      </c>
+      <c r="C22" s="14">
+        <v>-69.880306000000004</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1256</v>
+      </c>
+      <c r="E22" s="13">
+        <v>5</v>
+      </c>
+      <c r="F22" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G22" s="13">
+        <v>1</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="25">
+        <v>1942300000</v>
+      </c>
+      <c r="J22" s="25">
+        <v>46700000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="14">
+        <v>-19.397832999999999</v>
+      </c>
+      <c r="C23" s="14">
+        <v>-69.880306000000004</v>
+      </c>
+      <c r="D23" s="14">
+        <v>1256</v>
+      </c>
+      <c r="E23" s="15">
+        <v>5</v>
+      </c>
+      <c r="F23" s="22">
+        <v>2.74</v>
+      </c>
+      <c r="G23" s="13">
+        <v>1</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="25">
+        <v>3102600000</v>
+      </c>
+      <c r="J23" s="25">
+        <v>82300000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="14">
+        <v>-19.397832999999999</v>
+      </c>
+      <c r="C24" s="14">
+        <v>-69.880306000000004</v>
+      </c>
+      <c r="D24" s="14">
+        <v>1256</v>
+      </c>
+      <c r="E24" s="14">
+        <v>5</v>
+      </c>
+      <c r="F24" s="24">
+        <v>2.89</v>
+      </c>
+      <c r="G24" s="13">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="25">
+        <v>2691600000.0000005</v>
+      </c>
+      <c r="J24" s="25">
+        <v>61800000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="16">
+        <v>-19.522110999999999</v>
+      </c>
+      <c r="C25" s="16">
+        <v>-69.808333000000005</v>
+      </c>
+      <c r="D25" s="16">
+        <v>1312</v>
+      </c>
+      <c r="E25" s="13">
+        <v>5</v>
+      </c>
+      <c r="F25" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="28">
+        <v>2771500000</v>
+      </c>
+      <c r="J25" s="28">
+        <v>52000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="16">
+        <v>-19.522110999999999</v>
+      </c>
+      <c r="C26" s="16">
+        <v>-69.808333000000005</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1312</v>
+      </c>
+      <c r="E26" s="15">
+        <v>5</v>
+      </c>
+      <c r="F26" s="22">
+        <v>2.89</v>
+      </c>
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="28">
+        <v>654000000</v>
+      </c>
+      <c r="J26" s="28">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="21">
+        <v>-18.503527999999999</v>
+      </c>
+      <c r="C27" s="21">
+        <v>-70.143305999999995</v>
+      </c>
+      <c r="D27" s="21">
+        <v>771</v>
+      </c>
+      <c r="E27" s="14">
+        <v>5</v>
+      </c>
+      <c r="F27" s="31">
+        <v>2.89</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="32">
+        <v>412900000</v>
+      </c>
+      <c r="J27" s="32">
+        <v>7200000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="20">
+        <v>-18.389944</v>
+      </c>
+      <c r="C28" s="20">
+        <v>-70.071805999999995</v>
+      </c>
+      <c r="D28" s="20">
+        <v>1025</v>
+      </c>
+      <c r="E28" s="13">
+        <v>5</v>
+      </c>
+      <c r="F28" s="26">
+        <v>2.89</v>
+      </c>
+      <c r="G28" s="13">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="33">
+        <v>388000000</v>
+      </c>
+      <c r="J28" s="33">
+        <v>7700000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="21">
+        <v>-18.389944</v>
+      </c>
+      <c r="C29" s="21">
+        <v>-70.071805999999995</v>
+      </c>
+      <c r="D29" s="21">
+        <v>1025</v>
+      </c>
+      <c r="E29" s="15">
+        <v>5</v>
+      </c>
+      <c r="F29" s="31">
+        <v>2.89</v>
+      </c>
+      <c r="G29" s="13">
+        <v>1</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="32">
+        <v>425000000</v>
+      </c>
+      <c r="J29" s="32">
+        <v>9500000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A016230-6B57-C74A-92E2-8B80546C58EB}">
   <dimension ref="A1:BT16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD15"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2955,7 +4040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24694F2A-853A-E44C-A507-6368D3EEDD55}">
   <dimension ref="A1:R52"/>
   <sheetViews>
@@ -3782,12 +4867,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC832A4-C899-574A-A718-CA2E3961F592}">
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5221,7 +6306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865D9E7-27A7-A946-ABE2-D02CEEDD4D16}">
   <dimension ref="A1:R17"/>
   <sheetViews>
@@ -5816,11 +6901,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A252A25-C5BD-9644-90A1-8F508F9F4733}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -6048,10 +7133,10 @@
       <c r="A15" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="88" t="s">
         <v>102</v>
       </c>
       <c r="D15" s="79" t="s">
@@ -6099,8 +7184,8 @@
     </row>
     <row r="16" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="79"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
       <c r="F16" s="80"/>
@@ -6131,8 +7216,8 @@
     </row>
     <row r="17" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="79"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
       <c r="F17" s="80"/>
@@ -6156,8 +7241,8 @@
     </row>
     <row r="18" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="79"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="79"/>
       <c r="E18" s="79"/>
       <c r="F18" s="80"/>
@@ -6188,7 +7273,7 @@
       <c r="R19" s="78"/>
     </row>
     <row r="20" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="H20" s="86" t="s">
+      <c r="H20" s="85" t="s">
         <v>138</v>
       </c>
       <c r="P20" s="68" t="s">
@@ -6197,31 +7282,31 @@
       <c r="R20" s="78"/>
     </row>
     <row r="21" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="H21" s="87"/>
+      <c r="H21" s="86"/>
       <c r="P21" s="68" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="H22" s="87"/>
+      <c r="H22" s="86"/>
       <c r="P22" s="69" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H23" s="87"/>
+      <c r="H23" s="86"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H24" s="87"/>
+      <c r="H24" s="86"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H25" s="87"/>
+      <c r="H25" s="86"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H26" s="87"/>
+      <c r="H26" s="86"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H27" s="88"/>
+      <c r="H27" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6245,6 +7330,338 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680BC611-31C6-D44B-AF99-FEA837E1CD28}">
+  <dimension ref="A1:S8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="10">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <f>3*10^-3</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2380000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>560000</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>27.5</v>
+      </c>
+      <c r="O2">
+        <v>28.5</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="10">
+        <v>38</v>
+      </c>
+      <c r="C3" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11">
+        <f>10*10^-3</f>
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2630000</v>
+      </c>
+      <c r="J3" s="7">
+        <v>590000</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="10">
+        <v>38</v>
+      </c>
+      <c r="C4" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11">
+        <f>20*10^-3</f>
+        <v>0.02</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2750000</v>
+      </c>
+      <c r="J4" s="7">
+        <v>570000</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10">
+        <v>38</v>
+      </c>
+      <c r="C5" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="2">
+        <v>330000</v>
+      </c>
+      <c r="J5" s="7">
+        <v>550000</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10">
+        <v>38</v>
+      </c>
+      <c r="C6" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="2">
+        <v>730000</v>
+      </c>
+      <c r="J6" s="7">
+        <v>540000</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10">
+        <v>38</v>
+      </c>
+      <c r="C7" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="2">
+        <v>340000</v>
+      </c>
+      <c r="J7" s="7">
+        <v>600000</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="10">
+        <v>38</v>
+      </c>
+      <c r="C8" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="2">
+        <v>590000</v>
+      </c>
+      <c r="J8" s="7">
+        <v>560000</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0692F123-E8ED-A84F-B1D6-10660BCC4234}">
   <dimension ref="A1:R13"/>
   <sheetViews>
@@ -6594,7 +8011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345E843F-B5AF-7544-9892-CA1AD39C5E9D}">
   <dimension ref="A1:R52"/>
   <sheetViews>
@@ -7283,7 +8700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2CA47B-538E-684E-879A-957351F4517A}">
   <dimension ref="A1:K32"/>
   <sheetViews>
@@ -7709,7 +9126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9FD288-F7FF-CC43-984C-6BC5F64D5A7D}">
   <dimension ref="A1:R11"/>
   <sheetViews>
@@ -7857,7 +9274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923D42B9-7A86-1345-AADD-F9A6DEC8D2BA}">
   <dimension ref="A1:R52"/>
   <sheetViews>
@@ -8514,9 +9931,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520D0FE-3D3A-5944-810E-4CC776E5E44F}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD29"/>
@@ -8541,9 +9958,10 @@
     <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
@@ -8596,7 +10014,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>39</v>
       </c>
@@ -8621,10 +10039,9 @@
       <c r="H2" s="13">
         <v>0</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2">
         <v>37200000</v>
       </c>
-      <c r="J2" s="27"/>
       <c r="K2" s="37"/>
       <c r="L2">
         <v>2</v>
@@ -8647,8 +10064,19 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" s="27">
+        <f>3.23*10^7</f>
+        <v>32300000</v>
+      </c>
+      <c r="T2" s="27">
+        <v>4900000</v>
+      </c>
+      <c r="U2" s="37">
+        <f>S2+T2</f>
+        <v>37200000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>40</v>
       </c>
@@ -8676,10 +10104,19 @@
       <c r="I3">
         <v>267800000</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="25">
+        <f>25.9*10^7</f>
+        <v>259000000</v>
+      </c>
+      <c r="T3" s="25">
+        <v>8800000</v>
+      </c>
+      <c r="U3" s="37">
+        <f>S3+T3</f>
+        <v>267800000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>41</v>
       </c>
@@ -8705,12 +10142,21 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>647100000</v>
-      </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="37"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+        <v>671100000</v>
+      </c>
+      <c r="S4" s="23">
+        <f>65.91*10^7</f>
+        <v>659100000</v>
+      </c>
+      <c r="T4" s="23">
+        <v>12000000</v>
+      </c>
+      <c r="U4" s="37">
+        <f>S4+T4</f>
+        <v>671100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>42</v>
       </c>
@@ -8738,10 +10184,19 @@
       <c r="I5">
         <v>329000000</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" s="23">
+        <f>32.2*10^7</f>
+        <v>322000000</v>
+      </c>
+      <c r="T5" s="23">
+        <v>7000000</v>
+      </c>
+      <c r="U5" s="37">
+        <f t="shared" ref="U5:U29" si="0">S5+T5</f>
+        <v>329000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>43</v>
       </c>
@@ -8767,12 +10222,21 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>613100000</v>
-      </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="37"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+        <v>664500000</v>
+      </c>
+      <c r="S6" s="25">
+        <f>63.88*10^7</f>
+        <v>638800000</v>
+      </c>
+      <c r="T6" s="25">
+        <v>25700000</v>
+      </c>
+      <c r="U6" s="37">
+        <f t="shared" si="0"/>
+        <v>664500000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>44</v>
       </c>
@@ -8800,10 +10264,19 @@
       <c r="I7">
         <v>768100000</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="37"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="25">
+        <f>74.48*10^7</f>
+        <v>744800000</v>
+      </c>
+      <c r="T7" s="25">
+        <v>23300000</v>
+      </c>
+      <c r="U7" s="37">
+        <f t="shared" si="0"/>
+        <v>768100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>48</v>
       </c>
@@ -8829,12 +10302,21 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>898000000</v>
-      </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="37"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+        <v>924000000</v>
+      </c>
+      <c r="S8" s="25">
+        <f>91.1*10^7</f>
+        <v>911000000</v>
+      </c>
+      <c r="T8" s="25">
+        <v>13000000</v>
+      </c>
+      <c r="U8" s="37">
+        <f t="shared" si="0"/>
+        <v>924000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>49</v>
       </c>
@@ -8862,10 +10344,19 @@
       <c r="I9">
         <v>1707700000</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="37"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="25">
+        <f>167.12*10^7</f>
+        <v>1671200000</v>
+      </c>
+      <c r="T9" s="25">
+        <v>36500000</v>
+      </c>
+      <c r="U9" s="37">
+        <f t="shared" si="0"/>
+        <v>1707700000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>50</v>
       </c>
@@ -8891,12 +10382,21 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>232200000</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="37"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+        <v>253200000</v>
+      </c>
+      <c r="S10" s="25">
+        <f>24.27*10^7</f>
+        <v>242700000</v>
+      </c>
+      <c r="T10" s="25">
+        <v>10500000</v>
+      </c>
+      <c r="U10" s="37">
+        <f t="shared" si="0"/>
+        <v>253200000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>51</v>
       </c>
@@ -8924,9 +10424,19 @@
       <c r="I11">
         <v>323700000</v>
       </c>
-      <c r="J11" s="25"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="25">
+        <f>31.18*10^7</f>
+        <v>311800000</v>
+      </c>
+      <c r="T11" s="25">
+        <v>11900000</v>
+      </c>
+      <c r="U11" s="37">
+        <f t="shared" si="0"/>
+        <v>323700000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>45</v>
       </c>
@@ -8952,12 +10462,21 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1024400000.0000001</v>
-      </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>1069200000.0000001</v>
+      </c>
+      <c r="S12" s="25">
+        <f>104.68*10^7</f>
+        <v>1046800000.0000001</v>
+      </c>
+      <c r="T12" s="25">
+        <v>22400000.000000004</v>
+      </c>
+      <c r="U12" s="37">
+        <f t="shared" si="0"/>
+        <v>1069200000.0000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>52</v>
       </c>
@@ -8985,10 +10504,19 @@
       <c r="I13">
         <v>2746200000</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="37"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="28">
+        <f>269.89*10^7</f>
+        <v>2698900000</v>
+      </c>
+      <c r="T13" s="28">
+        <v>47300000.000000007</v>
+      </c>
+      <c r="U13" s="37">
+        <f t="shared" si="0"/>
+        <v>2746200000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>53</v>
       </c>
@@ -9014,12 +10542,21 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2422400000</v>
-      </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="37"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>2508200000</v>
+      </c>
+      <c r="S14" s="28">
+        <f>246.53*10^7</f>
+        <v>2465300000</v>
+      </c>
+      <c r="T14" s="28">
+        <v>42900000</v>
+      </c>
+      <c r="U14" s="37">
+        <f t="shared" si="0"/>
+        <v>2508200000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>54</v>
       </c>
@@ -9047,10 +10584,18 @@
       <c r="I15">
         <v>1439300000</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="37"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="28">
+        <v>1414100000</v>
+      </c>
+      <c r="T15" s="28">
+        <v>25200000</v>
+      </c>
+      <c r="U15" s="37">
+        <f t="shared" si="0"/>
+        <v>1439300000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>55</v>
       </c>
@@ -9076,12 +10621,20 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1619600000</v>
-      </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="37"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1676400000</v>
+      </c>
+      <c r="S16" s="28">
+        <v>1648000000</v>
+      </c>
+      <c r="T16" s="28">
+        <v>28400000</v>
+      </c>
+      <c r="U16" s="37">
+        <f t="shared" si="0"/>
+        <v>1676400000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>56</v>
       </c>
@@ -9109,10 +10662,18 @@
       <c r="I17">
         <v>2390400000</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="37"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S17" s="28">
+        <v>2350000000</v>
+      </c>
+      <c r="T17" s="28">
+        <v>40400000</v>
+      </c>
+      <c r="U17" s="37">
+        <f t="shared" si="0"/>
+        <v>2390400000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>57</v>
       </c>
@@ -9138,12 +10699,20 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>882200000</v>
-      </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="37"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>921600000</v>
+      </c>
+      <c r="S18" s="28">
+        <v>901900000</v>
+      </c>
+      <c r="T18" s="28">
+        <v>19700000</v>
+      </c>
+      <c r="U18" s="37">
+        <f t="shared" si="0"/>
+        <v>921600000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>58</v>
       </c>
@@ -9171,10 +10740,18 @@
       <c r="I19">
         <v>1105700000</v>
       </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="37"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S19" s="29">
+        <v>1078000000</v>
+      </c>
+      <c r="T19" s="29">
+        <v>27700000</v>
+      </c>
+      <c r="U19" s="37">
+        <f t="shared" si="0"/>
+        <v>1105700000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>59</v>
       </c>
@@ -9200,12 +10777,20 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1000100000</v>
-      </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="37"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1049700000</v>
+      </c>
+      <c r="S20" s="25">
+        <v>1024900000</v>
+      </c>
+      <c r="T20" s="25">
+        <v>24800000</v>
+      </c>
+      <c r="U20" s="37">
+        <f t="shared" si="0"/>
+        <v>1049700000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>60</v>
       </c>
@@ -9233,10 +10818,18 @@
       <c r="I21">
         <v>3021600000</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="37"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S21" s="30">
+        <v>2989600000</v>
+      </c>
+      <c r="T21" s="25">
+        <v>32000000</v>
+      </c>
+      <c r="U21" s="37">
+        <f t="shared" si="0"/>
+        <v>3021600000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
@@ -9262,12 +10855,20 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1895600000</v>
-      </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="37"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>1989000000</v>
+      </c>
+      <c r="S22" s="25">
+        <v>1942300000</v>
+      </c>
+      <c r="T22" s="25">
+        <v>46700000</v>
+      </c>
+      <c r="U22" s="37">
+        <f t="shared" si="0"/>
+        <v>1989000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>47</v>
       </c>
@@ -9295,10 +10896,18 @@
       <c r="I23">
         <v>3184900000</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="37"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S23" s="25">
+        <v>3102600000</v>
+      </c>
+      <c r="T23" s="25">
+        <v>82300000</v>
+      </c>
+      <c r="U23" s="37">
+        <f t="shared" si="0"/>
+        <v>3184900000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>61</v>
       </c>
@@ -9324,12 +10933,20 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2629800000.0000005</v>
-      </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="37"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>2753400000.0000005</v>
+      </c>
+      <c r="S24" s="25">
+        <v>2691600000.0000005</v>
+      </c>
+      <c r="T24" s="25">
+        <v>61800000</v>
+      </c>
+      <c r="U24" s="37">
+        <f t="shared" si="0"/>
+        <v>2753400000.0000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>62</v>
       </c>
@@ -9357,10 +10974,18 @@
       <c r="I25">
         <v>2823500000</v>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="37"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S25" s="28">
+        <v>2771500000</v>
+      </c>
+      <c r="T25" s="28">
+        <v>52000000</v>
+      </c>
+      <c r="U25" s="37">
+        <f t="shared" si="0"/>
+        <v>2823500000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>63</v>
       </c>
@@ -9386,12 +11011,20 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>639000000</v>
-      </c>
-      <c r="J26" s="28"/>
-      <c r="K26" s="37"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>669000000</v>
+      </c>
+      <c r="S26" s="28">
+        <v>654000000</v>
+      </c>
+      <c r="T26" s="28">
+        <v>15000000</v>
+      </c>
+      <c r="U26" s="37">
+        <f t="shared" si="0"/>
+        <v>669000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>64</v>
       </c>
@@ -9419,10 +11052,18 @@
       <c r="I27">
         <v>420100000</v>
       </c>
-      <c r="J27" s="32"/>
-      <c r="K27" s="37"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S27" s="32">
+        <v>412900000</v>
+      </c>
+      <c r="T27" s="32">
+        <v>7200000</v>
+      </c>
+      <c r="U27" s="37">
+        <f>S27+T27</f>
+        <v>420100000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>65</v>
       </c>
@@ -9448,12 +11089,20 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>380300000</v>
-      </c>
-      <c r="J28" s="33"/>
-      <c r="K28" s="37"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>395700000</v>
+      </c>
+      <c r="S28" s="33">
+        <v>388000000</v>
+      </c>
+      <c r="T28" s="33">
+        <v>7700000</v>
+      </c>
+      <c r="U28" s="37">
+        <f t="shared" si="0"/>
+        <v>395700000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>66</v>
       </c>
@@ -9481,20 +11130,28 @@
       <c r="I29">
         <v>434500000</v>
       </c>
-      <c r="J29" s="32"/>
-      <c r="K29" s="37"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S29" s="32">
+        <v>425000000</v>
+      </c>
+      <c r="T29" s="32">
+        <v>9500000</v>
+      </c>
+      <c r="U29" s="37">
+        <f t="shared" si="0"/>
+        <v>434500000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -9574,12 +11231,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225F8288-2AD0-3149-BE3D-BA32CA0A6CF4}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD29"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G2" sqref="A2:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9601,9 +11258,10 @@
     <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
@@ -9656,7 +11314,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>39</v>
       </c>
@@ -9684,7 +11342,6 @@
       <c r="I2">
         <v>27400000</v>
       </c>
-      <c r="J2" s="27"/>
       <c r="K2" s="37"/>
       <c r="L2">
         <v>2</v>
@@ -9707,8 +11364,19 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2" s="27">
+        <f>3.23*10^7</f>
+        <v>32300000</v>
+      </c>
+      <c r="T2" s="27">
+        <v>4900000</v>
+      </c>
+      <c r="U2" s="37">
+        <f>S2-T2</f>
+        <v>27400000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>40</v>
       </c>
@@ -9736,10 +11404,19 @@
       <c r="I3">
         <v>250200000</v>
       </c>
-      <c r="J3" s="25"/>
-      <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S3" s="25">
+        <f>25.9*10^7</f>
+        <v>259000000</v>
+      </c>
+      <c r="T3" s="25">
+        <v>8800000</v>
+      </c>
+      <c r="U3" s="37">
+        <f>S3-T3</f>
+        <v>250200000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>41</v>
       </c>
@@ -9767,10 +11444,19 @@
       <c r="I4">
         <v>647100000</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="37"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S4" s="23">
+        <f>65.91*10^7</f>
+        <v>659100000</v>
+      </c>
+      <c r="T4" s="23">
+        <v>12000000</v>
+      </c>
+      <c r="U4" s="37">
+        <f t="shared" ref="U4:U29" si="0">S4-T4</f>
+        <v>647100000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>42</v>
       </c>
@@ -9798,10 +11484,19 @@
       <c r="I5">
         <v>315000000</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S5" s="23">
+        <f>32.2*10^7</f>
+        <v>322000000</v>
+      </c>
+      <c r="T5" s="23">
+        <v>7000000</v>
+      </c>
+      <c r="U5" s="37">
+        <f t="shared" si="0"/>
+        <v>315000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>43</v>
       </c>
@@ -9829,10 +11524,19 @@
       <c r="I6">
         <v>613100000</v>
       </c>
-      <c r="J6" s="25"/>
-      <c r="K6" s="37"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S6" s="25">
+        <f>63.88*10^7</f>
+        <v>638800000</v>
+      </c>
+      <c r="T6" s="25">
+        <v>25700000</v>
+      </c>
+      <c r="U6" s="37">
+        <f t="shared" si="0"/>
+        <v>613100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>44</v>
       </c>
@@ -9860,10 +11564,19 @@
       <c r="I7">
         <v>721500000</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="37"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="25">
+        <f>74.48*10^7</f>
+        <v>744800000</v>
+      </c>
+      <c r="T7" s="25">
+        <v>23300000</v>
+      </c>
+      <c r="U7" s="37">
+        <f t="shared" si="0"/>
+        <v>721500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>48</v>
       </c>
@@ -9891,10 +11604,19 @@
       <c r="I8">
         <v>898000000</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="37"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="25">
+        <f>91.1*10^7</f>
+        <v>911000000</v>
+      </c>
+      <c r="T8" s="25">
+        <v>13000000</v>
+      </c>
+      <c r="U8" s="37">
+        <f t="shared" si="0"/>
+        <v>898000000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>49</v>
       </c>
@@ -9922,10 +11644,19 @@
       <c r="I9">
         <v>1634700000</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="37"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="25">
+        <f>167.12*10^7</f>
+        <v>1671200000</v>
+      </c>
+      <c r="T9" s="25">
+        <v>36500000</v>
+      </c>
+      <c r="U9" s="37">
+        <f t="shared" si="0"/>
+        <v>1634700000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>50</v>
       </c>
@@ -9953,10 +11684,19 @@
       <c r="I10">
         <v>232200000</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="37"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="25">
+        <f>24.27*10^7</f>
+        <v>242700000</v>
+      </c>
+      <c r="T10" s="25">
+        <v>10500000</v>
+      </c>
+      <c r="U10" s="37">
+        <f t="shared" si="0"/>
+        <v>232200000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>51</v>
       </c>
@@ -9984,10 +11724,19 @@
       <c r="I11">
         <v>299900000</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="37"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="25">
+        <f>31.18*10^7</f>
+        <v>311800000</v>
+      </c>
+      <c r="T11" s="25">
+        <v>11900000</v>
+      </c>
+      <c r="U11" s="37">
+        <f t="shared" si="0"/>
+        <v>299900000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>45</v>
       </c>
@@ -10015,10 +11764,19 @@
       <c r="I12">
         <v>1024400000.0000001</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="25">
+        <f>104.68*10^7</f>
+        <v>1046800000.0000001</v>
+      </c>
+      <c r="T12" s="25">
+        <v>22400000.000000004</v>
+      </c>
+      <c r="U12" s="37">
+        <f t="shared" si="0"/>
+        <v>1024400000.0000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>52</v>
       </c>
@@ -10046,10 +11804,19 @@
       <c r="I13">
         <v>2651600000</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="37"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="28">
+        <f>269.89*10^7</f>
+        <v>2698900000</v>
+      </c>
+      <c r="T13" s="28">
+        <v>47300000.000000007</v>
+      </c>
+      <c r="U13" s="37">
+        <f t="shared" si="0"/>
+        <v>2651600000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>53</v>
       </c>
@@ -10077,10 +11844,19 @@
       <c r="I14">
         <v>2422400000</v>
       </c>
-      <c r="J14" s="28"/>
-      <c r="K14" s="37"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="28">
+        <f>246.53*10^7</f>
+        <v>2465300000</v>
+      </c>
+      <c r="T14" s="28">
+        <v>42900000</v>
+      </c>
+      <c r="U14" s="37">
+        <f t="shared" si="0"/>
+        <v>2422400000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>54</v>
       </c>
@@ -10108,10 +11884,18 @@
       <c r="I15">
         <v>1388900000</v>
       </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="37"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="28">
+        <v>1414100000</v>
+      </c>
+      <c r="T15" s="28">
+        <v>25200000</v>
+      </c>
+      <c r="U15" s="37">
+        <f t="shared" si="0"/>
+        <v>1388900000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>55</v>
       </c>
@@ -10139,10 +11923,18 @@
       <c r="I16">
         <v>1619600000</v>
       </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="37"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S16" s="28">
+        <v>1648000000</v>
+      </c>
+      <c r="T16" s="28">
+        <v>28400000</v>
+      </c>
+      <c r="U16" s="37">
+        <f t="shared" si="0"/>
+        <v>1619600000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>56</v>
       </c>
@@ -10170,10 +11962,18 @@
       <c r="I17">
         <v>2309600000</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="37"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S17" s="28">
+        <v>2350000000</v>
+      </c>
+      <c r="T17" s="28">
+        <v>40400000</v>
+      </c>
+      <c r="U17" s="37">
+        <f t="shared" si="0"/>
+        <v>2309600000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>57</v>
       </c>
@@ -10201,10 +12001,18 @@
       <c r="I18">
         <v>882200000</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="37"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S18" s="28">
+        <v>901900000</v>
+      </c>
+      <c r="T18" s="28">
+        <v>19700000</v>
+      </c>
+      <c r="U18" s="37">
+        <f t="shared" si="0"/>
+        <v>882200000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>58</v>
       </c>
@@ -10232,10 +12040,18 @@
       <c r="I19">
         <v>1050300000</v>
       </c>
-      <c r="J19" s="29"/>
-      <c r="K19" s="37"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S19" s="29">
+        <v>1078000000</v>
+      </c>
+      <c r="T19" s="29">
+        <v>27700000</v>
+      </c>
+      <c r="U19" s="37">
+        <f t="shared" si="0"/>
+        <v>1050300000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>59</v>
       </c>
@@ -10263,10 +12079,18 @@
       <c r="I20">
         <v>1000100000</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="37"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S20" s="25">
+        <v>1024900000</v>
+      </c>
+      <c r="T20" s="25">
+        <v>24800000</v>
+      </c>
+      <c r="U20" s="37">
+        <f t="shared" si="0"/>
+        <v>1000100000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>60</v>
       </c>
@@ -10294,10 +12118,18 @@
       <c r="I21">
         <v>2957600000</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="37"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S21" s="30">
+        <v>2989600000</v>
+      </c>
+      <c r="T21" s="25">
+        <v>32000000</v>
+      </c>
+      <c r="U21" s="37">
+        <f t="shared" si="0"/>
+        <v>2957600000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
@@ -10325,10 +12157,18 @@
       <c r="I22">
         <v>1895600000</v>
       </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="37"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S22" s="25">
+        <v>1942300000</v>
+      </c>
+      <c r="T22" s="25">
+        <v>46700000</v>
+      </c>
+      <c r="U22" s="37">
+        <f t="shared" si="0"/>
+        <v>1895600000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>47</v>
       </c>
@@ -10356,10 +12196,18 @@
       <c r="I23">
         <v>3020300000</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="37"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S23" s="25">
+        <v>3102600000</v>
+      </c>
+      <c r="T23" s="25">
+        <v>82300000</v>
+      </c>
+      <c r="U23" s="37">
+        <f t="shared" si="0"/>
+        <v>3020300000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>61</v>
       </c>
@@ -10387,10 +12235,18 @@
       <c r="I24">
         <v>2629800000.0000005</v>
       </c>
-      <c r="J24" s="25"/>
-      <c r="K24" s="37"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S24" s="25">
+        <v>2691600000.0000005</v>
+      </c>
+      <c r="T24" s="25">
+        <v>61800000</v>
+      </c>
+      <c r="U24" s="37">
+        <f t="shared" si="0"/>
+        <v>2629800000.0000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>62</v>
       </c>
@@ -10418,10 +12274,18 @@
       <c r="I25">
         <v>2719500000</v>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="37"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S25" s="28">
+        <v>2771500000</v>
+      </c>
+      <c r="T25" s="28">
+        <v>52000000</v>
+      </c>
+      <c r="U25" s="37">
+        <f t="shared" si="0"/>
+        <v>2719500000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>63</v>
       </c>
@@ -10449,10 +12313,18 @@
       <c r="I26">
         <v>639000000</v>
       </c>
-      <c r="J26" s="28"/>
-      <c r="K26" s="37"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S26" s="28">
+        <v>654000000</v>
+      </c>
+      <c r="T26" s="28">
+        <v>15000000</v>
+      </c>
+      <c r="U26" s="37">
+        <f t="shared" si="0"/>
+        <v>639000000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>64</v>
       </c>
@@ -10480,10 +12352,18 @@
       <c r="I27">
         <v>405700000</v>
       </c>
-      <c r="J27" s="32"/>
-      <c r="K27" s="37"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S27" s="32">
+        <v>412900000</v>
+      </c>
+      <c r="T27" s="32">
+        <v>7200000</v>
+      </c>
+      <c r="U27" s="37">
+        <f t="shared" si="0"/>
+        <v>405700000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>65</v>
       </c>
@@ -10511,10 +12391,18 @@
       <c r="I28">
         <v>380300000</v>
       </c>
-      <c r="J28" s="33"/>
-      <c r="K28" s="37"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S28" s="33">
+        <v>388000000</v>
+      </c>
+      <c r="T28" s="33">
+        <v>7700000</v>
+      </c>
+      <c r="U28" s="37">
+        <f t="shared" si="0"/>
+        <v>380300000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>66</v>
       </c>
@@ -10542,20 +12430,28 @@
       <c r="I29">
         <v>415500000</v>
       </c>
-      <c r="J29" s="32"/>
-      <c r="K29" s="37"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="S29" s="32">
+        <v>425000000</v>
+      </c>
+      <c r="T29" s="32">
+        <v>9500000</v>
+      </c>
+      <c r="U29" s="37">
+        <f t="shared" si="0"/>
+        <v>415500000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="E32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -10633,1107 +12529,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC98A15-AE39-4743-9E74-0C5D457F6E10}">
-  <dimension ref="A1:R52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="15">
-        <v>-20.101167</v>
-      </c>
-      <c r="C2" s="15">
-        <v>-69.491221999999993</v>
-      </c>
-      <c r="D2" s="15">
-        <v>1380</v>
-      </c>
-      <c r="E2" s="15">
-        <v>5</v>
-      </c>
-      <c r="F2" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G2" s="13">
-        <v>1</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="27">
-        <f>3.23*10^7</f>
-        <v>32300000</v>
-      </c>
-      <c r="J2" s="27">
-        <v>4900000</v>
-      </c>
-      <c r="K2" s="37"/>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>20</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="14">
-        <v>-20.101167</v>
-      </c>
-      <c r="C3" s="14">
-        <v>-69.491221999999993</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1380</v>
-      </c>
-      <c r="E3" s="14">
-        <v>5</v>
-      </c>
-      <c r="F3" s="22">
-        <v>3.2</v>
-      </c>
-      <c r="G3" s="13">
-        <v>1</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="25">
-        <f>25.9*10^7</f>
-        <v>259000000</v>
-      </c>
-      <c r="J3" s="25">
-        <v>8800000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="13">
-        <v>-19.578942000000001</v>
-      </c>
-      <c r="C4" s="13">
-        <v>-69.872967000000003</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1172</v>
-      </c>
-      <c r="E4" s="13">
-        <v>5</v>
-      </c>
-      <c r="F4" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G4" s="13">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23">
-        <f>65.91*10^7</f>
-        <v>659100000</v>
-      </c>
-      <c r="J4" s="23">
-        <v>12000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="13">
-        <v>-19.578942000000001</v>
-      </c>
-      <c r="C5" s="13">
-        <v>-69.872967000000003</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1172</v>
-      </c>
-      <c r="E5" s="15">
-        <v>5</v>
-      </c>
-      <c r="F5" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G5" s="13">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="23">
-        <f>32.2*10^7</f>
-        <v>322000000</v>
-      </c>
-      <c r="J5" s="23">
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="14">
-        <v>-19.987110999999999</v>
-      </c>
-      <c r="C6" s="14">
-        <v>-69.433610999999999</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1943</v>
-      </c>
-      <c r="E6" s="14">
-        <v>5</v>
-      </c>
-      <c r="F6" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="25">
-        <f>63.88*10^7</f>
-        <v>638800000</v>
-      </c>
-      <c r="J6" s="25">
-        <v>25700000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="14">
-        <v>-19.340944</v>
-      </c>
-      <c r="C7" s="14">
-        <v>-69.727999999999994</v>
-      </c>
-      <c r="D7" s="14">
-        <v>1607</v>
-      </c>
-      <c r="E7" s="13">
-        <v>5</v>
-      </c>
-      <c r="F7" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="25">
-        <f>74.48*10^7</f>
-        <v>744800000</v>
-      </c>
-      <c r="J7" s="25">
-        <v>23300000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="14">
-        <v>-19.340944</v>
-      </c>
-      <c r="C8" s="14">
-        <v>-69.727999999999994</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1607</v>
-      </c>
-      <c r="E8" s="15">
-        <v>5</v>
-      </c>
-      <c r="F8" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="25">
-        <f>91.1*10^7</f>
-        <v>911000000</v>
-      </c>
-      <c r="J8" s="25">
-        <v>13000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="14">
-        <v>-19.340944</v>
-      </c>
-      <c r="C9" s="14">
-        <v>-69.727999999999994</v>
-      </c>
-      <c r="D9" s="14">
-        <v>1607</v>
-      </c>
-      <c r="E9" s="14">
-        <v>5</v>
-      </c>
-      <c r="F9" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G9" s="13">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="25">
-        <f>167.12*10^7</f>
-        <v>1671200000</v>
-      </c>
-      <c r="J9" s="25">
-        <v>36500000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="14">
-        <v>-19.336722000000002</v>
-      </c>
-      <c r="C10" s="14">
-        <v>-69.729611000000006</v>
-      </c>
-      <c r="D10" s="14">
-        <v>1604</v>
-      </c>
-      <c r="E10" s="13">
-        <v>5</v>
-      </c>
-      <c r="F10" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G10" s="13">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="25">
-        <f>24.27*10^7</f>
-        <v>242700000</v>
-      </c>
-      <c r="J10" s="25">
-        <v>10500000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="14">
-        <v>-19.336722000000002</v>
-      </c>
-      <c r="C11" s="14">
-        <v>-69.729611000000006</v>
-      </c>
-      <c r="D11" s="14">
-        <v>1604</v>
-      </c>
-      <c r="E11" s="15">
-        <v>5</v>
-      </c>
-      <c r="F11" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="25">
-        <f>31.18*10^7</f>
-        <v>311800000</v>
-      </c>
-      <c r="J11" s="25">
-        <v>11900000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="14">
-        <v>-19.336722000000002</v>
-      </c>
-      <c r="C12" s="14">
-        <v>-69.729611000000006</v>
-      </c>
-      <c r="D12" s="14">
-        <v>1604</v>
-      </c>
-      <c r="E12" s="14">
-        <v>5</v>
-      </c>
-      <c r="F12" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G12" s="13">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="25">
-        <f>104.68*10^7</f>
-        <v>1046800000.0000001</v>
-      </c>
-      <c r="J12" s="25">
-        <v>22400000.000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="16">
-        <v>-18.886583000000002</v>
-      </c>
-      <c r="C13" s="16">
-        <v>-69.699055999999999</v>
-      </c>
-      <c r="D13" s="16">
-        <v>2282</v>
-      </c>
-      <c r="E13" s="13">
-        <v>5</v>
-      </c>
-      <c r="F13" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G13" s="13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="28">
-        <f>269.89*10^7</f>
-        <v>2698900000</v>
-      </c>
-      <c r="J13" s="28">
-        <v>47300000.000000007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="16">
-        <v>-18.886583000000002</v>
-      </c>
-      <c r="C14" s="16">
-        <v>-69.699055999999999</v>
-      </c>
-      <c r="D14" s="16">
-        <v>2282</v>
-      </c>
-      <c r="E14" s="15">
-        <v>5</v>
-      </c>
-      <c r="F14" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G14" s="13">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="28">
-        <f>246.53*10^7</f>
-        <v>2465300000</v>
-      </c>
-      <c r="J14" s="28">
-        <v>42900000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="16">
-        <v>-18.905639000000001</v>
-      </c>
-      <c r="C15" s="16">
-        <v>-69.954583</v>
-      </c>
-      <c r="D15" s="16">
-        <v>1443</v>
-      </c>
-      <c r="E15" s="14">
-        <v>5</v>
-      </c>
-      <c r="F15" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G15" s="13">
-        <v>1</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="28">
-        <v>1414100000</v>
-      </c>
-      <c r="J15" s="28">
-        <v>25200000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="16">
-        <v>-18.905639000000001</v>
-      </c>
-      <c r="C16" s="16">
-        <v>-69.954583</v>
-      </c>
-      <c r="D16" s="16">
-        <v>1443</v>
-      </c>
-      <c r="E16" s="13">
-        <v>5</v>
-      </c>
-      <c r="F16" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G16" s="13">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16" s="28">
-        <v>1648000000</v>
-      </c>
-      <c r="J16" s="28">
-        <v>28400000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="16">
-        <v>-18.852694</v>
-      </c>
-      <c r="C17" s="16">
-        <v>-69.657167000000001</v>
-      </c>
-      <c r="D17" s="16">
-        <v>2550</v>
-      </c>
-      <c r="E17" s="15">
-        <v>5</v>
-      </c>
-      <c r="F17" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G17" s="13">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13">
-        <v>0</v>
-      </c>
-      <c r="I17" s="28">
-        <v>2350000000</v>
-      </c>
-      <c r="J17" s="28">
-        <v>40400000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="16">
-        <v>-20.704083000000001</v>
-      </c>
-      <c r="C18" s="16">
-        <v>-69.420833000000002</v>
-      </c>
-      <c r="D18" s="16">
-        <v>1084</v>
-      </c>
-      <c r="E18" s="14">
-        <v>5</v>
-      </c>
-      <c r="F18" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G18" s="13">
-        <v>1</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-      <c r="I18" s="28">
-        <v>901900000</v>
-      </c>
-      <c r="J18" s="28">
-        <v>19700000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="17">
-        <v>-19.786306</v>
-      </c>
-      <c r="C19" s="17">
-        <v>-69.682000000000002</v>
-      </c>
-      <c r="D19" s="17">
-        <v>1289</v>
-      </c>
-      <c r="E19" s="13">
-        <v>5</v>
-      </c>
-      <c r="F19" s="26">
-        <v>2.89</v>
-      </c>
-      <c r="G19" s="13">
-        <v>1</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="29">
-        <v>1078000000</v>
-      </c>
-      <c r="J19" s="29">
-        <v>27700000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="14">
-        <v>-19.786306</v>
-      </c>
-      <c r="C20" s="14">
-        <v>-69.682000000000002</v>
-      </c>
-      <c r="D20" s="14">
-        <v>1289</v>
-      </c>
-      <c r="E20" s="15">
-        <v>5</v>
-      </c>
-      <c r="F20" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G20" s="13">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13">
-        <v>0</v>
-      </c>
-      <c r="I20" s="25">
-        <v>1024900000</v>
-      </c>
-      <c r="J20" s="25">
-        <v>24800000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="14">
-        <v>-19.786306</v>
-      </c>
-      <c r="C21" s="14">
-        <v>-69.682000000000002</v>
-      </c>
-      <c r="D21" s="14">
-        <v>1289</v>
-      </c>
-      <c r="E21" s="14">
-        <v>5</v>
-      </c>
-      <c r="F21" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G21" s="13">
-        <v>1</v>
-      </c>
-      <c r="H21" s="13">
-        <v>0</v>
-      </c>
-      <c r="I21" s="30">
-        <v>2989600000</v>
-      </c>
-      <c r="J21" s="25">
-        <v>32000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="14">
-        <v>-19.397832999999999</v>
-      </c>
-      <c r="C22" s="14">
-        <v>-69.880306000000004</v>
-      </c>
-      <c r="D22" s="14">
-        <v>1256</v>
-      </c>
-      <c r="E22" s="13">
-        <v>5</v>
-      </c>
-      <c r="F22" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G22" s="13">
-        <v>1</v>
-      </c>
-      <c r="H22" s="13">
-        <v>0</v>
-      </c>
-      <c r="I22" s="25">
-        <v>1942300000</v>
-      </c>
-      <c r="J22" s="25">
-        <v>46700000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="14">
-        <v>-19.397832999999999</v>
-      </c>
-      <c r="C23" s="14">
-        <v>-69.880306000000004</v>
-      </c>
-      <c r="D23" s="14">
-        <v>1256</v>
-      </c>
-      <c r="E23" s="15">
-        <v>5</v>
-      </c>
-      <c r="F23" s="22">
-        <v>2.74</v>
-      </c>
-      <c r="G23" s="13">
-        <v>1</v>
-      </c>
-      <c r="H23" s="13">
-        <v>0</v>
-      </c>
-      <c r="I23" s="25">
-        <v>3102600000</v>
-      </c>
-      <c r="J23" s="25">
-        <v>82300000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="14">
-        <v>-19.397832999999999</v>
-      </c>
-      <c r="C24" s="14">
-        <v>-69.880306000000004</v>
-      </c>
-      <c r="D24" s="14">
-        <v>1256</v>
-      </c>
-      <c r="E24" s="14">
-        <v>5</v>
-      </c>
-      <c r="F24" s="24">
-        <v>2.89</v>
-      </c>
-      <c r="G24" s="13">
-        <v>1</v>
-      </c>
-      <c r="H24" s="13">
-        <v>0</v>
-      </c>
-      <c r="I24" s="25">
-        <v>2691600000.0000005</v>
-      </c>
-      <c r="J24" s="25">
-        <v>61800000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="16">
-        <v>-19.522110999999999</v>
-      </c>
-      <c r="C25" s="16">
-        <v>-69.808333000000005</v>
-      </c>
-      <c r="D25" s="16">
-        <v>1312</v>
-      </c>
-      <c r="E25" s="13">
-        <v>5</v>
-      </c>
-      <c r="F25" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G25" s="13">
-        <v>1</v>
-      </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="28">
-        <v>2771500000</v>
-      </c>
-      <c r="J25" s="28">
-        <v>52000000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="16">
-        <v>-19.522110999999999</v>
-      </c>
-      <c r="C26" s="16">
-        <v>-69.808333000000005</v>
-      </c>
-      <c r="D26" s="16">
-        <v>1312</v>
-      </c>
-      <c r="E26" s="15">
-        <v>5</v>
-      </c>
-      <c r="F26" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G26" s="13">
-        <v>1</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="28">
-        <v>654000000</v>
-      </c>
-      <c r="J26" s="28">
-        <v>15000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="21">
-        <v>-18.503527999999999</v>
-      </c>
-      <c r="C27" s="21">
-        <v>-70.143305999999995</v>
-      </c>
-      <c r="D27" s="21">
-        <v>771</v>
-      </c>
-      <c r="E27" s="14">
-        <v>5</v>
-      </c>
-      <c r="F27" s="31">
-        <v>2.89</v>
-      </c>
-      <c r="G27" s="13">
-        <v>1</v>
-      </c>
-      <c r="H27" s="13">
-        <v>0</v>
-      </c>
-      <c r="I27" s="32">
-        <v>412900000</v>
-      </c>
-      <c r="J27" s="32">
-        <v>7200000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="20">
-        <v>-18.389944</v>
-      </c>
-      <c r="C28" s="20">
-        <v>-70.071805999999995</v>
-      </c>
-      <c r="D28" s="20">
-        <v>1025</v>
-      </c>
-      <c r="E28" s="13">
-        <v>5</v>
-      </c>
-      <c r="F28" s="26">
-        <v>2.89</v>
-      </c>
-      <c r="G28" s="13">
-        <v>1</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0</v>
-      </c>
-      <c r="I28" s="33">
-        <v>388000000</v>
-      </c>
-      <c r="J28" s="33">
-        <v>7700000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="21">
-        <v>-18.389944</v>
-      </c>
-      <c r="C29" s="21">
-        <v>-70.071805999999995</v>
-      </c>
-      <c r="D29" s="21">
-        <v>1025</v>
-      </c>
-      <c r="E29" s="15">
-        <v>5</v>
-      </c>
-      <c r="F29" s="31">
-        <v>2.89</v>
-      </c>
-      <c r="G29" s="13">
-        <v>1</v>
-      </c>
-      <c r="H29" s="13">
-        <v>0</v>
-      </c>
-      <c r="I29" s="32">
-        <v>425000000</v>
-      </c>
-      <c r="J29" s="32">
-        <v>9500000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="Q50" s="1"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="Q51" s="1"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="Q52" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,64 +8,99 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0064CDB-809E-AF44-8113-BE3380AD60CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1922F0-2228-134D-B048-0ADD0D303232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="1" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
-    <sheet name="erate" sheetId="20" r:id="rId2"/>
-    <sheet name="Figure 1" sheetId="8" r:id="rId3"/>
-    <sheet name="Figure 2" sheetId="10" r:id="rId4"/>
-    <sheet name="Figure 3" sheetId="7" r:id="rId5"/>
-    <sheet name="Figure 6,8" sheetId="5" r:id="rId6"/>
-    <sheet name="Figure 7" sheetId="12" r:id="rId7"/>
-    <sheet name="Figure 9_pyx+1sigma" sheetId="17" r:id="rId8"/>
-    <sheet name="Figure 9_pyx-1sigma" sheetId="18" r:id="rId9"/>
+    <sheet name="README" sheetId="4" r:id="rId2"/>
+    <sheet name="CRFB texposure" sheetId="18" r:id="rId3"/>
+    <sheet name="Deccan Texposure" sheetId="17" r:id="rId4"/>
+    <sheet name="Figure 1" sheetId="8" r:id="rId5"/>
+    <sheet name="Figure 2" sheetId="10" r:id="rId6"/>
+    <sheet name="Figure 3" sheetId="7" r:id="rId7"/>
+    <sheet name="Figure 6,8" sheetId="5" r:id="rId8"/>
+    <sheet name="Figure 7" sheetId="12" r:id="rId9"/>
     <sheet name="Figure 9_pyx" sheetId="14" r:id="rId10"/>
     <sheet name="Figure 9_neon" sheetId="16" r:id="rId11"/>
-    <sheet name="Figure 10" sheetId="11" r:id="rId12"/>
+    <sheet name="Libarkin" sheetId="11" r:id="rId12"/>
     <sheet name="Figure 10_modeled curves" sheetId="13" r:id="rId13"/>
     <sheet name="Dunai" sheetId="15" r:id="rId14"/>
-    <sheet name="README" sheetId="4" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Active!$B$79,Active!$B$84,Active!$B$86,Active!$B$87</definedName>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">'Figure 3'!$B$74,'Figure 3'!$B$79,'Figure 3'!$B$81,'Figure 3'!$B$82</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'CRFB texposure'!$B$79,'CRFB texposure'!$B$84,'CRFB texposure'!$B$86,'CRFB texposure'!$B$87</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'Deccan Texposure'!$B$79,'Deccan Texposure'!$B$84,'Deccan Texposure'!$B$86,'Deccan Texposure'!$B$87</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'Figure 3'!$B$74,'Figure 3'!$B$79,'Figure 3'!$B$81,'Figure 3'!$B$82</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Active!$B$90</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'Figure 3'!$B$85</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'CRFB texposure'!$B$90</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Deccan Texposure'!$B$90</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Figure 3'!$B$85</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Active!$F$57</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'Figure 3'!$F$52</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'CRFB texposure'!$F$57</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Deccan Texposure'!$F$57</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Figure 3'!$F$52</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Active!$F$58</definedName>
-    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'Figure 3'!$F$53</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'CRFB texposure'!$F$58</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Deccan Texposure'!$F$58</definedName>
+    <definedName name="solver_lhs3" localSheetId="6" hidden="1">'Figure 3'!$F$53</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Active!$F$56</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">'Figure 3'!$F$51</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'CRFB texposure'!$F$56</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Deccan Texposure'!$F$56</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'Figure 3'!$F$51</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_rhs1" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">100</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0.4</definedName>
-    <definedName name="solver_rhs2" localSheetId="4" hidden="1">0.4</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0.4</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">0.4</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">0.4</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">1.4</definedName>
-    <definedName name="solver_rhs3" localSheetId="4" hidden="1">1.4</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">1.4</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">1.4</definedName>
+    <definedName name="solver_rhs3" localSheetId="6" hidden="1">1.4</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_typ" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">98.2</definedName>
-    <definedName name="solver_val" localSheetId="4" hidden="1">98.2</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">98.2</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">98.2</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">98.2</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -88,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="138">
   <si>
     <t>Sample Name</t>
   </si>
@@ -464,9 +499,6 @@
     <t>in Ma</t>
   </si>
   <si>
-    <t>in  0.25 increments</t>
-  </si>
-  <si>
     <t>must be greater than start duration</t>
   </si>
   <si>
@@ -512,10 +544,10 @@
     <t>Exposure Age</t>
   </si>
   <si>
-    <t>if using exposure age calculator: in g/cm2/yr</t>
-  </si>
-  <si>
-    <t>IF using erosion rate calculator: in cm/yr (can test multiple erosion rates, length does not need to equal the #of samples</t>
+    <t>test</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> in g/cm2/yr</t>
   </si>
 </sst>
 </file>
@@ -1096,17 +1128,17 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1423,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39602BD4-AF2D-864A-8905-789D980EB8BD}">
-  <dimension ref="A1:U52"/>
+  <dimension ref="A1:S84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1438,7 +1470,7 @@
     <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
@@ -1458,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H1" s="66" t="s">
         <v>13</v>
@@ -1491,639 +1523,204 @@
         <v>97</v>
       </c>
       <c r="S1" s="66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="41">
-        <v>-21.724806000000001</v>
-      </c>
-      <c r="C2" s="41">
-        <v>-69.237971999999999</v>
-      </c>
-      <c r="D2" s="41">
-        <v>1676</v>
-      </c>
-      <c r="E2" s="41">
-        <v>5</v>
-      </c>
-      <c r="F2" s="43">
-        <v>2.74</v>
-      </c>
-      <c r="G2" s="45">
-        <v>1</v>
-      </c>
-      <c r="H2" s="45">
-        <v>0</v>
-      </c>
-      <c r="I2" s="44">
-        <f>3.87*10000000</f>
-        <v>38700000</v>
-      </c>
-      <c r="J2" s="44">
-        <v>3700000</v>
-      </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45">
-        <v>4</v>
-      </c>
-      <c r="M2" s="45">
-        <v>1</v>
-      </c>
-      <c r="N2" s="45">
-        <v>0</v>
-      </c>
-      <c r="O2" s="45">
-        <v>20</v>
-      </c>
-      <c r="P2" s="45">
+      <c r="B2" s="10">
+        <v>45</v>
+      </c>
+      <c r="C2" s="10">
+        <v>-120</v>
+      </c>
+      <c r="D2" s="10">
+        <v>500</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>2</v>
       </c>
-      <c r="Q2" s="45">
-        <v>0</v>
-      </c>
-      <c r="R2" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="41">
-        <v>-21.724806000000001</v>
-      </c>
-      <c r="C3" s="41">
-        <v>-69.237971999999999</v>
-      </c>
-      <c r="D3" s="41">
-        <v>1676</v>
-      </c>
-      <c r="E3" s="41">
-        <v>5</v>
-      </c>
-      <c r="F3" s="43">
-        <v>2.74</v>
-      </c>
-      <c r="G3" s="45">
-        <v>1</v>
-      </c>
-      <c r="H3" s="45">
-        <v>0</v>
-      </c>
-      <c r="I3" s="44">
-        <f>3.79*10000000</f>
-        <v>37900000</v>
-      </c>
-      <c r="J3" s="44">
-        <v>2500000</v>
-      </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="41"/>
-    </row>
-    <row r="4" spans="1:21" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="41">
-        <v>-21.704056000000001</v>
-      </c>
-      <c r="C4" s="41">
-        <v>-69.209444000000005</v>
-      </c>
-      <c r="D4" s="41">
-        <v>1438</v>
-      </c>
-      <c r="E4" s="41">
-        <v>5</v>
-      </c>
-      <c r="F4" s="43">
-        <v>2.74</v>
-      </c>
-      <c r="G4" s="45">
-        <v>1</v>
-      </c>
-      <c r="H4" s="45">
-        <v>0</v>
-      </c>
-      <c r="I4" s="44">
-        <f>0.95*10000000</f>
-        <v>9500000</v>
-      </c>
-      <c r="J4" s="44">
-        <v>1500000</v>
-      </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="41"/>
-      <c r="N4" s="41"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="37"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="37"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="37"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="37"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="37"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="37"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="37"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="37"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="37"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="37"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="37"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="37"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="37"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="37"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="29"/>
-      <c r="U19" s="37"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="37"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="37"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="37"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="37"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="37"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="37"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="37"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="37"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="37"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="37"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>15.9</v>
+      </c>
+      <c r="O2">
+        <v>16.7</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="7"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="7"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="7"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="7"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="7"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="7"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="Q32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="Q33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="Q34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="Q35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="Q36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="Q37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="Q38" s="1"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="Q39" s="1"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="Q40" s="1"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="Q41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="Q42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="Q43" s="1"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="Q45" s="1"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="Q46" s="1"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="Q47" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
@@ -2175,6 +1772,26 @@
       <c r="G52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2186,7 +1803,7 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="A2" sqref="A2:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2230,7 +1847,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H1" s="66" t="s">
         <v>13</v>
@@ -3286,10 +2903,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A016230-6B57-C74A-92E2-8B80546C58EB}">
-  <dimension ref="A1:BT16"/>
+  <dimension ref="A1:BT19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="A2" sqref="A2:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3317,7 +2934,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H1" s="66" t="s">
         <v>13</v>
@@ -4035,6 +3652,9 @@
     <row r="16" spans="1:72" x14ac:dyDescent="0.2">
       <c r="G16" s="45"/>
     </row>
+    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4089,7 +3709,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H1" s="66" t="s">
         <v>13</v>
@@ -4164,7 +3784,7 @@
         <v>27.5</v>
       </c>
       <c r="O2">
-        <v>28.5</v>
+        <v>28.201000000000001</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -4869,10 +4489,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC832A4-C899-574A-A718-CA2E3961F592}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="A2" sqref="A2:XFD84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4971,7 +4591,7 @@
         <v>27.5</v>
       </c>
       <c r="O2">
-        <v>28.5</v>
+        <v>28.201000000000001</v>
       </c>
       <c r="P2">
         <v>1</v>
@@ -6301,6 +5921,26 @@
         <v>100</v>
       </c>
     </row>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6311,7 +5951,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD17"/>
+      <selection activeCell="A2" sqref="A2:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6901,12 +6541,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A252A25-C5BD-9644-90A1-8F508F9F4733}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7030,7 +6670,7 @@
         <v>104</v>
       </c>
       <c r="P2" s="56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Q2" s="56" t="s">
         <v>105</v>
@@ -7133,10 +6773,10 @@
       <c r="A15" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="85" t="s">
         <v>102</v>
       </c>
       <c r="D15" s="79" t="s">
@@ -7173,19 +6813,19 @@
         <v>120</v>
       </c>
       <c r="P15" s="67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q15" s="73" t="s">
         <v>38</v>
       </c>
       <c r="R15" s="62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="79"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="79"/>
       <c r="E16" s="79"/>
       <c r="F16" s="80"/>
@@ -7201,23 +6841,19 @@
       <c r="M16" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="N16" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="O16" s="72" t="s">
-        <v>121</v>
-      </c>
+      <c r="N16" s="68"/>
+      <c r="O16" s="72"/>
       <c r="P16" s="68" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R16" s="78" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="79"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="79"/>
       <c r="E17" s="79"/>
       <c r="F17" s="80"/>
@@ -7232,17 +6868,17 @@
         <v>119</v>
       </c>
       <c r="O17" s="76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P17" s="68" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R17" s="78"/>
     </row>
     <row r="18" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="79"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="79"/>
       <c r="E18" s="79"/>
       <c r="F18" s="80"/>
@@ -7256,60 +6892,58 @@
       <c r="N18" s="74"/>
       <c r="O18" s="76"/>
       <c r="P18" s="68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R18" s="78"/>
     </row>
     <row r="19" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="G19" s="82"/>
-      <c r="H19" s="83"/>
+      <c r="H19" s="86"/>
       <c r="I19" s="84"/>
       <c r="J19" s="84"/>
       <c r="N19" s="75"/>
       <c r="O19" s="77"/>
       <c r="P19" s="68" t="s">
+        <v>124</v>
+      </c>
+      <c r="R19" s="78"/>
+    </row>
+    <row r="20" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="H20" s="88"/>
+      <c r="P20" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="R19" s="78"/>
-    </row>
-    <row r="20" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="H20" s="85" t="s">
-        <v>138</v>
-      </c>
-      <c r="P20" s="68" t="s">
+      <c r="R20" s="78"/>
+    </row>
+    <row r="21" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="H21" s="87"/>
+      <c r="P21" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="R20" s="78"/>
-    </row>
-    <row r="21" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="H21" s="86"/>
-      <c r="P21" s="68" t="s">
+    </row>
+    <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="H22" s="87"/>
+      <c r="P22" s="69" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="H22" s="86"/>
-      <c r="P22" s="69" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H23" s="86"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H24" s="86"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H25" s="86"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="H26" s="86"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="87"/>
+    </row>
+    <row r="24" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="87"/>
+    </row>
+    <row r="25" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="87"/>
+    </row>
+    <row r="26" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="87"/>
+    </row>
+    <row r="27" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H27" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="A15:A18"/>
@@ -7323,21 +6957,27 @@
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="H15:H19"/>
     <mergeCell ref="I15:I19"/>
-    <mergeCell ref="H20:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680BC611-31C6-D44B-AF99-FEA837E1CD28}">
-  <dimension ref="A1:S8"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2A5F1D-52AF-A54A-8771-20EFD7D80ADD}">
+  <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="65" t="s">
@@ -7359,7 +6999,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H1" s="66" t="s">
         <v>13</v>
@@ -7392,276 +7032,1275 @@
         <v>97</v>
       </c>
       <c r="S1" s="66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="B2" s="10">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C2" s="10">
-        <v>-106</v>
+        <v>-120</v>
       </c>
       <c r="D2" s="10">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="E2" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>2.3199999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="H2" s="11">
-        <f>3*10^-3</f>
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>2380000</v>
+        <v>2000000</v>
       </c>
       <c r="J2" s="2">
-        <v>560000</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2">
-        <v>27.5</v>
+        <v>15.9</v>
       </c>
       <c r="O2">
-        <v>28.5</v>
+        <v>16.7</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
-      <c r="S2">
-        <v>510000</v>
-      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="10">
-        <v>38</v>
-      </c>
-      <c r="C3" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D3" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="11">
-        <f>10*10^-3</f>
-        <v>0.01</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2630000</v>
-      </c>
-      <c r="J3" s="7">
-        <v>590000</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>15</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="7"/>
+      <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="10">
-        <v>38</v>
-      </c>
-      <c r="C4" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="11">
-        <f>20*10^-3</f>
-        <v>0.02</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2750000</v>
-      </c>
-      <c r="J4" s="7">
-        <v>570000</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>15</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="7"/>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="10">
-        <v>38</v>
-      </c>
-      <c r="C5" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="2">
-        <v>330000</v>
-      </c>
-      <c r="J5" s="7">
-        <v>550000</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>35</v>
-      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="7"/>
+      <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="10">
-        <v>38</v>
-      </c>
-      <c r="C6" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="2">
-        <v>730000</v>
-      </c>
-      <c r="J6" s="7">
-        <v>540000</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>45</v>
-      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="7"/>
+      <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="10">
-        <v>38</v>
-      </c>
-      <c r="C7" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D7" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="2">
-        <v>340000</v>
-      </c>
-      <c r="J7" s="7">
-        <v>600000</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>35</v>
-      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="7"/>
+      <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="10">
-        <v>38</v>
-      </c>
-      <c r="C8" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D8" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="2">
-        <v>590000</v>
-      </c>
-      <c r="J8" s="7">
-        <v>560000</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>55</v>
-      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="7"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="12"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="12"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="Q54" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC32D26-67B8-CB42-A367-4D6A94A6149D}">
+  <dimension ref="A1:S54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="10">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10">
+        <v>73</v>
+      </c>
+      <c r="D2" s="10">
+        <v>500</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>65.534999999999997</v>
+      </c>
+      <c r="O2">
+        <v>66.2</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="7"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="4"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="7"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="7"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="7"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="7"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="7"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" s="12"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" s="12"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="Q54" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0692F123-E8ED-A84F-B1D6-10660BCC4234}">
   <dimension ref="A1:R13"/>
   <sheetViews>
@@ -7691,7 +8330,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H1" s="66" t="s">
         <v>13</v>
@@ -8011,12 +8650,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345E843F-B5AF-7544-9892-CA1AD39C5E9D}">
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A2" sqref="A2:XFD47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8060,7 +8699,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H1" s="66" t="s">
         <v>13</v>
@@ -8700,7 +9339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2CA47B-538E-684E-879A-957351F4517A}">
   <dimension ref="A1:K32"/>
   <sheetViews>
@@ -9126,7 +9765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9FD288-F7FF-CC43-984C-6BC5F64D5A7D}">
   <dimension ref="A1:R11"/>
   <sheetViews>
@@ -9159,7 +9798,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H1" s="66" t="s">
         <v>13</v>
@@ -9194,7 +9833,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="9">
         <v>23</v>
@@ -9274,12 +9913,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923D42B9-7A86-1345-AADD-F9A6DEC8D2BA}">
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="A2" sqref="A2:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9323,7 +9962,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H1" s="66" t="s">
         <v>13</v>
@@ -9929,2604 +10568,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1520D0FE-3D3A-5944-810E-4CC776E5E44F}">
-  <dimension ref="A1:U52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="15">
-        <v>-20.101167</v>
-      </c>
-      <c r="C2" s="15">
-        <v>-69.491221999999993</v>
-      </c>
-      <c r="D2" s="15">
-        <v>1380</v>
-      </c>
-      <c r="E2" s="15">
-        <v>5</v>
-      </c>
-      <c r="F2" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G2" s="13">
-        <v>1</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>37200000</v>
-      </c>
-      <c r="K2" s="37"/>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>20</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="27">
-        <f>3.23*10^7</f>
-        <v>32300000</v>
-      </c>
-      <c r="T2" s="27">
-        <v>4900000</v>
-      </c>
-      <c r="U2" s="37">
-        <f>S2+T2</f>
-        <v>37200000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="14">
-        <v>-20.101167</v>
-      </c>
-      <c r="C3" s="14">
-        <v>-69.491221999999993</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1380</v>
-      </c>
-      <c r="E3" s="14">
-        <v>5</v>
-      </c>
-      <c r="F3" s="22">
-        <v>3.2</v>
-      </c>
-      <c r="G3" s="13">
-        <v>1</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>267800000</v>
-      </c>
-      <c r="S3" s="25">
-        <f>25.9*10^7</f>
-        <v>259000000</v>
-      </c>
-      <c r="T3" s="25">
-        <v>8800000</v>
-      </c>
-      <c r="U3" s="37">
-        <f>S3+T3</f>
-        <v>267800000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="13">
-        <v>-19.578942000000001</v>
-      </c>
-      <c r="C4" s="13">
-        <v>-69.872967000000003</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1172</v>
-      </c>
-      <c r="E4" s="13">
-        <v>5</v>
-      </c>
-      <c r="F4" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G4" s="13">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>671100000</v>
-      </c>
-      <c r="S4" s="23">
-        <f>65.91*10^7</f>
-        <v>659100000</v>
-      </c>
-      <c r="T4" s="23">
-        <v>12000000</v>
-      </c>
-      <c r="U4" s="37">
-        <f>S4+T4</f>
-        <v>671100000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="13">
-        <v>-19.578942000000001</v>
-      </c>
-      <c r="C5" s="13">
-        <v>-69.872967000000003</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1172</v>
-      </c>
-      <c r="E5" s="15">
-        <v>5</v>
-      </c>
-      <c r="F5" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G5" s="13">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>329000000</v>
-      </c>
-      <c r="S5" s="23">
-        <f>32.2*10^7</f>
-        <v>322000000</v>
-      </c>
-      <c r="T5" s="23">
-        <v>7000000</v>
-      </c>
-      <c r="U5" s="37">
-        <f t="shared" ref="U5:U29" si="0">S5+T5</f>
-        <v>329000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="14">
-        <v>-19.987110999999999</v>
-      </c>
-      <c r="C6" s="14">
-        <v>-69.433610999999999</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1943</v>
-      </c>
-      <c r="E6" s="14">
-        <v>5</v>
-      </c>
-      <c r="F6" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>664500000</v>
-      </c>
-      <c r="S6" s="25">
-        <f>63.88*10^7</f>
-        <v>638800000</v>
-      </c>
-      <c r="T6" s="25">
-        <v>25700000</v>
-      </c>
-      <c r="U6" s="37">
-        <f t="shared" si="0"/>
-        <v>664500000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="14">
-        <v>-19.340944</v>
-      </c>
-      <c r="C7" s="14">
-        <v>-69.727999999999994</v>
-      </c>
-      <c r="D7" s="14">
-        <v>1607</v>
-      </c>
-      <c r="E7" s="13">
-        <v>5</v>
-      </c>
-      <c r="F7" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>768100000</v>
-      </c>
-      <c r="S7" s="25">
-        <f>74.48*10^7</f>
-        <v>744800000</v>
-      </c>
-      <c r="T7" s="25">
-        <v>23300000</v>
-      </c>
-      <c r="U7" s="37">
-        <f t="shared" si="0"/>
-        <v>768100000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="14">
-        <v>-19.340944</v>
-      </c>
-      <c r="C8" s="14">
-        <v>-69.727999999999994</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1607</v>
-      </c>
-      <c r="E8" s="15">
-        <v>5</v>
-      </c>
-      <c r="F8" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>924000000</v>
-      </c>
-      <c r="S8" s="25">
-        <f>91.1*10^7</f>
-        <v>911000000</v>
-      </c>
-      <c r="T8" s="25">
-        <v>13000000</v>
-      </c>
-      <c r="U8" s="37">
-        <f t="shared" si="0"/>
-        <v>924000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="14">
-        <v>-19.340944</v>
-      </c>
-      <c r="C9" s="14">
-        <v>-69.727999999999994</v>
-      </c>
-      <c r="D9" s="14">
-        <v>1607</v>
-      </c>
-      <c r="E9" s="14">
-        <v>5</v>
-      </c>
-      <c r="F9" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G9" s="13">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1707700000</v>
-      </c>
-      <c r="S9" s="25">
-        <f>167.12*10^7</f>
-        <v>1671200000</v>
-      </c>
-      <c r="T9" s="25">
-        <v>36500000</v>
-      </c>
-      <c r="U9" s="37">
-        <f t="shared" si="0"/>
-        <v>1707700000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="14">
-        <v>-19.336722000000002</v>
-      </c>
-      <c r="C10" s="14">
-        <v>-69.729611000000006</v>
-      </c>
-      <c r="D10" s="14">
-        <v>1604</v>
-      </c>
-      <c r="E10" s="13">
-        <v>5</v>
-      </c>
-      <c r="F10" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G10" s="13">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>253200000</v>
-      </c>
-      <c r="S10" s="25">
-        <f>24.27*10^7</f>
-        <v>242700000</v>
-      </c>
-      <c r="T10" s="25">
-        <v>10500000</v>
-      </c>
-      <c r="U10" s="37">
-        <f t="shared" si="0"/>
-        <v>253200000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="14">
-        <v>-19.336722000000002</v>
-      </c>
-      <c r="C11" s="14">
-        <v>-69.729611000000006</v>
-      </c>
-      <c r="D11" s="14">
-        <v>1604</v>
-      </c>
-      <c r="E11" s="15">
-        <v>5</v>
-      </c>
-      <c r="F11" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>323700000</v>
-      </c>
-      <c r="S11" s="25">
-        <f>31.18*10^7</f>
-        <v>311800000</v>
-      </c>
-      <c r="T11" s="25">
-        <v>11900000</v>
-      </c>
-      <c r="U11" s="37">
-        <f t="shared" si="0"/>
-        <v>323700000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="14">
-        <v>-19.336722000000002</v>
-      </c>
-      <c r="C12" s="14">
-        <v>-69.729611000000006</v>
-      </c>
-      <c r="D12" s="14">
-        <v>1604</v>
-      </c>
-      <c r="E12" s="14">
-        <v>5</v>
-      </c>
-      <c r="F12" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G12" s="13">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1069200000.0000001</v>
-      </c>
-      <c r="S12" s="25">
-        <f>104.68*10^7</f>
-        <v>1046800000.0000001</v>
-      </c>
-      <c r="T12" s="25">
-        <v>22400000.000000004</v>
-      </c>
-      <c r="U12" s="37">
-        <f t="shared" si="0"/>
-        <v>1069200000.0000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="16">
-        <v>-18.886583000000002</v>
-      </c>
-      <c r="C13" s="16">
-        <v>-69.699055999999999</v>
-      </c>
-      <c r="D13" s="16">
-        <v>2282</v>
-      </c>
-      <c r="E13" s="13">
-        <v>5</v>
-      </c>
-      <c r="F13" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G13" s="13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>2746200000</v>
-      </c>
-      <c r="S13" s="28">
-        <f>269.89*10^7</f>
-        <v>2698900000</v>
-      </c>
-      <c r="T13" s="28">
-        <v>47300000.000000007</v>
-      </c>
-      <c r="U13" s="37">
-        <f t="shared" si="0"/>
-        <v>2746200000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="16">
-        <v>-18.886583000000002</v>
-      </c>
-      <c r="C14" s="16">
-        <v>-69.699055999999999</v>
-      </c>
-      <c r="D14" s="16">
-        <v>2282</v>
-      </c>
-      <c r="E14" s="15">
-        <v>5</v>
-      </c>
-      <c r="F14" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G14" s="13">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>2508200000</v>
-      </c>
-      <c r="S14" s="28">
-        <f>246.53*10^7</f>
-        <v>2465300000</v>
-      </c>
-      <c r="T14" s="28">
-        <v>42900000</v>
-      </c>
-      <c r="U14" s="37">
-        <f t="shared" si="0"/>
-        <v>2508200000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="16">
-        <v>-18.905639000000001</v>
-      </c>
-      <c r="C15" s="16">
-        <v>-69.954583</v>
-      </c>
-      <c r="D15" s="16">
-        <v>1443</v>
-      </c>
-      <c r="E15" s="14">
-        <v>5</v>
-      </c>
-      <c r="F15" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G15" s="13">
-        <v>1</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1439300000</v>
-      </c>
-      <c r="S15" s="28">
-        <v>1414100000</v>
-      </c>
-      <c r="T15" s="28">
-        <v>25200000</v>
-      </c>
-      <c r="U15" s="37">
-        <f t="shared" si="0"/>
-        <v>1439300000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="16">
-        <v>-18.905639000000001</v>
-      </c>
-      <c r="C16" s="16">
-        <v>-69.954583</v>
-      </c>
-      <c r="D16" s="16">
-        <v>1443</v>
-      </c>
-      <c r="E16" s="13">
-        <v>5</v>
-      </c>
-      <c r="F16" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G16" s="13">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1676400000</v>
-      </c>
-      <c r="S16" s="28">
-        <v>1648000000</v>
-      </c>
-      <c r="T16" s="28">
-        <v>28400000</v>
-      </c>
-      <c r="U16" s="37">
-        <f t="shared" si="0"/>
-        <v>1676400000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="16">
-        <v>-18.852694</v>
-      </c>
-      <c r="C17" s="16">
-        <v>-69.657167000000001</v>
-      </c>
-      <c r="D17" s="16">
-        <v>2550</v>
-      </c>
-      <c r="E17" s="15">
-        <v>5</v>
-      </c>
-      <c r="F17" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G17" s="13">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>2390400000</v>
-      </c>
-      <c r="S17" s="28">
-        <v>2350000000</v>
-      </c>
-      <c r="T17" s="28">
-        <v>40400000</v>
-      </c>
-      <c r="U17" s="37">
-        <f t="shared" si="0"/>
-        <v>2390400000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="16">
-        <v>-20.704083000000001</v>
-      </c>
-      <c r="C18" s="16">
-        <v>-69.420833000000002</v>
-      </c>
-      <c r="D18" s="16">
-        <v>1084</v>
-      </c>
-      <c r="E18" s="14">
-        <v>5</v>
-      </c>
-      <c r="F18" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G18" s="13">
-        <v>1</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>921600000</v>
-      </c>
-      <c r="S18" s="28">
-        <v>901900000</v>
-      </c>
-      <c r="T18" s="28">
-        <v>19700000</v>
-      </c>
-      <c r="U18" s="37">
-        <f t="shared" si="0"/>
-        <v>921600000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="17">
-        <v>-19.786306</v>
-      </c>
-      <c r="C19" s="17">
-        <v>-69.682000000000002</v>
-      </c>
-      <c r="D19" s="17">
-        <v>1289</v>
-      </c>
-      <c r="E19" s="13">
-        <v>5</v>
-      </c>
-      <c r="F19" s="26">
-        <v>2.89</v>
-      </c>
-      <c r="G19" s="13">
-        <v>1</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1105700000</v>
-      </c>
-      <c r="S19" s="29">
-        <v>1078000000</v>
-      </c>
-      <c r="T19" s="29">
-        <v>27700000</v>
-      </c>
-      <c r="U19" s="37">
-        <f t="shared" si="0"/>
-        <v>1105700000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="14">
-        <v>-19.786306</v>
-      </c>
-      <c r="C20" s="14">
-        <v>-69.682000000000002</v>
-      </c>
-      <c r="D20" s="14">
-        <v>1289</v>
-      </c>
-      <c r="E20" s="15">
-        <v>5</v>
-      </c>
-      <c r="F20" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G20" s="13">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>1049700000</v>
-      </c>
-      <c r="S20" s="25">
-        <v>1024900000</v>
-      </c>
-      <c r="T20" s="25">
-        <v>24800000</v>
-      </c>
-      <c r="U20" s="37">
-        <f t="shared" si="0"/>
-        <v>1049700000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="14">
-        <v>-19.786306</v>
-      </c>
-      <c r="C21" s="14">
-        <v>-69.682000000000002</v>
-      </c>
-      <c r="D21" s="14">
-        <v>1289</v>
-      </c>
-      <c r="E21" s="14">
-        <v>5</v>
-      </c>
-      <c r="F21" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G21" s="13">
-        <v>1</v>
-      </c>
-      <c r="H21" s="13">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>3021600000</v>
-      </c>
-      <c r="S21" s="30">
-        <v>2989600000</v>
-      </c>
-      <c r="T21" s="25">
-        <v>32000000</v>
-      </c>
-      <c r="U21" s="37">
-        <f t="shared" si="0"/>
-        <v>3021600000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="14">
-        <v>-19.397832999999999</v>
-      </c>
-      <c r="C22" s="14">
-        <v>-69.880306000000004</v>
-      </c>
-      <c r="D22" s="14">
-        <v>1256</v>
-      </c>
-      <c r="E22" s="13">
-        <v>5</v>
-      </c>
-      <c r="F22" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G22" s="13">
-        <v>1</v>
-      </c>
-      <c r="H22" s="13">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>1989000000</v>
-      </c>
-      <c r="S22" s="25">
-        <v>1942300000</v>
-      </c>
-      <c r="T22" s="25">
-        <v>46700000</v>
-      </c>
-      <c r="U22" s="37">
-        <f t="shared" si="0"/>
-        <v>1989000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="14">
-        <v>-19.397832999999999</v>
-      </c>
-      <c r="C23" s="14">
-        <v>-69.880306000000004</v>
-      </c>
-      <c r="D23" s="14">
-        <v>1256</v>
-      </c>
-      <c r="E23" s="15">
-        <v>5</v>
-      </c>
-      <c r="F23" s="22">
-        <v>2.74</v>
-      </c>
-      <c r="G23" s="13">
-        <v>1</v>
-      </c>
-      <c r="H23" s="13">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>3184900000</v>
-      </c>
-      <c r="S23" s="25">
-        <v>3102600000</v>
-      </c>
-      <c r="T23" s="25">
-        <v>82300000</v>
-      </c>
-      <c r="U23" s="37">
-        <f t="shared" si="0"/>
-        <v>3184900000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="14">
-        <v>-19.397832999999999</v>
-      </c>
-      <c r="C24" s="14">
-        <v>-69.880306000000004</v>
-      </c>
-      <c r="D24" s="14">
-        <v>1256</v>
-      </c>
-      <c r="E24" s="14">
-        <v>5</v>
-      </c>
-      <c r="F24" s="24">
-        <v>2.89</v>
-      </c>
-      <c r="G24" s="13">
-        <v>1</v>
-      </c>
-      <c r="H24" s="13">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>2753400000.0000005</v>
-      </c>
-      <c r="S24" s="25">
-        <v>2691600000.0000005</v>
-      </c>
-      <c r="T24" s="25">
-        <v>61800000</v>
-      </c>
-      <c r="U24" s="37">
-        <f t="shared" si="0"/>
-        <v>2753400000.0000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="16">
-        <v>-19.522110999999999</v>
-      </c>
-      <c r="C25" s="16">
-        <v>-69.808333000000005</v>
-      </c>
-      <c r="D25" s="16">
-        <v>1312</v>
-      </c>
-      <c r="E25" s="13">
-        <v>5</v>
-      </c>
-      <c r="F25" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G25" s="13">
-        <v>1</v>
-      </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>2823500000</v>
-      </c>
-      <c r="S25" s="28">
-        <v>2771500000</v>
-      </c>
-      <c r="T25" s="28">
-        <v>52000000</v>
-      </c>
-      <c r="U25" s="37">
-        <f t="shared" si="0"/>
-        <v>2823500000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="16">
-        <v>-19.522110999999999</v>
-      </c>
-      <c r="C26" s="16">
-        <v>-69.808333000000005</v>
-      </c>
-      <c r="D26" s="16">
-        <v>1312</v>
-      </c>
-      <c r="E26" s="15">
-        <v>5</v>
-      </c>
-      <c r="F26" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G26" s="13">
-        <v>1</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>669000000</v>
-      </c>
-      <c r="S26" s="28">
-        <v>654000000</v>
-      </c>
-      <c r="T26" s="28">
-        <v>15000000</v>
-      </c>
-      <c r="U26" s="37">
-        <f t="shared" si="0"/>
-        <v>669000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="21">
-        <v>-18.503527999999999</v>
-      </c>
-      <c r="C27" s="21">
-        <v>-70.143305999999995</v>
-      </c>
-      <c r="D27" s="21">
-        <v>771</v>
-      </c>
-      <c r="E27" s="14">
-        <v>5</v>
-      </c>
-      <c r="F27" s="31">
-        <v>2.89</v>
-      </c>
-      <c r="G27" s="13">
-        <v>1</v>
-      </c>
-      <c r="H27" s="13">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>420100000</v>
-      </c>
-      <c r="S27" s="32">
-        <v>412900000</v>
-      </c>
-      <c r="T27" s="32">
-        <v>7200000</v>
-      </c>
-      <c r="U27" s="37">
-        <f>S27+T27</f>
-        <v>420100000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="20">
-        <v>-18.389944</v>
-      </c>
-      <c r="C28" s="20">
-        <v>-70.071805999999995</v>
-      </c>
-      <c r="D28" s="20">
-        <v>1025</v>
-      </c>
-      <c r="E28" s="13">
-        <v>5</v>
-      </c>
-      <c r="F28" s="26">
-        <v>2.89</v>
-      </c>
-      <c r="G28" s="13">
-        <v>1</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>395700000</v>
-      </c>
-      <c r="S28" s="33">
-        <v>388000000</v>
-      </c>
-      <c r="T28" s="33">
-        <v>7700000</v>
-      </c>
-      <c r="U28" s="37">
-        <f t="shared" si="0"/>
-        <v>395700000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="21">
-        <v>-18.389944</v>
-      </c>
-      <c r="C29" s="21">
-        <v>-70.071805999999995</v>
-      </c>
-      <c r="D29" s="21">
-        <v>1025</v>
-      </c>
-      <c r="E29" s="15">
-        <v>5</v>
-      </c>
-      <c r="F29" s="31">
-        <v>2.89</v>
-      </c>
-      <c r="G29" s="13">
-        <v>1</v>
-      </c>
-      <c r="H29" s="13">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>434500000</v>
-      </c>
-      <c r="S29" s="32">
-        <v>425000000</v>
-      </c>
-      <c r="T29" s="32">
-        <v>9500000</v>
-      </c>
-      <c r="U29" s="37">
-        <f t="shared" si="0"/>
-        <v>434500000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="E30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="E31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="E32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="Q50" s="1"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="Q51" s="1"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="Q52" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225F8288-2AD0-3149-BE3D-BA32CA0A6CF4}">
-  <dimension ref="A1:U52"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="A2:XFD29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="66" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="66" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="15">
-        <v>-20.101167</v>
-      </c>
-      <c r="C2" s="15">
-        <v>-69.491221999999993</v>
-      </c>
-      <c r="D2" s="15">
-        <v>1380</v>
-      </c>
-      <c r="E2" s="15">
-        <v>5</v>
-      </c>
-      <c r="F2" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G2" s="13">
-        <v>1</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>27400000</v>
-      </c>
-      <c r="K2" s="37"/>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>20</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="27">
-        <f>3.23*10^7</f>
-        <v>32300000</v>
-      </c>
-      <c r="T2" s="27">
-        <v>4900000</v>
-      </c>
-      <c r="U2" s="37">
-        <f>S2-T2</f>
-        <v>27400000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="14">
-        <v>-20.101167</v>
-      </c>
-      <c r="C3" s="14">
-        <v>-69.491221999999993</v>
-      </c>
-      <c r="D3" s="14">
-        <v>1380</v>
-      </c>
-      <c r="E3" s="14">
-        <v>5</v>
-      </c>
-      <c r="F3" s="22">
-        <v>3.2</v>
-      </c>
-      <c r="G3" s="13">
-        <v>1</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>250200000</v>
-      </c>
-      <c r="S3" s="25">
-        <f>25.9*10^7</f>
-        <v>259000000</v>
-      </c>
-      <c r="T3" s="25">
-        <v>8800000</v>
-      </c>
-      <c r="U3" s="37">
-        <f>S3-T3</f>
-        <v>250200000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="13">
-        <v>-19.578942000000001</v>
-      </c>
-      <c r="C4" s="13">
-        <v>-69.872967000000003</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1172</v>
-      </c>
-      <c r="E4" s="13">
-        <v>5</v>
-      </c>
-      <c r="F4" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G4" s="13">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>647100000</v>
-      </c>
-      <c r="S4" s="23">
-        <f>65.91*10^7</f>
-        <v>659100000</v>
-      </c>
-      <c r="T4" s="23">
-        <v>12000000</v>
-      </c>
-      <c r="U4" s="37">
-        <f t="shared" ref="U4:U29" si="0">S4-T4</f>
-        <v>647100000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="13">
-        <v>-19.578942000000001</v>
-      </c>
-      <c r="C5" s="13">
-        <v>-69.872967000000003</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1172</v>
-      </c>
-      <c r="E5" s="15">
-        <v>5</v>
-      </c>
-      <c r="F5" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G5" s="13">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>315000000</v>
-      </c>
-      <c r="S5" s="23">
-        <f>32.2*10^7</f>
-        <v>322000000</v>
-      </c>
-      <c r="T5" s="23">
-        <v>7000000</v>
-      </c>
-      <c r="U5" s="37">
-        <f t="shared" si="0"/>
-        <v>315000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="14">
-        <v>-19.987110999999999</v>
-      </c>
-      <c r="C6" s="14">
-        <v>-69.433610999999999</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1943</v>
-      </c>
-      <c r="E6" s="14">
-        <v>5</v>
-      </c>
-      <c r="F6" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>613100000</v>
-      </c>
-      <c r="S6" s="25">
-        <f>63.88*10^7</f>
-        <v>638800000</v>
-      </c>
-      <c r="T6" s="25">
-        <v>25700000</v>
-      </c>
-      <c r="U6" s="37">
-        <f t="shared" si="0"/>
-        <v>613100000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="14">
-        <v>-19.340944</v>
-      </c>
-      <c r="C7" s="14">
-        <v>-69.727999999999994</v>
-      </c>
-      <c r="D7" s="14">
-        <v>1607</v>
-      </c>
-      <c r="E7" s="13">
-        <v>5</v>
-      </c>
-      <c r="F7" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>721500000</v>
-      </c>
-      <c r="S7" s="25">
-        <f>74.48*10^7</f>
-        <v>744800000</v>
-      </c>
-      <c r="T7" s="25">
-        <v>23300000</v>
-      </c>
-      <c r="U7" s="37">
-        <f t="shared" si="0"/>
-        <v>721500000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="14">
-        <v>-19.340944</v>
-      </c>
-      <c r="C8" s="14">
-        <v>-69.727999999999994</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1607</v>
-      </c>
-      <c r="E8" s="15">
-        <v>5</v>
-      </c>
-      <c r="F8" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>898000000</v>
-      </c>
-      <c r="S8" s="25">
-        <f>91.1*10^7</f>
-        <v>911000000</v>
-      </c>
-      <c r="T8" s="25">
-        <v>13000000</v>
-      </c>
-      <c r="U8" s="37">
-        <f t="shared" si="0"/>
-        <v>898000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="14">
-        <v>-19.340944</v>
-      </c>
-      <c r="C9" s="14">
-        <v>-69.727999999999994</v>
-      </c>
-      <c r="D9" s="14">
-        <v>1607</v>
-      </c>
-      <c r="E9" s="14">
-        <v>5</v>
-      </c>
-      <c r="F9" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G9" s="13">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1634700000</v>
-      </c>
-      <c r="S9" s="25">
-        <f>167.12*10^7</f>
-        <v>1671200000</v>
-      </c>
-      <c r="T9" s="25">
-        <v>36500000</v>
-      </c>
-      <c r="U9" s="37">
-        <f t="shared" si="0"/>
-        <v>1634700000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="14">
-        <v>-19.336722000000002</v>
-      </c>
-      <c r="C10" s="14">
-        <v>-69.729611000000006</v>
-      </c>
-      <c r="D10" s="14">
-        <v>1604</v>
-      </c>
-      <c r="E10" s="13">
-        <v>5</v>
-      </c>
-      <c r="F10" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G10" s="13">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>232200000</v>
-      </c>
-      <c r="S10" s="25">
-        <f>24.27*10^7</f>
-        <v>242700000</v>
-      </c>
-      <c r="T10" s="25">
-        <v>10500000</v>
-      </c>
-      <c r="U10" s="37">
-        <f t="shared" si="0"/>
-        <v>232200000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="14">
-        <v>-19.336722000000002</v>
-      </c>
-      <c r="C11" s="14">
-        <v>-69.729611000000006</v>
-      </c>
-      <c r="D11" s="14">
-        <v>1604</v>
-      </c>
-      <c r="E11" s="15">
-        <v>5</v>
-      </c>
-      <c r="F11" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>299900000</v>
-      </c>
-      <c r="S11" s="25">
-        <f>31.18*10^7</f>
-        <v>311800000</v>
-      </c>
-      <c r="T11" s="25">
-        <v>11900000</v>
-      </c>
-      <c r="U11" s="37">
-        <f t="shared" si="0"/>
-        <v>299900000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="14">
-        <v>-19.336722000000002</v>
-      </c>
-      <c r="C12" s="14">
-        <v>-69.729611000000006</v>
-      </c>
-      <c r="D12" s="14">
-        <v>1604</v>
-      </c>
-      <c r="E12" s="14">
-        <v>5</v>
-      </c>
-      <c r="F12" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G12" s="13">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1024400000.0000001</v>
-      </c>
-      <c r="S12" s="25">
-        <f>104.68*10^7</f>
-        <v>1046800000.0000001</v>
-      </c>
-      <c r="T12" s="25">
-        <v>22400000.000000004</v>
-      </c>
-      <c r="U12" s="37">
-        <f t="shared" si="0"/>
-        <v>1024400000.0000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="16">
-        <v>-18.886583000000002</v>
-      </c>
-      <c r="C13" s="16">
-        <v>-69.699055999999999</v>
-      </c>
-      <c r="D13" s="16">
-        <v>2282</v>
-      </c>
-      <c r="E13" s="13">
-        <v>5</v>
-      </c>
-      <c r="F13" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G13" s="13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>2651600000</v>
-      </c>
-      <c r="S13" s="28">
-        <f>269.89*10^7</f>
-        <v>2698900000</v>
-      </c>
-      <c r="T13" s="28">
-        <v>47300000.000000007</v>
-      </c>
-      <c r="U13" s="37">
-        <f t="shared" si="0"/>
-        <v>2651600000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="16">
-        <v>-18.886583000000002</v>
-      </c>
-      <c r="C14" s="16">
-        <v>-69.699055999999999</v>
-      </c>
-      <c r="D14" s="16">
-        <v>2282</v>
-      </c>
-      <c r="E14" s="15">
-        <v>5</v>
-      </c>
-      <c r="F14" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G14" s="13">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>2422400000</v>
-      </c>
-      <c r="S14" s="28">
-        <f>246.53*10^7</f>
-        <v>2465300000</v>
-      </c>
-      <c r="T14" s="28">
-        <v>42900000</v>
-      </c>
-      <c r="U14" s="37">
-        <f t="shared" si="0"/>
-        <v>2422400000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="16">
-        <v>-18.905639000000001</v>
-      </c>
-      <c r="C15" s="16">
-        <v>-69.954583</v>
-      </c>
-      <c r="D15" s="16">
-        <v>1443</v>
-      </c>
-      <c r="E15" s="14">
-        <v>5</v>
-      </c>
-      <c r="F15" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G15" s="13">
-        <v>1</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1388900000</v>
-      </c>
-      <c r="S15" s="28">
-        <v>1414100000</v>
-      </c>
-      <c r="T15" s="28">
-        <v>25200000</v>
-      </c>
-      <c r="U15" s="37">
-        <f t="shared" si="0"/>
-        <v>1388900000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="16">
-        <v>-18.905639000000001</v>
-      </c>
-      <c r="C16" s="16">
-        <v>-69.954583</v>
-      </c>
-      <c r="D16" s="16">
-        <v>1443</v>
-      </c>
-      <c r="E16" s="13">
-        <v>5</v>
-      </c>
-      <c r="F16" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G16" s="13">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>1619600000</v>
-      </c>
-      <c r="S16" s="28">
-        <v>1648000000</v>
-      </c>
-      <c r="T16" s="28">
-        <v>28400000</v>
-      </c>
-      <c r="U16" s="37">
-        <f t="shared" si="0"/>
-        <v>1619600000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="16">
-        <v>-18.852694</v>
-      </c>
-      <c r="C17" s="16">
-        <v>-69.657167000000001</v>
-      </c>
-      <c r="D17" s="16">
-        <v>2550</v>
-      </c>
-      <c r="E17" s="15">
-        <v>5</v>
-      </c>
-      <c r="F17" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G17" s="13">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>2309600000</v>
-      </c>
-      <c r="S17" s="28">
-        <v>2350000000</v>
-      </c>
-      <c r="T17" s="28">
-        <v>40400000</v>
-      </c>
-      <c r="U17" s="37">
-        <f t="shared" si="0"/>
-        <v>2309600000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="16">
-        <v>-20.704083000000001</v>
-      </c>
-      <c r="C18" s="16">
-        <v>-69.420833000000002</v>
-      </c>
-      <c r="D18" s="16">
-        <v>1084</v>
-      </c>
-      <c r="E18" s="14">
-        <v>5</v>
-      </c>
-      <c r="F18" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G18" s="13">
-        <v>1</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>882200000</v>
-      </c>
-      <c r="S18" s="28">
-        <v>901900000</v>
-      </c>
-      <c r="T18" s="28">
-        <v>19700000</v>
-      </c>
-      <c r="U18" s="37">
-        <f t="shared" si="0"/>
-        <v>882200000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="17">
-        <v>-19.786306</v>
-      </c>
-      <c r="C19" s="17">
-        <v>-69.682000000000002</v>
-      </c>
-      <c r="D19" s="17">
-        <v>1289</v>
-      </c>
-      <c r="E19" s="13">
-        <v>5</v>
-      </c>
-      <c r="F19" s="26">
-        <v>2.89</v>
-      </c>
-      <c r="G19" s="13">
-        <v>1</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>1050300000</v>
-      </c>
-      <c r="S19" s="29">
-        <v>1078000000</v>
-      </c>
-      <c r="T19" s="29">
-        <v>27700000</v>
-      </c>
-      <c r="U19" s="37">
-        <f t="shared" si="0"/>
-        <v>1050300000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="14">
-        <v>-19.786306</v>
-      </c>
-      <c r="C20" s="14">
-        <v>-69.682000000000002</v>
-      </c>
-      <c r="D20" s="14">
-        <v>1289</v>
-      </c>
-      <c r="E20" s="15">
-        <v>5</v>
-      </c>
-      <c r="F20" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G20" s="13">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>1000100000</v>
-      </c>
-      <c r="S20" s="25">
-        <v>1024900000</v>
-      </c>
-      <c r="T20" s="25">
-        <v>24800000</v>
-      </c>
-      <c r="U20" s="37">
-        <f t="shared" si="0"/>
-        <v>1000100000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="14">
-        <v>-19.786306</v>
-      </c>
-      <c r="C21" s="14">
-        <v>-69.682000000000002</v>
-      </c>
-      <c r="D21" s="14">
-        <v>1289</v>
-      </c>
-      <c r="E21" s="14">
-        <v>5</v>
-      </c>
-      <c r="F21" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G21" s="13">
-        <v>1</v>
-      </c>
-      <c r="H21" s="13">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>2957600000</v>
-      </c>
-      <c r="S21" s="30">
-        <v>2989600000</v>
-      </c>
-      <c r="T21" s="25">
-        <v>32000000</v>
-      </c>
-      <c r="U21" s="37">
-        <f t="shared" si="0"/>
-        <v>2957600000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A22" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="14">
-        <v>-19.397832999999999</v>
-      </c>
-      <c r="C22" s="14">
-        <v>-69.880306000000004</v>
-      </c>
-      <c r="D22" s="14">
-        <v>1256</v>
-      </c>
-      <c r="E22" s="13">
-        <v>5</v>
-      </c>
-      <c r="F22" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G22" s="13">
-        <v>1</v>
-      </c>
-      <c r="H22" s="13">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>1895600000</v>
-      </c>
-      <c r="S22" s="25">
-        <v>1942300000</v>
-      </c>
-      <c r="T22" s="25">
-        <v>46700000</v>
-      </c>
-      <c r="U22" s="37">
-        <f t="shared" si="0"/>
-        <v>1895600000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="14">
-        <v>-19.397832999999999</v>
-      </c>
-      <c r="C23" s="14">
-        <v>-69.880306000000004</v>
-      </c>
-      <c r="D23" s="14">
-        <v>1256</v>
-      </c>
-      <c r="E23" s="15">
-        <v>5</v>
-      </c>
-      <c r="F23" s="22">
-        <v>2.74</v>
-      </c>
-      <c r="G23" s="13">
-        <v>1</v>
-      </c>
-      <c r="H23" s="13">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>3020300000</v>
-      </c>
-      <c r="S23" s="25">
-        <v>3102600000</v>
-      </c>
-      <c r="T23" s="25">
-        <v>82300000</v>
-      </c>
-      <c r="U23" s="37">
-        <f t="shared" si="0"/>
-        <v>3020300000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A24" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="14">
-        <v>-19.397832999999999</v>
-      </c>
-      <c r="C24" s="14">
-        <v>-69.880306000000004</v>
-      </c>
-      <c r="D24" s="14">
-        <v>1256</v>
-      </c>
-      <c r="E24" s="14">
-        <v>5</v>
-      </c>
-      <c r="F24" s="24">
-        <v>2.89</v>
-      </c>
-      <c r="G24" s="13">
-        <v>1</v>
-      </c>
-      <c r="H24" s="13">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>2629800000.0000005</v>
-      </c>
-      <c r="S24" s="25">
-        <v>2691600000.0000005</v>
-      </c>
-      <c r="T24" s="25">
-        <v>61800000</v>
-      </c>
-      <c r="U24" s="37">
-        <f t="shared" si="0"/>
-        <v>2629800000.0000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="16">
-        <v>-19.522110999999999</v>
-      </c>
-      <c r="C25" s="16">
-        <v>-69.808333000000005</v>
-      </c>
-      <c r="D25" s="16">
-        <v>1312</v>
-      </c>
-      <c r="E25" s="13">
-        <v>5</v>
-      </c>
-      <c r="F25" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G25" s="13">
-        <v>1</v>
-      </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>2719500000</v>
-      </c>
-      <c r="S25" s="28">
-        <v>2771500000</v>
-      </c>
-      <c r="T25" s="28">
-        <v>52000000</v>
-      </c>
-      <c r="U25" s="37">
-        <f t="shared" si="0"/>
-        <v>2719500000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="16">
-        <v>-19.522110999999999</v>
-      </c>
-      <c r="C26" s="16">
-        <v>-69.808333000000005</v>
-      </c>
-      <c r="D26" s="16">
-        <v>1312</v>
-      </c>
-      <c r="E26" s="15">
-        <v>5</v>
-      </c>
-      <c r="F26" s="22">
-        <v>2.89</v>
-      </c>
-      <c r="G26" s="13">
-        <v>1</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>639000000</v>
-      </c>
-      <c r="S26" s="28">
-        <v>654000000</v>
-      </c>
-      <c r="T26" s="28">
-        <v>15000000</v>
-      </c>
-      <c r="U26" s="37">
-        <f t="shared" si="0"/>
-        <v>639000000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A27" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="21">
-        <v>-18.503527999999999</v>
-      </c>
-      <c r="C27" s="21">
-        <v>-70.143305999999995</v>
-      </c>
-      <c r="D27" s="21">
-        <v>771</v>
-      </c>
-      <c r="E27" s="14">
-        <v>5</v>
-      </c>
-      <c r="F27" s="31">
-        <v>2.89</v>
-      </c>
-      <c r="G27" s="13">
-        <v>1</v>
-      </c>
-      <c r="H27" s="13">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>405700000</v>
-      </c>
-      <c r="S27" s="32">
-        <v>412900000</v>
-      </c>
-      <c r="T27" s="32">
-        <v>7200000</v>
-      </c>
-      <c r="U27" s="37">
-        <f t="shared" si="0"/>
-        <v>405700000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="20">
-        <v>-18.389944</v>
-      </c>
-      <c r="C28" s="20">
-        <v>-70.071805999999995</v>
-      </c>
-      <c r="D28" s="20">
-        <v>1025</v>
-      </c>
-      <c r="E28" s="13">
-        <v>5</v>
-      </c>
-      <c r="F28" s="26">
-        <v>2.89</v>
-      </c>
-      <c r="G28" s="13">
-        <v>1</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>380300000</v>
-      </c>
-      <c r="S28" s="33">
-        <v>388000000</v>
-      </c>
-      <c r="T28" s="33">
-        <v>7700000</v>
-      </c>
-      <c r="U28" s="37">
-        <f t="shared" si="0"/>
-        <v>380300000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B29" s="21">
-        <v>-18.389944</v>
-      </c>
-      <c r="C29" s="21">
-        <v>-70.071805999999995</v>
-      </c>
-      <c r="D29" s="21">
-        <v>1025</v>
-      </c>
-      <c r="E29" s="15">
-        <v>5</v>
-      </c>
-      <c r="F29" s="31">
-        <v>2.89</v>
-      </c>
-      <c r="G29" s="13">
-        <v>1</v>
-      </c>
-      <c r="H29" s="13">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>415500000</v>
-      </c>
-      <c r="S29" s="32">
-        <v>425000000</v>
-      </c>
-      <c r="T29" s="32">
-        <v>9500000</v>
-      </c>
-      <c r="U29" s="37">
-        <f t="shared" si="0"/>
-        <v>415500000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="E30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="E31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="E32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="Q50" s="1"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="Q51" s="1"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="Q52" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1922F0-2228-134D-B048-0ADD0D303232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EE0161-2E70-BD47-B170-788C35B852E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="1" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="138">
   <si>
     <t>Sample Name</t>
   </si>
@@ -1457,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39602BD4-AF2D-864A-8905-789D980EB8BD}">
   <dimension ref="A1:S84"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1528,134 +1528,261 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="B2" s="10">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <f>3*10^-3</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2380000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>56000</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>27.5</v>
+      </c>
+      <c r="O2">
+        <v>28.201000000000001</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>15</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="10">
+        <v>38</v>
+      </c>
+      <c r="C3" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11">
+        <f>10*10^-3</f>
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2630000</v>
+      </c>
+      <c r="J3" s="7">
+        <v>59000</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="10">
+        <v>38</v>
+      </c>
+      <c r="C4" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11">
+        <f>20*10^-3</f>
+        <v>0.02</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2750000</v>
+      </c>
+      <c r="J4" s="7">
+        <v>57000</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="10">
+        <v>38</v>
+      </c>
+      <c r="C5" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="2">
+        <v>330000</v>
+      </c>
+      <c r="J5" s="7">
+        <v>550000</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10">
+        <v>38</v>
+      </c>
+      <c r="C6" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="2">
+        <v>730000</v>
+      </c>
+      <c r="J6" s="7">
+        <v>540000</v>
+      </c>
+      <c r="Q6" s="1">
         <v>45</v>
       </c>
-      <c r="C2" s="10">
-        <v>-120</v>
-      </c>
-      <c r="D2" s="10">
-        <v>500</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>15.9</v>
-      </c>
-      <c r="O2">
-        <v>16.7</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="7"/>
-      <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="7"/>
-      <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="7"/>
-      <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="7"/>
-      <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10">
+        <v>38</v>
+      </c>
+      <c r="C7" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="7"/>
-      <c r="Q7" s="1"/>
+      <c r="I7" s="2">
+        <v>340000</v>
+      </c>
+      <c r="J7" s="7">
+        <v>600000</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="10">
+        <v>38</v>
+      </c>
+      <c r="C8" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
       <c r="H8" s="11"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="7"/>
-      <c r="Q8" s="1"/>
+      <c r="I8" s="2">
+        <v>590000</v>
+      </c>
+      <c r="J8" s="7">
+        <v>560000</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
@@ -6545,7 +6672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A252A25-C5BD-9644-90A1-8F508F9F4733}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>

--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EE0161-2E70-BD47-B170-788C35B852E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC95080C-2114-C449-9E65-B7BB7209E71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="1" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="139">
   <si>
     <t>Sample Name</t>
   </si>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t xml:space="preserve"> in g/cm2/yr</t>
+  </si>
+  <si>
+    <t>If you do not provide a long enough duration to produce the amount of nuclide specified, you will receive a python generated error in line 92 (for 3He) OR line 202 (for 21Ne)</t>
   </si>
 </sst>
 </file>
@@ -733,7 +736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -885,12 +888,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1059,9 +1082,6 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1095,6 +1115,21 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1105,12 +1140,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1125,20 +1154,26 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1455,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39602BD4-AF2D-864A-8905-789D980EB8BD}">
-  <dimension ref="A1:S84"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1470,318 +1505,623 @@
     <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:18" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="66" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="10">
-        <v>38</v>
-      </c>
-      <c r="C2" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D2" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E2" s="1">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="34">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="C2" s="34">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="D2" s="34">
+        <v>957</v>
+      </c>
+      <c r="E2" s="35">
+        <v>3</v>
+      </c>
+      <c r="F2" s="34">
+        <v>2.65</v>
+      </c>
+      <c r="G2" s="35">
+        <v>1</v>
+      </c>
+      <c r="H2" s="35">
+        <v>0</v>
+      </c>
+      <c r="I2" s="34">
+        <v>458399999.99999994</v>
+      </c>
+      <c r="J2" s="38">
+        <v>2200000</v>
+      </c>
+      <c r="L2" s="37">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="11">
-        <f>3*10^-3</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2380000</v>
-      </c>
-      <c r="J2" s="2">
-        <v>56000</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>28.201000000000001</v>
+        <v>20</v>
       </c>
       <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="10">
-        <v>38</v>
-      </c>
-      <c r="C3" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D3" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="11">
-        <f>10*10^-3</f>
-        <v>0.01</v>
-      </c>
-      <c r="I3" s="2">
-        <v>2630000</v>
-      </c>
-      <c r="J3" s="7">
-        <v>59000</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="10">
-        <v>38</v>
-      </c>
-      <c r="C4" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="11">
-        <f>20*10^-3</f>
-        <v>0.02</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2750000</v>
-      </c>
-      <c r="J4" s="7">
-        <v>57000</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="10">
-        <v>38</v>
-      </c>
-      <c r="C5" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="2">
-        <v>330000</v>
-      </c>
-      <c r="J5" s="7">
-        <v>550000</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="10">
-        <v>38</v>
-      </c>
-      <c r="C6" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="2">
-        <v>730000</v>
-      </c>
-      <c r="J6" s="7">
-        <v>540000</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="10">
-        <v>38</v>
-      </c>
-      <c r="C7" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D7" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="2">
-        <v>340000</v>
-      </c>
-      <c r="J7" s="7">
-        <v>600000</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="10">
-        <v>38</v>
-      </c>
-      <c r="C8" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D8" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="2">
-        <v>590000</v>
-      </c>
-      <c r="J8" s="7">
-        <v>560000</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>55</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="34">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="C3" s="34">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="D3" s="34">
+        <v>957</v>
+      </c>
+      <c r="E3" s="35">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34">
+        <v>2.65</v>
+      </c>
+      <c r="G3" s="35">
+        <v>1</v>
+      </c>
+      <c r="H3" s="35">
+        <v>0</v>
+      </c>
+      <c r="I3" s="34">
+        <v>458399999.99999994</v>
+      </c>
+      <c r="J3" s="38">
+        <v>2200000</v>
+      </c>
+      <c r="M3" s="37"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="35">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="C4" s="35">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="D4" s="35">
+        <v>957</v>
+      </c>
+      <c r="E4" s="35">
+        <v>3</v>
+      </c>
+      <c r="F4" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G4" s="35">
+        <v>1</v>
+      </c>
+      <c r="H4" s="35">
+        <v>0</v>
+      </c>
+      <c r="I4" s="35">
+        <v>495000000</v>
+      </c>
+      <c r="J4" s="39">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="35">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="C5" s="35">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="D5" s="35">
+        <v>957</v>
+      </c>
+      <c r="E5" s="35">
+        <v>3</v>
+      </c>
+      <c r="F5" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G5" s="35">
+        <v>1</v>
+      </c>
+      <c r="H5" s="35">
+        <v>0</v>
+      </c>
+      <c r="I5" s="35">
+        <v>381800000</v>
+      </c>
+      <c r="J5" s="39">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="35">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="C6" s="35">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="D6" s="35">
+        <v>957</v>
+      </c>
+      <c r="E6" s="35">
+        <v>3</v>
+      </c>
+      <c r="F6" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G6" s="35">
+        <v>1</v>
+      </c>
+      <c r="H6" s="35">
+        <v>0</v>
+      </c>
+      <c r="I6" s="35">
+        <v>725300000</v>
+      </c>
+      <c r="J6" s="39">
+        <v>4400000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="35">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="C7" s="35">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="D7" s="35">
+        <v>957</v>
+      </c>
+      <c r="E7" s="35">
+        <v>3</v>
+      </c>
+      <c r="F7" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G7" s="35">
+        <v>1</v>
+      </c>
+      <c r="H7" s="35">
+        <v>0</v>
+      </c>
+      <c r="I7" s="35">
+        <v>463100000</v>
+      </c>
+      <c r="J7" s="39">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="35">
+        <v>-19.564599999999999</v>
+      </c>
+      <c r="C8" s="35">
+        <v>-70.117283</v>
+      </c>
+      <c r="D8" s="35">
+        <v>925</v>
+      </c>
+      <c r="E8" s="35">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G8" s="35">
+        <v>1</v>
+      </c>
+      <c r="H8" s="35">
+        <v>0</v>
+      </c>
+      <c r="I8" s="35">
+        <v>501800000</v>
+      </c>
+      <c r="J8" s="39">
+        <v>3400000.0000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="35">
+        <v>-19.564599999999999</v>
+      </c>
+      <c r="C9" s="35">
+        <v>-70.117283</v>
+      </c>
+      <c r="D9" s="35">
+        <v>925</v>
+      </c>
+      <c r="E9" s="35">
+        <v>3</v>
+      </c>
+      <c r="F9" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G9" s="35">
+        <v>1</v>
+      </c>
+      <c r="H9" s="35">
+        <v>0</v>
+      </c>
+      <c r="I9" s="35">
+        <v>315000000</v>
+      </c>
+      <c r="J9" s="39">
+        <v>2400000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="35">
+        <v>-19.564599999999999</v>
+      </c>
+      <c r="C10" s="35">
+        <v>-70.117283</v>
+      </c>
+      <c r="D10" s="35">
+        <v>925</v>
+      </c>
+      <c r="E10" s="35">
+        <v>3</v>
+      </c>
+      <c r="F10" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G10" s="35">
+        <v>1</v>
+      </c>
+      <c r="H10" s="35">
+        <v>0</v>
+      </c>
+      <c r="I10" s="35">
+        <v>209900000.00000003</v>
+      </c>
+      <c r="J10" s="39">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="35">
+        <v>-19.564599999999999</v>
+      </c>
+      <c r="C11" s="35">
+        <v>-70.117283</v>
+      </c>
+      <c r="D11" s="35">
+        <v>925</v>
+      </c>
+      <c r="E11" s="35">
+        <v>3</v>
+      </c>
+      <c r="F11" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G11" s="35">
+        <v>1</v>
+      </c>
+      <c r="H11" s="35">
+        <v>0</v>
+      </c>
+      <c r="I11" s="35">
+        <v>498800000</v>
+      </c>
+      <c r="J11" s="39">
+        <v>3100000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="35">
+        <v>-19.565581999999999</v>
+      </c>
+      <c r="C12" s="35">
+        <v>-70.110219999999998</v>
+      </c>
+      <c r="D12" s="35">
+        <v>931</v>
+      </c>
+      <c r="E12" s="35">
+        <v>3</v>
+      </c>
+      <c r="F12" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G12" s="35">
+        <v>1</v>
+      </c>
+      <c r="H12" s="35">
+        <v>0</v>
+      </c>
+      <c r="I12" s="35">
+        <v>313400000</v>
+      </c>
+      <c r="J12" s="39">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="35">
+        <v>-19.565581999999999</v>
+      </c>
+      <c r="C13" s="35">
+        <v>-70.110219999999998</v>
+      </c>
+      <c r="D13" s="35">
+        <v>931</v>
+      </c>
+      <c r="E13" s="35">
+        <v>3</v>
+      </c>
+      <c r="F13" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G13" s="35">
+        <v>1</v>
+      </c>
+      <c r="H13" s="35">
+        <v>0</v>
+      </c>
+      <c r="I13" s="35">
+        <v>415200000.00000006</v>
+      </c>
+      <c r="J13" s="39">
+        <v>2800000.0000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="35">
+        <v>-19.565581999999999</v>
+      </c>
+      <c r="C14" s="35">
+        <v>-70.110219999999998</v>
+      </c>
+      <c r="D14" s="35">
+        <v>931</v>
+      </c>
+      <c r="E14" s="35">
+        <v>3</v>
+      </c>
+      <c r="F14" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G14" s="35">
+        <v>1</v>
+      </c>
+      <c r="H14" s="35">
+        <v>0</v>
+      </c>
+      <c r="I14" s="35">
+        <v>534600000</v>
+      </c>
+      <c r="J14" s="39">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="35">
+        <v>-19.565581999999999</v>
+      </c>
+      <c r="C15" s="35">
+        <v>-70.110219999999998</v>
+      </c>
+      <c r="D15" s="35">
+        <v>931</v>
+      </c>
+      <c r="E15" s="35">
+        <v>3</v>
+      </c>
+      <c r="F15" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G15" s="35">
+        <v>1</v>
+      </c>
+      <c r="H15" s="35">
+        <v>0</v>
+      </c>
+      <c r="I15" s="35">
+        <v>396300000</v>
+      </c>
+      <c r="J15" s="39">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="35">
+        <v>-19.551714</v>
+      </c>
+      <c r="C16" s="35">
+        <v>-70.076702999999995</v>
+      </c>
+      <c r="D16" s="35">
+        <v>1023</v>
+      </c>
+      <c r="E16" s="35">
+        <v>3</v>
+      </c>
+      <c r="F16" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G16" s="35">
+        <v>1</v>
+      </c>
+      <c r="H16" s="35">
+        <v>0</v>
+      </c>
+      <c r="I16" s="35">
+        <v>1799999.9999999998</v>
+      </c>
+      <c r="J16" s="39">
+        <v>700000.00000000012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="35">
+        <v>-19.551714</v>
+      </c>
+      <c r="C17" s="35">
+        <v>-70.076702999999995</v>
+      </c>
+      <c r="D17" s="35">
+        <v>1023</v>
+      </c>
+      <c r="E17" s="35">
+        <v>3</v>
+      </c>
+      <c r="F17" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G17" s="35">
+        <v>1</v>
+      </c>
+      <c r="H17" s="35">
+        <v>0</v>
+      </c>
+      <c r="I17" s="35">
+        <v>3400000.0000000005</v>
+      </c>
+      <c r="J17" s="39">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="36">
+        <v>-19.551714</v>
+      </c>
+      <c r="C18" s="36">
+        <v>-70.076702999999995</v>
+      </c>
+      <c r="D18" s="36">
+        <v>1023</v>
+      </c>
+      <c r="E18" s="35">
+        <v>3</v>
+      </c>
+      <c r="F18" s="36">
+        <v>2.65</v>
+      </c>
+      <c r="G18" s="35">
+        <v>1</v>
+      </c>
+      <c r="H18" s="35">
+        <v>0</v>
+      </c>
+      <c r="I18" s="36">
+        <v>2300000</v>
+      </c>
+      <c r="J18" s="40">
+        <v>400000</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -1954,56 +2294,56 @@
     <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:18" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="65" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3041,56 +3381,56 @@
     <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:72" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="65" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3816,56 +4156,56 @@
     <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:18" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="65" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4630,56 +4970,56 @@
     <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:18" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="65" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6078,7 +6418,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD18"/>
+      <selection activeCell="A2" sqref="A2:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6670,10 +7010,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A252A25-C5BD-9644-90A1-8F508F9F4733}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6699,56 +7039,56 @@
     <col min="19" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:18" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="65" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6830,7 +7170,7 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="H6" s="63"/>
+      <c r="H6" s="62"/>
       <c r="J6" s="59"/>
       <c r="K6" s="59"/>
     </row>
@@ -6838,7 +7178,7 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="H7" s="63"/>
+      <c r="H7" s="62"/>
       <c r="J7" s="59"/>
       <c r="K7" s="59"/>
     </row>
@@ -6846,7 +7186,7 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="H8" s="63"/>
+      <c r="H8" s="62"/>
       <c r="J8" s="59"/>
       <c r="K8" s="59"/>
     </row>
@@ -6854,7 +7194,7 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="H9" s="63"/>
+      <c r="H9" s="62"/>
       <c r="J9" s="59"/>
       <c r="K9" s="59"/>
     </row>
@@ -6862,7 +7202,7 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="H10" s="63"/>
+      <c r="H10" s="62"/>
       <c r="I10" s="59"/>
       <c r="J10" s="59"/>
     </row>
@@ -6870,212 +7210,220 @@
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="H11" s="63"/>
+      <c r="H11" s="62"/>
       <c r="I11" s="59"/>
       <c r="J11" s="59"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="H12" s="63"/>
+      <c r="H12" s="62"/>
       <c r="I12" s="59"/>
       <c r="J12" s="59"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="H13" s="63"/>
+      <c r="H13" s="62"/>
       <c r="I13" s="59"/>
       <c r="J13" s="59"/>
-      <c r="L13" s="64"/>
+      <c r="L13" s="63"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
-      <c r="H14" s="63"/>
+      <c r="H14" s="62"/>
       <c r="I14" s="59"/>
       <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="75" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="79" t="s">
+      <c r="E15" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="80" t="s">
+      <c r="F15" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="G15" s="67" t="s">
+      <c r="G15" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="83" t="s">
+      <c r="H15" s="85" t="s">
         <v>137</v>
       </c>
-      <c r="I15" s="84" t="s">
+      <c r="I15" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="J15" s="84" t="s">
+      <c r="J15" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="L15" s="67" t="s">
+      <c r="L15" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="70" t="s">
+      <c r="M15" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="N15" s="67" t="s">
+      <c r="N15" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="O15" s="70" t="s">
+      <c r="O15" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="67" t="s">
+      <c r="P15" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="Q15" s="73" t="s">
+      <c r="Q15" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="62" t="s">
+      <c r="R15" s="72" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="81" t="s">
+      <c r="A16" s="76"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="83" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="L16" s="68" t="s">
+      <c r="H16" s="85"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="L16" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="M16" s="71" t="s">
+      <c r="M16" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="N16" s="68"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="68" t="s">
+      <c r="N16" s="67"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="78" t="s">
+      <c r="R16" s="76" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="L17" s="68" t="s">
+      <c r="A17" s="76"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="L17" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="N17" s="74" t="s">
+      <c r="N17" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="O17" s="76" t="s">
+      <c r="O17" s="80" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="68" t="s">
+      <c r="P17" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="R17" s="78"/>
+      <c r="R17" s="76"/>
     </row>
     <row r="18" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="L18" s="69" t="s">
+      <c r="A18" s="76"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="L18" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="N18" s="74"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="68" t="s">
+      <c r="N18" s="78"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="R18" s="78"/>
+      <c r="R18" s="76"/>
     </row>
     <row r="19" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="G19" s="82"/>
+      <c r="G19" s="84"/>
       <c r="H19" s="86"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="68" t="s">
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="R19" s="78"/>
+      <c r="R19" s="76"/>
     </row>
     <row r="20" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="H20" s="88"/>
-      <c r="P20" s="68" t="s">
+      <c r="H20" s="74"/>
+      <c r="O20" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="87" t="s">
         <v>125</v>
       </c>
-      <c r="R20" s="78"/>
+      <c r="R20" s="76"/>
     </row>
     <row r="21" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="H21" s="87"/>
-      <c r="P21" s="68" t="s">
+      <c r="H21" s="73"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="87" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="H22" s="87"/>
-      <c r="P22" s="69" t="s">
+      <c r="H22" s="73"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="88" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H23" s="87"/>
+      <c r="H23" s="73"/>
+      <c r="O23" s="90"/>
     </row>
     <row r="24" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H24" s="87"/>
+      <c r="H24" s="73"/>
+      <c r="O24" s="90"/>
     </row>
     <row r="25" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="87"/>
+      <c r="H25" s="73"/>
+      <c r="O25" s="90"/>
     </row>
     <row r="26" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H26" s="87"/>
+      <c r="H26" s="73"/>
+      <c r="O26" s="90"/>
     </row>
     <row r="27" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="87"/>
+      <c r="H27" s="73"/>
+      <c r="O27" s="90"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O28" s="91"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="J15:J19"/>
+  <mergeCells count="14">
     <mergeCell ref="N17:N19"/>
     <mergeCell ref="O17:O19"/>
     <mergeCell ref="R16:R20"/>
@@ -7084,6 +7432,12 @@
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="H15:H19"/>
     <mergeCell ref="I15:I19"/>
+    <mergeCell ref="O20:O28"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="J15:J19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7106,59 +7460,59 @@
     <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:19" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="S1" s="65" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7775,59 +8129,59 @@
     <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:19" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="S1" s="65" t="s">
         <v>135</v>
       </c>
     </row>
@@ -8437,56 +8791,56 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:18" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="65" t="s">
         <v>97</v>
       </c>
     </row>
@@ -8806,56 +9160,56 @@
     <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:18" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="65" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9905,56 +10259,56 @@
     <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:18" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="65" t="s">
         <v>97</v>
       </c>
     </row>
@@ -10069,56 +10423,56 @@
     <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="66" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:18" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="65" t="s">
         <v>97</v>
       </c>
     </row>

--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC95080C-2114-C449-9E65-B7BB7209E71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7066CB-23D6-F442-8DCA-C1146B1CCAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" activeTab="1" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
+    <workbookView xWindow="10440" yWindow="460" windowWidth="18360" windowHeight="16520" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="139">
   <si>
     <t>Sample Name</t>
   </si>
@@ -1121,14 +1121,14 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1140,6 +1140,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1157,11 +1160,8 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1172,8 +1172,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1490,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39602BD4-AF2D-864A-8905-789D980EB8BD}">
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1559,52 +1559,52 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="34">
-        <v>-19.541574000000001</v>
-      </c>
-      <c r="C2" s="34">
-        <v>-70.116951999999998</v>
-      </c>
-      <c r="D2" s="34">
-        <v>957</v>
-      </c>
-      <c r="E2" s="35">
-        <v>3</v>
-      </c>
-      <c r="F2" s="34">
-        <v>2.65</v>
-      </c>
-      <c r="G2" s="35">
-        <v>1</v>
-      </c>
-      <c r="H2" s="35">
-        <v>0</v>
-      </c>
-      <c r="I2" s="34">
-        <v>458399999.99999994</v>
-      </c>
-      <c r="J2" s="38">
-        <v>2200000</v>
-      </c>
-      <c r="L2" s="37">
-        <v>4</v>
+      <c r="A2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="10">
+        <v>-25</v>
+      </c>
+      <c r="C2" s="10">
+        <v>133</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>65.2</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>66.5</v>
       </c>
       <c r="P2">
-        <v>2</v>
-      </c>
-      <c r="Q2">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1">
         <v>0</v>
       </c>
       <c r="R2">
@@ -1612,517 +1612,103 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="34">
-        <v>-19.541574000000001</v>
-      </c>
-      <c r="C3" s="34">
-        <v>-70.116951999999998</v>
-      </c>
-      <c r="D3" s="34">
-        <v>957</v>
-      </c>
-      <c r="E3" s="35">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34">
-        <v>2.65</v>
-      </c>
-      <c r="G3" s="35">
-        <v>1</v>
-      </c>
-      <c r="H3" s="35">
-        <v>0</v>
-      </c>
-      <c r="I3" s="34">
-        <v>458399999.99999994</v>
-      </c>
-      <c r="J3" s="38">
-        <v>2200000</v>
-      </c>
-      <c r="M3" s="37"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="35">
-        <v>-19.541574000000001</v>
-      </c>
-      <c r="C4" s="35">
-        <v>-70.116951999999998</v>
-      </c>
-      <c r="D4" s="35">
-        <v>957</v>
-      </c>
-      <c r="E4" s="35">
-        <v>3</v>
-      </c>
-      <c r="F4" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G4" s="35">
-        <v>1</v>
-      </c>
-      <c r="H4" s="35">
-        <v>0</v>
-      </c>
-      <c r="I4" s="35">
-        <v>495000000</v>
-      </c>
-      <c r="J4" s="39">
-        <v>3600000</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="35">
-        <v>-19.541574000000001</v>
-      </c>
-      <c r="C5" s="35">
-        <v>-70.116951999999998</v>
-      </c>
-      <c r="D5" s="35">
-        <v>957</v>
-      </c>
-      <c r="E5" s="35">
-        <v>3</v>
-      </c>
-      <c r="F5" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G5" s="35">
-        <v>1</v>
-      </c>
-      <c r="H5" s="35">
-        <v>0</v>
-      </c>
-      <c r="I5" s="35">
-        <v>381800000</v>
-      </c>
-      <c r="J5" s="39">
-        <v>3000000</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="35">
-        <v>-19.541574000000001</v>
-      </c>
-      <c r="C6" s="35">
-        <v>-70.116951999999998</v>
-      </c>
-      <c r="D6" s="35">
-        <v>957</v>
-      </c>
-      <c r="E6" s="35">
-        <v>3</v>
-      </c>
-      <c r="F6" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G6" s="35">
-        <v>1</v>
-      </c>
-      <c r="H6" s="35">
-        <v>0</v>
-      </c>
-      <c r="I6" s="35">
-        <v>725300000</v>
-      </c>
-      <c r="J6" s="39">
-        <v>4400000</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="35">
-        <v>-19.541574000000001</v>
-      </c>
-      <c r="C7" s="35">
-        <v>-70.116951999999998</v>
-      </c>
-      <c r="D7" s="35">
-        <v>957</v>
-      </c>
-      <c r="E7" s="35">
-        <v>3</v>
-      </c>
-      <c r="F7" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G7" s="35">
-        <v>1</v>
-      </c>
-      <c r="H7" s="35">
-        <v>0</v>
-      </c>
-      <c r="I7" s="35">
-        <v>463100000</v>
-      </c>
-      <c r="J7" s="39">
-        <v>3300000</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="35">
-        <v>-19.564599999999999</v>
-      </c>
-      <c r="C8" s="35">
-        <v>-70.117283</v>
-      </c>
-      <c r="D8" s="35">
-        <v>925</v>
-      </c>
-      <c r="E8" s="35">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G8" s="35">
-        <v>1</v>
-      </c>
-      <c r="H8" s="35">
-        <v>0</v>
-      </c>
-      <c r="I8" s="35">
-        <v>501800000</v>
-      </c>
-      <c r="J8" s="39">
-        <v>3400000.0000000005</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="35">
-        <v>-19.564599999999999</v>
-      </c>
-      <c r="C9" s="35">
-        <v>-70.117283</v>
-      </c>
-      <c r="D9" s="35">
-        <v>925</v>
-      </c>
-      <c r="E9" s="35">
-        <v>3</v>
-      </c>
-      <c r="F9" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G9" s="35">
-        <v>1</v>
-      </c>
-      <c r="H9" s="35">
-        <v>0</v>
-      </c>
-      <c r="I9" s="35">
-        <v>315000000</v>
-      </c>
-      <c r="J9" s="39">
-        <v>2400000</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="35">
-        <v>-19.564599999999999</v>
-      </c>
-      <c r="C10" s="35">
-        <v>-70.117283</v>
-      </c>
-      <c r="D10" s="35">
-        <v>925</v>
-      </c>
-      <c r="E10" s="35">
-        <v>3</v>
-      </c>
-      <c r="F10" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G10" s="35">
-        <v>1</v>
-      </c>
-      <c r="H10" s="35">
-        <v>0</v>
-      </c>
-      <c r="I10" s="35">
-        <v>209900000.00000003</v>
-      </c>
-      <c r="J10" s="39">
-        <v>1600000</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="35">
-        <v>-19.564599999999999</v>
-      </c>
-      <c r="C11" s="35">
-        <v>-70.117283</v>
-      </c>
-      <c r="D11" s="35">
-        <v>925</v>
-      </c>
-      <c r="E11" s="35">
-        <v>3</v>
-      </c>
-      <c r="F11" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G11" s="35">
-        <v>1</v>
-      </c>
-      <c r="H11" s="35">
-        <v>0</v>
-      </c>
-      <c r="I11" s="35">
-        <v>498800000</v>
-      </c>
-      <c r="J11" s="39">
-        <v>3100000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="35">
-        <v>-19.565581999999999</v>
-      </c>
-      <c r="C12" s="35">
-        <v>-70.110219999999998</v>
-      </c>
-      <c r="D12" s="35">
-        <v>931</v>
-      </c>
-      <c r="E12" s="35">
-        <v>3</v>
-      </c>
-      <c r="F12" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G12" s="35">
-        <v>1</v>
-      </c>
-      <c r="H12" s="35">
-        <v>0</v>
-      </c>
-      <c r="I12" s="35">
-        <v>313400000</v>
-      </c>
-      <c r="J12" s="39">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="35">
-        <v>-19.565581999999999</v>
-      </c>
-      <c r="C13" s="35">
-        <v>-70.110219999999998</v>
-      </c>
-      <c r="D13" s="35">
-        <v>931</v>
-      </c>
-      <c r="E13" s="35">
-        <v>3</v>
-      </c>
-      <c r="F13" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G13" s="35">
-        <v>1</v>
-      </c>
-      <c r="H13" s="35">
-        <v>0</v>
-      </c>
-      <c r="I13" s="35">
-        <v>415200000.00000006</v>
-      </c>
-      <c r="J13" s="39">
-        <v>2800000.0000000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="35">
-        <v>-19.565581999999999</v>
-      </c>
-      <c r="C14" s="35">
-        <v>-70.110219999999998</v>
-      </c>
-      <c r="D14" s="35">
-        <v>931</v>
-      </c>
-      <c r="E14" s="35">
-        <v>3</v>
-      </c>
-      <c r="F14" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G14" s="35">
-        <v>1</v>
-      </c>
-      <c r="H14" s="35">
-        <v>0</v>
-      </c>
-      <c r="I14" s="35">
-        <v>534600000</v>
-      </c>
-      <c r="J14" s="39">
-        <v>3600000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="35">
-        <v>-19.565581999999999</v>
-      </c>
-      <c r="C15" s="35">
-        <v>-70.110219999999998</v>
-      </c>
-      <c r="D15" s="35">
-        <v>931</v>
-      </c>
-      <c r="E15" s="35">
-        <v>3</v>
-      </c>
-      <c r="F15" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G15" s="35">
-        <v>1</v>
-      </c>
-      <c r="H15" s="35">
-        <v>0</v>
-      </c>
-      <c r="I15" s="35">
-        <v>396300000</v>
-      </c>
-      <c r="J15" s="39">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="35">
-        <v>-19.551714</v>
-      </c>
-      <c r="C16" s="35">
-        <v>-70.076702999999995</v>
-      </c>
-      <c r="D16" s="35">
-        <v>1023</v>
-      </c>
-      <c r="E16" s="35">
-        <v>3</v>
-      </c>
-      <c r="F16" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G16" s="35">
-        <v>1</v>
-      </c>
-      <c r="H16" s="35">
-        <v>0</v>
-      </c>
-      <c r="I16" s="35">
-        <v>1799999.9999999998</v>
-      </c>
-      <c r="J16" s="39">
-        <v>700000.00000000012</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="35">
-        <v>-19.551714</v>
-      </c>
-      <c r="C17" s="35">
-        <v>-70.076702999999995</v>
-      </c>
-      <c r="D17" s="35">
-        <v>1023</v>
-      </c>
-      <c r="E17" s="35">
-        <v>3</v>
-      </c>
-      <c r="F17" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G17" s="35">
-        <v>1</v>
-      </c>
-      <c r="H17" s="35">
-        <v>0</v>
-      </c>
-      <c r="I17" s="35">
-        <v>3400000.0000000005</v>
-      </c>
-      <c r="J17" s="39">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="36">
-        <v>-19.551714</v>
-      </c>
-      <c r="C18" s="36">
-        <v>-70.076702999999995</v>
-      </c>
-      <c r="D18" s="36">
-        <v>1023</v>
-      </c>
-      <c r="E18" s="35">
-        <v>3</v>
-      </c>
-      <c r="F18" s="36">
-        <v>2.65</v>
-      </c>
-      <c r="G18" s="35">
-        <v>1</v>
-      </c>
-      <c r="H18" s="35">
-        <v>0</v>
-      </c>
-      <c r="I18" s="36">
-        <v>2300000</v>
-      </c>
-      <c r="J18" s="40">
-        <v>400000</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
@@ -2191,9 +1777,6 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -2201,9 +1784,6 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -2211,9 +1791,6 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -2221,9 +1798,6 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2231,34 +1805,11 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7012,7 +6563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A252A25-C5BD-9644-90A1-8F508F9F4733}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -7237,34 +6788,34 @@
       <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+      <c r="A15" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="76" t="s">
+      <c r="E15" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="82" t="s">
+      <c r="F15" s="83" t="s">
         <v>106</v>
       </c>
       <c r="G15" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="85" t="s">
+      <c r="H15" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="I15" s="77" t="s">
+      <c r="I15" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="J15" s="77" t="s">
+      <c r="J15" s="88" t="s">
         <v>110</v>
       </c>
       <c r="L15" s="66" t="s">
@@ -7282,7 +6833,7 @@
       <c r="P15" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="Q15" s="92" t="s">
+      <c r="Q15" s="77" t="s">
         <v>38</v>
       </c>
       <c r="R15" s="72" t="s">
@@ -7290,18 +6841,18 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="83" t="s">
+      <c r="A16" s="82"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="85"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
       <c r="L16" s="67" t="s">
         <v>113</v>
       </c>
@@ -7313,21 +6864,21 @@
       <c r="P16" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="76" t="s">
+      <c r="R16" s="82" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
       <c r="L17" s="67" t="s">
         <v>114</v>
       </c>
@@ -7340,19 +6891,19 @@
       <c r="P17" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="R17" s="76"/>
+      <c r="R17" s="82"/>
     </row>
     <row r="18" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
       <c r="L18" s="68" t="s">
         <v>115</v>
       </c>
@@ -7361,41 +6912,41 @@
       <c r="P18" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="R18" s="76"/>
+      <c r="R18" s="82"/>
     </row>
     <row r="19" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="G19" s="84"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
       <c r="N19" s="79"/>
       <c r="O19" s="81"/>
       <c r="P19" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="R19" s="76"/>
+      <c r="R19" s="82"/>
     </row>
     <row r="20" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="H20" s="74"/>
       <c r="O20" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="87" t="s">
+      <c r="P20" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="R20" s="76"/>
+      <c r="R20" s="82"/>
     </row>
     <row r="21" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="H21" s="73"/>
       <c r="O21" s="90"/>
-      <c r="P21" s="87" t="s">
+      <c r="P21" s="75" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="H22" s="73"/>
       <c r="O22" s="90"/>
-      <c r="P22" s="88" t="s">
+      <c r="P22" s="76" t="s">
         <v>127</v>
       </c>
     </row>
@@ -7424,6 +6975,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="J15:J19"/>
     <mergeCell ref="N17:N19"/>
     <mergeCell ref="O17:O19"/>
     <mergeCell ref="R16:R20"/>
@@ -7433,11 +6989,6 @@
     <mergeCell ref="H15:H19"/>
     <mergeCell ref="I15:I19"/>
     <mergeCell ref="O20:O28"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="J15:J19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7066CB-23D6-F442-8DCA-C1146B1CCAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BC85D0-5D99-A245-B4D2-67A0F2245CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10440" yWindow="460" windowWidth="18360" windowHeight="16520" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="143">
   <si>
     <t>Sample Name</t>
   </si>
@@ -551,6 +551,18 @@
   </si>
   <si>
     <t>If you do not provide a long enough duration to produce the amount of nuclide specified, you will receive a python generated error in line 92 (for 3He) OR line 202 (for 21Ne)</t>
+  </si>
+  <si>
+    <t>Uplift/Subsidence</t>
+  </si>
+  <si>
+    <t>Positive for uplift</t>
+  </si>
+  <si>
+    <t>Negative for subsidence</t>
+  </si>
+  <si>
+    <t>in cm/yr</t>
   </si>
 </sst>
 </file>
@@ -913,7 +925,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1130,6 +1142,15 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1140,9 +1161,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1160,9 +1178,6 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1172,7 +1187,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1490,22 +1505,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39602BD4-AF2D-864A-8905-789D980EB8BD}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
@@ -1531,284 +1547,576 @@
         <v>13</v>
       </c>
       <c r="I1" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="K1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="M1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="N1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="O1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="P1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="65" t="s">
+      <c r="Q1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="R1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="S1" s="65" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" s="10">
-        <v>-25</v>
-      </c>
-      <c r="C2" s="10">
-        <v>133</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="15">
+        <v>-20.101167</v>
+      </c>
+      <c r="C2" s="15">
+        <v>-69.491221999999993</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>5</v>
+      </c>
+      <c r="F2" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="27">
+        <f>3.23*10^7</f>
+        <v>32300000</v>
+      </c>
+      <c r="K2" s="27">
+        <v>4900000</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
         <v>2</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>65.2</v>
-      </c>
-      <c r="O2">
-        <v>66.5</v>
-      </c>
-      <c r="P2">
-        <v>6</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>0</v>
-      </c>
       <c r="R2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="11"/>
+        <v>31.25</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="15">
+        <v>-20.101167</v>
+      </c>
+      <c r="C3" s="15">
+        <v>-69.491221999999993</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1000</v>
+      </c>
+      <c r="E3" s="15">
+        <v>5</v>
+      </c>
+      <c r="F3" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="27">
+        <f>3.23*10^7</f>
+        <v>32300000</v>
+      </c>
+      <c r="K3" s="27">
+        <v>4900000</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>100</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="7"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="J38" s="1"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="Q48" s="1"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="Q50" s="1"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="Q51" s="1"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1821,7 +2129,7 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD32"/>
+      <selection activeCell="A2" sqref="A2:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6561,10 +6869,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A252A25-C5BD-9644-90A1-8F508F9F4733}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6577,20 +6885,21 @@
     <col min="6" max="6" width="18.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="21.83203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="27.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="21.6640625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="18.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.5" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="5"/>
+    <col min="9" max="9" width="30.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.5" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
@@ -6616,34 +6925,37 @@
         <v>13</v>
       </c>
       <c r="I1" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="K1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="M1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="N1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="O1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="P1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="65" t="s">
+      <c r="Q1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="R1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="S1" s="65" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
         <v>98</v>
       </c>
@@ -6668,327 +6980,360 @@
       <c r="H2" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="56" t="s">
-        <v>105</v>
+      <c r="I2" s="60" t="s">
+        <v>140</v>
       </c>
       <c r="J2" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="K2" s="58"/>
-      <c r="L2" s="56" t="s">
+      <c r="K2" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="L2" s="58"/>
+      <c r="M2" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="N2" s="61" t="s">
         <v>116</v>
-      </c>
-      <c r="N2" s="56" t="s">
-        <v>104</v>
       </c>
       <c r="O2" s="56" t="s">
         <v>104</v>
       </c>
       <c r="P2" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q2" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="R2" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="R2" s="56" t="s">
+      <c r="S2" s="56" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
       <c r="H3" s="60"/>
-      <c r="J3" s="58"/>
+      <c r="I3" s="60" t="s">
+        <v>141</v>
+      </c>
       <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:18" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="L3" s="58"/>
+    </row>
+    <row r="4" spans="1:19" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
       <c r="H4" s="60"/>
-      <c r="J4" s="58"/>
+      <c r="I4" s="60"/>
       <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:18" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="L4" s="58"/>
+    </row>
+    <row r="5" spans="1:19" s="56" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
       <c r="H5" s="60"/>
-      <c r="J5" s="58"/>
+      <c r="I5" s="60"/>
       <c r="K5" s="58"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L5" s="58"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="H6" s="62"/>
-      <c r="J6" s="59"/>
+      <c r="I6" s="62"/>
       <c r="K6" s="59"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L6" s="59"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="H7" s="62"/>
-      <c r="J7" s="59"/>
+      <c r="I7" s="62"/>
       <c r="K7" s="59"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L7" s="59"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="H8" s="62"/>
-      <c r="J8" s="59"/>
+      <c r="I8" s="62"/>
       <c r="K8" s="59"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L8" s="59"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="H9" s="62"/>
-      <c r="J9" s="59"/>
+      <c r="I9" s="62"/>
       <c r="K9" s="59"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="L9" s="59"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="H10" s="62"/>
-      <c r="I10" s="59"/>
+      <c r="I10" s="62"/>
       <c r="J10" s="59"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K10" s="59"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="H11" s="62"/>
-      <c r="I11" s="59"/>
+      <c r="I11" s="62"/>
       <c r="J11" s="59"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K11" s="59"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="H12" s="62"/>
-      <c r="I12" s="59"/>
+      <c r="I12" s="62"/>
       <c r="J12" s="59"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K12" s="59"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="H13" s="62"/>
-      <c r="I13" s="59"/>
+      <c r="I13" s="62"/>
       <c r="J13" s="59"/>
-      <c r="L13" s="63"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="K13" s="59"/>
+      <c r="M13" s="63"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="H14" s="62"/>
-      <c r="I14" s="59"/>
+      <c r="I14" s="62"/>
       <c r="J14" s="59"/>
-    </row>
-    <row r="15" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="s">
+      <c r="K14" s="59"/>
+    </row>
+    <row r="15" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="82" t="s">
+      <c r="D15" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="82" t="s">
+      <c r="E15" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="83" t="s">
+      <c r="F15" s="85" t="s">
         <v>106</v>
       </c>
       <c r="G15" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="86" t="s">
+      <c r="H15" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="I15" s="88" t="s">
+      <c r="I15" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="J15" s="88" t="s">
+      <c r="K15" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="L15" s="66" t="s">
+      <c r="M15" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="M15" s="69" t="s">
+      <c r="N15" s="69" t="s">
         <v>117</v>
       </c>
-      <c r="N15" s="66" t="s">
+      <c r="O15" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="O15" s="69" t="s">
+      <c r="P15" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="P15" s="66" t="s">
+      <c r="Q15" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="Q15" s="77" t="s">
+      <c r="R15" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="72" t="s">
+      <c r="S15" s="72" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="84" t="s">
+    <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="79"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
-      <c r="L16" s="67" t="s">
+      <c r="H16" s="88"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+      <c r="M16" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="M16" s="70" t="s">
+      <c r="N16" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="N16" s="67"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="67" t="s">
+      <c r="O16" s="67"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="R16" s="82" t="s">
+      <c r="S16" s="79" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="L17" s="67" t="s">
+    <row r="17" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="79"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="M17" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="N17" s="78" t="s">
+      <c r="O17" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="O17" s="80" t="s">
+      <c r="P17" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="P17" s="67" t="s">
+      <c r="Q17" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="R17" s="82"/>
-    </row>
-    <row r="18" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="L18" s="68" t="s">
+      <c r="S17" s="79"/>
+    </row>
+    <row r="18" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="79"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="M18" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="N18" s="78"/>
-      <c r="O18" s="80"/>
-      <c r="P18" s="67" t="s">
+      <c r="O18" s="81"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="R18" s="82"/>
-    </row>
-    <row r="19" spans="1:18" ht="19" x14ac:dyDescent="0.25">
-      <c r="G19" s="85"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="67" t="s">
+      <c r="S18" s="79"/>
+    </row>
+    <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="G19" s="87"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="R19" s="82"/>
-    </row>
-    <row r="20" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="S19" s="79"/>
+    </row>
+    <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H20" s="74"/>
-      <c r="O20" s="89" t="s">
+      <c r="I20" s="73"/>
+      <c r="P20" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="75" t="s">
+      <c r="Q20" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="R20" s="82"/>
-    </row>
-    <row r="21" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+      <c r="S20" s="79"/>
+    </row>
+    <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H21" s="73"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="75" t="s">
+      <c r="I21" s="73"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="75" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H22" s="73"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="76" t="s">
+      <c r="I22" s="73"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="76" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H23" s="73"/>
-      <c r="O23" s="90"/>
-    </row>
-    <row r="24" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="73"/>
+      <c r="P23" s="91"/>
+    </row>
+    <row r="24" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H24" s="73"/>
-      <c r="O24" s="90"/>
-    </row>
-    <row r="25" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="73"/>
+      <c r="P24" s="91"/>
+    </row>
+    <row r="25" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H25" s="73"/>
-      <c r="O25" s="90"/>
-    </row>
-    <row r="26" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="73"/>
+      <c r="P25" s="91"/>
+    </row>
+    <row r="26" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H26" s="73"/>
-      <c r="O26" s="90"/>
-    </row>
-    <row r="27" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="73"/>
+      <c r="P26" s="91"/>
+    </row>
+    <row r="27" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H27" s="73"/>
-      <c r="O27" s="90"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="O28" s="91"/>
+      <c r="I27" s="73"/>
+      <c r="P27" s="91"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="P28" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="O17:O19"/>
+    <mergeCell ref="P17:P19"/>
+    <mergeCell ref="S16:S20"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="H15:H19"/>
+    <mergeCell ref="J15:J19"/>
+    <mergeCell ref="P20:P28"/>
+    <mergeCell ref="I15:I19"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="C15:C18"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="D15:D18"/>
-    <mergeCell ref="J15:J19"/>
-    <mergeCell ref="N17:N19"/>
-    <mergeCell ref="O17:O19"/>
-    <mergeCell ref="R16:R20"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="H15:H19"/>
-    <mergeCell ref="I15:I19"/>
-    <mergeCell ref="O20:O28"/>
+    <mergeCell ref="K15:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BC85D0-5D99-A245-B4D2-67A0F2245CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C430526C-83A1-1D49-A477-2708346B0A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
@@ -1507,8 +1507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39602BD4-AF2D-864A-8905-789D980EB8BD}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1616,13 +1616,13 @@
         <v>4</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1639,10 +1639,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="15">
-        <v>-20.101167</v>
+        <v>0</v>
       </c>
       <c r="C3" s="15">
-        <v>-69.491221999999993</v>
+        <v>0</v>
       </c>
       <c r="D3" s="15">
         <v>1000</v>
@@ -1673,13 +1673,13 @@
         <v>4</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="Q3">
         <v>2</v>

--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C430526C-83A1-1D49-A477-2708346B0A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230BA2C0-9C97-FB42-A7AF-A8E18ACA0D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
+    <workbookView xWindow="34840" yWindow="1920" windowWidth="28800" windowHeight="16480" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
@@ -1508,12 +1508,13 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27.6640625" bestFit="1" customWidth="1"/>
@@ -1603,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="27">
         <f>3.23*10^7</f>
@@ -1622,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>25</v>
+        <v>27.4</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2">
         <v>31.25</v>
@@ -1660,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="27">
         <f>3.23*10^7</f>
@@ -1679,10 +1680,10 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>25</v>
+        <v>27.4</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>100</v>

--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230BA2C0-9C97-FB42-A7AF-A8E18ACA0D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13291DF0-D5B2-6948-84C0-2902BD29313C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34840" yWindow="1920" windowWidth="28800" windowHeight="16480" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
@@ -1508,7 +1508,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="13">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="J2" s="27">
         <f>3.23*10^7</f>
@@ -1617,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1661,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="13">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="J3" s="27">
         <f>3.23*10^7</f>
@@ -1674,7 +1674,7 @@
         <v>4</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -6872,7 +6872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A252A25-C5BD-9644-90A1-8F508F9F4733}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>

--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,99 +8,119 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13291DF0-D5B2-6948-84C0-2902BD29313C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0ADFB7-E399-A747-836C-A61E56F58B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34840" yWindow="1920" windowWidth="28800" windowHeight="16480" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
-    <sheet name="README" sheetId="4" r:id="rId2"/>
-    <sheet name="CRFB texposure" sheetId="18" r:id="rId3"/>
-    <sheet name="Deccan Texposure" sheetId="17" r:id="rId4"/>
-    <sheet name="Figure 1" sheetId="8" r:id="rId5"/>
-    <sheet name="Figure 2" sheetId="10" r:id="rId6"/>
-    <sheet name="Figure 3" sheetId="7" r:id="rId7"/>
-    <sheet name="Figure 6,8" sheetId="5" r:id="rId8"/>
-    <sheet name="Figure 7" sheetId="12" r:id="rId9"/>
-    <sheet name="Figure 9_pyx" sheetId="14" r:id="rId10"/>
-    <sheet name="Figure 9_neon" sheetId="16" r:id="rId11"/>
-    <sheet name="Libarkin" sheetId="11" r:id="rId12"/>
-    <sheet name="Figure 10_modeled curves" sheetId="13" r:id="rId13"/>
-    <sheet name="Dunai" sheetId="15" r:id="rId14"/>
+    <sheet name="atm_depth_comparison" sheetId="19" r:id="rId2"/>
+    <sheet name="README" sheetId="4" r:id="rId3"/>
+    <sheet name="Figure 1B" sheetId="20" r:id="rId4"/>
+    <sheet name="CRFB texposure" sheetId="18" r:id="rId5"/>
+    <sheet name="Deccan Texposure" sheetId="17" r:id="rId6"/>
+    <sheet name="Figure 1" sheetId="8" r:id="rId7"/>
+    <sheet name="Figure 2" sheetId="10" r:id="rId8"/>
+    <sheet name="Figure 3" sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 6,8" sheetId="5" r:id="rId10"/>
+    <sheet name="Figure 7" sheetId="12" r:id="rId11"/>
+    <sheet name="Figure 9_pyx" sheetId="14" r:id="rId12"/>
+    <sheet name="Figure 9_neon" sheetId="16" r:id="rId13"/>
+    <sheet name="Libarkin" sheetId="11" r:id="rId14"/>
+    <sheet name="Figure 10_modeled curves" sheetId="13" r:id="rId15"/>
+    <sheet name="Dunai" sheetId="15" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Active!$B$79,Active!$B$84,Active!$B$86,Active!$B$87</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'CRFB texposure'!$B$79,'CRFB texposure'!$B$84,'CRFB texposure'!$B$86,'CRFB texposure'!$B$87</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">'Deccan Texposure'!$B$79,'Deccan Texposure'!$B$84,'Deccan Texposure'!$B$86,'Deccan Texposure'!$B$87</definedName>
-    <definedName name="solver_adj" localSheetId="6" hidden="1">'Figure 3'!$B$74,'Figure 3'!$B$79,'Figure 3'!$B$81,'Figure 3'!$B$82</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Active!$B$78,Active!$B$83,Active!$B$85,Active!$B$86</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">atm_depth_comparison!$B$79,atm_depth_comparison!$B$84,atm_depth_comparison!$B$86,atm_depth_comparison!$B$87</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'CRFB texposure'!$B$79,'CRFB texposure'!$B$84,'CRFB texposure'!$B$86,'CRFB texposure'!$B$87</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'Deccan Texposure'!$B$79,'Deccan Texposure'!$B$84,'Deccan Texposure'!$B$86,'Deccan Texposure'!$B$87</definedName>
+    <definedName name="solver_adj" localSheetId="8" hidden="1">'Figure 3'!$B$74,'Figure 3'!$B$79,'Figure 3'!$B$81,'Figure 3'!$B$82</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Active!$B$90</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'CRFB texposure'!$B$90</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Deccan Texposure'!$B$90</definedName>
-    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Figure 3'!$B$85</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Active!$F$57</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'CRFB texposure'!$F$57</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Deccan Texposure'!$F$57</definedName>
-    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Figure 3'!$F$52</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Active!$F$58</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'CRFB texposure'!$F$58</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'Deccan Texposure'!$F$58</definedName>
-    <definedName name="solver_lhs3" localSheetId="6" hidden="1">'Figure 3'!$F$53</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Active!$B$89</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">atm_depth_comparison!$B$90</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'CRFB texposure'!$B$90</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Deccan Texposure'!$B$90</definedName>
+    <definedName name="solver_lhs1" localSheetId="8" hidden="1">'Figure 3'!$B$85</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Active!$F$56</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">atm_depth_comparison!$F$57</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'CRFB texposure'!$F$57</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Deccan Texposure'!$F$57</definedName>
+    <definedName name="solver_lhs2" localSheetId="8" hidden="1">'Figure 3'!$F$52</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Active!$F$57</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">atm_depth_comparison!$F$58</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'CRFB texposure'!$F$58</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Deccan Texposure'!$F$58</definedName>
+    <definedName name="solver_lhs3" localSheetId="8" hidden="1">'Figure 3'!$F$53</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="6" hidden="1">3</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Active!$F$56</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'CRFB texposure'!$F$56</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'Deccan Texposure'!$F$56</definedName>
-    <definedName name="solver_opt" localSheetId="6" hidden="1">'Figure 3'!$F$51</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="8" hidden="1">3</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Active!$F$55</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">atm_depth_comparison!$F$56</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'CRFB texposure'!$F$56</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'Deccan Texposure'!$F$56</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">'Figure 3'!$F$51</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">100</definedName>
-    <definedName name="solver_rhs1" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_rhs1" localSheetId="8" hidden="1">100</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0.4</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0.4</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">0.4</definedName>
-    <definedName name="solver_rhs2" localSheetId="6" hidden="1">0.4</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">0.4</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">0.4</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">0.4</definedName>
+    <definedName name="solver_rhs2" localSheetId="8" hidden="1">0.4</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">1.4</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">1.4</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">1.4</definedName>
-    <definedName name="solver_rhs3" localSheetId="6" hidden="1">1.4</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">1.4</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">1.4</definedName>
+    <definedName name="solver_rhs3" localSheetId="5" hidden="1">1.4</definedName>
+    <definedName name="solver_rhs3" localSheetId="8" hidden="1">1.4</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_typ" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="8" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">98.2</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">98.2</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">98.2</definedName>
-    <definedName name="solver_val" localSheetId="6" hidden="1">98.2</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">98.2</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">98.2</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">98.2</definedName>
+    <definedName name="solver_val" localSheetId="8" hidden="1">98.2</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="8" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -123,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="143">
   <si>
     <t>Sample Name</t>
   </si>
@@ -1142,15 +1162,6 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1161,6 +1172,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1178,6 +1192,9 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1188,6 +1205,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1507,8 +1527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39602BD4-AF2D-864A-8905-789D980EB8BD}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1579,545 +1599,1818 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>27.5</v>
+      </c>
+      <c r="P2">
+        <v>28.201000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>38</v>
+      </c>
+      <c r="C3" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="7"/>
+      <c r="R3" s="1">
+        <v>2</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10">
+        <v>38</v>
+      </c>
+      <c r="C4" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="7"/>
+      <c r="R4" s="1">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10">
+        <v>38</v>
+      </c>
+      <c r="C5" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="7"/>
+      <c r="R5" s="1">
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10">
+        <v>38</v>
+      </c>
+      <c r="C6" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="7"/>
+      <c r="R6" s="1">
+        <v>8</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
+        <v>38</v>
+      </c>
+      <c r="C7" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+      <c r="R7" s="1">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="10">
+        <v>38</v>
+      </c>
+      <c r="C8" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7"/>
+      <c r="R8" s="1">
+        <v>12</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10">
+        <v>38</v>
+      </c>
+      <c r="C9" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>14</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10">
+        <v>38</v>
+      </c>
+      <c r="C10" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>16</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10">
+        <v>38</v>
+      </c>
+      <c r="C11" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>18</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10">
+        <v>38</v>
+      </c>
+      <c r="C12" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D12" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>20</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10">
+        <v>38</v>
+      </c>
+      <c r="C13" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>22</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10">
+        <v>38</v>
+      </c>
+      <c r="C14" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>24</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="10">
+        <v>38</v>
+      </c>
+      <c r="C15" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>26</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10">
+        <v>38</v>
+      </c>
+      <c r="C16" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>28</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="10">
+        <v>38</v>
+      </c>
+      <c r="C17" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>30</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="10">
+        <v>38</v>
+      </c>
+      <c r="C18" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>32</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>17</v>
+      </c>
+      <c r="B19" s="10">
+        <v>38</v>
+      </c>
+      <c r="C19" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>34</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="10">
+        <v>38</v>
+      </c>
+      <c r="C20" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D20" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>36</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10">
+        <v>38</v>
+      </c>
+      <c r="C21" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>38</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10">
+        <v>38</v>
+      </c>
+      <c r="C22" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D22" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>40</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10">
+        <v>38</v>
+      </c>
+      <c r="C23" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>42</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10">
+        <v>38</v>
+      </c>
+      <c r="C24" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D24" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>44</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10">
+        <v>38</v>
+      </c>
+      <c r="C25" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D25" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>46</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="10">
+        <v>38</v>
+      </c>
+      <c r="C26" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D26" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="R26" s="1">
+        <v>48</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="10">
+        <v>38</v>
+      </c>
+      <c r="C27" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="R27" s="1">
+        <v>50</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
+        <v>26</v>
+      </c>
+      <c r="B28" s="10">
+        <v>38</v>
+      </c>
+      <c r="C28" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D28" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="R28" s="1">
+        <v>52</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="10">
+        <v>38</v>
+      </c>
+      <c r="C29" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D29" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="R29" s="1">
+        <v>54</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="10">
+        <v>38</v>
+      </c>
+      <c r="C30" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D30" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E30" s="1">
+        <v>4</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
+        <v>56</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
+        <v>29</v>
+      </c>
+      <c r="B31" s="10">
+        <v>38</v>
+      </c>
+      <c r="C31" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D31" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11">
+        <v>0</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
+        <v>58</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="10">
+        <v>38</v>
+      </c>
+      <c r="C32" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D32" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E32" s="1">
+        <v>4</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="1">
+        <v>60</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="10">
+        <v>38</v>
+      </c>
+      <c r="C33" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D33" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
+        <v>62</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
+        <v>32</v>
+      </c>
+      <c r="B34" s="10">
+        <v>38</v>
+      </c>
+      <c r="C34" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D34" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>64</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="10">
+        <v>38</v>
+      </c>
+      <c r="C35" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D35" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <v>66</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="10">
+        <v>38</v>
+      </c>
+      <c r="C36" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D36" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E36" s="1">
+        <v>4</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>68</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
+        <v>35</v>
+      </c>
+      <c r="B37" s="10">
+        <v>38</v>
+      </c>
+      <c r="C37" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D37" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
+        <v>70</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="10">
+        <v>38</v>
+      </c>
+      <c r="C38" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D38" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E38" s="1">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="11">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <v>72</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="10">
+        <v>38</v>
+      </c>
+      <c r="C39" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D39" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="11">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
+        <v>74</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="12">
+        <v>38</v>
+      </c>
+      <c r="B40" s="10">
+        <v>38</v>
+      </c>
+      <c r="C40" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D40" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E40" s="1">
+        <v>4</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G40" s="1">
+        <v>1</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
+        <v>76</v>
+      </c>
+      <c r="S40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B2" s="15">
-        <v>-20.101167</v>
-      </c>
-      <c r="C2" s="15">
-        <v>-69.491221999999993</v>
-      </c>
-      <c r="D2" s="15">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15">
-        <v>5</v>
-      </c>
-      <c r="F2" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G2" s="13">
-        <v>1</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="J2" s="27">
-        <f>3.23*10^7</f>
-        <v>32300000</v>
-      </c>
-      <c r="K2" s="27">
-        <v>4900000</v>
-      </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>27.4</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>31.25</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="15">
-        <v>0</v>
-      </c>
-      <c r="C3" s="15">
-        <v>0</v>
-      </c>
-      <c r="D3" s="15">
-        <v>1000</v>
-      </c>
-      <c r="E3" s="15">
-        <v>5</v>
-      </c>
-      <c r="F3" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G3" s="13">
-        <v>1</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="J3" s="27">
-        <f>3.23*10^7</f>
-        <v>32300000</v>
-      </c>
-      <c r="K3" s="27">
-        <v>4900000</v>
-      </c>
-      <c r="M3">
-        <v>4</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>27.4</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
+      <c r="B41" s="10">
+        <v>38</v>
+      </c>
+      <c r="C41" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D41" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="11">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="R41" s="1">
+        <v>78</v>
+      </c>
+      <c r="S41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="10">
+        <v>38</v>
+      </c>
+      <c r="C42" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D42" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="11">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="R42" s="1">
+        <v>80</v>
+      </c>
+      <c r="S42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="12">
+        <v>41</v>
+      </c>
+      <c r="B43" s="10">
+        <v>38</v>
+      </c>
+      <c r="C43" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D43" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
+        <v>82</v>
+      </c>
+      <c r="S43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="10">
+        <v>38</v>
+      </c>
+      <c r="C44" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D44" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="R44" s="1">
+        <v>84</v>
+      </c>
+      <c r="S44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="10">
+        <v>38</v>
+      </c>
+      <c r="C45" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D45" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="11">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>86</v>
+      </c>
+      <c r="S45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46" s="12">
+        <v>44</v>
+      </c>
+      <c r="B46" s="10">
+        <v>38</v>
+      </c>
+      <c r="C46" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D46" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="11">
+        <v>0</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <v>88</v>
+      </c>
+      <c r="S46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="10">
+        <v>38</v>
+      </c>
+      <c r="C47" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D47" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E47" s="1">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="11">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="R47" s="1">
+        <v>90</v>
+      </c>
+      <c r="S47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="10">
+        <v>38</v>
+      </c>
+      <c r="C48" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D48" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="11">
+        <v>0</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="R48" s="1">
+        <v>92</v>
+      </c>
+      <c r="S48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49" s="12">
+        <v>47</v>
+      </c>
+      <c r="B49" s="10">
+        <v>38</v>
+      </c>
+      <c r="C49" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D49" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E49" s="1">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
+        <v>94</v>
+      </c>
+      <c r="S49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="10">
+        <v>38</v>
+      </c>
+      <c r="C50" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D50" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="R50" s="1">
+        <v>96</v>
+      </c>
+      <c r="S50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="10">
+        <v>38</v>
+      </c>
+      <c r="C51" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D51" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="11">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="R51" s="1">
+        <v>98</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52" s="12">
+        <v>50</v>
+      </c>
+      <c r="B52" s="10">
+        <v>38</v>
+      </c>
+      <c r="C52" s="10">
+        <v>-106</v>
+      </c>
+      <c r="D52" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E52" s="1">
+        <v>4</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="11">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="R52" s="1">
         <v>100</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="25"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="R48" s="1"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="R49" s="1"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="R50" s="1"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="R51" s="1"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="R52" s="1"/>
+      <c r="S52">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2126,6 +3419,811 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9FD288-F7FF-CC43-984C-6BC5F64D5A7D}">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="9">
+        <v>23</v>
+      </c>
+      <c r="C2" s="9">
+        <v>70</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="9">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>70</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923D42B9-7A86-1345-AADD-F9A6DEC8D2BA}">
+  <dimension ref="A1:R52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>75</v>
+      </c>
+      <c r="C6">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>75</v>
+      </c>
+      <c r="C7">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>75</v>
+      </c>
+      <c r="C8">
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>75</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>40</v>
+      </c>
+      <c r="D10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>75</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>75</v>
+      </c>
+      <c r="C12">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+      <c r="D13">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>75</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>75</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>75</v>
+      </c>
+      <c r="C17">
+        <v>40</v>
+      </c>
+      <c r="D17">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>75</v>
+      </c>
+      <c r="C18">
+        <v>40</v>
+      </c>
+      <c r="D18">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>78</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>78</v>
+      </c>
+      <c r="D20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>78</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>78</v>
+      </c>
+      <c r="D22">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>78</v>
+      </c>
+      <c r="D23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>78</v>
+      </c>
+      <c r="D24">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>78</v>
+      </c>
+      <c r="D25">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>78</v>
+      </c>
+      <c r="D26">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>78</v>
+      </c>
+      <c r="D27">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>78</v>
+      </c>
+      <c r="D28">
+        <v>4500</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>78</v>
+      </c>
+      <c r="D29">
+        <v>5000</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>78</v>
+      </c>
+      <c r="D30">
+        <v>5500</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>78</v>
+      </c>
+      <c r="D31">
+        <v>6000</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>78</v>
+      </c>
+      <c r="D32">
+        <v>6500</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>78</v>
+      </c>
+      <c r="D33">
+        <v>7000</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>78</v>
+      </c>
+      <c r="D34">
+        <v>7500</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>78</v>
+      </c>
+      <c r="D35">
+        <v>8000</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC98A15-AE39-4743-9E74-0C5D457F6E10}">
   <dimension ref="A1:R52"/>
   <sheetViews>
@@ -3228,12 +5326,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A016230-6B57-C74A-92E2-8B80546C58EB}">
   <dimension ref="A1:BT19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD19"/>
+      <selection activeCell="A2" sqref="A2:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3987,7 +6085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24694F2A-853A-E44C-A507-6368D3EEDD55}">
   <dimension ref="A1:R52"/>
   <sheetViews>
@@ -4814,7 +6912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC832A4-C899-574A-A718-CA2E3961F592}">
   <dimension ref="A1:R84"/>
   <sheetViews>
@@ -6273,7 +8371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865D9E7-27A7-A946-ABE2-D02CEEDD4D16}">
   <dimension ref="A1:R17"/>
   <sheetViews>
@@ -6869,10 +8967,955 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D41264A-E03E-5D48-9DEA-948271C7B252}">
+  <dimension ref="A1:S52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="15">
+        <v>40</v>
+      </c>
+      <c r="C2" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>5</v>
+      </c>
+      <c r="F2" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="27">
+        <f>3.23*10^7</f>
+        <v>32300000</v>
+      </c>
+      <c r="K2" s="27">
+        <v>4900000</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>25</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="15">
+        <v>40</v>
+      </c>
+      <c r="C3" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D3" s="15">
+        <v>500</v>
+      </c>
+      <c r="E3" s="15">
+        <v>5</v>
+      </c>
+      <c r="F3" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="27">
+        <f>3.23*10^7</f>
+        <v>32300000</v>
+      </c>
+      <c r="K3" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="15">
+        <v>40</v>
+      </c>
+      <c r="C4" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="15">
+        <v>5</v>
+      </c>
+      <c r="F4" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="27">
+        <f t="shared" ref="J4:J18" si="0">3.23*10^7</f>
+        <v>32300000</v>
+      </c>
+      <c r="K4" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="15">
+        <v>40</v>
+      </c>
+      <c r="C5" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1500</v>
+      </c>
+      <c r="E5" s="15">
+        <v>5</v>
+      </c>
+      <c r="F5" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K5" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="15">
+        <v>40</v>
+      </c>
+      <c r="C6" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="15">
+        <v>5</v>
+      </c>
+      <c r="F6" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K6" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="15">
+        <v>40</v>
+      </c>
+      <c r="C7" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2500</v>
+      </c>
+      <c r="E7" s="15">
+        <v>5</v>
+      </c>
+      <c r="F7" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K7" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="15">
+        <v>40</v>
+      </c>
+      <c r="C8" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D8" s="13">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="15">
+        <v>5</v>
+      </c>
+      <c r="F8" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K8" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="15">
+        <v>40</v>
+      </c>
+      <c r="C9" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D9" s="13">
+        <v>3500</v>
+      </c>
+      <c r="E9" s="15">
+        <v>5</v>
+      </c>
+      <c r="F9" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K9" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="15">
+        <v>40</v>
+      </c>
+      <c r="C10" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D10" s="15">
+        <v>4000</v>
+      </c>
+      <c r="E10" s="15">
+        <v>5</v>
+      </c>
+      <c r="F10" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K10" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="15">
+        <v>40</v>
+      </c>
+      <c r="C11" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D11" s="15">
+        <v>4500</v>
+      </c>
+      <c r="E11" s="15">
+        <v>5</v>
+      </c>
+      <c r="F11" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K11" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="15">
+        <v>40</v>
+      </c>
+      <c r="C12" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D12" s="13">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="15">
+        <v>5</v>
+      </c>
+      <c r="F12" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K12" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="15">
+        <v>40</v>
+      </c>
+      <c r="C13" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D13" s="13">
+        <v>5500</v>
+      </c>
+      <c r="E13" s="15">
+        <v>5</v>
+      </c>
+      <c r="F13" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K13" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="15">
+        <v>40</v>
+      </c>
+      <c r="C14" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D14" s="15">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="15">
+        <v>5</v>
+      </c>
+      <c r="F14" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K14" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="15">
+        <v>40</v>
+      </c>
+      <c r="C15" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D15" s="15">
+        <v>6500</v>
+      </c>
+      <c r="E15" s="15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K15" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="15">
+        <v>40</v>
+      </c>
+      <c r="C16" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D16" s="13">
+        <v>7000</v>
+      </c>
+      <c r="E16" s="15">
+        <v>5</v>
+      </c>
+      <c r="F16" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K16" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="15">
+        <v>40</v>
+      </c>
+      <c r="C17" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D17" s="13">
+        <v>7500</v>
+      </c>
+      <c r="E17" s="15">
+        <v>5</v>
+      </c>
+      <c r="F17" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K17" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="15">
+        <v>40</v>
+      </c>
+      <c r="C18" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D18" s="15">
+        <v>8000</v>
+      </c>
+      <c r="E18" s="15">
+        <v>5</v>
+      </c>
+      <c r="F18" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K18" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="R52" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A252A25-C5BD-9644-90A1-8F508F9F4733}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
@@ -7118,37 +10161,37 @@
       <c r="K14" s="59"/>
     </row>
     <row r="15" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="82" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="79" t="s">
+      <c r="E15" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="85" t="s">
+      <c r="F15" s="83" t="s">
         <v>106</v>
       </c>
       <c r="G15" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="88" t="s">
+      <c r="H15" s="86" t="s">
         <v>137</v>
       </c>
-      <c r="I15" s="89" t="s">
+      <c r="I15" s="87" t="s">
         <v>142</v>
       </c>
-      <c r="J15" s="80" t="s">
+      <c r="J15" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="K15" s="80" t="s">
+      <c r="K15" s="88" t="s">
         <v>110</v>
       </c>
       <c r="M15" s="66" t="s">
@@ -7174,19 +10217,19 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="86" t="s">
+      <c r="A16" s="82"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="88"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
       <c r="M16" s="67" t="s">
         <v>113</v>
       </c>
@@ -7198,86 +10241,86 @@
       <c r="Q16" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="S16" s="79" t="s">
+      <c r="S16" s="82" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
       <c r="M17" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="O17" s="81" t="s">
+      <c r="O17" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="83" t="s">
+      <c r="P17" s="80" t="s">
         <v>121</v>
       </c>
       <c r="Q17" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="S17" s="79"/>
+      <c r="S17" s="82"/>
     </row>
     <row r="18" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
       <c r="M18" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="O18" s="81"/>
-      <c r="P18" s="83"/>
+      <c r="O18" s="78"/>
+      <c r="P18" s="80"/>
       <c r="Q18" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="79"/>
+      <c r="S18" s="82"/>
     </row>
     <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="G19" s="87"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="84"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="81"/>
       <c r="Q19" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="79"/>
+      <c r="S19" s="82"/>
     </row>
     <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H20" s="74"/>
       <c r="I20" s="73"/>
-      <c r="P20" s="90" t="s">
+      <c r="P20" s="89" t="s">
         <v>138</v>
       </c>
       <c r="Q20" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="S20" s="79"/>
+      <c r="S20" s="82"/>
     </row>
     <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H21" s="73"/>
       <c r="I21" s="73"/>
-      <c r="P21" s="91"/>
+      <c r="P21" s="90"/>
       <c r="Q21" s="75" t="s">
         <v>126</v>
       </c>
@@ -7285,7 +10328,7 @@
     <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H22" s="73"/>
       <c r="I22" s="73"/>
-      <c r="P22" s="91"/>
+      <c r="P22" s="90"/>
       <c r="Q22" s="76" t="s">
         <v>127</v>
       </c>
@@ -7293,33 +10336,38 @@
     <row r="23" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H23" s="73"/>
       <c r="I23" s="73"/>
-      <c r="P23" s="91"/>
+      <c r="P23" s="90"/>
     </row>
     <row r="24" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H24" s="73"/>
       <c r="I24" s="73"/>
-      <c r="P24" s="91"/>
+      <c r="P24" s="90"/>
     </row>
     <row r="25" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H25" s="73"/>
       <c r="I25" s="73"/>
-      <c r="P25" s="91"/>
+      <c r="P25" s="90"/>
     </row>
     <row r="26" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H26" s="73"/>
       <c r="I26" s="73"/>
-      <c r="P26" s="91"/>
+      <c r="P26" s="90"/>
     </row>
     <row r="27" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H27" s="73"/>
       <c r="I27" s="73"/>
-      <c r="P27" s="91"/>
+      <c r="P27" s="90"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="P28" s="92"/>
+      <c r="P28" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="K15:K19"/>
     <mergeCell ref="O17:O19"/>
     <mergeCell ref="P17:P19"/>
     <mergeCell ref="S16:S20"/>
@@ -7330,17 +10378,124 @@
     <mergeCell ref="J15:J19"/>
     <mergeCell ref="P20:P28"/>
     <mergeCell ref="I15:I19"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="K15:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E4AF0F-1EA5-A040-8D3C-46EF46B46E2F}">
+  <dimension ref="A2:S4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="10">
+        <v>45</v>
+      </c>
+      <c r="C2" s="10">
+        <v>-120</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>90</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="H4" s="11">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2A5F1D-52AF-A54A-8771-20EFD7D80ADD}">
   <dimension ref="A1:S54"/>
   <sheetViews>
@@ -8009,7 +11164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC32D26-67B8-CB42-A367-4D6A94A6149D}">
   <dimension ref="A1:S54"/>
   <sheetViews>
@@ -8678,7 +11833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0692F123-E8ED-A84F-B1D6-10660BCC4234}">
   <dimension ref="A1:R13"/>
   <sheetViews>
@@ -9028,12 +12183,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345E843F-B5AF-7544-9892-CA1AD39C5E9D}">
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD47"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9717,7 +12872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2CA47B-538E-684E-879A-957351F4517A}">
   <dimension ref="A1:K32"/>
   <sheetViews>
@@ -10141,809 +13296,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9FD288-F7FF-CC43-984C-6BC5F64D5A7D}">
-  <dimension ref="A1:R11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="9">
-        <v>23</v>
-      </c>
-      <c r="C2" s="9">
-        <v>70</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>70</v>
-      </c>
-      <c r="P2">
-        <v>4</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923D42B9-7A86-1345-AADD-F9A6DEC8D2BA}">
-  <dimension ref="A1:R52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2">
-        <v>75</v>
-      </c>
-      <c r="C2">
-        <v>40</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3">
-        <v>75</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>75</v>
-      </c>
-      <c r="C5">
-        <v>40</v>
-      </c>
-      <c r="D5">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>75</v>
-      </c>
-      <c r="C6">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>75</v>
-      </c>
-      <c r="C7">
-        <v>40</v>
-      </c>
-      <c r="D7">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8">
-        <v>75</v>
-      </c>
-      <c r="C8">
-        <v>40</v>
-      </c>
-      <c r="D8">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>75</v>
-      </c>
-      <c r="C9">
-        <v>40</v>
-      </c>
-      <c r="D9">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10">
-        <v>75</v>
-      </c>
-      <c r="C10">
-        <v>40</v>
-      </c>
-      <c r="D10">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>75</v>
-      </c>
-      <c r="C11">
-        <v>40</v>
-      </c>
-      <c r="D11">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>75</v>
-      </c>
-      <c r="C12">
-        <v>40</v>
-      </c>
-      <c r="D12">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>75</v>
-      </c>
-      <c r="C13">
-        <v>40</v>
-      </c>
-      <c r="D13">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14">
-        <v>75</v>
-      </c>
-      <c r="C14">
-        <v>40</v>
-      </c>
-      <c r="D14">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>75</v>
-      </c>
-      <c r="C15">
-        <v>40</v>
-      </c>
-      <c r="D15">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16">
-        <v>75</v>
-      </c>
-      <c r="C16">
-        <v>40</v>
-      </c>
-      <c r="D16">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17">
-        <v>75</v>
-      </c>
-      <c r="C17">
-        <v>40</v>
-      </c>
-      <c r="D17">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>75</v>
-      </c>
-      <c r="C18">
-        <v>40</v>
-      </c>
-      <c r="D18">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>78</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>78</v>
-      </c>
-      <c r="D20">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>78</v>
-      </c>
-      <c r="D21">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>78</v>
-      </c>
-      <c r="D22">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>78</v>
-      </c>
-      <c r="D23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>78</v>
-      </c>
-      <c r="D24">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>78</v>
-      </c>
-      <c r="D25">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>78</v>
-      </c>
-      <c r="D26">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>78</v>
-      </c>
-      <c r="D27">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>78</v>
-      </c>
-      <c r="D28">
-        <v>4500</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>78</v>
-      </c>
-      <c r="D29">
-        <v>5000</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>78</v>
-      </c>
-      <c r="D30">
-        <v>5500</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>78</v>
-      </c>
-      <c r="D31">
-        <v>6000</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>78</v>
-      </c>
-      <c r="D32">
-        <v>6500</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>78</v>
-      </c>
-      <c r="D33">
-        <v>7000</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>78</v>
-      </c>
-      <c r="D34">
-        <v>7500</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>78</v>
-      </c>
-      <c r="D35">
-        <v>8000</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="Q50" s="1"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="Q51" s="1"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="Q52" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0ADFB7-E399-A747-836C-A61E56F58B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F02161E-FE70-784C-A0F1-134848B9EEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="Dunai" sheetId="15" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Active!$B$78,Active!$B$83,Active!$B$85,Active!$B$86</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Active!$B$77,Active!$B$82,Active!$B$84,Active!$B$85</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">atm_depth_comparison!$B$79,atm_depth_comparison!$B$84,atm_depth_comparison!$B$86,atm_depth_comparison!$B$87</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">'CRFB texposure'!$B$79,'CRFB texposure'!$B$84,'CRFB texposure'!$B$86,'CRFB texposure'!$B$87</definedName>
     <definedName name="solver_adj" localSheetId="5" hidden="1">'Deccan Texposure'!$B$79,'Deccan Texposure'!$B$84,'Deccan Texposure'!$B$86,'Deccan Texposure'!$B$87</definedName>
@@ -41,17 +41,17 @@
     <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="8" hidden="1">1</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Active!$B$89</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Active!$B$88</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">atm_depth_comparison!$B$90</definedName>
     <definedName name="solver_lhs1" localSheetId="4" hidden="1">'CRFB texposure'!$B$90</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Deccan Texposure'!$B$90</definedName>
     <definedName name="solver_lhs1" localSheetId="8" hidden="1">'Figure 3'!$B$85</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Active!$F$56</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Active!$F$55</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">atm_depth_comparison!$F$57</definedName>
     <definedName name="solver_lhs2" localSheetId="4" hidden="1">'CRFB texposure'!$F$57</definedName>
     <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Deccan Texposure'!$F$57</definedName>
     <definedName name="solver_lhs2" localSheetId="8" hidden="1">'Figure 3'!$F$52</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Active!$F$57</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Active!$F$56</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">atm_depth_comparison!$F$58</definedName>
     <definedName name="solver_lhs3" localSheetId="4" hidden="1">'CRFB texposure'!$F$58</definedName>
     <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Deccan Texposure'!$F$58</definedName>
@@ -71,7 +71,7 @@
     <definedName name="solver_num" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="8" hidden="1">3</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Active!$F$55</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Active!$F$54</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">atm_depth_comparison!$F$56</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">'CRFB texposure'!$F$56</definedName>
     <definedName name="solver_opt" localSheetId="5" hidden="1">'Deccan Texposure'!$F$56</definedName>
@@ -945,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1162,6 +1162,19 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1172,9 +1185,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1192,9 +1202,6 @@
     <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1205,9 +1212,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1525,10 +1529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39602BD4-AF2D-864A-8905-789D980EB8BD}">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1599,1818 +1603,664 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10">
-        <v>38</v>
-      </c>
-      <c r="C2" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D2" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34">
+        <v>0</v>
+      </c>
+      <c r="C2" s="34">
+        <v>0</v>
+      </c>
+      <c r="D2" s="34">
+        <v>0</v>
+      </c>
+      <c r="E2" s="35">
+        <v>1</v>
+      </c>
+      <c r="F2" s="34">
+        <v>3</v>
+      </c>
+      <c r="G2" s="35">
+        <v>1</v>
+      </c>
+      <c r="H2" s="35">
+        <v>0</v>
+      </c>
+      <c r="I2" s="35">
+        <v>0</v>
+      </c>
+      <c r="J2" s="34">
+        <v>0</v>
+      </c>
+      <c r="K2" s="38">
+        <v>0</v>
+      </c>
+      <c r="M2" s="37">
         <v>4</v>
       </c>
-      <c r="F2" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="M2">
-        <v>4</v>
-      </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>28.201000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>10</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10">
-        <v>38</v>
-      </c>
-      <c r="C3" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D3" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="11">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="7"/>
-      <c r="R3" s="1">
-        <v>2</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10">
-        <v>38</v>
-      </c>
-      <c r="C4" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D4" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E4" s="1">
-        <v>4</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="11">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="7"/>
-      <c r="R4" s="1">
-        <v>4</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="10">
-        <v>38</v>
-      </c>
-      <c r="C5" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D5" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="11">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="7"/>
-      <c r="R5" s="1">
-        <v>6</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="10">
-        <v>38</v>
-      </c>
-      <c r="C6" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D6" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="7"/>
-      <c r="R6" s="1">
-        <v>8</v>
-      </c>
-      <c r="S6">
-        <v>1</v>
-      </c>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="B7" s="10">
-        <v>38</v>
-      </c>
-      <c r="C7" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D7" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="7"/>
-      <c r="R7" s="1">
-        <v>10</v>
-      </c>
-      <c r="S7">
-        <v>1</v>
-      </c>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10">
-        <v>38</v>
-      </c>
-      <c r="C8" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D8" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="7"/>
-      <c r="R8" s="1">
-        <v>12</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10">
-        <v>38</v>
-      </c>
-      <c r="C9" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D9" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1</v>
-      </c>
-      <c r="H9" s="11">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="R9" s="1">
-        <v>14</v>
-      </c>
-      <c r="S9">
-        <v>1</v>
-      </c>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10">
-        <v>38</v>
-      </c>
-      <c r="C10" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D10" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E10" s="1">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="11">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="R10" s="1">
-        <v>16</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="39"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="10">
-        <v>38</v>
-      </c>
-      <c r="C11" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D11" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="R11" s="1">
-        <v>18</v>
-      </c>
-      <c r="S11">
-        <v>1</v>
-      </c>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="39"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="10">
-        <v>38</v>
-      </c>
-      <c r="C12" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D12" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E12" s="1">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <v>20</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
-        <v>11</v>
-      </c>
-      <c r="B13" s="10">
-        <v>38</v>
-      </c>
-      <c r="C13" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D13" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="R13" s="1">
-        <v>22</v>
-      </c>
-      <c r="S13">
-        <v>1</v>
-      </c>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="39"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10">
-        <v>38</v>
-      </c>
-      <c r="C14" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D14" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="11">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="R14" s="1">
-        <v>24</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="39"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10">
-        <v>38</v>
-      </c>
-      <c r="C15" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D15" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E15" s="1">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G15" s="1">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="R15" s="1">
-        <v>26</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="39"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
-        <v>14</v>
-      </c>
-      <c r="B16" s="10">
-        <v>38</v>
-      </c>
-      <c r="C16" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D16" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="11">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="R16" s="1">
-        <v>28</v>
-      </c>
-      <c r="S16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="10">
-        <v>38</v>
-      </c>
-      <c r="C17" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D17" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E17" s="1">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="R17" s="1">
-        <v>30</v>
-      </c>
-      <c r="S17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="10">
-        <v>38</v>
-      </c>
-      <c r="C18" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D18" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E18" s="1">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18" s="1">
-        <v>32</v>
-      </c>
-      <c r="S18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
-        <v>17</v>
-      </c>
-      <c r="B19" s="10">
-        <v>38</v>
-      </c>
-      <c r="C19" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D19" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E19" s="1">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="1">
-        <v>34</v>
-      </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="10">
-        <v>38</v>
-      </c>
-      <c r="C20" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D20" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E20" s="1">
-        <v>4</v>
-      </c>
-      <c r="F20" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="11">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="R20" s="1">
-        <v>36</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="10">
-        <v>38</v>
-      </c>
-      <c r="C21" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D21" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E21" s="1">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0</v>
-      </c>
-      <c r="R21" s="1">
-        <v>38</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
-        <v>20</v>
-      </c>
-      <c r="B22" s="10">
-        <v>38</v>
-      </c>
-      <c r="C22" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D22" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E22" s="1">
-        <v>4</v>
-      </c>
-      <c r="F22" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="11">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1">
-        <v>40</v>
-      </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="10">
-        <v>38</v>
-      </c>
-      <c r="C23" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D23" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E23" s="1">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0</v>
-      </c>
-      <c r="R23" s="1">
-        <v>42</v>
-      </c>
-      <c r="S23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="10">
-        <v>38</v>
-      </c>
-      <c r="C24" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D24" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E24" s="1">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="11">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0</v>
-      </c>
-      <c r="R24" s="1">
-        <v>44</v>
-      </c>
-      <c r="S24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
-        <v>23</v>
-      </c>
-      <c r="B25" s="10">
-        <v>38</v>
-      </c>
-      <c r="C25" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D25" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E25" s="1">
-        <v>4</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-      <c r="H25" s="11">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0</v>
-      </c>
-      <c r="R25" s="1">
-        <v>46</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="10">
-        <v>38</v>
-      </c>
-      <c r="C26" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D26" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E26" s="1">
-        <v>4</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="11">
-        <v>0</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0</v>
-      </c>
-      <c r="R26" s="1">
-        <v>48</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="10">
-        <v>38</v>
-      </c>
-      <c r="C27" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D27" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E27" s="1">
-        <v>4</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0</v>
-      </c>
-      <c r="R27" s="1">
-        <v>50</v>
-      </c>
-      <c r="S27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
-        <v>26</v>
-      </c>
-      <c r="B28" s="10">
-        <v>38</v>
-      </c>
-      <c r="C28" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D28" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E28" s="1">
-        <v>4</v>
-      </c>
-      <c r="F28" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="11">
-        <v>0</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0</v>
-      </c>
-      <c r="R28" s="1">
-        <v>52</v>
-      </c>
-      <c r="S28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="10">
-        <v>38</v>
-      </c>
-      <c r="C29" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D29" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E29" s="1">
-        <v>4</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="11">
-        <v>0</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0</v>
-      </c>
-      <c r="R29" s="1">
-        <v>54</v>
-      </c>
-      <c r="S29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="10">
-        <v>38</v>
-      </c>
-      <c r="C30" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D30" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E30" s="1">
-        <v>4</v>
-      </c>
-      <c r="F30" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="H30" s="11">
-        <v>0</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0</v>
-      </c>
-      <c r="R30" s="1">
-        <v>56</v>
-      </c>
-      <c r="S30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
-        <v>29</v>
-      </c>
-      <c r="B31" s="10">
-        <v>38</v>
-      </c>
-      <c r="C31" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D31" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E31" s="1">
-        <v>4</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0</v>
-      </c>
-      <c r="R31" s="1">
-        <v>58</v>
-      </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="10">
-        <v>38</v>
-      </c>
-      <c r="C32" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D32" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E32" s="1">
-        <v>4</v>
-      </c>
-      <c r="F32" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="H32" s="11">
-        <v>0</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0</v>
-      </c>
-      <c r="R32" s="1">
-        <v>60</v>
-      </c>
-      <c r="S32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="10">
-        <v>38</v>
-      </c>
-      <c r="C33" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D33" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E33" s="1">
-        <v>4</v>
-      </c>
-      <c r="F33" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" s="11">
-        <v>0</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0</v>
-      </c>
-      <c r="R33" s="1">
-        <v>62</v>
-      </c>
-      <c r="S33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
-        <v>32</v>
-      </c>
-      <c r="B34" s="10">
-        <v>38</v>
-      </c>
-      <c r="C34" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D34" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E34" s="1">
-        <v>4</v>
-      </c>
-      <c r="F34" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0</v>
-      </c>
-      <c r="R34" s="1">
-        <v>64</v>
-      </c>
-      <c r="S34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="10">
-        <v>38</v>
-      </c>
-      <c r="C35" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D35" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E35" s="1">
-        <v>4</v>
-      </c>
-      <c r="F35" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-      <c r="H35" s="11">
-        <v>0</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0</v>
-      </c>
-      <c r="R35" s="1">
-        <v>66</v>
-      </c>
-      <c r="S35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="10">
-        <v>38</v>
-      </c>
-      <c r="C36" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D36" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E36" s="1">
-        <v>4</v>
-      </c>
-      <c r="F36" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
-      <c r="H36" s="11">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="R36" s="1">
-        <v>68</v>
-      </c>
-      <c r="S36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
-        <v>35</v>
-      </c>
-      <c r="B37" s="10">
-        <v>38</v>
-      </c>
-      <c r="C37" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D37" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E37" s="1">
-        <v>4</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-      <c r="H37" s="11">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="R37" s="1">
-        <v>70</v>
-      </c>
-      <c r="S37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="10">
-        <v>38</v>
-      </c>
-      <c r="C38" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D38" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E38" s="1">
-        <v>4</v>
-      </c>
-      <c r="F38" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1</v>
-      </c>
-      <c r="H38" s="11">
-        <v>0</v>
-      </c>
-      <c r="I38" s="1">
-        <v>0</v>
-      </c>
-      <c r="R38" s="1">
-        <v>72</v>
-      </c>
-      <c r="S38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="10">
-        <v>38</v>
-      </c>
-      <c r="C39" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D39" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E39" s="1">
-        <v>4</v>
-      </c>
-      <c r="F39" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1</v>
-      </c>
-      <c r="H39" s="11">
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0</v>
-      </c>
-      <c r="R39" s="1">
-        <v>74</v>
-      </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
-        <v>38</v>
-      </c>
-      <c r="B40" s="10">
-        <v>38</v>
-      </c>
-      <c r="C40" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D40" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E40" s="1">
-        <v>4</v>
-      </c>
-      <c r="F40" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0</v>
-      </c>
-      <c r="R40" s="1">
-        <v>76</v>
-      </c>
-      <c r="S40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="10">
-        <v>38</v>
-      </c>
-      <c r="C41" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D41" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E41" s="1">
-        <v>4</v>
-      </c>
-      <c r="F41" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1</v>
-      </c>
-      <c r="H41" s="11">
-        <v>0</v>
-      </c>
-      <c r="I41" s="1">
-        <v>0</v>
-      </c>
-      <c r="R41" s="1">
-        <v>78</v>
-      </c>
-      <c r="S41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="10">
-        <v>38</v>
-      </c>
-      <c r="C42" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D42" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E42" s="1">
-        <v>4</v>
-      </c>
-      <c r="F42" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-      <c r="H42" s="11">
-        <v>0</v>
-      </c>
-      <c r="I42" s="1">
-        <v>0</v>
-      </c>
-      <c r="R42" s="1">
-        <v>80</v>
-      </c>
-      <c r="S42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
-        <v>41</v>
-      </c>
-      <c r="B43" s="10">
-        <v>38</v>
-      </c>
-      <c r="C43" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D43" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E43" s="1">
-        <v>4</v>
-      </c>
-      <c r="F43" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-      <c r="H43" s="11">
-        <v>0</v>
-      </c>
-      <c r="I43" s="1">
-        <v>0</v>
-      </c>
-      <c r="R43" s="1">
-        <v>82</v>
-      </c>
-      <c r="S43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="10">
-        <v>38</v>
-      </c>
-      <c r="C44" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D44" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E44" s="1">
-        <v>4</v>
-      </c>
-      <c r="F44" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G44" s="1">
-        <v>1</v>
-      </c>
-      <c r="H44" s="11">
-        <v>0</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0</v>
-      </c>
-      <c r="R44" s="1">
-        <v>84</v>
-      </c>
-      <c r="S44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="10">
-        <v>38</v>
-      </c>
-      <c r="C45" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D45" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E45" s="1">
-        <v>4</v>
-      </c>
-      <c r="F45" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1</v>
-      </c>
-      <c r="H45" s="11">
-        <v>0</v>
-      </c>
-      <c r="I45" s="1">
-        <v>0</v>
-      </c>
-      <c r="R45" s="1">
-        <v>86</v>
-      </c>
-      <c r="S45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="12">
-        <v>44</v>
-      </c>
-      <c r="B46" s="10">
-        <v>38</v>
-      </c>
-      <c r="C46" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D46" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E46" s="1">
-        <v>4</v>
-      </c>
-      <c r="F46" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-      <c r="H46" s="11">
-        <v>0</v>
-      </c>
-      <c r="I46" s="1">
-        <v>0</v>
-      </c>
-      <c r="R46" s="1">
-        <v>88</v>
-      </c>
-      <c r="S46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" s="10">
-        <v>38</v>
-      </c>
-      <c r="C47" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D47" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E47" s="1">
-        <v>4</v>
-      </c>
-      <c r="F47" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G47" s="1">
-        <v>1</v>
-      </c>
-      <c r="H47" s="11">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
-      </c>
-      <c r="R47" s="1">
-        <v>90</v>
-      </c>
-      <c r="S47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" s="10">
-        <v>38</v>
-      </c>
-      <c r="C48" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D48" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E48" s="1">
-        <v>4</v>
-      </c>
-      <c r="F48" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1</v>
-      </c>
-      <c r="H48" s="11">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
-      </c>
-      <c r="R48" s="1">
-        <v>92</v>
-      </c>
-      <c r="S48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A49" s="12">
-        <v>47</v>
-      </c>
-      <c r="B49" s="10">
-        <v>38</v>
-      </c>
-      <c r="C49" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D49" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E49" s="1">
-        <v>4</v>
-      </c>
-      <c r="F49" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1</v>
-      </c>
-      <c r="H49" s="11">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0</v>
-      </c>
-      <c r="R49" s="1">
-        <v>94</v>
-      </c>
-      <c r="S49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" s="10">
-        <v>38</v>
-      </c>
-      <c r="C50" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D50" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E50" s="1">
-        <v>4</v>
-      </c>
-      <c r="F50" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-      <c r="H50" s="11">
-        <v>0</v>
-      </c>
-      <c r="I50" s="1">
-        <v>0</v>
-      </c>
-      <c r="R50" s="1">
-        <v>96</v>
-      </c>
-      <c r="S50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" s="10">
-        <v>38</v>
-      </c>
-      <c r="C51" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D51" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E51" s="1">
-        <v>4</v>
-      </c>
-      <c r="F51" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1</v>
-      </c>
-      <c r="H51" s="11">
-        <v>0</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0</v>
-      </c>
-      <c r="R51" s="1">
-        <v>98</v>
-      </c>
-      <c r="S51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A52" s="12">
-        <v>50</v>
-      </c>
-      <c r="B52" s="10">
-        <v>38</v>
-      </c>
-      <c r="C52" s="10">
-        <v>-106</v>
-      </c>
-      <c r="D52" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E52" s="1">
-        <v>4</v>
-      </c>
-      <c r="F52" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1</v>
-      </c>
-      <c r="H52" s="11">
-        <v>0</v>
-      </c>
-      <c r="I52" s="1">
-        <v>0</v>
-      </c>
-      <c r="R52" s="1">
-        <v>100</v>
-      </c>
-      <c r="S52">
-        <v>1</v>
-      </c>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="39"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="40"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="1"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="1"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="1"/>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="1"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="1"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="1"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="1"/>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="1"/>
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="1"/>
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="1"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="1"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="1"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="1"/>
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="12"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="1"/>
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="1"/>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="1"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="1"/>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="1"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="1"/>
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="12"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="1"/>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="1"/>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="1"/>
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="12"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="1"/>
+      <c r="R51" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -5331,7 +4181,7 @@
   <dimension ref="A1:BT19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD15"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8376,7 +7226,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD17"/>
+      <selection sqref="A1:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8472,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -8970,7 +7820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D41264A-E03E-5D48-9DEA-948271C7B252}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -9915,7 +8765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A252A25-C5BD-9644-90A1-8F508F9F4733}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
@@ -10161,37 +9011,37 @@
       <c r="K14" s="59"/>
     </row>
     <row r="15" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="82" t="s">
+      <c r="D15" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="82" t="s">
+      <c r="E15" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="83" t="s">
+      <c r="F15" s="87" t="s">
         <v>106</v>
       </c>
       <c r="G15" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="86" t="s">
+      <c r="H15" s="90" t="s">
         <v>137</v>
       </c>
-      <c r="I15" s="87" t="s">
+      <c r="I15" s="91" t="s">
         <v>142</v>
       </c>
-      <c r="J15" s="88" t="s">
+      <c r="J15" s="82" t="s">
         <v>110</v>
       </c>
-      <c r="K15" s="88" t="s">
+      <c r="K15" s="82" t="s">
         <v>110</v>
       </c>
       <c r="M15" s="66" t="s">
@@ -10217,19 +9067,19 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="84" t="s">
+      <c r="A16" s="81"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="86"/>
-      <c r="I16" s="92"/>
-      <c r="J16" s="88"/>
-      <c r="K16" s="88"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
       <c r="M16" s="67" t="s">
         <v>113</v>
       </c>
@@ -10241,86 +9091,86 @@
       <c r="Q16" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="S16" s="82" t="s">
+      <c r="S16" s="81" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="92"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
       <c r="M17" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="O17" s="78" t="s">
+      <c r="O17" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="80" t="s">
+      <c r="P17" s="85" t="s">
         <v>121</v>
       </c>
       <c r="Q17" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="S17" s="82"/>
+      <c r="S17" s="81"/>
     </row>
     <row r="18" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
       <c r="M18" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="O18" s="78"/>
-      <c r="P18" s="80"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="85"/>
       <c r="Q18" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="82"/>
+      <c r="S18" s="81"/>
     </row>
     <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="G19" s="85"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="88"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="81"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="86"/>
       <c r="Q19" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="82"/>
+      <c r="S19" s="81"/>
     </row>
     <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H20" s="74"/>
       <c r="I20" s="73"/>
-      <c r="P20" s="89" t="s">
+      <c r="P20" s="92" t="s">
         <v>138</v>
       </c>
       <c r="Q20" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="S20" s="82"/>
+      <c r="S20" s="81"/>
     </row>
     <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H21" s="73"/>
       <c r="I21" s="73"/>
-      <c r="P21" s="90"/>
+      <c r="P21" s="93"/>
       <c r="Q21" s="75" t="s">
         <v>126</v>
       </c>
@@ -10328,7 +9178,7 @@
     <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H22" s="73"/>
       <c r="I22" s="73"/>
-      <c r="P22" s="90"/>
+      <c r="P22" s="93"/>
       <c r="Q22" s="76" t="s">
         <v>127</v>
       </c>
@@ -10336,38 +9186,33 @@
     <row r="23" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H23" s="73"/>
       <c r="I23" s="73"/>
-      <c r="P23" s="90"/>
+      <c r="P23" s="93"/>
     </row>
     <row r="24" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H24" s="73"/>
       <c r="I24" s="73"/>
-      <c r="P24" s="90"/>
+      <c r="P24" s="93"/>
     </row>
     <row r="25" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H25" s="73"/>
       <c r="I25" s="73"/>
-      <c r="P25" s="90"/>
+      <c r="P25" s="93"/>
     </row>
     <row r="26" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H26" s="73"/>
       <c r="I26" s="73"/>
-      <c r="P26" s="90"/>
+      <c r="P26" s="93"/>
     </row>
     <row r="27" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H27" s="73"/>
       <c r="I27" s="73"/>
-      <c r="P27" s="90"/>
+      <c r="P27" s="93"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="P28" s="91"/>
+      <c r="P28" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="K15:K19"/>
     <mergeCell ref="O17:O19"/>
     <mergeCell ref="P17:P19"/>
     <mergeCell ref="S16:S20"/>
@@ -10378,6 +9223,11 @@
     <mergeCell ref="J15:J19"/>
     <mergeCell ref="P20:P28"/>
     <mergeCell ref="I15:I19"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="K15:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F02161E-FE70-784C-A0F1-134848B9EEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4834E0-9580-C94D-AA5C-D19719CB6E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="143">
   <si>
     <t>Sample Name</t>
   </si>
@@ -945,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1162,10 +1162,6 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1529,10 +1525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39602BD4-AF2D-864A-8905-789D980EB8BD}">
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1603,21 +1599,23 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="34"/>
+      <c r="A2" s="34" t="s">
+        <v>67</v>
+      </c>
       <c r="B2" s="34">
-        <v>0</v>
+        <v>-19.541574000000001</v>
       </c>
       <c r="C2" s="34">
-        <v>0</v>
+        <v>-70.116951999999998</v>
       </c>
       <c r="D2" s="34">
-        <v>0</v>
+        <v>957</v>
       </c>
       <c r="E2" s="35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="34">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="G2" s="35">
         <v>1</v>
@@ -1626,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="I2" s="35">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J2" s="34">
-        <v>0</v>
+        <v>458399999.99999994</v>
       </c>
       <c r="K2" s="38">
-        <v>0</v>
+        <v>2200000</v>
       </c>
       <c r="M2" s="37">
         <v>4</v>
@@ -1644,454 +1642,792 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="Q2">
         <v>2</v>
       </c>
       <c r="R2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="39"/>
+      <c r="A3" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="35">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="C3" s="35">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="D3" s="35">
+        <v>957</v>
+      </c>
+      <c r="E3" s="35">
+        <v>3</v>
+      </c>
+      <c r="F3" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G3" s="35">
+        <v>1</v>
+      </c>
+      <c r="H3" s="35">
+        <v>0</v>
+      </c>
+      <c r="I3" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J3" s="35">
+        <v>495000000</v>
+      </c>
+      <c r="K3" s="39">
+        <v>3600000</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="39"/>
+      <c r="A4" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="35">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="C4" s="35">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="D4" s="35">
+        <v>957</v>
+      </c>
+      <c r="E4" s="35">
+        <v>3</v>
+      </c>
+      <c r="F4" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G4" s="35">
+        <v>1</v>
+      </c>
+      <c r="H4" s="35">
+        <v>0</v>
+      </c>
+      <c r="I4" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J4" s="35">
+        <v>381800000</v>
+      </c>
+      <c r="K4" s="39">
+        <v>3000000</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="39"/>
+      <c r="A5" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="35">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="C5" s="35">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="D5" s="35">
+        <v>957</v>
+      </c>
+      <c r="E5" s="35">
+        <v>3</v>
+      </c>
+      <c r="F5" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G5" s="35">
+        <v>1</v>
+      </c>
+      <c r="H5" s="35">
+        <v>0</v>
+      </c>
+      <c r="I5" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J5" s="35">
+        <v>725300000</v>
+      </c>
+      <c r="K5" s="39">
+        <v>4400000</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="39"/>
+      <c r="A6" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="35">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="C6" s="35">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="D6" s="35">
+        <v>957</v>
+      </c>
+      <c r="E6" s="35">
+        <v>3</v>
+      </c>
+      <c r="F6" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G6" s="35">
+        <v>1</v>
+      </c>
+      <c r="H6" s="35">
+        <v>0</v>
+      </c>
+      <c r="I6" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="35">
+        <v>463100000</v>
+      </c>
+      <c r="K6" s="39">
+        <v>3300000</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="39"/>
+      <c r="A7" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="35">
+        <v>-19.564599999999999</v>
+      </c>
+      <c r="C7" s="35">
+        <v>-70.117283</v>
+      </c>
+      <c r="D7" s="35">
+        <v>925</v>
+      </c>
+      <c r="E7" s="35">
+        <v>3</v>
+      </c>
+      <c r="F7" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G7" s="35">
+        <v>1</v>
+      </c>
+      <c r="H7" s="35">
+        <v>0</v>
+      </c>
+      <c r="I7" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J7" s="35">
+        <v>501800000</v>
+      </c>
+      <c r="K7" s="39">
+        <v>3400000.0000000005</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="39"/>
+      <c r="A8" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="35">
+        <v>-19.564599999999999</v>
+      </c>
+      <c r="C8" s="35">
+        <v>-70.117283</v>
+      </c>
+      <c r="D8" s="35">
+        <v>925</v>
+      </c>
+      <c r="E8" s="35">
+        <v>3</v>
+      </c>
+      <c r="F8" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G8" s="35">
+        <v>1</v>
+      </c>
+      <c r="H8" s="35">
+        <v>0</v>
+      </c>
+      <c r="I8" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J8" s="35">
+        <v>315000000</v>
+      </c>
+      <c r="K8" s="39">
+        <v>2400000</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="39"/>
+      <c r="A9" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="35">
+        <v>-19.564599999999999</v>
+      </c>
+      <c r="C9" s="35">
+        <v>-70.117283</v>
+      </c>
+      <c r="D9" s="35">
+        <v>925</v>
+      </c>
+      <c r="E9" s="35">
+        <v>3</v>
+      </c>
+      <c r="F9" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G9" s="35">
+        <v>1</v>
+      </c>
+      <c r="H9" s="35">
+        <v>0</v>
+      </c>
+      <c r="I9" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J9" s="35">
+        <v>209900000.00000003</v>
+      </c>
+      <c r="K9" s="39">
+        <v>1600000</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="39"/>
+      <c r="A10" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="35">
+        <v>-19.564599999999999</v>
+      </c>
+      <c r="C10" s="35">
+        <v>-70.117283</v>
+      </c>
+      <c r="D10" s="35">
+        <v>925</v>
+      </c>
+      <c r="E10" s="35">
+        <v>3</v>
+      </c>
+      <c r="F10" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G10" s="35">
+        <v>1</v>
+      </c>
+      <c r="H10" s="35">
+        <v>0</v>
+      </c>
+      <c r="I10" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J10" s="35">
+        <v>498800000</v>
+      </c>
+      <c r="K10" s="39">
+        <v>3100000</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="39"/>
+      <c r="A11" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="35">
+        <v>-19.565581999999999</v>
+      </c>
+      <c r="C11" s="35">
+        <v>-70.110219999999998</v>
+      </c>
+      <c r="D11" s="35">
+        <v>931</v>
+      </c>
+      <c r="E11" s="35">
+        <v>3</v>
+      </c>
+      <c r="F11" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G11" s="35">
+        <v>1</v>
+      </c>
+      <c r="H11" s="35">
+        <v>0</v>
+      </c>
+      <c r="I11" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J11" s="35">
+        <v>313400000</v>
+      </c>
+      <c r="K11" s="39">
+        <v>2000000</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="39"/>
+      <c r="A12" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="35">
+        <v>-19.565581999999999</v>
+      </c>
+      <c r="C12" s="35">
+        <v>-70.110219999999998</v>
+      </c>
+      <c r="D12" s="35">
+        <v>931</v>
+      </c>
+      <c r="E12" s="35">
+        <v>3</v>
+      </c>
+      <c r="F12" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G12" s="35">
+        <v>1</v>
+      </c>
+      <c r="H12" s="35">
+        <v>0</v>
+      </c>
+      <c r="I12" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J12" s="35">
+        <v>415200000.00000006</v>
+      </c>
+      <c r="K12" s="39">
+        <v>2800000.0000000005</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="39"/>
+      <c r="A13" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="35">
+        <v>-19.565581999999999</v>
+      </c>
+      <c r="C13" s="35">
+        <v>-70.110219999999998</v>
+      </c>
+      <c r="D13" s="35">
+        <v>931</v>
+      </c>
+      <c r="E13" s="35">
+        <v>3</v>
+      </c>
+      <c r="F13" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G13" s="35">
+        <v>1</v>
+      </c>
+      <c r="H13" s="35">
+        <v>0</v>
+      </c>
+      <c r="I13" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J13" s="35">
+        <v>534600000</v>
+      </c>
+      <c r="K13" s="39">
+        <v>3600000</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="39"/>
+      <c r="A14" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="35">
+        <v>-19.565581999999999</v>
+      </c>
+      <c r="C14" s="35">
+        <v>-70.110219999999998</v>
+      </c>
+      <c r="D14" s="35">
+        <v>931</v>
+      </c>
+      <c r="E14" s="35">
+        <v>3</v>
+      </c>
+      <c r="F14" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G14" s="35">
+        <v>1</v>
+      </c>
+      <c r="H14" s="35">
+        <v>0</v>
+      </c>
+      <c r="I14" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J14" s="35">
+        <v>396300000</v>
+      </c>
+      <c r="K14" s="39">
+        <v>3000000</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="39"/>
+      <c r="A15" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="35">
+        <v>-19.551714</v>
+      </c>
+      <c r="C15" s="35">
+        <v>-70.076702999999995</v>
+      </c>
+      <c r="D15" s="35">
+        <v>1023</v>
+      </c>
+      <c r="E15" s="35">
+        <v>3</v>
+      </c>
+      <c r="F15" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G15" s="35">
+        <v>1</v>
+      </c>
+      <c r="H15" s="35">
+        <v>0</v>
+      </c>
+      <c r="I15" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J15" s="35">
+        <v>1799999.9999999998</v>
+      </c>
+      <c r="K15" s="39">
+        <v>700000.00000000012</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="39"/>
+      <c r="A16" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="35">
+        <v>-19.551714</v>
+      </c>
+      <c r="C16" s="35">
+        <v>-70.076702999999995</v>
+      </c>
+      <c r="D16" s="35">
+        <v>1023</v>
+      </c>
+      <c r="E16" s="35">
+        <v>3</v>
+      </c>
+      <c r="F16" s="35">
+        <v>2.65</v>
+      </c>
+      <c r="G16" s="35">
+        <v>1</v>
+      </c>
+      <c r="H16" s="35">
+        <v>0</v>
+      </c>
+      <c r="I16" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J16" s="35">
+        <v>3400000.0000000005</v>
+      </c>
+      <c r="K16" s="39">
+        <v>1000000</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="40"/>
+      <c r="A17" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="36">
+        <v>-19.551714</v>
+      </c>
+      <c r="C17" s="36">
+        <v>-70.076702999999995</v>
+      </c>
+      <c r="D17" s="36">
+        <v>1023</v>
+      </c>
+      <c r="E17" s="35">
+        <v>3</v>
+      </c>
+      <c r="F17" s="36">
+        <v>2.65</v>
+      </c>
+      <c r="G17" s="35">
+        <v>1</v>
+      </c>
+      <c r="H17" s="35">
+        <v>0</v>
+      </c>
+      <c r="I17" s="35">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J17" s="36">
+        <v>2300000</v>
+      </c>
+      <c r="K17" s="40">
+        <v>400000</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="R18" s="1"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="1"/>
-      <c r="R19" s="1"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="1"/>
-      <c r="R20" s="1"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="1"/>
-      <c r="R21" s="1"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="25"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="1"/>
-      <c r="R22" s="1"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="1"/>
-      <c r="R23" s="1"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="1"/>
-      <c r="R24" s="1"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="1"/>
-      <c r="R25" s="1"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="1"/>
-      <c r="R26" s="1"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="1"/>
-      <c r="R27" s="1"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="1"/>
-      <c r="R28" s="1"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="1"/>
-      <c r="R29" s="1"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="11"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="11"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="11"/>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="11"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="11"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="11"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="R35" s="1"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
+      <c r="A36" s="1"/>
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="1"/>
       <c r="R36" s="1"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="1"/>
       <c r="R37" s="1"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -2102,32 +2438,26 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="1"/>
       <c r="R38" s="1"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
+      <c r="A39" s="1"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="1"/>
       <c r="R39" s="1"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="1"/>
       <c r="R40" s="1"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -2138,32 +2468,26 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="1"/>
       <c r="R41" s="1"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
+      <c r="A42" s="1"/>
       <c r="B42" s="10"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="1"/>
       <c r="R42" s="1"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="10"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="1"/>
       <c r="R43" s="1"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -2174,32 +2498,26 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="1"/>
       <c r="R44" s="1"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
+      <c r="A45" s="1"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="1"/>
       <c r="R45" s="1"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="1"/>
       <c r="R46" s="1"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -2210,32 +2528,26 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="1"/>
       <c r="R47" s="1"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
+      <c r="A48" s="1"/>
       <c r="B48" s="10"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="1"/>
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
+      <c r="A49" s="12"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="1"/>
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
@@ -2246,21 +2558,27 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="1"/>
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
+      <c r="A51" s="1"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="1"/>
       <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="R52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2273,7 +2591,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3075,34 +3393,24 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC98A15-AE39-4743-9E74-0C5D457F6E10}">
-  <dimension ref="A1:R52"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD29"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
@@ -3128,34 +3436,37 @@
         <v>13</v>
       </c>
       <c r="I1" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="K1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="M1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="N1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="O1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="P1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="65" t="s">
+      <c r="Q1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="R1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="S1" s="65" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>39</v>
       </c>
@@ -3180,37 +3491,40 @@
       <c r="H2" s="13">
         <v>0</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="27">
         <f>3.23*10^7</f>
         <v>32300000</v>
       </c>
-      <c r="J2" s="27">
+      <c r="K2" s="27">
         <v>4900000</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2">
+      <c r="L2" s="37"/>
+      <c r="M2">
         <v>2</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P2">
+        <v>25</v>
+      </c>
+      <c r="Q2">
         <v>2</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>40</v>
       </c>
@@ -3235,15 +3549,18 @@
       <c r="H3" s="13">
         <v>0</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="25">
         <f>25.9*10^7</f>
         <v>259000000</v>
       </c>
-      <c r="J3" s="25">
+      <c r="K3" s="25">
         <v>8800000</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>41</v>
       </c>
@@ -3268,15 +3585,18 @@
       <c r="H4" s="13">
         <v>0</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="23">
         <f>65.91*10^7</f>
         <v>659100000</v>
       </c>
-      <c r="J4" s="23">
+      <c r="K4" s="23">
         <v>12000000</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>42</v>
       </c>
@@ -3301,15 +3621,18 @@
       <c r="H5" s="13">
         <v>0</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="23">
         <f>32.2*10^7</f>
         <v>322000000</v>
       </c>
-      <c r="J5" s="23">
+      <c r="K5" s="23">
         <v>7000000</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>43</v>
       </c>
@@ -3334,15 +3657,18 @@
       <c r="H6" s="13">
         <v>0</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="25">
         <f>63.88*10^7</f>
         <v>638800000</v>
       </c>
-      <c r="J6" s="25">
+      <c r="K6" s="25">
         <v>25700000</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>44</v>
       </c>
@@ -3367,15 +3693,18 @@
       <c r="H7" s="13">
         <v>0</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="25">
         <f>74.48*10^7</f>
         <v>744800000</v>
       </c>
-      <c r="J7" s="25">
+      <c r="K7" s="25">
         <v>23300000</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>48</v>
       </c>
@@ -3400,15 +3729,18 @@
       <c r="H8" s="13">
         <v>0</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="25">
         <f>91.1*10^7</f>
         <v>911000000</v>
       </c>
-      <c r="J8" s="25">
+      <c r="K8" s="25">
         <v>13000000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>49</v>
       </c>
@@ -3433,15 +3765,18 @@
       <c r="H9" s="13">
         <v>0</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="25">
         <f>167.12*10^7</f>
         <v>1671200000</v>
       </c>
-      <c r="J9" s="25">
+      <c r="K9" s="25">
         <v>36500000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>50</v>
       </c>
@@ -3466,15 +3801,18 @@
       <c r="H10" s="13">
         <v>0</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="25">
         <f>24.27*10^7</f>
         <v>242700000</v>
       </c>
-      <c r="J10" s="25">
+      <c r="K10" s="25">
         <v>10500000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>51</v>
       </c>
@@ -3499,15 +3837,18 @@
       <c r="H11" s="13">
         <v>0</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="25">
         <f>31.18*10^7</f>
         <v>311800000</v>
       </c>
-      <c r="J11" s="25">
+      <c r="K11" s="25">
         <v>11900000</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>45</v>
       </c>
@@ -3532,15 +3873,18 @@
       <c r="H12" s="13">
         <v>0</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="25">
         <f>104.68*10^7</f>
         <v>1046800000.0000001</v>
       </c>
-      <c r="J12" s="25">
+      <c r="K12" s="25">
         <v>22400000.000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>52</v>
       </c>
@@ -3565,15 +3909,18 @@
       <c r="H13" s="13">
         <v>0</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="28">
         <f>269.89*10^7</f>
         <v>2698900000</v>
       </c>
-      <c r="J13" s="28">
+      <c r="K13" s="28">
         <v>47300000.000000007</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>53</v>
       </c>
@@ -3598,15 +3945,18 @@
       <c r="H14" s="13">
         <v>0</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="28">
         <f>246.53*10^7</f>
         <v>2465300000</v>
       </c>
-      <c r="J14" s="28">
+      <c r="K14" s="28">
         <v>42900000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>54</v>
       </c>
@@ -3631,14 +3981,17 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="28">
         <v>1414100000</v>
       </c>
-      <c r="J15" s="28">
+      <c r="K15" s="28">
         <v>25200000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>55</v>
       </c>
@@ -3663,14 +4016,17 @@
       <c r="H16" s="13">
         <v>0</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="28">
         <v>1648000000</v>
       </c>
-      <c r="J16" s="28">
+      <c r="K16" s="28">
         <v>28400000</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>56</v>
       </c>
@@ -3695,14 +4051,17 @@
       <c r="H17" s="13">
         <v>0</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="28">
         <v>2350000000</v>
       </c>
-      <c r="J17" s="28">
+      <c r="K17" s="28">
         <v>40400000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>57</v>
       </c>
@@ -3727,14 +4086,17 @@
       <c r="H18" s="13">
         <v>0</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="28">
         <v>901900000</v>
       </c>
-      <c r="J18" s="28">
+      <c r="K18" s="28">
         <v>19700000</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>58</v>
       </c>
@@ -3759,14 +4121,17 @@
       <c r="H19" s="13">
         <v>0</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="29">
         <v>1078000000</v>
       </c>
-      <c r="J19" s="29">
+      <c r="K19" s="29">
         <v>27700000</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
         <v>59</v>
       </c>
@@ -3791,14 +4156,17 @@
       <c r="H20" s="13">
         <v>0</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="13">
+        <v>0</v>
+      </c>
+      <c r="J20" s="25">
         <v>1024900000</v>
       </c>
-      <c r="J20" s="25">
+      <c r="K20" s="25">
         <v>24800000</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>60</v>
       </c>
@@ -3823,14 +4191,17 @@
       <c r="H21" s="13">
         <v>0</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="30">
         <v>2989600000</v>
       </c>
-      <c r="J21" s="25">
+      <c r="K21" s="25">
         <v>32000000</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
@@ -3855,14 +4226,17 @@
       <c r="H22" s="13">
         <v>0</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="13">
+        <v>0</v>
+      </c>
+      <c r="J22" s="25">
         <v>1942300000</v>
       </c>
-      <c r="J22" s="25">
+      <c r="K22" s="25">
         <v>46700000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
         <v>47</v>
       </c>
@@ -3887,14 +4261,17 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="25">
         <v>3102600000</v>
       </c>
-      <c r="J23" s="25">
+      <c r="K23" s="25">
         <v>82300000</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
         <v>61</v>
       </c>
@@ -3919,14 +4296,17 @@
       <c r="H24" s="13">
         <v>0</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="13">
+        <v>0</v>
+      </c>
+      <c r="J24" s="25">
         <v>2691600000.0000005</v>
       </c>
-      <c r="J24" s="25">
+      <c r="K24" s="25">
         <v>61800000</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>62</v>
       </c>
@@ -3951,14 +4331,17 @@
       <c r="H25" s="13">
         <v>0</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="28">
         <v>2771500000</v>
       </c>
-      <c r="J25" s="28">
+      <c r="K25" s="28">
         <v>52000000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>63</v>
       </c>
@@ -3983,14 +4366,17 @@
       <c r="H26" s="13">
         <v>0</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="13">
+        <v>0</v>
+      </c>
+      <c r="J26" s="28">
         <v>654000000</v>
       </c>
-      <c r="J26" s="28">
+      <c r="K26" s="28">
         <v>15000000</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
         <v>64</v>
       </c>
@@ -4015,14 +4401,17 @@
       <c r="H27" s="13">
         <v>0</v>
       </c>
-      <c r="I27" s="32">
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="32">
         <v>412900000</v>
       </c>
-      <c r="J27" s="32">
+      <c r="K27" s="32">
         <v>7200000</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>65</v>
       </c>
@@ -4047,14 +4436,17 @@
       <c r="H28" s="13">
         <v>0</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="13">
+        <v>0</v>
+      </c>
+      <c r="J28" s="33">
         <v>388000000</v>
       </c>
-      <c r="J28" s="33">
+      <c r="K28" s="33">
         <v>7700000</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>66</v>
       </c>
@@ -4079,59 +4471,177 @@
       <c r="H29" s="13">
         <v>0</v>
       </c>
-      <c r="I29" s="32">
+      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="32">
         <v>425000000</v>
       </c>
-      <c r="J29" s="32">
+      <c r="K29" s="32">
         <v>9500000</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -4139,9 +4649,9 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="10"/>
       <c r="C50" s="10"/>
@@ -4149,9 +4659,9 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="Q50" s="1"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="10"/>
       <c r="C51" s="10"/>
@@ -4159,9 +4669,9 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="Q51" s="1"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -4169,7 +4679,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4178,15 +4688,21 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A016230-6B57-C74A-92E2-8B80546C58EB}">
-  <dimension ref="A1:BT19"/>
+  <dimension ref="A1:BT52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView topLeftCell="M1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
@@ -4215,30 +4731,33 @@
         <v>13</v>
       </c>
       <c r="I1" s="65" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="K1" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="M1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="N1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="O1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="P1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="65" t="s">
+      <c r="Q1" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="R1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="S1" s="65" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4267,33 +4786,36 @@
       <c r="H2" s="45">
         <v>0</v>
       </c>
-      <c r="I2" s="44">
+      <c r="I2" s="45">
+        <v>0</v>
+      </c>
+      <c r="J2" s="44">
         <f>3.87*10000000</f>
         <v>38700000</v>
       </c>
-      <c r="J2" s="44">
+      <c r="K2" s="44">
         <v>3700000</v>
       </c>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45">
+      <c r="L2" s="44"/>
+      <c r="M2" s="45">
         <v>4</v>
       </c>
-      <c r="M2" s="45">
-        <v>1</v>
-      </c>
       <c r="N2" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="45">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P2" s="45">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="45">
         <v>2</v>
       </c>
-      <c r="Q2" s="45">
-        <v>0</v>
-      </c>
       <c r="R2" s="45">
+        <v>0</v>
+      </c>
+      <c r="S2" s="45">
         <v>0</v>
       </c>
     </row>
@@ -4322,15 +4844,21 @@
       <c r="H3" s="45">
         <v>0</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="45">
+        <v>0</v>
+      </c>
+      <c r="J3" s="44">
         <f>3.79*10000000</f>
         <v>37900000</v>
       </c>
-      <c r="J3" s="44">
+      <c r="K3" s="44">
         <v>2500000</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="41"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="41"/>
+      <c r="R3" s="45">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:72" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42" t="s">
@@ -4357,16 +4885,22 @@
       <c r="H4" s="45">
         <v>0</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="45">
+        <v>0</v>
+      </c>
+      <c r="J4" s="44">
         <f>0.95*10000000</f>
         <v>9500000</v>
       </c>
-      <c r="J4" s="44">
+      <c r="K4" s="44">
         <v>1500000</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="41"/>
-      <c r="N4" s="41"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="R4" s="45">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:72" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
@@ -4393,15 +4927,21 @@
       <c r="H5" s="45">
         <v>0</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="45">
+        <v>0</v>
+      </c>
+      <c r="J5" s="44">
         <f>0.42*10000000</f>
         <v>4200000</v>
       </c>
-      <c r="J5" s="44">
+      <c r="K5" s="44">
         <v>1300000</v>
       </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="41"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="41"/>
+      <c r="R5" s="45">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:72" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
@@ -4428,15 +4968,21 @@
       <c r="H6" s="45">
         <v>0</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="45">
+        <v>0</v>
+      </c>
+      <c r="J6" s="44">
         <f>1.11*10000000</f>
         <v>11100000.000000002</v>
       </c>
-      <c r="J6" s="44">
+      <c r="K6" s="44">
         <v>2000000</v>
       </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="41"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="41"/>
+      <c r="R6" s="45">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:72" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
@@ -4463,14 +5009,20 @@
       <c r="H7" s="45">
         <v>0</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="45">
+        <v>0</v>
+      </c>
+      <c r="J7" s="44">
         <v>5800000</v>
       </c>
-      <c r="J7" s="44">
+      <c r="K7" s="44">
         <v>800000</v>
       </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="41"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="41"/>
+      <c r="R7" s="45">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:72" s="46" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
@@ -4497,14 +5049,20 @@
       <c r="H8" s="45">
         <v>0</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="45">
+        <v>0</v>
+      </c>
+      <c r="J8" s="44">
         <v>6850000.0000000009</v>
       </c>
-      <c r="J8" s="44">
+      <c r="K8" s="44">
         <v>800000</v>
       </c>
-      <c r="K8" s="44"/>
-      <c r="L8" s="41"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="41"/>
+      <c r="R8" s="45">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:72" s="47" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
@@ -4531,14 +5089,20 @@
       <c r="H9" s="45">
         <v>0</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="45">
+        <v>0</v>
+      </c>
+      <c r="J9" s="44">
         <v>1400000.0000000002</v>
       </c>
-      <c r="J9" s="44">
+      <c r="K9" s="44">
         <v>200000</v>
       </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="41"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="41"/>
+      <c r="R9" s="45">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
@@ -4565,20 +5129,24 @@
       <c r="H10" s="45">
         <v>0</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="45">
+        <v>0</v>
+      </c>
+      <c r="J10" s="39">
         <v>75000000</v>
       </c>
-      <c r="J10" s="39">
+      <c r="K10" s="39">
         <v>4400000</v>
       </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="45"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="41"/>
       <c r="N10" s="45"/>
       <c r="O10" s="45"/>
       <c r="P10" s="45"/>
       <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
+      <c r="R10" s="45">
+        <v>0</v>
+      </c>
       <c r="S10" s="45"/>
       <c r="T10" s="45"/>
       <c r="U10" s="45"/>
@@ -4659,20 +5227,24 @@
       <c r="H11" s="45">
         <v>0</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="45">
+        <v>0</v>
+      </c>
+      <c r="J11" s="39">
         <v>78700000</v>
       </c>
-      <c r="J11" s="39">
+      <c r="K11" s="39">
         <v>6400000</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="45"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="41"/>
       <c r="N11" s="45"/>
       <c r="O11" s="45"/>
       <c r="P11" s="45"/>
       <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
+      <c r="R11" s="45">
+        <v>0</v>
+      </c>
       <c r="S11" s="45"/>
       <c r="T11" s="45"/>
       <c r="U11" s="45"/>
@@ -4753,20 +5325,24 @@
       <c r="H12" s="45">
         <v>0</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="45">
+        <v>0</v>
+      </c>
+      <c r="J12" s="38">
         <v>167400000</v>
       </c>
-      <c r="J12" s="38">
+      <c r="K12" s="38">
         <v>9900000</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="45"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="41"/>
       <c r="N12" s="45"/>
       <c r="O12" s="45"/>
       <c r="P12" s="45"/>
       <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
+      <c r="R12" s="45">
+        <v>0</v>
+      </c>
       <c r="S12" s="45"/>
       <c r="T12" s="45"/>
       <c r="U12" s="45"/>
@@ -4847,14 +5423,20 @@
       <c r="H13" s="45">
         <v>0</v>
       </c>
-      <c r="I13" s="52">
+      <c r="I13" s="45">
+        <v>0</v>
+      </c>
+      <c r="J13" s="52">
         <v>331000000</v>
       </c>
-      <c r="J13" s="52">
+      <c r="K13" s="52">
         <v>13400000</v>
       </c>
-      <c r="K13" s="52"/>
-      <c r="L13" s="41"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="41"/>
+      <c r="R13" s="45">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:72" s="55" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
@@ -4881,14 +5463,20 @@
       <c r="H14" s="45">
         <v>0</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="45">
+        <v>0</v>
+      </c>
+      <c r="J14" s="54">
         <v>199100000</v>
       </c>
-      <c r="J14" s="54">
+      <c r="K14" s="54">
         <v>7600000</v>
       </c>
-      <c r="K14" s="54"/>
-      <c r="L14" s="41"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="41"/>
+      <c r="R14" s="45">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:72" s="45" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="42" t="s">
@@ -4915,21 +5503,406 @@
       <c r="H15" s="45">
         <v>0</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="45">
+        <v>0</v>
+      </c>
+      <c r="J15" s="44">
         <v>72400000</v>
       </c>
-      <c r="J15" s="44">
+      <c r="K15" s="44">
         <v>6200000</v>
       </c>
-      <c r="K15" s="44"/>
-      <c r="L15" s="41"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="41"/>
+      <c r="R15" s="45">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="G16" s="45"/>
-    </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="R16" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="R52" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4939,7 +5912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24694F2A-853A-E44C-A507-6368D3EEDD55}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -7226,7 +8199,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD17"/>
+      <selection activeCell="A2" sqref="A2:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7821,7 +8794,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8765,7 +9738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A252A25-C5BD-9644-90A1-8F508F9F4733}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
@@ -9011,37 +9984,37 @@
       <c r="K14" s="59"/>
     </row>
     <row r="15" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="81" t="s">
+      <c r="D15" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="87" t="s">
+      <c r="F15" s="85" t="s">
         <v>106</v>
       </c>
       <c r="G15" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="90" t="s">
+      <c r="H15" s="88" t="s">
         <v>137</v>
       </c>
-      <c r="I15" s="91" t="s">
+      <c r="I15" s="89" t="s">
         <v>142</v>
       </c>
-      <c r="J15" s="82" t="s">
+      <c r="J15" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="K15" s="82" t="s">
+      <c r="K15" s="80" t="s">
         <v>110</v>
       </c>
       <c r="M15" s="66" t="s">
@@ -9067,19 +10040,19 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="88" t="s">
+      <c r="A16" s="79"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="90"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
       <c r="M16" s="67" t="s">
         <v>113</v>
       </c>
@@ -9091,86 +10064,86 @@
       <c r="Q16" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="S16" s="81" t="s">
+      <c r="S16" s="79" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
       <c r="M17" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="O17" s="83" t="s">
+      <c r="O17" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="85" t="s">
+      <c r="P17" s="83" t="s">
         <v>121</v>
       </c>
       <c r="Q17" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="S17" s="81"/>
+      <c r="S17" s="79"/>
     </row>
     <row r="18" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
       <c r="M18" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="O18" s="83"/>
-      <c r="P18" s="85"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="83"/>
       <c r="Q18" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="S18" s="81"/>
+      <c r="S18" s="79"/>
     </row>
     <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="G19" s="89"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="86"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="84"/>
       <c r="Q19" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="S19" s="81"/>
+      <c r="S19" s="79"/>
     </row>
     <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H20" s="74"/>
       <c r="I20" s="73"/>
-      <c r="P20" s="92" t="s">
+      <c r="P20" s="90" t="s">
         <v>138</v>
       </c>
       <c r="Q20" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="S20" s="81"/>
+      <c r="S20" s="79"/>
     </row>
     <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H21" s="73"/>
       <c r="I21" s="73"/>
-      <c r="P21" s="93"/>
+      <c r="P21" s="91"/>
       <c r="Q21" s="75" t="s">
         <v>126</v>
       </c>
@@ -9178,7 +10151,7 @@
     <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H22" s="73"/>
       <c r="I22" s="73"/>
-      <c r="P22" s="93"/>
+      <c r="P22" s="91"/>
       <c r="Q22" s="76" t="s">
         <v>127</v>
       </c>
@@ -9186,30 +10159,30 @@
     <row r="23" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H23" s="73"/>
       <c r="I23" s="73"/>
-      <c r="P23" s="93"/>
+      <c r="P23" s="91"/>
     </row>
     <row r="24" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H24" s="73"/>
       <c r="I24" s="73"/>
-      <c r="P24" s="93"/>
+      <c r="P24" s="91"/>
     </row>
     <row r="25" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H25" s="73"/>
       <c r="I25" s="73"/>
-      <c r="P25" s="93"/>
+      <c r="P25" s="91"/>
     </row>
     <row r="26" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H26" s="73"/>
       <c r="I26" s="73"/>
-      <c r="P26" s="93"/>
+      <c r="P26" s="91"/>
     </row>
     <row r="27" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H27" s="73"/>
       <c r="I27" s="73"/>
-      <c r="P27" s="93"/>
+      <c r="P27" s="91"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="P28" s="94"/>
+      <c r="P28" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,119 +8,138 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4834E0-9580-C94D-AA5C-D19719CB6E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D2FC6D-85CF-6E43-9F67-D40DCCF834A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
-    <sheet name="atm_depth_comparison" sheetId="19" r:id="rId2"/>
+    <sheet name="atm_depth_elevations" sheetId="21" r:id="rId2"/>
     <sheet name="README" sheetId="4" r:id="rId3"/>
-    <sheet name="Figure 1B" sheetId="20" r:id="rId4"/>
-    <sheet name="CRFB texposure" sheetId="18" r:id="rId5"/>
-    <sheet name="Deccan Texposure" sheetId="17" r:id="rId6"/>
-    <sheet name="Figure 1" sheetId="8" r:id="rId7"/>
-    <sheet name="Figure 2" sheetId="10" r:id="rId8"/>
-    <sheet name="Figure 3" sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 6,8" sheetId="5" r:id="rId10"/>
-    <sheet name="Figure 7" sheetId="12" r:id="rId11"/>
-    <sheet name="Figure 9_pyx" sheetId="14" r:id="rId12"/>
-    <sheet name="Figure 9_neon" sheetId="16" r:id="rId13"/>
-    <sheet name="Libarkin" sheetId="11" r:id="rId14"/>
-    <sheet name="Figure 10_modeled curves" sheetId="13" r:id="rId15"/>
-    <sheet name="Dunai" sheetId="15" r:id="rId16"/>
+    <sheet name="atm_depth_comparison" sheetId="19" r:id="rId4"/>
+    <sheet name="Figure 1B" sheetId="20" r:id="rId5"/>
+    <sheet name="CRFB texposure" sheetId="18" r:id="rId6"/>
+    <sheet name="Deccan Texposure" sheetId="17" r:id="rId7"/>
+    <sheet name="Figure 1" sheetId="8" r:id="rId8"/>
+    <sheet name="Figure 2" sheetId="10" r:id="rId9"/>
+    <sheet name="Figure 3" sheetId="7" r:id="rId10"/>
+    <sheet name="Figure 6,8" sheetId="5" r:id="rId11"/>
+    <sheet name="Figure 7" sheetId="12" r:id="rId12"/>
+    <sheet name="Figure 9_pyx" sheetId="14" r:id="rId13"/>
+    <sheet name="Figure 9_neon" sheetId="16" r:id="rId14"/>
+    <sheet name="Libarkin" sheetId="11" r:id="rId15"/>
+    <sheet name="Figure 10_modeled curves" sheetId="13" r:id="rId16"/>
+    <sheet name="Dunai" sheetId="15" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Active!$B$77,Active!$B$82,Active!$B$84,Active!$B$85</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">atm_depth_comparison!$B$79,atm_depth_comparison!$B$84,atm_depth_comparison!$B$86,atm_depth_comparison!$B$87</definedName>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">'CRFB texposure'!$B$79,'CRFB texposure'!$B$84,'CRFB texposure'!$B$86,'CRFB texposure'!$B$87</definedName>
-    <definedName name="solver_adj" localSheetId="5" hidden="1">'Deccan Texposure'!$B$79,'Deccan Texposure'!$B$84,'Deccan Texposure'!$B$86,'Deccan Texposure'!$B$87</definedName>
-    <definedName name="solver_adj" localSheetId="8" hidden="1">'Figure 3'!$B$74,'Figure 3'!$B$79,'Figure 3'!$B$81,'Figure 3'!$B$82</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">atm_depth_comparison!$B$79,atm_depth_comparison!$B$84,atm_depth_comparison!$B$86,atm_depth_comparison!$B$87</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">atm_depth_elevations!$B$77,atm_depth_elevations!$B$82,atm_depth_elevations!$B$84,atm_depth_elevations!$B$85</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'CRFB texposure'!$B$79,'CRFB texposure'!$B$84,'CRFB texposure'!$B$86,'CRFB texposure'!$B$87</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'Deccan Texposure'!$B$79,'Deccan Texposure'!$B$84,'Deccan Texposure'!$B$86,'Deccan Texposure'!$B$87</definedName>
+    <definedName name="solver_adj" localSheetId="9" hidden="1">'Figure 3'!$B$74,'Figure 3'!$B$79,'Figure 3'!$B$81,'Figure 3'!$B$82</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Active!$B$88</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">atm_depth_comparison!$B$90</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'CRFB texposure'!$B$90</definedName>
-    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Deccan Texposure'!$B$90</definedName>
-    <definedName name="solver_lhs1" localSheetId="8" hidden="1">'Figure 3'!$B$85</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">atm_depth_comparison!$B$90</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">atm_depth_elevations!$B$88</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'CRFB texposure'!$B$90</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Deccan Texposure'!$B$90</definedName>
+    <definedName name="solver_lhs1" localSheetId="9" hidden="1">'Figure 3'!$B$85</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Active!$F$55</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">atm_depth_comparison!$F$57</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'CRFB texposure'!$F$57</definedName>
-    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Deccan Texposure'!$F$57</definedName>
-    <definedName name="solver_lhs2" localSheetId="8" hidden="1">'Figure 3'!$F$52</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">atm_depth_comparison!$F$57</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">atm_depth_elevations!$F$55</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'CRFB texposure'!$F$57</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Deccan Texposure'!$F$57</definedName>
+    <definedName name="solver_lhs2" localSheetId="9" hidden="1">'Figure 3'!$F$52</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Active!$F$56</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">atm_depth_comparison!$F$58</definedName>
-    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'CRFB texposure'!$F$58</definedName>
-    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Deccan Texposure'!$F$58</definedName>
-    <definedName name="solver_lhs3" localSheetId="8" hidden="1">'Figure 3'!$F$53</definedName>
+    <definedName name="solver_lhs3" localSheetId="3" hidden="1">atm_depth_comparison!$F$58</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">atm_depth_elevations!$F$56</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'CRFB texposure'!$F$58</definedName>
+    <definedName name="solver_lhs3" localSheetId="6" hidden="1">'Deccan Texposure'!$F$58</definedName>
+    <definedName name="solver_lhs3" localSheetId="9" hidden="1">'Figure 3'!$F$53</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="8" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="9" hidden="1">3</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Active!$F$54</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">atm_depth_comparison!$F$56</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">'CRFB texposure'!$F$56</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">'Deccan Texposure'!$F$56</definedName>
-    <definedName name="solver_opt" localSheetId="8" hidden="1">'Figure 3'!$F$51</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">atm_depth_comparison!$F$56</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">atm_depth_elevations!$F$54</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'CRFB texposure'!$F$56</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'Deccan Texposure'!$F$56</definedName>
+    <definedName name="solver_opt" localSheetId="9" hidden="1">'Figure 3'!$F$51</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_rhs1" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_rhs1" localSheetId="5" hidden="1">100</definedName>
-    <definedName name="solver_rhs1" localSheetId="8" hidden="1">100</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_rhs1" localSheetId="9" hidden="1">100</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0.4</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">0.4</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">0.4</definedName>
-    <definedName name="solver_rhs2" localSheetId="4" hidden="1">0.4</definedName>
     <definedName name="solver_rhs2" localSheetId="5" hidden="1">0.4</definedName>
-    <definedName name="solver_rhs2" localSheetId="8" hidden="1">0.4</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">0.4</definedName>
+    <definedName name="solver_rhs2" localSheetId="9" hidden="1">0.4</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">1.4</definedName>
+    <definedName name="solver_rhs3" localSheetId="3" hidden="1">1.4</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">1.4</definedName>
-    <definedName name="solver_rhs3" localSheetId="4" hidden="1">1.4</definedName>
     <definedName name="solver_rhs3" localSheetId="5" hidden="1">1.4</definedName>
-    <definedName name="solver_rhs3" localSheetId="8" hidden="1">1.4</definedName>
+    <definedName name="solver_rhs3" localSheetId="6" hidden="1">1.4</definedName>
+    <definedName name="solver_rhs3" localSheetId="9" hidden="1">1.4</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">3</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_typ" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_typ" localSheetId="8" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="9" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">98.2</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">98.2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">98.2</definedName>
-    <definedName name="solver_val" localSheetId="4" hidden="1">98.2</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">98.2</definedName>
-    <definedName name="solver_val" localSheetId="8" hidden="1">98.2</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">98.2</definedName>
+    <definedName name="solver_val" localSheetId="9" hidden="1">98.2</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="9" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -143,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="147">
   <si>
     <t>Sample Name</t>
   </si>
@@ -513,15 +532,9 @@
     <t>1 = standard atmosphere</t>
   </si>
   <si>
-    <t>must be less than stop duration</t>
-  </si>
-  <si>
     <t>in Ma</t>
   </si>
   <si>
-    <t>must be greater than start duration</t>
-  </si>
-  <si>
     <t>0-8</t>
   </si>
   <si>
@@ -583,6 +596,24 @@
   </si>
   <si>
     <t>in cm/yr</t>
+  </si>
+  <si>
+    <t>Time 1</t>
+  </si>
+  <si>
+    <t>Time 2</t>
+  </si>
+  <si>
+    <t>must be less than Time 2</t>
+  </si>
+  <si>
+    <t>must be greater than Time 1</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>2 =</t>
   </si>
 </sst>
 </file>
@@ -945,7 +976,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1160,6 +1191,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1527,8 +1582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39602BD4-AF2D-864A-8905-789D980EB8BD}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1562,13 +1617,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J1" s="65" t="s">
         <v>7</v>
@@ -1583,10 +1638,10 @@
         <v>33</v>
       </c>
       <c r="O1" s="65" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="P1" s="65" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="Q1" s="65" t="s">
         <v>36</v>
@@ -1599,55 +1654,55 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="34">
-        <v>-19.541574000000001</v>
-      </c>
-      <c r="C2" s="34">
-        <v>-70.116951999999998</v>
-      </c>
-      <c r="D2" s="34">
-        <v>957</v>
-      </c>
-      <c r="E2" s="35">
-        <v>3</v>
-      </c>
-      <c r="F2" s="34">
-        <v>2.65</v>
-      </c>
-      <c r="G2" s="35">
-        <v>1</v>
-      </c>
-      <c r="H2" s="35">
-        <v>0</v>
-      </c>
-      <c r="I2" s="35">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J2" s="34">
-        <v>458399999.99999994</v>
-      </c>
-      <c r="K2" s="38">
-        <v>2200000</v>
-      </c>
-      <c r="M2" s="37">
+      <c r="A2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="10">
+        <v>-20</v>
+      </c>
+      <c r="C2" s="10">
+        <v>73</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>70</v>
+      </c>
+      <c r="Q2">
         <v>4</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>30</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>0</v>
       </c>
       <c r="S2">
@@ -1655,760 +1710,439 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="35">
-        <v>-19.541574000000001</v>
-      </c>
-      <c r="C3" s="35">
-        <v>-70.116951999999998</v>
-      </c>
-      <c r="D3" s="35">
-        <v>957</v>
-      </c>
-      <c r="E3" s="35">
-        <v>3</v>
-      </c>
-      <c r="F3" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G3" s="35">
-        <v>1</v>
-      </c>
-      <c r="H3" s="35">
-        <v>0</v>
-      </c>
-      <c r="I3" s="35">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J3" s="35">
-        <v>495000000</v>
-      </c>
-      <c r="K3" s="39">
-        <v>3600000</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="15">
+        <v>110</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="35">
-        <v>-19.541574000000001</v>
-      </c>
-      <c r="C4" s="35">
-        <v>-70.116951999999998</v>
-      </c>
-      <c r="D4" s="35">
-        <v>957</v>
-      </c>
-      <c r="E4" s="35">
-        <v>3</v>
-      </c>
-      <c r="F4" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G4" s="35">
-        <v>1</v>
-      </c>
-      <c r="H4" s="35">
-        <v>0</v>
-      </c>
-      <c r="I4" s="35">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J4" s="35">
-        <v>381800000</v>
-      </c>
-      <c r="K4" s="39">
-        <v>3000000</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="35">
-        <v>-19.541574000000001</v>
-      </c>
-      <c r="C5" s="35">
-        <v>-70.116951999999998</v>
-      </c>
-      <c r="D5" s="35">
-        <v>957</v>
-      </c>
-      <c r="E5" s="35">
-        <v>3</v>
-      </c>
-      <c r="F5" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G5" s="35">
-        <v>1</v>
-      </c>
-      <c r="H5" s="35">
-        <v>0</v>
-      </c>
-      <c r="I5" s="35">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J5" s="35">
-        <v>725300000</v>
-      </c>
-      <c r="K5" s="39">
-        <v>4400000</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="35">
-        <v>-19.541574000000001</v>
-      </c>
-      <c r="C6" s="35">
-        <v>-70.116951999999998</v>
-      </c>
-      <c r="D6" s="35">
-        <v>957</v>
-      </c>
-      <c r="E6" s="35">
-        <v>3</v>
-      </c>
-      <c r="F6" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G6" s="35">
-        <v>1</v>
-      </c>
-      <c r="H6" s="35">
-        <v>0</v>
-      </c>
-      <c r="I6" s="35">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J6" s="35">
-        <v>463100000</v>
-      </c>
-      <c r="K6" s="39">
-        <v>3300000</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="35">
-        <v>-19.564599999999999</v>
-      </c>
-      <c r="C7" s="35">
-        <v>-70.117283</v>
-      </c>
-      <c r="D7" s="35">
-        <v>925</v>
-      </c>
-      <c r="E7" s="35">
-        <v>3</v>
-      </c>
-      <c r="F7" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G7" s="35">
-        <v>1</v>
-      </c>
-      <c r="H7" s="35">
-        <v>0</v>
-      </c>
-      <c r="I7" s="35">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J7" s="35">
-        <v>501800000</v>
-      </c>
-      <c r="K7" s="39">
-        <v>3400000.0000000005</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="35">
-        <v>-19.564599999999999</v>
-      </c>
-      <c r="C8" s="35">
-        <v>-70.117283</v>
-      </c>
-      <c r="D8" s="35">
-        <v>925</v>
-      </c>
-      <c r="E8" s="35">
-        <v>3</v>
-      </c>
-      <c r="F8" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G8" s="35">
-        <v>1</v>
-      </c>
-      <c r="H8" s="35">
-        <v>0</v>
-      </c>
-      <c r="I8" s="35">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J8" s="35">
-        <v>315000000</v>
-      </c>
-      <c r="K8" s="39">
-        <v>2400000</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="35">
-        <v>-19.564599999999999</v>
-      </c>
-      <c r="C9" s="35">
-        <v>-70.117283</v>
-      </c>
-      <c r="D9" s="35">
-        <v>925</v>
-      </c>
-      <c r="E9" s="35">
-        <v>3</v>
-      </c>
-      <c r="F9" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G9" s="35">
-        <v>1</v>
-      </c>
-      <c r="H9" s="35">
-        <v>0</v>
-      </c>
-      <c r="I9" s="35">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J9" s="35">
-        <v>209900000.00000003</v>
-      </c>
-      <c r="K9" s="39">
-        <v>1600000</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="35">
-        <v>-19.564599999999999</v>
-      </c>
-      <c r="C10" s="35">
-        <v>-70.117283</v>
-      </c>
-      <c r="D10" s="35">
-        <v>925</v>
-      </c>
-      <c r="E10" s="35">
-        <v>3</v>
-      </c>
-      <c r="F10" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G10" s="35">
-        <v>1</v>
-      </c>
-      <c r="H10" s="35">
-        <v>0</v>
-      </c>
-      <c r="I10" s="35">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J10" s="35">
-        <v>498800000</v>
-      </c>
-      <c r="K10" s="39">
-        <v>3100000</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="35">
-        <v>-19.565581999999999</v>
-      </c>
-      <c r="C11" s="35">
-        <v>-70.110219999999998</v>
-      </c>
-      <c r="D11" s="35">
-        <v>931</v>
-      </c>
-      <c r="E11" s="35">
-        <v>3</v>
-      </c>
-      <c r="F11" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G11" s="35">
-        <v>1</v>
-      </c>
-      <c r="H11" s="35">
-        <v>0</v>
-      </c>
-      <c r="I11" s="35">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J11" s="35">
-        <v>313400000</v>
-      </c>
-      <c r="K11" s="39">
-        <v>2000000</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="35">
-        <v>-19.565581999999999</v>
-      </c>
-      <c r="C12" s="35">
-        <v>-70.110219999999998</v>
-      </c>
-      <c r="D12" s="35">
-        <v>931</v>
-      </c>
-      <c r="E12" s="35">
-        <v>3</v>
-      </c>
-      <c r="F12" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G12" s="35">
-        <v>1</v>
-      </c>
-      <c r="H12" s="35">
-        <v>0</v>
-      </c>
-      <c r="I12" s="35">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J12" s="35">
-        <v>415200000.00000006</v>
-      </c>
-      <c r="K12" s="39">
-        <v>2800000.0000000005</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="35">
-        <v>-19.565581999999999</v>
-      </c>
-      <c r="C13" s="35">
-        <v>-70.110219999999998</v>
-      </c>
-      <c r="D13" s="35">
-        <v>931</v>
-      </c>
-      <c r="E13" s="35">
-        <v>3</v>
-      </c>
-      <c r="F13" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G13" s="35">
-        <v>1</v>
-      </c>
-      <c r="H13" s="35">
-        <v>0</v>
-      </c>
-      <c r="I13" s="35">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J13" s="35">
-        <v>534600000</v>
-      </c>
-      <c r="K13" s="39">
-        <v>3600000</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="35">
-        <v>-19.565581999999999</v>
-      </c>
-      <c r="C14" s="35">
-        <v>-70.110219999999998</v>
-      </c>
-      <c r="D14" s="35">
-        <v>931</v>
-      </c>
-      <c r="E14" s="35">
-        <v>3</v>
-      </c>
-      <c r="F14" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G14" s="35">
-        <v>1</v>
-      </c>
-      <c r="H14" s="35">
-        <v>0</v>
-      </c>
-      <c r="I14" s="35">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J14" s="35">
-        <v>396300000</v>
-      </c>
-      <c r="K14" s="39">
-        <v>3000000</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="35">
-        <v>-19.551714</v>
-      </c>
-      <c r="C15" s="35">
-        <v>-70.076702999999995</v>
-      </c>
-      <c r="D15" s="35">
-        <v>1023</v>
-      </c>
-      <c r="E15" s="35">
-        <v>3</v>
-      </c>
-      <c r="F15" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G15" s="35">
-        <v>1</v>
-      </c>
-      <c r="H15" s="35">
-        <v>0</v>
-      </c>
-      <c r="I15" s="35">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J15" s="35">
-        <v>1799999.9999999998</v>
-      </c>
-      <c r="K15" s="39">
-        <v>700000.00000000012</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="35">
-        <v>-19.551714</v>
-      </c>
-      <c r="C16" s="35">
-        <v>-70.076702999999995</v>
-      </c>
-      <c r="D16" s="35">
-        <v>1023</v>
-      </c>
-      <c r="E16" s="35">
-        <v>3</v>
-      </c>
-      <c r="F16" s="35">
-        <v>2.65</v>
-      </c>
-      <c r="G16" s="35">
-        <v>1</v>
-      </c>
-      <c r="H16" s="35">
-        <v>0</v>
-      </c>
-      <c r="I16" s="35">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J16" s="35">
-        <v>3400000.0000000005</v>
-      </c>
-      <c r="K16" s="39">
-        <v>1000000</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="36">
-        <v>-19.551714</v>
-      </c>
-      <c r="C17" s="36">
-        <v>-70.076702999999995</v>
-      </c>
-      <c r="D17" s="36">
-        <v>1023</v>
-      </c>
-      <c r="E17" s="35">
-        <v>3</v>
-      </c>
-      <c r="F17" s="36">
-        <v>2.65</v>
-      </c>
-      <c r="G17" s="35">
-        <v>1</v>
-      </c>
-      <c r="H17" s="35">
-        <v>0</v>
-      </c>
-      <c r="I17" s="35">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="J17" s="36">
-        <v>2300000</v>
-      </c>
-      <c r="K17" s="40">
-        <v>400000</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="22"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="26"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="25"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="81"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
+      <c r="A28" s="78"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="1"/>
+      <c r="R30" s="1"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="1"/>
+      <c r="R31" s="1"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="11"/>
       <c r="I32" s="1"/>
+      <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="11"/>
       <c r="I33" s="1"/>
+      <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="1"/>
+      <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="11"/>
       <c r="I35" s="1"/>
+      <c r="R35" s="1"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
@@ -2418,6 +2152,8 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="1"/>
       <c r="R36" s="1"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
@@ -2428,6 +2164,8 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="1"/>
       <c r="R37" s="1"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
@@ -2438,6 +2176,8 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="1"/>
       <c r="R38" s="1"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
@@ -2448,6 +2188,8 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="1"/>
       <c r="R39" s="1"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
@@ -2458,6 +2200,8 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="1"/>
       <c r="R40" s="1"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -2468,6 +2212,8 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="1"/>
       <c r="R41" s="1"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
@@ -2478,6 +2224,8 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="1"/>
       <c r="R42" s="1"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
@@ -2488,6 +2236,8 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="1"/>
       <c r="R43" s="1"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
@@ -2498,6 +2248,8 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="1"/>
       <c r="R44" s="1"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
@@ -2508,6 +2260,8 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="1"/>
       <c r="R45" s="1"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
@@ -2518,6 +2272,8 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="1"/>
       <c r="R46" s="1"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
@@ -2528,6 +2284,8 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="1"/>
       <c r="R47" s="1"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
@@ -2538,6 +2296,8 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="1"/>
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
@@ -2548,6 +2308,8 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="1"/>
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
@@ -2558,6 +2320,8 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="1"/>
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
@@ -2568,6 +2332,8 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="1"/>
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
@@ -2578,6 +2344,8 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="1"/>
       <c r="R52" s="1"/>
     </row>
   </sheetData>
@@ -2587,6 +2355,432 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2CA47B-538E-684E-879A-957351F4517A}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9">
+        <v>20</v>
+      </c>
+      <c r="C2" s="9">
+        <v>73</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.89</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1">
+        <f>65.91*10^7</f>
+        <v>659100000</v>
+      </c>
+      <c r="K2" s="1">
+        <f>1.2*10^7</f>
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="9">
+        <v>-19</v>
+      </c>
+      <c r="C3" s="9">
+        <v>-69</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9">
+        <v>75</v>
+      </c>
+      <c r="C4" s="9">
+        <v>-42</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="10"/>
+      <c r="E22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="10"/>
+      <c r="E23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="10"/>
+      <c r="E24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="9"/>
+      <c r="E25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="9"/>
+      <c r="E26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9FD288-F7FF-CC43-984C-6BC5F64D5A7D}">
   <dimension ref="A1:R11"/>
   <sheetViews>
@@ -2619,7 +2813,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>13</v>
@@ -2654,7 +2848,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" s="9">
         <v>23</v>
@@ -2734,11 +2928,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923D42B9-7A86-1345-AADD-F9A6DEC8D2BA}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD35"/>
     </sheetView>
   </sheetViews>
@@ -2783,7 +2977,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>13</v>
@@ -3391,12 +3585,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC98A15-AE39-4743-9E74-0C5D457F6E10}">
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3430,13 +3624,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J1" s="65" t="s">
         <v>7</v>
@@ -4686,12 +4880,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A016230-6B57-C74A-92E2-8B80546C58EB}">
   <dimension ref="A1:BT52"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4725,13 +4919,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J1" s="65" t="s">
         <v>7</v>
@@ -5908,11 +6102,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24694F2A-853A-E44C-A507-6368D3EEDD55}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -5957,7 +6151,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>13</v>
@@ -6735,7 +6929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECC832A4-C899-574A-A718-CA2E3961F592}">
   <dimension ref="A1:R84"/>
   <sheetViews>
@@ -8194,7 +8388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C865D9E7-27A7-A946-ABE2-D02CEEDD4D16}">
   <dimension ref="A1:R17"/>
   <sheetViews>
@@ -8790,11 +8984,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D41264A-E03E-5D48-9DEA-948271C7B252}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B76439-A041-8441-B76D-05326B69C3F1}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8828,13 +9022,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J1" s="65" t="s">
         <v>7</v>
@@ -8849,10 +9043,10 @@
         <v>33</v>
       </c>
       <c r="O1" s="65" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="P1" s="65" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="Q1" s="65" t="s">
         <v>36</v>
@@ -8865,42 +9059,41 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="15">
-        <v>40</v>
-      </c>
-      <c r="C2" s="15">
-        <v>-110</v>
-      </c>
-      <c r="D2" s="15">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15">
-        <v>5</v>
-      </c>
-      <c r="F2" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G2" s="13">
-        <v>1</v>
-      </c>
-      <c r="H2" s="13">
-        <v>0</v>
-      </c>
-      <c r="I2" s="13">
-        <v>0</v>
-      </c>
-      <c r="J2" s="27">
-        <f>3.23*10^7</f>
-        <v>32300000</v>
-      </c>
-      <c r="K2" s="27">
-        <v>4900000</v>
+      <c r="A2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="10">
+        <v>-20</v>
+      </c>
+      <c r="C2" s="10">
+        <v>73</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -8909,12 +9102,12 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="R2" s="1">
         <v>0</v>
       </c>
       <c r="S2">
@@ -8922,811 +9115,820 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="15">
-        <v>40</v>
-      </c>
-      <c r="C3" s="15">
-        <v>-110</v>
+      <c r="A3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="10">
+        <v>-20</v>
+      </c>
+      <c r="C3" s="10">
+        <v>73</v>
       </c>
       <c r="D3" s="15">
         <v>500</v>
       </c>
-      <c r="E3" s="15">
-        <v>5</v>
-      </c>
-      <c r="F3" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G3" s="13">
-        <v>1</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0</v>
-      </c>
-      <c r="J3" s="27">
-        <f>3.23*10^7</f>
-        <v>32300000</v>
-      </c>
-      <c r="K3" s="27">
-        <v>4900000</v>
+      <c r="E3" s="15"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" s="15">
-        <v>40</v>
-      </c>
-      <c r="C4" s="15">
-        <v>-110</v>
+      <c r="A4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="10">
+        <v>-20</v>
+      </c>
+      <c r="C4" s="10">
+        <v>73</v>
       </c>
       <c r="D4" s="13">
         <v>1000</v>
       </c>
-      <c r="E4" s="15">
-        <v>5</v>
-      </c>
-      <c r="F4" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G4" s="13">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13">
-        <v>0</v>
-      </c>
-      <c r="J4" s="27">
-        <f t="shared" ref="J4:J18" si="0">3.23*10^7</f>
-        <v>32300000</v>
-      </c>
-      <c r="K4" s="27">
-        <v>4900000</v>
+      <c r="E4" s="15"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="11">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="15">
-        <v>40</v>
-      </c>
-      <c r="C5" s="15">
-        <v>-110</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="A5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="10">
+        <v>-20</v>
+      </c>
+      <c r="C5" s="10">
+        <v>73</v>
+      </c>
+      <c r="D5" s="10">
         <v>1500</v>
       </c>
-      <c r="E5" s="15">
-        <v>5</v>
-      </c>
-      <c r="F5" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G5" s="13">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13">
-        <v>0</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
-      <c r="J5" s="27">
-        <f t="shared" si="0"/>
-        <v>32300000</v>
-      </c>
-      <c r="K5" s="27">
-        <v>4900000</v>
+      <c r="E5" s="15"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="11">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="15">
-        <v>40</v>
-      </c>
-      <c r="C6" s="15">
-        <v>-110</v>
+      <c r="A6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="10">
+        <v>-20</v>
+      </c>
+      <c r="C6" s="10">
+        <v>73</v>
       </c>
       <c r="D6" s="15">
         <v>2000</v>
       </c>
-      <c r="E6" s="15">
-        <v>5</v>
-      </c>
-      <c r="F6" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1</v>
-      </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="27">
-        <f t="shared" si="0"/>
-        <v>32300000</v>
-      </c>
-      <c r="K6" s="27">
-        <v>4900000</v>
+      <c r="E6" s="15"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="15">
-        <v>40</v>
-      </c>
-      <c r="C7" s="15">
-        <v>-110</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="A7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="10">
+        <v>-20</v>
+      </c>
+      <c r="C7" s="10">
+        <v>73</v>
+      </c>
+      <c r="D7" s="13">
         <v>2500</v>
       </c>
-      <c r="E7" s="15">
-        <v>5</v>
-      </c>
-      <c r="F7" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0</v>
-      </c>
-      <c r="J7" s="27">
-        <f t="shared" si="0"/>
-        <v>32300000</v>
-      </c>
-      <c r="K7" s="27">
-        <v>4900000</v>
+      <c r="E7" s="15"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="15">
-        <v>40</v>
-      </c>
-      <c r="C8" s="15">
-        <v>-110</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="A8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="10">
+        <v>-20</v>
+      </c>
+      <c r="C8" s="10">
+        <v>73</v>
+      </c>
+      <c r="D8" s="10">
         <v>3000</v>
       </c>
-      <c r="E8" s="15">
-        <v>5</v>
-      </c>
-      <c r="F8" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
-        <v>0</v>
-      </c>
-      <c r="J8" s="27">
-        <f t="shared" si="0"/>
-        <v>32300000</v>
-      </c>
-      <c r="K8" s="27">
-        <v>4900000</v>
+      <c r="E8" s="15"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="15">
-        <v>40</v>
-      </c>
-      <c r="C9" s="15">
-        <v>-110</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="A9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="10">
+        <v>-20</v>
+      </c>
+      <c r="C9" s="10">
+        <v>73</v>
+      </c>
+      <c r="D9" s="15">
         <v>3500</v>
       </c>
-      <c r="E9" s="15">
-        <v>5</v>
-      </c>
-      <c r="F9" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G9" s="13">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
-        <v>0</v>
-      </c>
-      <c r="J9" s="27">
-        <f t="shared" si="0"/>
-        <v>32300000</v>
-      </c>
-      <c r="K9" s="27">
-        <v>4900000</v>
+      <c r="E9" s="15"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="15">
-        <v>40</v>
-      </c>
-      <c r="C10" s="15">
-        <v>-110</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="A10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="10">
+        <v>-20</v>
+      </c>
+      <c r="C10" s="10">
+        <v>73</v>
+      </c>
+      <c r="D10" s="13">
         <v>4000</v>
       </c>
-      <c r="E10" s="15">
-        <v>5</v>
-      </c>
-      <c r="F10" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G10" s="13">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13">
-        <v>0</v>
-      </c>
-      <c r="J10" s="27">
-        <f t="shared" si="0"/>
-        <v>32300000</v>
-      </c>
-      <c r="K10" s="27">
-        <v>4900000</v>
+      <c r="E10" s="15"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="15">
-        <v>40</v>
-      </c>
-      <c r="C11" s="15">
-        <v>-110</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="A11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="10">
+        <v>-20</v>
+      </c>
+      <c r="C11" s="10">
+        <v>73</v>
+      </c>
+      <c r="D11" s="10">
         <v>4500</v>
       </c>
-      <c r="E11" s="15">
-        <v>5</v>
-      </c>
-      <c r="F11" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13">
-        <v>0</v>
-      </c>
-      <c r="J11" s="27">
-        <f t="shared" si="0"/>
-        <v>32300000</v>
-      </c>
-      <c r="K11" s="27">
-        <v>4900000</v>
+      <c r="E11" s="15"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="15">
-        <v>40</v>
-      </c>
-      <c r="C12" s="15">
-        <v>-110</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="A12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="10">
+        <v>-20</v>
+      </c>
+      <c r="C12" s="10">
+        <v>73</v>
+      </c>
+      <c r="D12" s="15">
         <v>5000</v>
       </c>
-      <c r="E12" s="15">
-        <v>5</v>
-      </c>
-      <c r="F12" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G12" s="13">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13">
-        <v>0</v>
-      </c>
-      <c r="J12" s="27">
-        <f t="shared" si="0"/>
-        <v>32300000</v>
-      </c>
-      <c r="K12" s="27">
-        <v>4900000</v>
+      <c r="E12" s="15"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="15">
-        <v>40</v>
-      </c>
-      <c r="C13" s="15">
-        <v>-110</v>
-      </c>
-      <c r="D13" s="13">
-        <v>5500</v>
-      </c>
-      <c r="E13" s="15">
-        <v>5</v>
-      </c>
-      <c r="F13" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G13" s="13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="27">
-        <f t="shared" si="0"/>
-        <v>32300000</v>
-      </c>
-      <c r="K13" s="27">
-        <v>4900000</v>
-      </c>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="15">
-        <v>40</v>
-      </c>
-      <c r="C14" s="15">
-        <v>-110</v>
-      </c>
-      <c r="D14" s="15">
-        <v>6000</v>
-      </c>
-      <c r="E14" s="15">
-        <v>5</v>
-      </c>
-      <c r="F14" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G14" s="13">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13">
-        <v>0</v>
-      </c>
-      <c r="J14" s="27">
-        <f t="shared" si="0"/>
-        <v>32300000</v>
-      </c>
-      <c r="K14" s="27">
-        <v>4900000</v>
-      </c>
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="15">
-        <v>40</v>
-      </c>
-      <c r="C15" s="15">
-        <v>-110</v>
-      </c>
-      <c r="D15" s="15">
-        <v>6500</v>
-      </c>
-      <c r="E15" s="15">
-        <v>5</v>
-      </c>
-      <c r="F15" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G15" s="13">
-        <v>1</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="27">
-        <f t="shared" si="0"/>
-        <v>32300000</v>
-      </c>
-      <c r="K15" s="27">
-        <v>4900000</v>
-      </c>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="15">
-        <v>40</v>
-      </c>
-      <c r="C16" s="15">
-        <v>-110</v>
-      </c>
-      <c r="D16" s="13">
-        <v>7000</v>
-      </c>
-      <c r="E16" s="15">
-        <v>5</v>
-      </c>
-      <c r="F16" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G16" s="13">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16" s="13">
-        <v>0</v>
-      </c>
-      <c r="J16" s="27">
-        <f t="shared" si="0"/>
-        <v>32300000</v>
-      </c>
-      <c r="K16" s="27">
-        <v>4900000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="15">
-        <v>40</v>
-      </c>
-      <c r="C17" s="15">
-        <v>-110</v>
-      </c>
-      <c r="D17" s="13">
-        <v>7500</v>
-      </c>
-      <c r="E17" s="15">
-        <v>5</v>
-      </c>
-      <c r="F17" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G17" s="13">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13">
-        <v>0</v>
-      </c>
-      <c r="I17" s="13">
-        <v>0</v>
-      </c>
-      <c r="J17" s="27">
-        <f t="shared" si="0"/>
-        <v>32300000</v>
-      </c>
-      <c r="K17" s="27">
-        <v>4900000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="15">
-        <v>40</v>
-      </c>
-      <c r="C18" s="15">
-        <v>-110</v>
-      </c>
-      <c r="D18" s="15">
-        <v>8000</v>
-      </c>
-      <c r="E18" s="15">
-        <v>5</v>
-      </c>
-      <c r="F18" s="26">
-        <v>3.2</v>
-      </c>
-      <c r="G18" s="13">
-        <v>1</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-      <c r="I18" s="13">
-        <v>0</v>
-      </c>
-      <c r="J18" s="27">
-        <f t="shared" si="0"/>
-        <v>32300000</v>
-      </c>
-      <c r="K18" s="27">
-        <v>4900000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="25"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="81"/>
+      <c r="K19" s="81"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="82"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="83"/>
+      <c r="K21" s="81"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="81"/>
+      <c r="K22" s="81"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="80"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="78"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="85"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="79"/>
+      <c r="K27" s="79"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="78"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="78"/>
+      <c r="H28" s="78"/>
+      <c r="I28" s="78"/>
+      <c r="J28" s="79"/>
+      <c r="K28" s="79"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="78"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="79"/>
+      <c r="K29" s="79"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="11"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="11"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
+      <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="11"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="1"/>
-      <c r="H35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="11"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="R35" s="1"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="1"/>
-      <c r="H36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="11"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="R36" s="1"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="11"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="R37" s="1"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="11"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="1"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="1"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="1"/>
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="1"/>
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="1"/>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="1"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="1"/>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="1"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="1"/>
+      <c r="R47" s="1"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="1"/>
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="1"/>
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="1"/>
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="1"/>
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="1"/>
       <c r="R52" s="1"/>
     </row>
   </sheetData>
@@ -9738,8 +9940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A252A25-C5BD-9644-90A1-8F508F9F4733}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9792,7 +9994,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J1" s="65" t="s">
         <v>7</v>
@@ -9807,10 +10009,10 @@
         <v>33</v>
       </c>
       <c r="O1" s="65" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="P1" s="65" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="Q1" s="65" t="s">
         <v>36</v>
@@ -9848,7 +10050,7 @@
         <v>105</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J2" s="56" t="s">
         <v>105</v>
@@ -9861,7 +10063,7 @@
         <v>111</v>
       </c>
       <c r="N2" s="61" t="s">
-        <v>116</v>
+        <v>145</v>
       </c>
       <c r="O2" s="56" t="s">
         <v>104</v>
@@ -9870,7 +10072,7 @@
         <v>104</v>
       </c>
       <c r="Q2" s="56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R2" s="56" t="s">
         <v>105</v>
@@ -9884,7 +10086,7 @@
       <c r="C3" s="57"/>
       <c r="H3" s="60"/>
       <c r="I3" s="60" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K3" s="58"/>
       <c r="L3" s="58"/>
@@ -9984,37 +10186,37 @@
       <c r="K14" s="59"/>
     </row>
     <row r="15" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="79" t="s">
+      <c r="E15" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="85" t="s">
+      <c r="F15" s="93" t="s">
         <v>106</v>
       </c>
       <c r="G15" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="H15" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="I15" s="89" t="s">
-        <v>142</v>
-      </c>
-      <c r="J15" s="80" t="s">
+      <c r="H15" s="96" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="K15" s="80" t="s">
+      <c r="K15" s="88" t="s">
         <v>110</v>
       </c>
       <c r="M15" s="66" t="s">
@@ -10024,35 +10226,35 @@
         <v>117</v>
       </c>
       <c r="O15" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P15" s="69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q15" s="66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R15" s="77" t="s">
         <v>38</v>
       </c>
       <c r="S15" s="72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="79"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="86" t="s">
+      <c r="A16" s="87"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="88"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="88"/>
       <c r="M16" s="67" t="s">
         <v>113</v>
       </c>
@@ -10062,127 +10264,130 @@
       <c r="O16" s="67"/>
       <c r="P16" s="71"/>
       <c r="Q16" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="S16" s="79" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="S16" s="87" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="88"/>
       <c r="M17" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="O17" s="81" t="s">
-        <v>119</v>
-      </c>
-      <c r="P17" s="83" t="s">
-        <v>121</v>
+      <c r="N17" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" s="89" t="s">
+        <v>143</v>
+      </c>
+      <c r="P17" s="91" t="s">
+        <v>144</v>
       </c>
       <c r="Q17" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="S17" s="79"/>
+        <v>128</v>
+      </c>
+      <c r="S17" s="87"/>
     </row>
     <row r="18" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="88"/>
       <c r="M18" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="O18" s="81"/>
-      <c r="P18" s="83"/>
+      <c r="O18" s="89"/>
+      <c r="P18" s="91"/>
       <c r="Q18" s="67" t="s">
-        <v>123</v>
-      </c>
-      <c r="S18" s="79"/>
+        <v>121</v>
+      </c>
+      <c r="S18" s="87"/>
     </row>
     <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="G19" s="87"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="84"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="88"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="92"/>
       <c r="Q19" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="S19" s="79"/>
+        <v>122</v>
+      </c>
+      <c r="S19" s="87"/>
     </row>
     <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H20" s="74"/>
       <c r="I20" s="73"/>
-      <c r="P20" s="90" t="s">
-        <v>138</v>
+      <c r="P20" s="98" t="s">
+        <v>136</v>
       </c>
       <c r="Q20" s="75" t="s">
-        <v>125</v>
-      </c>
-      <c r="S20" s="79"/>
+        <v>123</v>
+      </c>
+      <c r="S20" s="87"/>
     </row>
     <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H21" s="73"/>
       <c r="I21" s="73"/>
-      <c r="P21" s="91"/>
+      <c r="P21" s="99"/>
       <c r="Q21" s="75" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H22" s="73"/>
       <c r="I22" s="73"/>
-      <c r="P22" s="91"/>
+      <c r="P22" s="99"/>
       <c r="Q22" s="76" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H23" s="73"/>
       <c r="I23" s="73"/>
-      <c r="P23" s="91"/>
+      <c r="P23" s="99"/>
     </row>
     <row r="24" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H24" s="73"/>
       <c r="I24" s="73"/>
-      <c r="P24" s="91"/>
+      <c r="P24" s="99"/>
     </row>
     <row r="25" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H25" s="73"/>
       <c r="I25" s="73"/>
-      <c r="P25" s="91"/>
+      <c r="P25" s="99"/>
     </row>
     <row r="26" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H26" s="73"/>
       <c r="I26" s="73"/>
-      <c r="P26" s="91"/>
+      <c r="P26" s="99"/>
     </row>
     <row r="27" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H27" s="73"/>
       <c r="I27" s="73"/>
-      <c r="P27" s="91"/>
+      <c r="P27" s="99"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="P28" s="92"/>
+      <c r="P28" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -10207,6 +10412,951 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D41264A-E03E-5D48-9DEA-948271C7B252}">
+  <dimension ref="A1:S52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="15">
+        <v>40</v>
+      </c>
+      <c r="C2" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15">
+        <v>5</v>
+      </c>
+      <c r="F2" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0</v>
+      </c>
+      <c r="J2" s="27">
+        <f>3.23*10^7</f>
+        <v>32300000</v>
+      </c>
+      <c r="K2" s="27">
+        <v>4900000</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>25</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="15">
+        <v>40</v>
+      </c>
+      <c r="C3" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D3" s="15">
+        <v>500</v>
+      </c>
+      <c r="E3" s="15">
+        <v>5</v>
+      </c>
+      <c r="F3" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0</v>
+      </c>
+      <c r="J3" s="27">
+        <f>3.23*10^7</f>
+        <v>32300000</v>
+      </c>
+      <c r="K3" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="15">
+        <v>40</v>
+      </c>
+      <c r="C4" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D4" s="13">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="15">
+        <v>5</v>
+      </c>
+      <c r="F4" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0</v>
+      </c>
+      <c r="J4" s="27">
+        <f t="shared" ref="J4:J18" si="0">3.23*10^7</f>
+        <v>32300000</v>
+      </c>
+      <c r="K4" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="15">
+        <v>40</v>
+      </c>
+      <c r="C5" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1500</v>
+      </c>
+      <c r="E5" s="15">
+        <v>5</v>
+      </c>
+      <c r="F5" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K5" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="15">
+        <v>40</v>
+      </c>
+      <c r="C6" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="15">
+        <v>5</v>
+      </c>
+      <c r="F6" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K6" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="15">
+        <v>40</v>
+      </c>
+      <c r="C7" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2500</v>
+      </c>
+      <c r="E7" s="15">
+        <v>5</v>
+      </c>
+      <c r="F7" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K7" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="15">
+        <v>40</v>
+      </c>
+      <c r="C8" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D8" s="13">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="15">
+        <v>5</v>
+      </c>
+      <c r="F8" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G8" s="13">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K8" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="15">
+        <v>40</v>
+      </c>
+      <c r="C9" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D9" s="13">
+        <v>3500</v>
+      </c>
+      <c r="E9" s="15">
+        <v>5</v>
+      </c>
+      <c r="F9" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K9" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="15">
+        <v>40</v>
+      </c>
+      <c r="C10" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D10" s="15">
+        <v>4000</v>
+      </c>
+      <c r="E10" s="15">
+        <v>5</v>
+      </c>
+      <c r="F10" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K10" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="15">
+        <v>40</v>
+      </c>
+      <c r="C11" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D11" s="15">
+        <v>4500</v>
+      </c>
+      <c r="E11" s="15">
+        <v>5</v>
+      </c>
+      <c r="F11" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K11" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="15">
+        <v>40</v>
+      </c>
+      <c r="C12" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D12" s="13">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="15">
+        <v>5</v>
+      </c>
+      <c r="F12" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K12" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="15">
+        <v>40</v>
+      </c>
+      <c r="C13" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D13" s="13">
+        <v>5500</v>
+      </c>
+      <c r="E13" s="15">
+        <v>5</v>
+      </c>
+      <c r="F13" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K13" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="15">
+        <v>40</v>
+      </c>
+      <c r="C14" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D14" s="15">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="15">
+        <v>5</v>
+      </c>
+      <c r="F14" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K14" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="15">
+        <v>40</v>
+      </c>
+      <c r="C15" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D15" s="15">
+        <v>6500</v>
+      </c>
+      <c r="E15" s="15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K15" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="15">
+        <v>40</v>
+      </c>
+      <c r="C16" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D16" s="13">
+        <v>7000</v>
+      </c>
+      <c r="E16" s="15">
+        <v>5</v>
+      </c>
+      <c r="F16" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K16" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="15">
+        <v>40</v>
+      </c>
+      <c r="C17" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D17" s="13">
+        <v>7500</v>
+      </c>
+      <c r="E17" s="15">
+        <v>5</v>
+      </c>
+      <c r="F17" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K17" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="15">
+        <v>40</v>
+      </c>
+      <c r="C18" s="15">
+        <v>-110</v>
+      </c>
+      <c r="D18" s="15">
+        <v>8000</v>
+      </c>
+      <c r="E18" s="15">
+        <v>5</v>
+      </c>
+      <c r="F18" s="26">
+        <v>3.2</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="27">
+        <f t="shared" si="0"/>
+        <v>32300000</v>
+      </c>
+      <c r="K18" s="27">
+        <v>4900000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="25"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="R52" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E4AF0F-1EA5-A040-8D3C-46EF46B46E2F}">
   <dimension ref="A2:S4"/>
   <sheetViews>
@@ -10218,7 +11368,7 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="10">
         <v>45</v>
@@ -10318,7 +11468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2A5F1D-52AF-A54A-8771-20EFD7D80ADD}">
   <dimension ref="A1:S54"/>
   <sheetViews>
@@ -10355,7 +11505,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>13</v>
@@ -10388,12 +11538,12 @@
         <v>97</v>
       </c>
       <c r="S1" s="65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="10">
         <v>45</v>
@@ -10987,7 +12137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC32D26-67B8-CB42-A367-4D6A94A6149D}">
   <dimension ref="A1:S54"/>
   <sheetViews>
@@ -11024,7 +12174,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>13</v>
@@ -11057,12 +12207,12 @@
         <v>97</v>
       </c>
       <c r="S1" s="65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B2" s="10">
         <v>20</v>
@@ -11656,7 +12806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0692F123-E8ED-A84F-B1D6-10660BCC4234}">
   <dimension ref="A1:R13"/>
   <sheetViews>
@@ -11686,7 +12836,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>13</v>
@@ -12006,7 +13156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345E843F-B5AF-7544-9892-CA1AD39C5E9D}">
   <dimension ref="A1:R52"/>
   <sheetViews>
@@ -12055,7 +13205,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H1" s="65" t="s">
         <v>13</v>
@@ -12693,430 +13843,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2CA47B-538E-684E-879A-957351F4517A}">
-  <dimension ref="A1:K32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="9">
-        <v>20</v>
-      </c>
-      <c r="C2" s="9">
-        <v>73</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1">
-        <f>65.91*10^7</f>
-        <v>659100000</v>
-      </c>
-      <c r="K2" s="1">
-        <f>1.2*10^7</f>
-        <v>12000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="9">
-        <v>-19</v>
-      </c>
-      <c r="C3" s="9">
-        <v>-69</v>
-      </c>
-      <c r="D3" s="9">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="9">
-        <v>75</v>
-      </c>
-      <c r="C4" s="9">
-        <v>-42</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>20</v>
-      </c>
-      <c r="D5" s="9">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="10"/>
-      <c r="E22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="10"/>
-      <c r="E23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="10"/>
-      <c r="E24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="9"/>
-      <c r="E25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="9"/>
-      <c r="E26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D2FC6D-85CF-6E43-9F67-D40DCCF834A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42932E3-9421-B342-9F23-F23DF1E65816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
-    <sheet name="atm_depth_elevations" sheetId="21" r:id="rId2"/>
-    <sheet name="README" sheetId="4" r:id="rId3"/>
-    <sheet name="atm_depth_comparison" sheetId="19" r:id="rId4"/>
-    <sheet name="Figure 1B" sheetId="20" r:id="rId5"/>
-    <sheet name="CRFB texposure" sheetId="18" r:id="rId6"/>
-    <sheet name="Deccan Texposure" sheetId="17" r:id="rId7"/>
-    <sheet name="Figure 1" sheetId="8" r:id="rId8"/>
-    <sheet name="Figure 2" sheetId="10" r:id="rId9"/>
-    <sheet name="Figure 3" sheetId="7" r:id="rId10"/>
-    <sheet name="Figure 6,8" sheetId="5" r:id="rId11"/>
+    <sheet name="Figure 8" sheetId="22" r:id="rId2"/>
+    <sheet name="atm_depth_elevations" sheetId="21" r:id="rId3"/>
+    <sheet name="README" sheetId="4" r:id="rId4"/>
+    <sheet name="atm_depth_comparison" sheetId="19" r:id="rId5"/>
+    <sheet name="Figure 1B" sheetId="20" r:id="rId6"/>
+    <sheet name="CRFB texposure" sheetId="18" r:id="rId7"/>
+    <sheet name="Deccan Texposure" sheetId="17" r:id="rId8"/>
+    <sheet name="Figure 1" sheetId="8" r:id="rId9"/>
+    <sheet name="Figure 2" sheetId="10" r:id="rId10"/>
+    <sheet name="Figure 3" sheetId="7" r:id="rId11"/>
     <sheet name="Figure 7" sheetId="12" r:id="rId12"/>
     <sheet name="Figure 9_pyx" sheetId="14" r:id="rId13"/>
     <sheet name="Figure 9_neon" sheetId="16" r:id="rId14"/>
@@ -33,113 +33,131 @@
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Active!$B$77,Active!$B$82,Active!$B$84,Active!$B$85</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">atm_depth_comparison!$B$79,atm_depth_comparison!$B$84,atm_depth_comparison!$B$86,atm_depth_comparison!$B$87</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">atm_depth_elevations!$B$77,atm_depth_elevations!$B$82,atm_depth_elevations!$B$84,atm_depth_elevations!$B$85</definedName>
-    <definedName name="solver_adj" localSheetId="5" hidden="1">'CRFB texposure'!$B$79,'CRFB texposure'!$B$84,'CRFB texposure'!$B$86,'CRFB texposure'!$B$87</definedName>
-    <definedName name="solver_adj" localSheetId="6" hidden="1">'Deccan Texposure'!$B$79,'Deccan Texposure'!$B$84,'Deccan Texposure'!$B$86,'Deccan Texposure'!$B$87</definedName>
-    <definedName name="solver_adj" localSheetId="9" hidden="1">'Figure 3'!$B$74,'Figure 3'!$B$79,'Figure 3'!$B$81,'Figure 3'!$B$82</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">atm_depth_comparison!$B$79,atm_depth_comparison!$B$84,atm_depth_comparison!$B$86,atm_depth_comparison!$B$87</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">atm_depth_elevations!$B$77,atm_depth_elevations!$B$82,atm_depth_elevations!$B$84,atm_depth_elevations!$B$85</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'CRFB texposure'!$B$79,'CRFB texposure'!$B$84,'CRFB texposure'!$B$86,'CRFB texposure'!$B$87</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'Deccan Texposure'!$B$79,'Deccan Texposure'!$B$84,'Deccan Texposure'!$B$86,'Deccan Texposure'!$B$87</definedName>
+    <definedName name="solver_adj" localSheetId="10" hidden="1">'Figure 3'!$B$74,'Figure 3'!$B$79,'Figure 3'!$B$81,'Figure 3'!$B$82</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Figure 8'!$B$77,'Figure 8'!$B$82,'Figure 8'!$B$84,'Figure 8'!$B$85</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Active!$B$88</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">atm_depth_comparison!$B$90</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">atm_depth_elevations!$B$88</definedName>
-    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'CRFB texposure'!$B$90</definedName>
-    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Deccan Texposure'!$B$90</definedName>
-    <definedName name="solver_lhs1" localSheetId="9" hidden="1">'Figure 3'!$B$85</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">atm_depth_comparison!$B$90</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">atm_depth_elevations!$B$88</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'CRFB texposure'!$B$90</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'Deccan Texposure'!$B$90</definedName>
+    <definedName name="solver_lhs1" localSheetId="10" hidden="1">'Figure 3'!$B$85</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Figure 8'!$B$88</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Active!$F$55</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">atm_depth_comparison!$F$57</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">atm_depth_elevations!$F$55</definedName>
-    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'CRFB texposure'!$F$57</definedName>
-    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Deccan Texposure'!$F$57</definedName>
-    <definedName name="solver_lhs2" localSheetId="9" hidden="1">'Figure 3'!$F$52</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">atm_depth_comparison!$F$57</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">atm_depth_elevations!$F$55</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">'CRFB texposure'!$F$57</definedName>
+    <definedName name="solver_lhs2" localSheetId="7" hidden="1">'Deccan Texposure'!$F$57</definedName>
+    <definedName name="solver_lhs2" localSheetId="10" hidden="1">'Figure 3'!$F$52</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Figure 8'!$F$55</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Active!$F$56</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">atm_depth_comparison!$F$58</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">atm_depth_elevations!$F$56</definedName>
-    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'CRFB texposure'!$F$58</definedName>
-    <definedName name="solver_lhs3" localSheetId="6" hidden="1">'Deccan Texposure'!$F$58</definedName>
-    <definedName name="solver_lhs3" localSheetId="9" hidden="1">'Figure 3'!$F$53</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">atm_depth_comparison!$F$58</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">atm_depth_elevations!$F$56</definedName>
+    <definedName name="solver_lhs3" localSheetId="6" hidden="1">'CRFB texposure'!$F$58</definedName>
+    <definedName name="solver_lhs3" localSheetId="7" hidden="1">'Deccan Texposure'!$F$58</definedName>
+    <definedName name="solver_lhs3" localSheetId="10" hidden="1">'Figure 3'!$F$53</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Figure 8'!$F$56</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="9" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="10" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="6" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="9" hidden="1">3</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Active!$F$54</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">atm_depth_comparison!$F$56</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">atm_depth_elevations!$F$54</definedName>
-    <definedName name="solver_opt" localSheetId="5" hidden="1">'CRFB texposure'!$F$56</definedName>
-    <definedName name="solver_opt" localSheetId="6" hidden="1">'Deccan Texposure'!$F$56</definedName>
-    <definedName name="solver_opt" localSheetId="9" hidden="1">'Figure 3'!$F$51</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">atm_depth_comparison!$F$56</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">atm_depth_elevations!$F$54</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'CRFB texposure'!$F$56</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">'Deccan Texposure'!$F$56</definedName>
+    <definedName name="solver_opt" localSheetId="10" hidden="1">'Figure 3'!$F$51</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Figure 8'!$F$54</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="9" hidden="1">2</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">100</definedName>
+    <definedName name="solver_rhs1" localSheetId="10" hidden="1">100</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_rhs1" localSheetId="5" hidden="1">100</definedName>
-    <definedName name="solver_rhs1" localSheetId="6" hidden="1">100</definedName>
-    <definedName name="solver_rhs1" localSheetId="9" hidden="1">100</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0.4</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">0.4</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">0.4</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0.4</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">0.4</definedName>
+    <definedName name="solver_rhs2" localSheetId="7" hidden="1">0.4</definedName>
+    <definedName name="solver_rhs2" localSheetId="10" hidden="1">0.4</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">0.4</definedName>
-    <definedName name="solver_rhs2" localSheetId="5" hidden="1">0.4</definedName>
-    <definedName name="solver_rhs2" localSheetId="6" hidden="1">0.4</definedName>
-    <definedName name="solver_rhs2" localSheetId="9" hidden="1">0.4</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">1.4</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">1.4</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">1.4</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">1.4</definedName>
+    <definedName name="solver_rhs3" localSheetId="6" hidden="1">1.4</definedName>
+    <definedName name="solver_rhs3" localSheetId="7" hidden="1">1.4</definedName>
+    <definedName name="solver_rhs3" localSheetId="10" hidden="1">1.4</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">1.4</definedName>
-    <definedName name="solver_rhs3" localSheetId="5" hidden="1">1.4</definedName>
-    <definedName name="solver_rhs3" localSheetId="6" hidden="1">1.4</definedName>
-    <definedName name="solver_rhs3" localSheetId="9" hidden="1">1.4</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="10" hidden="1">3</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_typ" localSheetId="5" hidden="1">3</definedName>
-    <definedName name="solver_typ" localSheetId="6" hidden="1">3</definedName>
-    <definedName name="solver_typ" localSheetId="9" hidden="1">3</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">98.2</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">98.2</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">98.2</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">98.2</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">98.2</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">98.2</definedName>
+    <definedName name="solver_val" localSheetId="10" hidden="1">98.2</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">98.2</definedName>
-    <definedName name="solver_val" localSheetId="5" hidden="1">98.2</definedName>
-    <definedName name="solver_val" localSheetId="6" hidden="1">98.2</definedName>
-    <definedName name="solver_val" localSheetId="9" hidden="1">98.2</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="5" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="6" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="9" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -162,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="147">
   <si>
     <t>Sample Name</t>
   </si>
@@ -571,9 +589,6 @@
     <t>Topographic shielding correction</t>
   </si>
   <si>
-    <t>IN</t>
-  </si>
-  <si>
     <t>Exposure Age</t>
   </si>
   <si>
@@ -614,6 +629,9 @@
   </si>
   <si>
     <t>2 =</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -1582,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39602BD4-AF2D-864A-8905-789D980EB8BD}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1623,7 +1641,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J1" s="65" t="s">
         <v>7</v>
@@ -1638,10 +1656,10 @@
         <v>33</v>
       </c>
       <c r="O1" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" s="65" t="s">
         <v>141</v>
-      </c>
-      <c r="P1" s="65" t="s">
-        <v>142</v>
       </c>
       <c r="Q1" s="65" t="s">
         <v>36</v>
@@ -1654,55 +1672,55 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="10">
-        <v>-20</v>
-      </c>
-      <c r="C2" s="10">
-        <v>73</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="11">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2000000</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0</v>
-      </c>
-      <c r="M2">
+      <c r="A2" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="34">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="C2" s="34">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="D2" s="34">
+        <v>957</v>
+      </c>
+      <c r="E2" s="35">
+        <v>3</v>
+      </c>
+      <c r="F2" s="34">
+        <v>2.65</v>
+      </c>
+      <c r="G2" s="35">
+        <v>1</v>
+      </c>
+      <c r="H2" s="35">
+        <v>0</v>
+      </c>
+      <c r="I2" s="35">
+        <v>0</v>
+      </c>
+      <c r="J2" s="34">
+        <v>458399999.99999994</v>
+      </c>
+      <c r="K2" s="38">
+        <v>2200000</v>
+      </c>
+      <c r="M2" s="37">
+        <v>4</v>
+      </c>
+      <c r="N2">
         <v>2</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
       <c r="O2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="P2">
-        <v>70</v>
+        <v>33.25</v>
       </c>
       <c r="Q2">
-        <v>4</v>
-      </c>
-      <c r="R2" s="1">
+        <v>2</v>
+      </c>
+      <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
@@ -1710,439 +1728,239 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="15">
-        <v>110</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="R3" s="1"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="R4" s="1"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="39"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="R5" s="1"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="R6" s="1"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="39"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="R7" s="1"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="R8" s="1"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="R9" s="1"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="39"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="R10" s="1"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="39"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="R11" s="1"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="39"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="R12" s="1"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="39"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="39"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="39"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="39"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="82"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="81"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="81"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="78"/>
-      <c r="H23" s="78"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="81"/>
-      <c r="K23" s="81"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="85"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="78"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="78"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="78"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="78"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="39"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="40"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="11"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="11"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="R31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="11"/>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="R32" s="1"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="11"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="R33" s="1"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="11"/>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="R34" s="1"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="11"/>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="R35" s="1"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
@@ -2355,6 +2173,695 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345E843F-B5AF-7544-9892-CA1AD39C5E9D}">
+  <dimension ref="A1:R52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.25</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>36</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>42</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>46</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>52</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>54</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>56</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>58</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>60</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>62</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>64</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>66</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>68</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>70</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>72</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>74</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>76</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>78</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>80</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>82</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>84</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>86</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>88</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>90</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2CA47B-538E-684E-879A-957351F4517A}">
   <dimension ref="A1:K32"/>
   <sheetViews>
@@ -2780,159 +3287,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9FD288-F7FF-CC43-984C-6BC5F64D5A7D}">
-  <dimension ref="A1:R11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="9">
-        <v>23</v>
-      </c>
-      <c r="C2" s="9">
-        <v>70</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>70</v>
-      </c>
-      <c r="P2">
-        <v>4</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923D42B9-7A86-1345-AADD-F9A6DEC8D2BA}">
   <dimension ref="A1:R52"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD35"/>
     </sheetView>
   </sheetViews>
@@ -3630,7 +3989,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J1" s="65" t="s">
         <v>7</v>
@@ -4925,7 +5284,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J1" s="65" t="s">
         <v>7</v>
@@ -8984,6 +9343,910 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEFBE58-CD57-344B-88BA-72D2D56C7FA4}">
+  <dimension ref="A1:S52"/>
+  <sheetViews>
+    <sheetView zoomScale="92" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="65" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="J1" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q1" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="S1" s="65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2">
+        <v>65</v>
+      </c>
+      <c r="C2">
+        <v>-130</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>65</v>
+      </c>
+      <c r="P2">
+        <v>70</v>
+      </c>
+      <c r="Q2">
+        <v>8</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>-130</v>
+      </c>
+      <c r="D3">
+        <v>500</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>-130</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>-130</v>
+      </c>
+      <c r="D5">
+        <v>1500</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>-130</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>-130</v>
+      </c>
+      <c r="D7">
+        <v>2500</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>-130</v>
+      </c>
+      <c r="D8">
+        <v>3000</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9">
+        <v>65</v>
+      </c>
+      <c r="C9">
+        <v>-130</v>
+      </c>
+      <c r="D9">
+        <v>3500</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10">
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <v>-130</v>
+      </c>
+      <c r="D10">
+        <v>4000</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>-130</v>
+      </c>
+      <c r="D11">
+        <v>4500</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12">
+        <v>65</v>
+      </c>
+      <c r="C12">
+        <v>-130</v>
+      </c>
+      <c r="D12">
+        <v>5000</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13">
+        <v>65</v>
+      </c>
+      <c r="C13">
+        <v>-130</v>
+      </c>
+      <c r="D13">
+        <v>5500</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14">
+        <v>65</v>
+      </c>
+      <c r="C14">
+        <v>-130</v>
+      </c>
+      <c r="D14">
+        <v>6000</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15">
+        <v>65</v>
+      </c>
+      <c r="C15">
+        <v>-130</v>
+      </c>
+      <c r="D15">
+        <v>6500</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16">
+        <v>65</v>
+      </c>
+      <c r="C16">
+        <v>-130</v>
+      </c>
+      <c r="D16">
+        <v>7000</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17">
+        <v>65</v>
+      </c>
+      <c r="C17">
+        <v>-130</v>
+      </c>
+      <c r="D17">
+        <v>7500</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18">
+        <v>65</v>
+      </c>
+      <c r="C18">
+        <v>-130</v>
+      </c>
+      <c r="D18">
+        <v>8000</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>-70</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>-70</v>
+      </c>
+      <c r="D20">
+        <v>500</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>-70</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>-70</v>
+      </c>
+      <c r="D22">
+        <v>1500</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>-70</v>
+      </c>
+      <c r="D23">
+        <v>2000</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>-70</v>
+      </c>
+      <c r="D24">
+        <v>2500</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>-70</v>
+      </c>
+      <c r="D25">
+        <v>3000</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>-70</v>
+      </c>
+      <c r="D26">
+        <v>3500</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>-70</v>
+      </c>
+      <c r="D27">
+        <v>4000</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>-70</v>
+      </c>
+      <c r="D28">
+        <v>4500</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>-70</v>
+      </c>
+      <c r="D29">
+        <v>5000</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>-70</v>
+      </c>
+      <c r="D30">
+        <v>5500</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>-70</v>
+      </c>
+      <c r="D31">
+        <v>6000</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="R31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>-70</v>
+      </c>
+      <c r="D32">
+        <v>6500</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>-70</v>
+      </c>
+      <c r="D33">
+        <v>7000</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="R33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>-70</v>
+      </c>
+      <c r="D34">
+        <v>7500</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>-70</v>
+      </c>
+      <c r="D35">
+        <v>8000</v>
+      </c>
+      <c r="E35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="R35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="1"/>
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="1"/>
+      <c r="R37" s="1"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="1"/>
+      <c r="R38" s="1"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="1"/>
+      <c r="R39" s="1"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="1"/>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="1"/>
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="1"/>
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="1"/>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="1"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="1"/>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="1"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="1"/>
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="1"/>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="1"/>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="1"/>
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="1"/>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="1"/>
+      <c r="R52" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B76439-A041-8441-B76D-05326B69C3F1}">
   <dimension ref="A1:S52"/>
   <sheetViews>
@@ -9028,7 +10291,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J1" s="65" t="s">
         <v>7</v>
@@ -9043,10 +10306,10 @@
         <v>33</v>
       </c>
       <c r="O1" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" s="65" t="s">
         <v>141</v>
-      </c>
-      <c r="P1" s="65" t="s">
-        <v>142</v>
       </c>
       <c r="Q1" s="65" t="s">
         <v>36</v>
@@ -9060,7 +10323,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="10">
         <v>-20</v>
@@ -9116,7 +10379,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="10">
         <v>-20</v>
@@ -9148,7 +10411,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="10">
         <v>-20</v>
@@ -9180,7 +10443,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="10">
         <v>-20</v>
@@ -9212,7 +10475,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="10">
         <v>-20</v>
@@ -9244,7 +10507,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="10">
         <v>-20</v>
@@ -9276,7 +10539,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="10">
         <v>-20</v>
@@ -9308,7 +10571,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="10">
         <v>-20</v>
@@ -9340,7 +10603,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="10">
         <v>-20</v>
@@ -9372,7 +10635,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="10">
         <v>-20</v>
@@ -9404,7 +10667,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" s="10">
         <v>-20</v>
@@ -9936,11 +11199,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A252A25-C5BD-9644-90A1-8F508F9F4733}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
@@ -9994,7 +11257,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J1" s="65" t="s">
         <v>7</v>
@@ -10009,10 +11272,10 @@
         <v>33</v>
       </c>
       <c r="O1" s="65" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" s="65" t="s">
         <v>141</v>
-      </c>
-      <c r="P1" s="65" t="s">
-        <v>142</v>
       </c>
       <c r="Q1" s="65" t="s">
         <v>36</v>
@@ -10050,7 +11313,7 @@
         <v>105</v>
       </c>
       <c r="I2" s="60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J2" s="56" t="s">
         <v>105</v>
@@ -10063,7 +11326,7 @@
         <v>111</v>
       </c>
       <c r="N2" s="61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O2" s="56" t="s">
         <v>104</v>
@@ -10086,7 +11349,7 @@
       <c r="C3" s="57"/>
       <c r="H3" s="60"/>
       <c r="I3" s="60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K3" s="58"/>
       <c r="L3" s="58"/>
@@ -10208,10 +11471,10 @@
         <v>107</v>
       </c>
       <c r="H15" s="96" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I15" s="97" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J15" s="88" t="s">
         <v>110</v>
@@ -10286,13 +11549,13 @@
         <v>114</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O17" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="P17" s="91" t="s">
         <v>143</v>
-      </c>
-      <c r="P17" s="91" t="s">
-        <v>144</v>
       </c>
       <c r="Q17" s="67" t="s">
         <v>128</v>
@@ -10338,7 +11601,7 @@
       <c r="H20" s="74"/>
       <c r="I20" s="73"/>
       <c r="P20" s="98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="75" t="s">
         <v>123</v>
@@ -10411,7 +11674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D41264A-E03E-5D48-9DEA-948271C7B252}">
   <dimension ref="A1:S52"/>
   <sheetViews>
@@ -10456,7 +11719,7 @@
         <v>13</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J1" s="65" t="s">
         <v>7</v>
@@ -11356,7 +12619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E4AF0F-1EA5-A040-8D3C-46EF46B46E2F}">
   <dimension ref="A2:S4"/>
   <sheetViews>
@@ -11368,7 +12631,7 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="10">
         <v>45</v>
@@ -11468,7 +12731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D2A5F1D-52AF-A54A-8771-20EFD7D80ADD}">
   <dimension ref="A1:S54"/>
   <sheetViews>
@@ -11538,12 +12801,12 @@
         <v>97</v>
       </c>
       <c r="S1" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="10">
         <v>45</v>
@@ -12137,7 +13400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC32D26-67B8-CB42-A367-4D6A94A6149D}">
   <dimension ref="A1:S54"/>
   <sheetViews>
@@ -12207,12 +13470,12 @@
         <v>97</v>
       </c>
       <c r="S1" s="65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B2" s="10">
         <v>20</v>
@@ -12806,7 +14069,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0692F123-E8ED-A84F-B1D6-10660BCC4234}">
   <dimension ref="A1:R13"/>
   <sheetViews>
@@ -13154,693 +14417,4 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345E843F-B5AF-7544-9892-CA1AD39C5E9D}">
-  <dimension ref="A1:R52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="30" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" s="65" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>2</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0.25</v>
-      </c>
-      <c r="P2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>18</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>20</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>22</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B14">
-        <v>24</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>26</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B16">
-        <v>28</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B17">
-        <v>30</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B18">
-        <v>32</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B19">
-        <v>34</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <v>36</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21">
-        <v>38</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B22">
-        <v>40</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B23">
-        <v>42</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B24">
-        <v>44</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B25">
-        <v>46</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B26">
-        <v>48</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B27">
-        <v>50</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B28">
-        <v>52</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B29">
-        <v>54</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B30">
-        <v>56</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B31">
-        <v>58</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B32">
-        <v>60</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33">
-        <v>62</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34">
-        <v>64</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35">
-        <v>66</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36">
-        <v>68</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37">
-        <v>70</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38">
-        <v>72</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39">
-        <v>74</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <v>76</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41">
-        <v>78</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42">
-        <v>80</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B43">
-        <v>82</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B44">
-        <v>84</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B45">
-        <v>86</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B46">
-        <v>88</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B47">
-        <v>90</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="Q49" s="1"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="Q50" s="1"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="Q51" s="1"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="Q52" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CBED11-F306-5B4D-A013-35FCA4FB1DCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2520897E-1A56-6B42-8A08-837AAF3EB63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="19840" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="217">
   <si>
     <t>Sample Name</t>
   </si>
@@ -674,88 +674,52 @@
     <t>09-HAW-22-ol</t>
   </si>
   <si>
-    <t>Day 01-05</t>
-  </si>
-  <si>
-    <t>Day 02-02</t>
-  </si>
-  <si>
-    <t>21/10</t>
-  </si>
-  <si>
-    <t>20/10</t>
-  </si>
-  <si>
-    <t>Day 02-11</t>
-  </si>
-  <si>
-    <t>Day 4-02</t>
-  </si>
-  <si>
-    <t>Day 04-03</t>
-  </si>
-  <si>
-    <t>Day 4-04</t>
-  </si>
-  <si>
-    <t>Day 04-10</t>
-  </si>
-  <si>
-    <t>Day 04-11</t>
-  </si>
-  <si>
-    <t>Day 4-12</t>
-  </si>
-  <si>
-    <t>10/21</t>
-  </si>
-  <si>
-    <t>08/21</t>
-  </si>
-  <si>
-    <t>23/21</t>
-  </si>
-  <si>
-    <t>24/21</t>
-  </si>
-  <si>
-    <t>02/21</t>
-  </si>
-  <si>
-    <t>10/10</t>
-  </si>
-  <si>
-    <t>Day 03-10</t>
-  </si>
-  <si>
-    <t>Day 3 -11</t>
-  </si>
-  <si>
-    <t>01/02</t>
-  </si>
-  <si>
-    <t>Day 05-01</t>
-  </si>
-  <si>
-    <t>Day 05-02</t>
-  </si>
-  <si>
-    <t>Day 5 -03</t>
-  </si>
-  <si>
-    <t>01/12</t>
-  </si>
-  <si>
-    <t>02/12</t>
-  </si>
-  <si>
-    <t>07/18</t>
-  </si>
-  <si>
-    <t>06/16</t>
-  </si>
-  <si>
-    <t>09/16</t>
+    <t>p103/1</t>
+  </si>
+  <si>
+    <t>P103/A</t>
+  </si>
+  <si>
+    <t>P103/B</t>
+  </si>
+  <si>
+    <t>P103/C</t>
+  </si>
+  <si>
+    <t>P103/D</t>
+  </si>
+  <si>
+    <t>PI-06A</t>
+  </si>
+  <si>
+    <t>PI-06B</t>
+  </si>
+  <si>
+    <t>PI-06C</t>
+  </si>
+  <si>
+    <t>PI-06D</t>
+  </si>
+  <si>
+    <t>PI-07A</t>
+  </si>
+  <si>
+    <t>PI-07B</t>
+  </si>
+  <si>
+    <t>PI-07C</t>
+  </si>
+  <si>
+    <t>PI-07D</t>
+  </si>
+  <si>
+    <t>PI-11</t>
+  </si>
+  <si>
+    <t>PI-12</t>
+  </si>
+  <si>
+    <t>PI-01</t>
   </si>
 </sst>
 </file>
@@ -875,7 +839,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -903,6 +867,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1083,7 +1053,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1228,21 +1198,23 @@
     <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1254,6 +1226,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1271,6 +1246,9 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1283,6 +1261,10 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1601,7 +1583,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1672,43 +1654,41 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="9">
-        <v>-20.101167</v>
-      </c>
-      <c r="C2" s="9">
-        <v>-69.491221999999993</v>
-      </c>
-      <c r="D2" s="9">
-        <v>1380</v>
-      </c>
-      <c r="E2" s="9">
-        <v>5</v>
-      </c>
-      <c r="F2" s="10">
-        <v>3.2</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8">
-        <v>0</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="51">
-        <f>3.23*10^7</f>
-        <v>32300000</v>
-      </c>
-      <c r="K2" s="51">
-        <v>4900000</v>
-      </c>
-      <c r="L2" s="50"/>
-      <c r="M2">
-        <v>2</v>
+      <c r="B2" s="52">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="C2" s="52">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="D2" s="52">
+        <v>957</v>
+      </c>
+      <c r="E2" s="50">
+        <v>3</v>
+      </c>
+      <c r="F2" s="52">
+        <v>2.65</v>
+      </c>
+      <c r="G2" s="50">
+        <v>1</v>
+      </c>
+      <c r="H2" s="50">
+        <v>0</v>
+      </c>
+      <c r="I2" s="50">
+        <v>0</v>
+      </c>
+      <c r="J2" s="52">
+        <v>458399999.99999994</v>
+      </c>
+      <c r="K2" s="53">
+        <v>2200000</v>
+      </c>
+      <c r="M2" s="72">
+        <v>4</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1717,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1730,1042 +1710,730 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="34">
-        <v>-20.101167</v>
-      </c>
-      <c r="C3" s="34">
-        <v>-69.491221999999993</v>
-      </c>
-      <c r="D3" s="34">
-        <v>1380</v>
-      </c>
-      <c r="E3" s="34">
-        <v>5</v>
-      </c>
-      <c r="F3" s="35">
-        <v>3.2</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="36">
-        <f>25.9*10^7</f>
-        <v>259000000</v>
-      </c>
-      <c r="K3" s="36">
-        <v>8800000</v>
+      <c r="B3" s="50">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="C3" s="50">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="D3" s="50">
+        <v>957</v>
+      </c>
+      <c r="E3" s="50">
+        <v>3</v>
+      </c>
+      <c r="F3" s="50">
+        <v>2.65</v>
+      </c>
+      <c r="G3" s="50">
+        <v>1</v>
+      </c>
+      <c r="H3" s="50">
+        <v>0</v>
+      </c>
+      <c r="I3" s="50">
+        <v>0</v>
+      </c>
+      <c r="J3" s="50">
+        <v>495000000</v>
+      </c>
+      <c r="K3" s="51">
+        <v>3600000</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="50" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="8">
-        <v>-19.578942000000001</v>
-      </c>
-      <c r="C4" s="8">
-        <v>-69.872967000000003</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1172</v>
-      </c>
-      <c r="E4" s="8">
-        <v>5</v>
-      </c>
-      <c r="F4" s="35">
-        <v>2.89</v>
-      </c>
-      <c r="G4" s="8">
-        <v>1</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="52">
-        <f>65.91*10^7</f>
-        <v>659100000</v>
-      </c>
-      <c r="K4" s="52">
-        <v>12000000</v>
+      <c r="B4" s="50">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="C4" s="50">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="D4" s="50">
+        <v>957</v>
+      </c>
+      <c r="E4" s="50">
+        <v>3</v>
+      </c>
+      <c r="F4" s="50">
+        <v>2.65</v>
+      </c>
+      <c r="G4" s="50">
+        <v>1</v>
+      </c>
+      <c r="H4" s="50">
+        <v>0</v>
+      </c>
+      <c r="I4" s="50">
+        <v>0</v>
+      </c>
+      <c r="J4" s="50">
+        <v>381800000</v>
+      </c>
+      <c r="K4" s="51">
+        <v>3000000</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="8">
-        <v>-19.578942000000001</v>
-      </c>
-      <c r="C5" s="8">
-        <v>-69.872967000000003</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1172</v>
-      </c>
-      <c r="E5" s="9">
-        <v>5</v>
-      </c>
-      <c r="F5" s="35">
-        <v>2.89</v>
-      </c>
-      <c r="G5" s="8">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="52">
-        <f>32.2*10^7</f>
-        <v>322000000</v>
-      </c>
-      <c r="K5" s="52">
-        <v>7000000</v>
+      <c r="B5" s="50">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="C5" s="50">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="D5" s="50">
+        <v>957</v>
+      </c>
+      <c r="E5" s="50">
+        <v>3</v>
+      </c>
+      <c r="F5" s="50">
+        <v>2.65</v>
+      </c>
+      <c r="G5" s="50">
+        <v>1</v>
+      </c>
+      <c r="H5" s="50">
+        <v>0</v>
+      </c>
+      <c r="I5" s="50">
+        <v>0</v>
+      </c>
+      <c r="J5" s="50">
+        <v>725300000</v>
+      </c>
+      <c r="K5" s="51">
+        <v>4400000</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="34">
-        <v>-19.987110999999999</v>
-      </c>
-      <c r="C6" s="34">
-        <v>-69.433610999999999</v>
-      </c>
-      <c r="D6" s="34">
-        <v>1943</v>
-      </c>
-      <c r="E6" s="34">
-        <v>5</v>
-      </c>
-      <c r="F6" s="35">
-        <v>2.89</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="36">
-        <f>63.88*10^7</f>
-        <v>638800000</v>
-      </c>
-      <c r="K6" s="36">
-        <v>25700000</v>
+      <c r="B6" s="50">
+        <v>-19.541574000000001</v>
+      </c>
+      <c r="C6" s="50">
+        <v>-70.116951999999998</v>
+      </c>
+      <c r="D6" s="50">
+        <v>957</v>
+      </c>
+      <c r="E6" s="50">
+        <v>3</v>
+      </c>
+      <c r="F6" s="50">
+        <v>2.65</v>
+      </c>
+      <c r="G6" s="50">
+        <v>1</v>
+      </c>
+      <c r="H6" s="50">
+        <v>0</v>
+      </c>
+      <c r="I6" s="50">
+        <v>0</v>
+      </c>
+      <c r="J6" s="50">
+        <v>463100000</v>
+      </c>
+      <c r="K6" s="51">
+        <v>3300000</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="B7" s="34">
-        <v>-19.340944</v>
-      </c>
-      <c r="C7" s="34">
-        <v>-69.727999999999994</v>
-      </c>
-      <c r="D7" s="34">
-        <v>1607</v>
-      </c>
-      <c r="E7" s="8">
-        <v>5</v>
-      </c>
-      <c r="F7" s="35">
-        <v>2.89</v>
-      </c>
-      <c r="G7" s="8">
-        <v>1</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="36">
-        <f>74.48*10^7</f>
-        <v>744800000</v>
-      </c>
-      <c r="K7" s="36">
-        <v>23300000</v>
+      <c r="B7" s="50">
+        <v>-19.564599999999999</v>
+      </c>
+      <c r="C7" s="50">
+        <v>-70.117283</v>
+      </c>
+      <c r="D7" s="50">
+        <v>925</v>
+      </c>
+      <c r="E7" s="50">
+        <v>3</v>
+      </c>
+      <c r="F7" s="50">
+        <v>2.65</v>
+      </c>
+      <c r="G7" s="50">
+        <v>1</v>
+      </c>
+      <c r="H7" s="50">
+        <v>0</v>
+      </c>
+      <c r="I7" s="50">
+        <v>0</v>
+      </c>
+      <c r="J7" s="50">
+        <v>501800000</v>
+      </c>
+      <c r="K7" s="51">
+        <v>3400000.0000000005</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="B8" s="34">
-        <v>-19.340944</v>
-      </c>
-      <c r="C8" s="34">
-        <v>-69.727999999999994</v>
-      </c>
-      <c r="D8" s="34">
-        <v>1607</v>
-      </c>
-      <c r="E8" s="9">
-        <v>5</v>
-      </c>
-      <c r="F8" s="35">
-        <v>2.89</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="36">
-        <f>91.1*10^7</f>
-        <v>911000000</v>
-      </c>
-      <c r="K8" s="36">
-        <v>13000000</v>
+      <c r="B8" s="50">
+        <v>-19.564599999999999</v>
+      </c>
+      <c r="C8" s="50">
+        <v>-70.117283</v>
+      </c>
+      <c r="D8" s="50">
+        <v>925</v>
+      </c>
+      <c r="E8" s="50">
+        <v>3</v>
+      </c>
+      <c r="F8" s="50">
+        <v>2.65</v>
+      </c>
+      <c r="G8" s="50">
+        <v>1</v>
+      </c>
+      <c r="H8" s="50">
+        <v>0</v>
+      </c>
+      <c r="I8" s="50">
+        <v>0</v>
+      </c>
+      <c r="J8" s="50">
+        <v>315000000</v>
+      </c>
+      <c r="K8" s="51">
+        <v>2400000</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="B9" s="34">
-        <v>-19.340944</v>
-      </c>
-      <c r="C9" s="34">
-        <v>-69.727999999999994</v>
-      </c>
-      <c r="D9" s="34">
-        <v>1607</v>
-      </c>
-      <c r="E9" s="34">
-        <v>5</v>
-      </c>
-      <c r="F9" s="35">
-        <v>2.89</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="36">
-        <f>167.12*10^7</f>
-        <v>1671200000</v>
-      </c>
-      <c r="K9" s="36">
-        <v>36500000</v>
+      <c r="B9" s="50">
+        <v>-19.564599999999999</v>
+      </c>
+      <c r="C9" s="50">
+        <v>-70.117283</v>
+      </c>
+      <c r="D9" s="50">
+        <v>925</v>
+      </c>
+      <c r="E9" s="50">
+        <v>3</v>
+      </c>
+      <c r="F9" s="50">
+        <v>2.65</v>
+      </c>
+      <c r="G9" s="50">
+        <v>1</v>
+      </c>
+      <c r="H9" s="50">
+        <v>0</v>
+      </c>
+      <c r="I9" s="50">
+        <v>0</v>
+      </c>
+      <c r="J9" s="50">
+        <v>209900000.00000003</v>
+      </c>
+      <c r="K9" s="51">
+        <v>1600000</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="B10" s="34">
-        <v>-19.336722000000002</v>
-      </c>
-      <c r="C10" s="34">
-        <v>-69.729611000000006</v>
-      </c>
-      <c r="D10" s="34">
-        <v>1604</v>
-      </c>
-      <c r="E10" s="8">
-        <v>5</v>
-      </c>
-      <c r="F10" s="35">
-        <v>2.89</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="36">
-        <f>24.27*10^7</f>
-        <v>242700000</v>
-      </c>
-      <c r="K10" s="36">
-        <v>10500000</v>
+      <c r="B10" s="50">
+        <v>-19.564599999999999</v>
+      </c>
+      <c r="C10" s="50">
+        <v>-70.117283</v>
+      </c>
+      <c r="D10" s="50">
+        <v>925</v>
+      </c>
+      <c r="E10" s="50">
+        <v>3</v>
+      </c>
+      <c r="F10" s="50">
+        <v>2.65</v>
+      </c>
+      <c r="G10" s="50">
+        <v>1</v>
+      </c>
+      <c r="H10" s="50">
+        <v>0</v>
+      </c>
+      <c r="I10" s="50">
+        <v>0</v>
+      </c>
+      <c r="J10" s="50">
+        <v>498800000</v>
+      </c>
+      <c r="K10" s="51">
+        <v>3100000</v>
       </c>
       <c r="R10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="50" t="s">
         <v>210</v>
       </c>
-      <c r="B11" s="34">
-        <v>-19.336722000000002</v>
-      </c>
-      <c r="C11" s="34">
-        <v>-69.729611000000006</v>
-      </c>
-      <c r="D11" s="34">
-        <v>1604</v>
-      </c>
-      <c r="E11" s="9">
-        <v>5</v>
-      </c>
-      <c r="F11" s="35">
-        <v>2.89</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="36">
-        <f>31.18*10^7</f>
-        <v>311800000</v>
-      </c>
-      <c r="K11" s="36">
-        <v>11900000</v>
+      <c r="B11" s="50">
+        <v>-19.565581999999999</v>
+      </c>
+      <c r="C11" s="50">
+        <v>-70.110219999999998</v>
+      </c>
+      <c r="D11" s="50">
+        <v>931</v>
+      </c>
+      <c r="E11" s="50">
+        <v>3</v>
+      </c>
+      <c r="F11" s="50">
+        <v>2.65</v>
+      </c>
+      <c r="G11" s="50">
+        <v>1</v>
+      </c>
+      <c r="H11" s="50">
+        <v>0</v>
+      </c>
+      <c r="I11" s="50">
+        <v>0</v>
+      </c>
+      <c r="J11" s="50">
+        <v>313400000</v>
+      </c>
+      <c r="K11" s="51">
+        <v>2000000</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="B12" s="34">
-        <v>-19.336722000000002</v>
-      </c>
-      <c r="C12" s="34">
-        <v>-69.729611000000006</v>
-      </c>
-      <c r="D12" s="34">
-        <v>1604</v>
-      </c>
-      <c r="E12" s="34">
-        <v>5</v>
-      </c>
-      <c r="F12" s="35">
-        <v>2.89</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="36">
-        <f>104.68*10^7</f>
-        <v>1046800000.0000001</v>
-      </c>
-      <c r="K12" s="36">
-        <v>22400000.000000004</v>
+      <c r="B12" s="50">
+        <v>-19.565581999999999</v>
+      </c>
+      <c r="C12" s="50">
+        <v>-70.110219999999998</v>
+      </c>
+      <c r="D12" s="50">
+        <v>931</v>
+      </c>
+      <c r="E12" s="50">
+        <v>3</v>
+      </c>
+      <c r="F12" s="50">
+        <v>2.65</v>
+      </c>
+      <c r="G12" s="50">
+        <v>1</v>
+      </c>
+      <c r="H12" s="50">
+        <v>0</v>
+      </c>
+      <c r="I12" s="50">
+        <v>0</v>
+      </c>
+      <c r="J12" s="50">
+        <v>415200000.00000006</v>
+      </c>
+      <c r="K12" s="51">
+        <v>2800000.0000000005</v>
       </c>
       <c r="R12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="B13" s="37">
-        <v>-18.886583000000002</v>
-      </c>
-      <c r="C13" s="37">
-        <v>-69.699055999999999</v>
-      </c>
-      <c r="D13" s="37">
-        <v>2282</v>
-      </c>
-      <c r="E13" s="8">
-        <v>5</v>
-      </c>
-      <c r="F13" s="35">
-        <v>2.89</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="38">
-        <f>269.89*10^7</f>
-        <v>2698900000</v>
-      </c>
-      <c r="K13" s="38">
-        <v>47300000.000000007</v>
+      <c r="B13" s="50">
+        <v>-19.565581999999999</v>
+      </c>
+      <c r="C13" s="50">
+        <v>-70.110219999999998</v>
+      </c>
+      <c r="D13" s="50">
+        <v>931</v>
+      </c>
+      <c r="E13" s="50">
+        <v>3</v>
+      </c>
+      <c r="F13" s="50">
+        <v>2.65</v>
+      </c>
+      <c r="G13" s="50">
+        <v>1</v>
+      </c>
+      <c r="H13" s="50">
+        <v>0</v>
+      </c>
+      <c r="I13" s="50">
+        <v>0</v>
+      </c>
+      <c r="J13" s="50">
+        <v>534600000</v>
+      </c>
+      <c r="K13" s="51">
+        <v>3600000</v>
       </c>
       <c r="R13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="B14" s="37">
-        <v>-18.886583000000002</v>
-      </c>
-      <c r="C14" s="37">
-        <v>-69.699055999999999</v>
-      </c>
-      <c r="D14" s="37">
-        <v>2282</v>
-      </c>
-      <c r="E14" s="9">
-        <v>5</v>
-      </c>
-      <c r="F14" s="35">
-        <v>2.89</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="38">
-        <f>246.53*10^7</f>
-        <v>2465300000</v>
-      </c>
-      <c r="K14" s="38">
-        <v>42900000</v>
+      <c r="B14" s="50">
+        <v>-19.565581999999999</v>
+      </c>
+      <c r="C14" s="50">
+        <v>-70.110219999999998</v>
+      </c>
+      <c r="D14" s="50">
+        <v>931</v>
+      </c>
+      <c r="E14" s="50">
+        <v>3</v>
+      </c>
+      <c r="F14" s="50">
+        <v>2.65</v>
+      </c>
+      <c r="G14" s="50">
+        <v>1</v>
+      </c>
+      <c r="H14" s="50">
+        <v>0</v>
+      </c>
+      <c r="I14" s="50">
+        <v>0</v>
+      </c>
+      <c r="J14" s="50">
+        <v>396300000</v>
+      </c>
+      <c r="K14" s="51">
+        <v>3000000</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="B15" s="37">
-        <v>-18.905639000000001</v>
-      </c>
-      <c r="C15" s="37">
-        <v>-69.954583</v>
-      </c>
-      <c r="D15" s="37">
-        <v>1443</v>
-      </c>
-      <c r="E15" s="34">
-        <v>5</v>
-      </c>
-      <c r="F15" s="35">
-        <v>2.89</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="38">
-        <v>1414100000</v>
-      </c>
-      <c r="K15" s="38">
-        <v>25200000</v>
+      <c r="B15" s="50">
+        <v>-19.551714</v>
+      </c>
+      <c r="C15" s="50">
+        <v>-70.076702999999995</v>
+      </c>
+      <c r="D15" s="50">
+        <v>1023</v>
+      </c>
+      <c r="E15" s="50">
+        <v>3</v>
+      </c>
+      <c r="F15" s="50">
+        <v>2.65</v>
+      </c>
+      <c r="G15" s="50">
+        <v>1</v>
+      </c>
+      <c r="H15" s="50">
+        <v>0</v>
+      </c>
+      <c r="I15" s="50">
+        <v>0</v>
+      </c>
+      <c r="J15" s="50">
+        <v>1799999.9999999998</v>
+      </c>
+      <c r="K15" s="51">
+        <v>700000.00000000012</v>
       </c>
       <c r="R15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="B16" s="37">
-        <v>-18.905639000000001</v>
-      </c>
-      <c r="C16" s="37">
-        <v>-69.954583</v>
-      </c>
-      <c r="D16" s="37">
-        <v>1443</v>
-      </c>
-      <c r="E16" s="8">
-        <v>5</v>
-      </c>
-      <c r="F16" s="35">
-        <v>2.89</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="38">
-        <v>1648000000</v>
-      </c>
-      <c r="K16" s="38">
-        <v>28400000</v>
+      <c r="B16" s="50">
+        <v>-19.551714</v>
+      </c>
+      <c r="C16" s="50">
+        <v>-70.076702999999995</v>
+      </c>
+      <c r="D16" s="50">
+        <v>1023</v>
+      </c>
+      <c r="E16" s="50">
+        <v>3</v>
+      </c>
+      <c r="F16" s="50">
+        <v>2.65</v>
+      </c>
+      <c r="G16" s="50">
+        <v>1</v>
+      </c>
+      <c r="H16" s="50">
+        <v>0</v>
+      </c>
+      <c r="I16" s="50">
+        <v>0</v>
+      </c>
+      <c r="J16" s="50">
+        <v>3400000.0000000005</v>
+      </c>
+      <c r="K16" s="51">
+        <v>1000000</v>
       </c>
       <c r="R16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="B17" s="37">
-        <v>-18.852694</v>
-      </c>
-      <c r="C17" s="37">
-        <v>-69.657167000000001</v>
-      </c>
-      <c r="D17" s="37">
-        <v>2550</v>
-      </c>
-      <c r="E17" s="9">
-        <v>5</v>
-      </c>
-      <c r="F17" s="35">
-        <v>2.89</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0</v>
-      </c>
-      <c r="J17" s="38">
-        <v>2350000000</v>
-      </c>
-      <c r="K17" s="38">
-        <v>40400000</v>
+      <c r="B17" s="54">
+        <v>-19.551714</v>
+      </c>
+      <c r="C17" s="54">
+        <v>-70.076702999999995</v>
+      </c>
+      <c r="D17" s="54">
+        <v>1023</v>
+      </c>
+      <c r="E17" s="50">
+        <v>3</v>
+      </c>
+      <c r="F17" s="54">
+        <v>2.65</v>
+      </c>
+      <c r="G17" s="50">
+        <v>1</v>
+      </c>
+      <c r="H17" s="50">
+        <v>0</v>
+      </c>
+      <c r="I17" s="50">
+        <v>0</v>
+      </c>
+      <c r="J17" s="54">
+        <v>2300000</v>
+      </c>
+      <c r="K17" s="55">
+        <v>400000</v>
       </c>
       <c r="R17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" s="37">
-        <v>-20.704083000000001</v>
-      </c>
-      <c r="C18" s="37">
-        <v>-69.420833000000002</v>
-      </c>
-      <c r="D18" s="37">
-        <v>1084</v>
-      </c>
-      <c r="E18" s="34">
-        <v>5</v>
-      </c>
-      <c r="F18" s="35">
-        <v>2.89</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="38">
-        <v>901900000</v>
-      </c>
-      <c r="K18" s="38">
-        <v>19700000</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="B19" s="39">
-        <v>-19.786306</v>
-      </c>
-      <c r="C19" s="39">
-        <v>-69.682000000000002</v>
-      </c>
-      <c r="D19" s="39">
-        <v>1289</v>
-      </c>
-      <c r="E19" s="8">
-        <v>5</v>
-      </c>
-      <c r="F19" s="10">
-        <v>2.89</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0</v>
-      </c>
-      <c r="J19" s="40">
-        <v>1078000000</v>
-      </c>
-      <c r="K19" s="40">
-        <v>27700000</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B20" s="34">
-        <v>-19.786306</v>
-      </c>
-      <c r="C20" s="34">
-        <v>-69.682000000000002</v>
-      </c>
-      <c r="D20" s="34">
-        <v>1289</v>
-      </c>
-      <c r="E20" s="9">
-        <v>5</v>
-      </c>
-      <c r="F20" s="35">
-        <v>2.89</v>
-      </c>
-      <c r="G20" s="8">
-        <v>1</v>
-      </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0</v>
-      </c>
-      <c r="J20" s="36">
-        <v>1024900000</v>
-      </c>
-      <c r="K20" s="36">
-        <v>24800000</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
-        <v>220</v>
-      </c>
-      <c r="B21" s="34">
-        <v>-19.786306</v>
-      </c>
-      <c r="C21" s="34">
-        <v>-69.682000000000002</v>
-      </c>
-      <c r="D21" s="34">
-        <v>1289</v>
-      </c>
-      <c r="E21" s="34">
-        <v>5</v>
-      </c>
-      <c r="F21" s="35">
-        <v>2.89</v>
-      </c>
-      <c r="G21" s="8">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="42">
-        <v>2989600000</v>
-      </c>
-      <c r="K21" s="36">
-        <v>32000000</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
+      <c r="A21" s="41"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="36"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A22" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="B22" s="34">
-        <v>-19.397832999999999</v>
-      </c>
-      <c r="C22" s="34">
-        <v>-69.880306000000004</v>
-      </c>
-      <c r="D22" s="34">
-        <v>1256</v>
-      </c>
-      <c r="E22" s="8">
-        <v>5</v>
-      </c>
-      <c r="F22" s="35">
-        <v>2.89</v>
-      </c>
-      <c r="G22" s="8">
-        <v>1</v>
-      </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="I22" s="8">
-        <v>0</v>
-      </c>
-      <c r="J22" s="36">
-        <v>1942300000</v>
-      </c>
-      <c r="K22" s="36">
-        <v>46700000</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="B23" s="34">
-        <v>-19.397832999999999</v>
-      </c>
-      <c r="C23" s="34">
-        <v>-69.880306000000004</v>
-      </c>
-      <c r="D23" s="34">
-        <v>1256</v>
-      </c>
-      <c r="E23" s="9">
-        <v>5</v>
-      </c>
-      <c r="F23" s="35">
-        <v>2.74</v>
-      </c>
-      <c r="G23" s="8">
-        <v>1</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
-        <v>0</v>
-      </c>
-      <c r="J23" s="36">
-        <v>3102600000</v>
-      </c>
-      <c r="K23" s="36">
-        <v>82300000</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="B24" s="34">
-        <v>-19.397832999999999</v>
-      </c>
-      <c r="C24" s="34">
-        <v>-69.880306000000004</v>
-      </c>
-      <c r="D24" s="34">
-        <v>1256</v>
-      </c>
-      <c r="E24" s="34">
-        <v>5</v>
-      </c>
-      <c r="F24" s="43">
-        <v>2.89</v>
-      </c>
-      <c r="G24" s="8">
-        <v>1</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0</v>
-      </c>
-      <c r="J24" s="36">
-        <v>2691600000.0000005</v>
-      </c>
-      <c r="K24" s="36">
-        <v>61800000</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="B25" s="37">
-        <v>-19.522110999999999</v>
-      </c>
-      <c r="C25" s="37">
-        <v>-69.808333000000005</v>
-      </c>
-      <c r="D25" s="37">
-        <v>1312</v>
-      </c>
-      <c r="E25" s="8">
-        <v>5</v>
-      </c>
-      <c r="F25" s="35">
-        <v>2.89</v>
-      </c>
-      <c r="G25" s="8">
-        <v>1</v>
-      </c>
-      <c r="H25" s="8">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0</v>
-      </c>
-      <c r="J25" s="38">
-        <v>2771500000</v>
-      </c>
-      <c r="K25" s="38">
-        <v>52000000</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="B26" s="37">
-        <v>-19.522110999999999</v>
-      </c>
-      <c r="C26" s="37">
-        <v>-69.808333000000005</v>
-      </c>
-      <c r="D26" s="37">
-        <v>1312</v>
-      </c>
-      <c r="E26" s="9">
-        <v>5</v>
-      </c>
-      <c r="F26" s="35">
-        <v>2.89</v>
-      </c>
-      <c r="G26" s="8">
-        <v>1</v>
-      </c>
-      <c r="H26" s="8">
-        <v>0</v>
-      </c>
-      <c r="I26" s="8">
-        <v>0</v>
-      </c>
-      <c r="J26" s="38">
-        <v>654000000</v>
-      </c>
-      <c r="K26" s="38">
-        <v>15000000</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="B27" s="45">
-        <v>-18.503527999999999</v>
-      </c>
-      <c r="C27" s="45">
-        <v>-70.143305999999995</v>
-      </c>
-      <c r="D27" s="45">
-        <v>771</v>
-      </c>
-      <c r="E27" s="34">
-        <v>5</v>
-      </c>
-      <c r="F27" s="46">
-        <v>2.89</v>
-      </c>
-      <c r="G27" s="8">
-        <v>1</v>
-      </c>
-      <c r="H27" s="8">
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
-        <v>0</v>
-      </c>
-      <c r="J27" s="47">
-        <v>412900000</v>
-      </c>
-      <c r="K27" s="47">
-        <v>7200000</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" s="48">
-        <v>-18.389944</v>
-      </c>
-      <c r="C28" s="48">
-        <v>-70.071805999999995</v>
-      </c>
-      <c r="D28" s="48">
-        <v>1025</v>
-      </c>
-      <c r="E28" s="8">
-        <v>5</v>
-      </c>
-      <c r="F28" s="10">
-        <v>2.89</v>
-      </c>
-      <c r="G28" s="8">
-        <v>1</v>
-      </c>
-      <c r="H28" s="8">
-        <v>0</v>
-      </c>
-      <c r="I28" s="8">
-        <v>0</v>
-      </c>
-      <c r="J28" s="49">
-        <v>388000000</v>
-      </c>
-      <c r="K28" s="49">
-        <v>7700000</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A29" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="B29" s="45">
-        <v>-18.389944</v>
-      </c>
-      <c r="C29" s="45">
-        <v>-70.071805999999995</v>
-      </c>
-      <c r="D29" s="45">
-        <v>1025</v>
-      </c>
-      <c r="E29" s="9">
-        <v>5</v>
-      </c>
-      <c r="F29" s="46">
-        <v>2.89</v>
-      </c>
-      <c r="G29" s="8">
-        <v>1</v>
-      </c>
-      <c r="H29" s="8">
-        <v>0</v>
-      </c>
-      <c r="I29" s="8">
-        <v>0</v>
-      </c>
-      <c r="J29" s="47">
-        <v>425000000</v>
-      </c>
-      <c r="K29" s="47">
-        <v>9500000</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E30" s="1"/>
@@ -9067,37 +8735,37 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="61" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="63" t="s">
+      <c r="H15" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="64" t="s">
+      <c r="I15" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="55" t="s">
+      <c r="J15" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="55" t="s">
+      <c r="K15" s="66" t="s">
         <v>29</v>
       </c>
       <c r="M15" s="21" t="s">
@@ -9123,19 +8791,19 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61" t="s">
+      <c r="A16" s="60"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
       <c r="M16" s="22" t="s">
         <v>32</v>
       </c>
@@ -9147,22 +8815,22 @@
       <c r="Q16" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="S16" s="54" t="s">
+      <c r="S16" s="60" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
       <c r="M17" s="22" t="s">
         <v>33</v>
       </c>
@@ -9178,20 +8846,20 @@
       <c r="Q17" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="S17" s="54"/>
+      <c r="S17" s="60"/>
     </row>
     <row r="18" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
       <c r="M18" s="23" t="s">
         <v>34</v>
       </c>
@@ -9200,36 +8868,36 @@
       <c r="Q18" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="S18" s="54"/>
+      <c r="S18" s="60"/>
     </row>
     <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="G19" s="62"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
       <c r="O19" s="57"/>
       <c r="P19" s="59"/>
       <c r="Q19" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="S19" s="54"/>
+      <c r="S19" s="60"/>
     </row>
     <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H20" s="29"/>
       <c r="I20" s="28"/>
-      <c r="P20" s="65" t="s">
+      <c r="P20" s="67" t="s">
         <v>52</v>
       </c>
       <c r="Q20" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="S20" s="54"/>
+      <c r="S20" s="60"/>
     </row>
     <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
-      <c r="P21" s="66"/>
+      <c r="P21" s="68"/>
       <c r="Q21" s="30" t="s">
         <v>43</v>
       </c>
@@ -9237,7 +8905,7 @@
     <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
-      <c r="P22" s="66"/>
+      <c r="P22" s="68"/>
       <c r="Q22" s="31" t="s">
         <v>44</v>
       </c>
@@ -9245,33 +8913,38 @@
     <row r="23" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
-      <c r="P23" s="66"/>
+      <c r="P23" s="68"/>
     </row>
     <row r="24" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
-      <c r="P24" s="66"/>
+      <c r="P24" s="68"/>
     </row>
     <row r="25" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
-      <c r="P25" s="66"/>
+      <c r="P25" s="68"/>
     </row>
     <row r="26" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
-      <c r="P26" s="66"/>
+      <c r="P26" s="68"/>
     </row>
     <row r="27" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
-      <c r="P27" s="66"/>
+      <c r="P27" s="68"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="P28" s="67"/>
+      <c r="P28" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="C15:C18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="D15:D18"/>
+    <mergeCell ref="K15:K19"/>
     <mergeCell ref="O17:O19"/>
     <mergeCell ref="P17:P19"/>
     <mergeCell ref="S16:S20"/>
@@ -9282,11 +8955,6 @@
     <mergeCell ref="J15:J19"/>
     <mergeCell ref="P20:P28"/>
     <mergeCell ref="I15:I19"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="C15:C18"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="D15:D18"/>
-    <mergeCell ref="K15:K19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2520897E-1A56-6B42-8A08-837AAF3EB63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABEFC8BF-5BD4-3246-9884-38E270DB352E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="19840" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
+    <workbookView xWindow="460" yWindow="500" windowWidth="27900" windowHeight="17500" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="202">
   <si>
     <t>Sample Name</t>
   </si>
@@ -674,52 +674,7 @@
     <t>09-HAW-22-ol</t>
   </si>
   <si>
-    <t>p103/1</t>
-  </si>
-  <si>
-    <t>P103/A</t>
-  </si>
-  <si>
-    <t>P103/B</t>
-  </si>
-  <si>
-    <t>P103/C</t>
-  </si>
-  <si>
-    <t>P103/D</t>
-  </si>
-  <si>
-    <t>PI-06A</t>
-  </si>
-  <si>
-    <t>PI-06B</t>
-  </si>
-  <si>
-    <t>PI-06C</t>
-  </si>
-  <si>
-    <t>PI-06D</t>
-  </si>
-  <si>
-    <t>PI-07A</t>
-  </si>
-  <si>
-    <t>PI-07B</t>
-  </si>
-  <si>
-    <t>PI-07C</t>
-  </si>
-  <si>
-    <t>PI-07D</t>
-  </si>
-  <si>
-    <t>PI-11</t>
-  </si>
-  <si>
-    <t>PI-12</t>
-  </si>
-  <si>
-    <t>PI-01</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -827,19 +782,19 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -867,12 +822,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1053,7 +1002,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1174,10 +1123,10 @@
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1196,24 +1145,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1264,7 +1195,6 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1583,7 +1513,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1654,55 +1584,55 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="52">
-        <v>-19.541574000000001</v>
-      </c>
-      <c r="C2" s="52">
-        <v>-70.116951999999998</v>
-      </c>
-      <c r="D2" s="52">
-        <v>957</v>
-      </c>
-      <c r="E2" s="50">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>-70</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>3</v>
       </c>
-      <c r="F2" s="52">
-        <v>2.65</v>
-      </c>
-      <c r="G2" s="50">
-        <v>1</v>
-      </c>
-      <c r="H2" s="50">
-        <v>0</v>
-      </c>
-      <c r="I2" s="50">
-        <v>0</v>
-      </c>
-      <c r="J2" s="52">
-        <v>458399999.99999994</v>
-      </c>
-      <c r="K2" s="53">
-        <v>2200000</v>
-      </c>
-      <c r="M2" s="72">
+      <c r="Q2">
         <v>4</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>30</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2">
+      <c r="R2" s="1">
         <v>0</v>
       </c>
       <c r="S2">
@@ -1710,576 +1640,391 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="B3" s="50">
-        <v>-19.541574000000001</v>
-      </c>
-      <c r="C3" s="50">
-        <v>-70.116951999999998</v>
-      </c>
-      <c r="D3" s="50">
-        <v>957</v>
-      </c>
-      <c r="E3" s="50">
-        <v>3</v>
-      </c>
-      <c r="F3" s="50">
-        <v>2.65</v>
-      </c>
-      <c r="G3" s="50">
-        <v>1</v>
-      </c>
-      <c r="H3" s="50">
-        <v>0</v>
-      </c>
-      <c r="I3" s="50">
-        <v>0</v>
-      </c>
-      <c r="J3" s="50">
-        <v>495000000</v>
-      </c>
-      <c r="K3" s="51">
-        <v>3600000</v>
-      </c>
-      <c r="R3">
+      <c r="A3" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>-70</v>
+      </c>
+      <c r="D3" s="9">
+        <v>500</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="50" t="s">
-        <v>203</v>
-      </c>
-      <c r="B4" s="50">
-        <v>-19.541574000000001</v>
-      </c>
-      <c r="C4" s="50">
-        <v>-70.116951999999998</v>
-      </c>
-      <c r="D4" s="50">
-        <v>957</v>
-      </c>
-      <c r="E4" s="50">
-        <v>3</v>
-      </c>
-      <c r="F4" s="50">
-        <v>2.65</v>
-      </c>
-      <c r="G4" s="50">
-        <v>1</v>
-      </c>
-      <c r="H4" s="50">
-        <v>0</v>
-      </c>
-      <c r="I4" s="50">
-        <v>0</v>
-      </c>
-      <c r="J4" s="50">
-        <v>381800000</v>
-      </c>
-      <c r="K4" s="51">
-        <v>3000000</v>
-      </c>
-      <c r="R4">
+      <c r="A4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>-70</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="50">
-        <v>-19.541574000000001</v>
-      </c>
-      <c r="C5" s="50">
-        <v>-70.116951999999998</v>
-      </c>
-      <c r="D5" s="50">
-        <v>957</v>
-      </c>
-      <c r="E5" s="50">
-        <v>3</v>
-      </c>
-      <c r="F5" s="50">
-        <v>2.65</v>
-      </c>
-      <c r="G5" s="50">
-        <v>1</v>
-      </c>
-      <c r="H5" s="50">
-        <v>0</v>
-      </c>
-      <c r="I5" s="50">
-        <v>0</v>
-      </c>
-      <c r="J5" s="50">
-        <v>725300000</v>
-      </c>
-      <c r="K5" s="51">
-        <v>4400000</v>
-      </c>
-      <c r="R5">
+      <c r="A5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>-70</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1500</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
-        <v>205</v>
-      </c>
-      <c r="B6" s="50">
-        <v>-19.541574000000001</v>
-      </c>
-      <c r="C6" s="50">
-        <v>-70.116951999999998</v>
-      </c>
-      <c r="D6" s="50">
-        <v>957</v>
-      </c>
-      <c r="E6" s="50">
-        <v>3</v>
-      </c>
-      <c r="F6" s="50">
-        <v>2.65</v>
-      </c>
-      <c r="G6" s="50">
-        <v>1</v>
-      </c>
-      <c r="H6" s="50">
-        <v>0</v>
-      </c>
-      <c r="I6" s="50">
-        <v>0</v>
-      </c>
-      <c r="J6" s="50">
-        <v>463100000</v>
-      </c>
-      <c r="K6" s="51">
-        <v>3300000</v>
-      </c>
-      <c r="R6">
+      <c r="A6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>-70</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="B7" s="50">
-        <v>-19.564599999999999</v>
-      </c>
-      <c r="C7" s="50">
-        <v>-70.117283</v>
-      </c>
-      <c r="D7" s="50">
-        <v>925</v>
-      </c>
-      <c r="E7" s="50">
-        <v>3</v>
-      </c>
-      <c r="F7" s="50">
-        <v>2.65</v>
-      </c>
-      <c r="G7" s="50">
-        <v>1</v>
-      </c>
-      <c r="H7" s="50">
-        <v>0</v>
-      </c>
-      <c r="I7" s="50">
-        <v>0</v>
-      </c>
-      <c r="J7" s="50">
-        <v>501800000</v>
-      </c>
-      <c r="K7" s="51">
-        <v>3400000.0000000005</v>
-      </c>
-      <c r="R7">
+      <c r="A7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>-70</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2500</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="50">
-        <v>-19.564599999999999</v>
-      </c>
-      <c r="C8" s="50">
-        <v>-70.117283</v>
-      </c>
-      <c r="D8" s="50">
-        <v>925</v>
-      </c>
-      <c r="E8" s="50">
-        <v>3</v>
-      </c>
-      <c r="F8" s="50">
-        <v>2.65</v>
-      </c>
-      <c r="G8" s="50">
-        <v>1</v>
-      </c>
-      <c r="H8" s="50">
-        <v>0</v>
-      </c>
-      <c r="I8" s="50">
-        <v>0</v>
-      </c>
-      <c r="J8" s="50">
-        <v>315000000</v>
-      </c>
-      <c r="K8" s="51">
-        <v>2400000</v>
-      </c>
-      <c r="R8">
+      <c r="A8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>-70</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="50">
-        <v>-19.564599999999999</v>
-      </c>
-      <c r="C9" s="50">
-        <v>-70.117283</v>
-      </c>
-      <c r="D9" s="50">
-        <v>925</v>
-      </c>
-      <c r="E9" s="50">
-        <v>3</v>
-      </c>
-      <c r="F9" s="50">
-        <v>2.65</v>
-      </c>
-      <c r="G9" s="50">
-        <v>1</v>
-      </c>
-      <c r="H9" s="50">
-        <v>0</v>
-      </c>
-      <c r="I9" s="50">
-        <v>0</v>
-      </c>
-      <c r="J9" s="50">
-        <v>209900000.00000003</v>
-      </c>
-      <c r="K9" s="51">
-        <v>1600000</v>
-      </c>
-      <c r="R9">
+      <c r="A9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>-70</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3500</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" s="50">
-        <v>-19.564599999999999</v>
-      </c>
-      <c r="C10" s="50">
-        <v>-70.117283</v>
-      </c>
-      <c r="D10" s="50">
-        <v>925</v>
-      </c>
-      <c r="E10" s="50">
-        <v>3</v>
-      </c>
-      <c r="F10" s="50">
-        <v>2.65</v>
-      </c>
-      <c r="G10" s="50">
-        <v>1</v>
-      </c>
-      <c r="H10" s="50">
-        <v>0</v>
-      </c>
-      <c r="I10" s="50">
-        <v>0</v>
-      </c>
-      <c r="J10" s="50">
-        <v>498800000</v>
-      </c>
-      <c r="K10" s="51">
-        <v>3100000</v>
-      </c>
-      <c r="R10">
+      <c r="A10" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>-70</v>
+      </c>
+      <c r="D10" s="8">
+        <v>4000</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="50">
-        <v>-19.565581999999999</v>
-      </c>
-      <c r="C11" s="50">
-        <v>-70.110219999999998</v>
-      </c>
-      <c r="D11" s="50">
-        <v>931</v>
-      </c>
-      <c r="E11" s="50">
-        <v>3</v>
-      </c>
-      <c r="F11" s="50">
-        <v>2.65</v>
-      </c>
-      <c r="G11" s="50">
-        <v>1</v>
-      </c>
-      <c r="H11" s="50">
-        <v>0</v>
-      </c>
-      <c r="I11" s="50">
-        <v>0</v>
-      </c>
-      <c r="J11" s="50">
-        <v>313400000</v>
-      </c>
-      <c r="K11" s="51">
+      <c r="A11" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>-70</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4500</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
         <v>2000000</v>
       </c>
-      <c r="R11">
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="B12" s="50">
-        <v>-19.565581999999999</v>
-      </c>
-      <c r="C12" s="50">
-        <v>-70.110219999999998</v>
-      </c>
-      <c r="D12" s="50">
-        <v>931</v>
-      </c>
-      <c r="E12" s="50">
-        <v>3</v>
-      </c>
-      <c r="F12" s="50">
-        <v>2.65</v>
-      </c>
-      <c r="G12" s="50">
-        <v>1</v>
-      </c>
-      <c r="H12" s="50">
-        <v>0</v>
-      </c>
-      <c r="I12" s="50">
-        <v>0</v>
-      </c>
-      <c r="J12" s="50">
-        <v>415200000.00000006</v>
-      </c>
-      <c r="K12" s="51">
-        <v>2800000.0000000005</v>
-      </c>
-      <c r="R12">
+      <c r="A12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>-70</v>
+      </c>
+      <c r="D12" s="9">
+        <v>5000</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2000000</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="50" t="s">
-        <v>212</v>
-      </c>
-      <c r="B13" s="50">
-        <v>-19.565581999999999</v>
-      </c>
-      <c r="C13" s="50">
-        <v>-70.110219999999998</v>
-      </c>
-      <c r="D13" s="50">
-        <v>931</v>
-      </c>
-      <c r="E13" s="50">
-        <v>3</v>
-      </c>
-      <c r="F13" s="50">
-        <v>2.65</v>
-      </c>
-      <c r="G13" s="50">
-        <v>1</v>
-      </c>
-      <c r="H13" s="50">
-        <v>0</v>
-      </c>
-      <c r="I13" s="50">
-        <v>0</v>
-      </c>
-      <c r="J13" s="50">
-        <v>534600000</v>
-      </c>
-      <c r="K13" s="51">
-        <v>3600000</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="B14" s="50">
-        <v>-19.565581999999999</v>
-      </c>
-      <c r="C14" s="50">
-        <v>-70.110219999999998</v>
-      </c>
-      <c r="D14" s="50">
-        <v>931</v>
-      </c>
-      <c r="E14" s="50">
-        <v>3</v>
-      </c>
-      <c r="F14" s="50">
-        <v>2.65</v>
-      </c>
-      <c r="G14" s="50">
-        <v>1</v>
-      </c>
-      <c r="H14" s="50">
-        <v>0</v>
-      </c>
-      <c r="I14" s="50">
-        <v>0</v>
-      </c>
-      <c r="J14" s="50">
-        <v>396300000</v>
-      </c>
-      <c r="K14" s="51">
-        <v>3000000</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="50">
-        <v>-19.551714</v>
-      </c>
-      <c r="C15" s="50">
-        <v>-70.076702999999995</v>
-      </c>
-      <c r="D15" s="50">
-        <v>1023</v>
-      </c>
-      <c r="E15" s="50">
-        <v>3</v>
-      </c>
-      <c r="F15" s="50">
-        <v>2.65</v>
-      </c>
-      <c r="G15" s="50">
-        <v>1</v>
-      </c>
-      <c r="H15" s="50">
-        <v>0</v>
-      </c>
-      <c r="I15" s="50">
-        <v>0</v>
-      </c>
-      <c r="J15" s="50">
-        <v>1799999.9999999998</v>
-      </c>
-      <c r="K15" s="51">
-        <v>700000.00000000012</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="B16" s="50">
-        <v>-19.551714</v>
-      </c>
-      <c r="C16" s="50">
-        <v>-70.076702999999995</v>
-      </c>
-      <c r="D16" s="50">
-        <v>1023</v>
-      </c>
-      <c r="E16" s="50">
-        <v>3</v>
-      </c>
-      <c r="F16" s="50">
-        <v>2.65</v>
-      </c>
-      <c r="G16" s="50">
-        <v>1</v>
-      </c>
-      <c r="H16" s="50">
-        <v>0</v>
-      </c>
-      <c r="I16" s="50">
-        <v>0</v>
-      </c>
-      <c r="J16" s="50">
-        <v>3400000.0000000005</v>
-      </c>
-      <c r="K16" s="51">
-        <v>1000000</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="54">
-        <v>-19.551714</v>
-      </c>
-      <c r="C17" s="54">
-        <v>-70.076702999999995</v>
-      </c>
-      <c r="D17" s="54">
-        <v>1023</v>
-      </c>
-      <c r="E17" s="50">
-        <v>3</v>
-      </c>
-      <c r="F17" s="54">
-        <v>2.65</v>
-      </c>
-      <c r="G17" s="50">
-        <v>1</v>
-      </c>
-      <c r="H17" s="50">
-        <v>0</v>
-      </c>
-      <c r="I17" s="50">
-        <v>0</v>
-      </c>
-      <c r="J17" s="54">
-        <v>2300000</v>
-      </c>
-      <c r="K17" s="55">
-        <v>400000</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -2292,7 +2037,7 @@
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="39"/>
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
@@ -2305,7 +2050,7 @@
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="34"/>
       <c r="B20" s="34"/>
       <c r="C20" s="34"/>
@@ -2318,7 +2063,7 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="41"/>
       <c r="B21" s="34"/>
       <c r="C21" s="34"/>
@@ -2331,7 +2076,7 @@
       <c r="J21" s="42"/>
       <c r="K21" s="36"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="34"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
@@ -2344,7 +2089,7 @@
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
       <c r="B23" s="34"/>
       <c r="C23" s="34"/>
@@ -2357,7 +2102,7 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
       <c r="B24" s="34"/>
       <c r="C24" s="34"/>
@@ -2370,7 +2115,7 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -2383,7 +2128,7 @@
       <c r="J25" s="38"/>
       <c r="K25" s="38"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
@@ -2396,7 +2141,7 @@
       <c r="J26" s="38"/>
       <c r="K26" s="38"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="44"/>
       <c r="B27" s="45"/>
       <c r="C27" s="45"/>
@@ -2409,7 +2154,7 @@
       <c r="J27" s="47"/>
       <c r="K27" s="47"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="48"/>
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
@@ -2422,7 +2167,7 @@
       <c r="J28" s="49"/>
       <c r="K28" s="49"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="45"/>
       <c r="B29" s="45"/>
       <c r="C29" s="45"/>
@@ -2435,17 +2180,17 @@
       <c r="J29" s="47"/>
       <c r="K29" s="47"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -8735,37 +8480,37 @@
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="55" t="s">
         <v>25</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="64" t="s">
+      <c r="H15" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="65" t="s">
+      <c r="I15" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="J15" s="66" t="s">
+      <c r="J15" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="66" t="s">
+      <c r="K15" s="60" t="s">
         <v>29</v>
       </c>
       <c r="M15" s="21" t="s">
@@ -8791,19 +8536,19 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="62" t="s">
+      <c r="A16" s="54"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="64"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
       <c r="M16" s="22" t="s">
         <v>32</v>
       </c>
@@ -8815,89 +8560,89 @@
       <c r="Q16" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="S16" s="60" t="s">
+      <c r="S16" s="54" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
       <c r="M17" s="22" t="s">
         <v>33</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O17" s="56" t="s">
+      <c r="O17" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="P17" s="58" t="s">
+      <c r="P17" s="52" t="s">
         <v>60</v>
       </c>
       <c r="Q17" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="S17" s="60"/>
+      <c r="S17" s="54"/>
     </row>
     <row r="18" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
       <c r="M18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="56"/>
-      <c r="P18" s="58"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="52"/>
       <c r="Q18" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="S18" s="60"/>
+      <c r="S18" s="54"/>
     </row>
     <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="G19" s="63"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="59"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="53"/>
       <c r="Q19" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="S19" s="60"/>
+      <c r="S19" s="54"/>
     </row>
     <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H20" s="29"/>
       <c r="I20" s="28"/>
-      <c r="P20" s="67" t="s">
+      <c r="P20" s="61" t="s">
         <v>52</v>
       </c>
       <c r="Q20" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="S20" s="60"/>
+      <c r="S20" s="54"/>
     </row>
     <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
-      <c r="P21" s="68"/>
+      <c r="P21" s="62"/>
       <c r="Q21" s="30" t="s">
         <v>43</v>
       </c>
@@ -8905,7 +8650,7 @@
     <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
-      <c r="P22" s="68"/>
+      <c r="P22" s="62"/>
       <c r="Q22" s="31" t="s">
         <v>44</v>
       </c>
@@ -8913,30 +8658,30 @@
     <row r="23" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
-      <c r="P23" s="68"/>
+      <c r="P23" s="62"/>
     </row>
     <row r="24" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
-      <c r="P24" s="68"/>
+      <c r="P24" s="62"/>
     </row>
     <row r="25" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H25" s="28"/>
       <c r="I25" s="28"/>
-      <c r="P25" s="68"/>
+      <c r="P25" s="62"/>
     </row>
     <row r="26" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
-      <c r="P26" s="68"/>
+      <c r="P26" s="62"/>
     </row>
     <row r="27" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H27" s="28"/>
       <c r="I27" s="28"/>
-      <c r="P27" s="68"/>
+      <c r="P27" s="62"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="P28" s="69"/>
+      <c r="P28" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/src/Data/Inputs.xlsx
+++ b/src/Data/Inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3497AE-3BB2-3944-8421-3817584C7A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4867E67-1365-474C-B45C-21F0D4076555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{908D5193-7DFE-C84B-BF15-EFFE4A8B620F}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="63">
   <si>
     <t>Sample Name</t>
   </si>
@@ -229,12 +229,6 @@
     <t>Uplift/Subsidence</t>
   </si>
   <si>
-    <t>Positive for uplift</t>
-  </si>
-  <si>
-    <t>Negative for subsidence</t>
-  </si>
-  <si>
     <t>in cm/yr</t>
   </si>
   <si>
@@ -259,16 +253,10 @@
     <t>p103/1</t>
   </si>
   <si>
-    <t>P103/A</t>
-  </si>
-  <si>
-    <t>P103/B</t>
-  </si>
-  <si>
-    <t>P103/C</t>
-  </si>
-  <si>
-    <t>P103/D</t>
+    <t>Negative for uplift</t>
+  </si>
+  <si>
+    <t>Positive for subsidence</t>
   </si>
 </sst>
 </file>
@@ -388,7 +376,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +408,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -613,14 +607,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -760,19 +751,29 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1141,13 +1142,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39602BD4-AF2D-864A-8905-789D980EB8BD}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="92" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -1156,97 +1158,97 @@
     <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="20" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:19" s="19" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q1" s="20" t="s">
+      <c r="O1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="50">
+      <c r="A2" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="54">
         <v>-19.541574000000001</v>
       </c>
-      <c r="C2" s="50">
+      <c r="C2" s="54">
         <v>-70.116951999999998</v>
       </c>
-      <c r="D2" s="50">
+      <c r="D2" s="54">
         <v>957</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="55">
         <v>3</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="54">
         <v>2.65</v>
       </c>
-      <c r="G2" s="51">
+      <c r="G2" s="55">
         <v>1</v>
       </c>
-      <c r="H2" s="51">
+      <c r="H2" s="55">
         <v>0</v>
       </c>
-      <c r="I2" s="51">
-        <v>0</v>
-      </c>
-      <c r="J2" s="50">
+      <c r="I2" s="55">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="J2" s="54">
         <v>458399999.99999994</v>
       </c>
-      <c r="K2" s="52">
+      <c r="K2" s="56">
         <v>2200000</v>
       </c>
-      <c r="M2" s="53">
+      <c r="M2" s="57">
         <v>4</v>
       </c>
       <c r="N2">
@@ -1256,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -1269,473 +1271,465 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="51">
-        <v>-19.541574000000001</v>
-      </c>
-      <c r="C3" s="51">
-        <v>-70.116951999999998</v>
-      </c>
-      <c r="D3" s="51">
-        <v>957</v>
-      </c>
-      <c r="E3" s="51">
-        <v>3</v>
-      </c>
-      <c r="F3" s="51">
-        <v>2.65</v>
-      </c>
-      <c r="G3" s="51">
-        <v>1</v>
-      </c>
-      <c r="H3" s="51">
-        <v>0</v>
-      </c>
-      <c r="I3" s="51">
-        <v>0</v>
-      </c>
-      <c r="J3" s="51">
-        <v>495000000</v>
-      </c>
-      <c r="K3" s="54">
-        <v>3600000</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="56"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="51">
-        <v>-19.541574000000001</v>
-      </c>
-      <c r="C4" s="51">
-        <v>-70.116951999999998</v>
-      </c>
-      <c r="D4" s="51">
-        <v>957</v>
-      </c>
-      <c r="E4" s="51">
-        <v>3</v>
-      </c>
-      <c r="F4" s="51">
-        <v>2.65</v>
-      </c>
-      <c r="G4" s="51">
-        <v>1</v>
-      </c>
-      <c r="H4" s="51">
-        <v>0</v>
-      </c>
-      <c r="I4" s="51">
-        <v>0</v>
-      </c>
-      <c r="J4" s="51">
-        <v>381800000</v>
-      </c>
-      <c r="K4" s="54">
-        <v>3000000</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="50"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="51">
-        <v>-19.541574000000001</v>
-      </c>
-      <c r="C5" s="51">
-        <v>-70.116951999999998</v>
-      </c>
-      <c r="D5" s="51">
-        <v>957</v>
-      </c>
-      <c r="E5" s="51">
-        <v>3</v>
-      </c>
-      <c r="F5" s="51">
-        <v>2.65</v>
-      </c>
-      <c r="G5" s="51">
-        <v>1</v>
-      </c>
-      <c r="H5" s="51">
-        <v>0</v>
-      </c>
-      <c r="I5" s="51">
-        <v>0</v>
-      </c>
-      <c r="J5" s="51">
-        <v>725300000</v>
-      </c>
-      <c r="K5" s="54">
-        <v>4400000</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="51">
-        <v>-19.541574000000001</v>
-      </c>
-      <c r="C6" s="51">
-        <v>-70.116951999999998</v>
-      </c>
-      <c r="D6" s="51">
-        <v>957</v>
-      </c>
-      <c r="E6" s="51">
-        <v>3</v>
-      </c>
-      <c r="F6" s="51">
-        <v>2.65</v>
-      </c>
-      <c r="G6" s="51">
-        <v>1</v>
-      </c>
-      <c r="H6" s="51">
-        <v>0</v>
-      </c>
-      <c r="I6" s="51">
-        <v>0</v>
-      </c>
-      <c r="J6" s="51">
-        <v>463100000</v>
-      </c>
-      <c r="K6" s="54">
-        <v>3300000</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="50"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="R7" s="1"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="R8" s="1"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="R9" s="1"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="R10" s="1"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="R11" s="1"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="R12" s="1"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="34"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="45"/>
-      <c r="K29" s="45"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="33"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="41"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1757,205 +1751,205 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="6"/>
+      <c r="H36" s="5"/>
       <c r="I36" s="1"/>
       <c r="R36" s="1"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="6"/>
+      <c r="H37" s="5"/>
       <c r="I37" s="1"/>
       <c r="R37" s="1"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="6"/>
+      <c r="H38" s="5"/>
       <c r="I38" s="1"/>
       <c r="R38" s="1"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="6"/>
+      <c r="H39" s="5"/>
       <c r="I39" s="1"/>
       <c r="R39" s="1"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="6"/>
+      <c r="H40" s="5"/>
       <c r="I40" s="1"/>
       <c r="R40" s="1"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="6"/>
+      <c r="H41" s="5"/>
       <c r="I41" s="1"/>
       <c r="R41" s="1"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="6"/>
+      <c r="H42" s="5"/>
       <c r="I42" s="1"/>
       <c r="R42" s="1"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="6"/>
+      <c r="H43" s="5"/>
       <c r="I43" s="1"/>
       <c r="R43" s="1"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="6"/>
+      <c r="H44" s="5"/>
       <c r="I44" s="1"/>
       <c r="R44" s="1"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="6"/>
+      <c r="H45" s="5"/>
       <c r="I45" s="1"/>
       <c r="R45" s="1"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="6"/>
+      <c r="H46" s="5"/>
       <c r="I46" s="1"/>
       <c r="R46" s="1"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="6"/>
+      <c r="H47" s="5"/>
       <c r="I47" s="1"/>
       <c r="R47" s="1"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="6"/>
+      <c r="H48" s="5"/>
       <c r="I48" s="1"/>
       <c r="R48" s="1"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="6"/>
+      <c r="H49" s="5"/>
       <c r="I49" s="1"/>
       <c r="R49" s="1"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="6"/>
+      <c r="H50" s="5"/>
       <c r="I50" s="1"/>
       <c r="R50" s="1"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="6"/>
+      <c r="H51" s="5"/>
       <c r="I51" s="1"/>
       <c r="R51" s="1"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="7"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="6"/>
+      <c r="H52" s="5"/>
       <c r="I52" s="1"/>
       <c r="R52" s="1"/>
     </row>
@@ -1970,451 +1964,451 @@
   <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22" style="3" customWidth="1"/>
-    <col min="2" max="2" width="33.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.6640625" style="3" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.5" style="3" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="22" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="30.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="21.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.5" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="20" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:19" s="19" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:19" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:19" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="M13" s="17"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+    </row>
+    <row r="15" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" s="25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="63"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="M16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" s="28"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="S16" s="63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="63"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="M17" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P17" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:19" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="M13" s="18"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="O15" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="P15" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q15" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="R15" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="S15" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="M16" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="O16" s="29"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="S16" s="60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="M17" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="N17" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="O17" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="P17" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q17" s="22" t="s">
+      <c r="Q17" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="S17" s="60"/>
+      <c r="S17" s="63"/>
     </row>
     <row r="18" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="M18" s="23" t="s">
+      <c r="A18" s="63"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="M18" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O18" s="56"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="22" t="s">
+      <c r="O18" s="59"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="S18" s="60"/>
+      <c r="S18" s="63"/>
     </row>
     <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="G19" s="63"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="22" t="s">
+      <c r="G19" s="66"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="S19" s="60"/>
+      <c r="S19" s="63"/>
     </row>
     <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="P20" s="67" t="s">
+      <c r="H20" s="27"/>
+      <c r="I20" s="26"/>
+      <c r="P20" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="Q20" s="29" t="s">
+      <c r="Q20" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="S20" s="60"/>
+      <c r="S20" s="63"/>
     </row>
     <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="29" t="s">
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="28" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="30" t="s">
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="29" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="P23" s="68"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="P23" s="71"/>
     </row>
     <row r="24" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="P24" s="68"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="P24" s="71"/>
     </row>
     <row r="25" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="P25" s="68"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="P25" s="71"/>
     </row>
     <row r="26" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="P26" s="68"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="P26" s="71"/>
     </row>
     <row r="27" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="P27" s="68"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="P27" s="71"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="P28" s="69"/>
+      <c r="P28" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="15">
